--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-20.xlsx
@@ -673,19 +673,19 @@
         <v>3.2</v>
       </c>
       <c r="H2" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="I2" t="n">
         <v>2.2</v>
       </c>
       <c r="J2" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K2" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="M2" t="n">
         <v>1.02</v>
@@ -709,13 +709,13 @@
         <v>1.98</v>
       </c>
       <c r="T2" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="U2" t="n">
         <v>3</v>
       </c>
       <c r="V2" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="W2" t="n">
         <v>1.45</v>
@@ -805,7 +805,7 @@
         <v>2.2</v>
       </c>
       <c r="G3" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H3" t="n">
         <v>3.35</v>
@@ -814,7 +814,7 @@
         <v>3.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K3" t="n">
         <v>3.95</v>
@@ -835,13 +835,13 @@
         <v>2.04</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="R3" t="n">
         <v>1.4</v>
       </c>
       <c r="S3" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T3" t="n">
         <v>1.73</v>
@@ -853,7 +853,7 @@
         <v>1.41</v>
       </c>
       <c r="W3" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X3" t="n">
         <v>18</v>
@@ -871,7 +871,7 @@
         <v>11.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD3" t="n">
         <v>15</v>
@@ -904,7 +904,7 @@
         <v>110</v>
       </c>
       <c r="AN3" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AO3" t="n">
         <v>36</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="G4" t="n">
         <v>2.86</v>
@@ -967,13 +967,13 @@
         <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R4" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="S4" t="n">
         <v>2.48</v>
@@ -982,7 +982,7 @@
         <v>1.54</v>
       </c>
       <c r="U4" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="V4" t="n">
         <v>1.64</v>
@@ -1033,7 +1033,7 @@
         <v>32</v>
       </c>
       <c r="AL4" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
@@ -1480,7 +1480,7 @@
         <v>2.18</v>
       </c>
       <c r="G8" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="H8" t="n">
         <v>3.15</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.25</v>
+        <v>1.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>2.98</v>
       </c>
       <c r="H12" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="I12" t="n">
         <v>2.56</v>
@@ -2056,7 +2056,7 @@
         <v>1.52</v>
       </c>
       <c r="S12" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="T12" t="n">
         <v>1.62</v>
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="G14" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="I14" t="n">
         <v>4.1</v>
       </c>
       <c r="J14" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K14" t="n">
         <v>4.5</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="G15" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I15" t="n">
         <v>3.05</v>
       </c>
-      <c r="H15" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3.25</v>
-      </c>
       <c r="J15" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K15" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>3.55</v>
       </c>
       <c r="K16" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2581,7 +2581,7 @@
         <v>1.09</v>
       </c>
       <c r="N16" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O16" t="n">
         <v>1.46</v>
@@ -2602,7 +2602,7 @@
         <v>2.08</v>
       </c>
       <c r="U16" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="G17" t="n">
-        <v>1.84</v>
+        <v>1.73</v>
       </c>
       <c r="H17" t="n">
-        <v>2.18</v>
+        <v>5</v>
       </c>
       <c r="I17" t="n">
-        <v>10.5</v>
+        <v>6.2</v>
       </c>
       <c r="J17" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="K17" t="n">
-        <v>950</v>
+        <v>5.1</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>2.24</v>
+        <v>2.44</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="G19" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="H19" t="n">
         <v>3.3</v>
       </c>
       <c r="I19" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="J19" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K19" t="n">
-        <v>6.2</v>
+        <v>4.6</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.24</v>
+        <v>2.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3241,10 +3241,10 @@
         <v>2.56</v>
       </c>
       <c r="I21" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="J21" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K21" t="n">
         <v>3.85</v>
@@ -4315,7 +4315,7 @@
         <v>1.9</v>
       </c>
       <c r="G29" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="H29" t="n">
         <v>4</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="G30" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="I30" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="J30" t="n">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="K30" t="n">
-        <v>4.4</v>
+        <v>3.55</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -4477,10 +4477,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -4612,10 +4612,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -5125,13 +5125,13 @@
         <v>2.66</v>
       </c>
       <c r="G35" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="H35" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="I35" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="J35" t="n">
         <v>3.6</v>
@@ -5149,19 +5149,19 @@
         <v>4.2</v>
       </c>
       <c r="O35" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P35" t="n">
         <v>2.08</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R35" t="n">
         <v>1.42</v>
       </c>
       <c r="S35" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T35" t="n">
         <v>1.69</v>
@@ -5176,7 +5176,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y35" t="n">
         <v>13</v>
@@ -5188,7 +5188,7 @@
         <v>46</v>
       </c>
       <c r="AB35" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC35" t="n">
         <v>8</v>
@@ -5197,10 +5197,10 @@
         <v>13</v>
       </c>
       <c r="AE35" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF35" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AG35" t="n">
         <v>12.5</v>
@@ -5209,7 +5209,7 @@
         <v>17</v>
       </c>
       <c r="AI35" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AJ35" t="n">
         <v>85</v>
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="G36" t="n">
         <v>2.42</v>
@@ -5290,7 +5290,7 @@
         <v>2.16</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R36" t="n">
         <v>1.45</v>
@@ -5299,10 +5299,10 @@
         <v>3.05</v>
       </c>
       <c r="T36" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="U36" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -5326,16 +5326,16 @@
         <v>12.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD36" t="n">
         <v>14</v>
       </c>
       <c r="AE36" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF36" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AG36" t="n">
         <v>11.5</v>
@@ -5356,10 +5356,10 @@
         <v>36</v>
       </c>
       <c r="AM36" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AN36" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AO36" t="n">
         <v>29</v>
@@ -5392,10 +5392,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="G37" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="H37" t="n">
         <v>2.66</v>
@@ -5422,22 +5422,22 @@
         <v>1.24</v>
       </c>
       <c r="P37" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R37" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S37" t="n">
         <v>2.8</v>
       </c>
       <c r="T37" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U37" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -5449,22 +5449,22 @@
         <v>21</v>
       </c>
       <c r="Y37" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z37" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA37" t="n">
         <v>40</v>
       </c>
       <c r="AB37" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC37" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD37" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE37" t="n">
         <v>28</v>
@@ -5476,7 +5476,7 @@
         <v>13</v>
       </c>
       <c r="AH37" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI37" t="n">
         <v>36</v>
@@ -5488,16 +5488,16 @@
         <v>29</v>
       </c>
       <c r="AL37" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM37" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN37" t="n">
+        <v>20</v>
+      </c>
+      <c r="AO37" t="n">
         <v>19</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>18.5</v>
       </c>
     </row>
     <row r="38">
@@ -5533,7 +5533,7 @@
         <v>2.16</v>
       </c>
       <c r="H38" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I38" t="n">
         <v>3.65</v>
@@ -5563,10 +5563,10 @@
         <v>1.54</v>
       </c>
       <c r="R38" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="S38" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="T38" t="n">
         <v>1.52</v>
@@ -5584,13 +5584,13 @@
         <v>27</v>
       </c>
       <c r="Y38" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z38" t="n">
         <v>32</v>
       </c>
       <c r="AA38" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AB38" t="n">
         <v>16</v>
@@ -5620,7 +5620,7 @@
         <v>27</v>
       </c>
       <c r="AK38" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL38" t="n">
         <v>26</v>
@@ -5629,7 +5629,7 @@
         <v>50</v>
       </c>
       <c r="AN38" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO38" t="n">
         <v>22</v>
@@ -5686,16 +5686,16 @@
         <v>1.08</v>
       </c>
       <c r="N39" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O39" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P39" t="n">
         <v>1.89</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="R39" t="n">
         <v>1.34</v>
@@ -5719,7 +5719,7 @@
         <v>13.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z39" t="n">
         <v>24</v>
@@ -5731,7 +5731,7 @@
         <v>10.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD39" t="n">
         <v>14.5</v>
@@ -5740,13 +5740,13 @@
         <v>40</v>
       </c>
       <c r="AF39" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG39" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI39" t="n">
         <v>55</v>
@@ -5806,7 +5806,7 @@
         <v>7.4</v>
       </c>
       <c r="I40" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="J40" t="n">
         <v>4.6</v>
@@ -5830,7 +5830,7 @@
         <v>2.08</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -6097,10 +6097,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>1.25</v>
+        <v>1.92</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -6340,16 +6340,16 @@
         <v>1.22</v>
       </c>
       <c r="G44" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="H44" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="I44" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="J44" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="K44" t="n">
         <v>8.800000000000001</v>
@@ -6367,13 +6367,13 @@
         <v>1.12</v>
       </c>
       <c r="P44" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="R44" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="S44" t="n">
         <v>1.98</v>
@@ -6400,7 +6400,7 @@
         <v>160</v>
       </c>
       <c r="AA44" t="n">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="AB44" t="n">
         <v>13.5</v>
@@ -6556,7 +6556,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH45" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI45" t="n">
         <v>90</v>
@@ -6574,7 +6574,7 @@
         <v>110</v>
       </c>
       <c r="AN45" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AO45" t="n">
         <v>90</v>
@@ -6610,7 +6610,7 @@
         <v>3.85</v>
       </c>
       <c r="G46" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="H46" t="n">
         <v>2.1</v>
@@ -6643,7 +6643,7 @@
         <v>2.04</v>
       </c>
       <c r="R46" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S46" t="n">
         <v>3.7</v>
@@ -6664,7 +6664,7 @@
         <v>14</v>
       </c>
       <c r="Y46" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Z46" t="n">
         <v>13</v>
@@ -6673,7 +6673,7 @@
         <v>26</v>
       </c>
       <c r="AB46" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC46" t="n">
         <v>7.8</v>
@@ -6682,22 +6682,22 @@
         <v>10.5</v>
       </c>
       <c r="AE46" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF46" t="n">
         <v>28</v>
       </c>
       <c r="AG46" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AH46" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI46" t="n">
         <v>40</v>
       </c>
       <c r="AJ46" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AK46" t="n">
         <v>50</v>
@@ -6712,7 +6712,7 @@
         <v>55</v>
       </c>
       <c r="AO46" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="47">
@@ -6778,13 +6778,13 @@
         <v>1.74</v>
       </c>
       <c r="R47" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S47" t="n">
         <v>2.84</v>
       </c>
       <c r="T47" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U47" t="n">
         <v>2.02</v>
@@ -7015,13 +7015,13 @@
         <v>3.55</v>
       </c>
       <c r="G49" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H49" t="n">
         <v>2.22</v>
       </c>
       <c r="I49" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="J49" t="n">
         <v>3.6</v>
@@ -7177,7 +7177,7 @@
         <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q50" t="n">
         <v>1.01</v>
@@ -7282,22 +7282,22 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="G51" t="n">
         <v>4.9</v>
       </c>
       <c r="H51" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="I51" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="J51" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K51" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -7417,40 +7417,40 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="G52" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="H52" t="n">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="I52" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="J52" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K52" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q52" t="n">
         <v>2.02</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K52" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" t="n">
-        <v>0</v>
-      </c>
-      <c r="O52" t="n">
-        <v>0</v>
-      </c>
-      <c r="P52" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>1.92</v>
       </c>
       <c r="R52" t="n">
         <v>0</v>
@@ -8101,10 +8101,10 @@
         <v>1.93</v>
       </c>
       <c r="I57" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="J57" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K57" t="n">
         <v>1000</v>
@@ -8242,7 +8242,7 @@
         <v>3.9</v>
       </c>
       <c r="K58" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -8317,7 +8317,7 @@
         <v>130</v>
       </c>
       <c r="AJ58" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AK58" t="n">
         <v>19</v>
@@ -8671,13 +8671,13 @@
         <v>1.19</v>
       </c>
       <c r="S61" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="T61" t="n">
         <v>2.2</v>
       </c>
       <c r="U61" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
@@ -8902,22 +8902,22 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="G63" t="n">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="H63" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="I63" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="J63" t="n">
         <v>7</v>
       </c>
       <c r="K63" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
@@ -8932,10 +8932,10 @@
         <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>2.4</v>
+        <v>2.72</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="R63" t="n">
         <v>0</v>
@@ -9043,7 +9043,7 @@
         <v>3.65</v>
       </c>
       <c r="H64" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="I64" t="n">
         <v>2.16</v>
@@ -9106,7 +9106,7 @@
         <v>17</v>
       </c>
       <c r="AC64" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD64" t="n">
         <v>10.5</v>
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>3.35</v>
+        <v>2.98</v>
       </c>
       <c r="G65" t="n">
+        <v>5</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="I65" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="J65" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K65" t="n">
         <v>4.8</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="J65" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K65" t="n">
-        <v>5.7</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -9334,7 +9334,7 @@
         <v>5.6</v>
       </c>
       <c r="O66" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P66" t="n">
         <v>2.58</v>
@@ -9577,22 +9577,22 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.04</v>
+        <v>4.1</v>
       </c>
       <c r="G68" t="n">
-        <v>5.7</v>
+        <v>4.9</v>
       </c>
       <c r="H68" t="n">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="I68" t="n">
         <v>2.06</v>
       </c>
       <c r="J68" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="K68" t="n">
-        <v>1000</v>
+        <v>3.9</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -9607,10 +9607,10 @@
         <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>1.25</v>
+        <v>1.76</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="R68" t="n">
         <v>0</v>
@@ -9715,7 +9715,7 @@
         <v>2.58</v>
       </c>
       <c r="G69" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H69" t="n">
         <v>2.38</v>
@@ -9742,10 +9742,10 @@
         <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="R69" t="n">
         <v>0</v>
@@ -9847,10 +9847,10 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1.87</v>
+        <v>1.29</v>
       </c>
       <c r="G70" t="n">
-        <v>2.4</v>
+        <v>2.64</v>
       </c>
       <c r="H70" t="n">
         <v>2.98</v>
@@ -9859,10 +9859,10 @@
         <v>4.4</v>
       </c>
       <c r="J70" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K70" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -9883,10 +9883,10 @@
         <v>1.4</v>
       </c>
       <c r="R70" t="n">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="S70" t="n">
-        <v>1.99</v>
+        <v>1.8</v>
       </c>
       <c r="T70" t="n">
         <v>1.01</v>
@@ -10012,10 +10012,10 @@
         <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="R71" t="n">
         <v>0</v>
@@ -10123,10 +10123,10 @@
         <v>7.2</v>
       </c>
       <c r="H72" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="I72" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="J72" t="n">
         <v>3.9</v>
@@ -10147,10 +10147,10 @@
         <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="R72" t="n">
         <v>0</v>
@@ -10276,7 +10276,7 @@
         <v>1.11</v>
       </c>
       <c r="N73" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O73" t="n">
         <v>1.46</v>
@@ -10297,7 +10297,7 @@
         <v>2.04</v>
       </c>
       <c r="U73" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V73" t="n">
         <v>0</v>
@@ -10306,7 +10306,7 @@
         <v>0</v>
       </c>
       <c r="X73" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Y73" t="n">
         <v>12</v>
@@ -10315,19 +10315,19 @@
         <v>28</v>
       </c>
       <c r="AA73" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AB73" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AC73" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD73" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AE73" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF73" t="n">
         <v>12</v>
@@ -10339,13 +10339,13 @@
         <v>23</v>
       </c>
       <c r="AI73" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ73" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK73" t="n">
         <v>27</v>
-      </c>
-      <c r="AK73" t="n">
-        <v>26</v>
       </c>
       <c r="AL73" t="n">
         <v>55</v>
@@ -10354,10 +10354,10 @@
         <v>190</v>
       </c>
       <c r="AN73" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AO73" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="74">
@@ -10390,7 +10390,7 @@
         <v>1.64</v>
       </c>
       <c r="G74" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="H74" t="n">
         <v>6.4</v>
@@ -10399,10 +10399,10 @@
         <v>7.4</v>
       </c>
       <c r="J74" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="K74" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD75" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE75" t="n">
         <v>18.5</v>
@@ -10627,7 +10627,7 @@
         <v>170</v>
       </c>
       <c r="AO75" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="76">
@@ -10717,7 +10717,7 @@
         <v>10.5</v>
       </c>
       <c r="Z76" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AA76" t="n">
         <v>46</v>
@@ -10753,7 +10753,7 @@
         <v>32</v>
       </c>
       <c r="AL76" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AM76" t="n">
         <v>120</v>
@@ -10762,7 +10762,7 @@
         <v>36</v>
       </c>
       <c r="AO76" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77">
@@ -10807,7 +10807,7 @@
         <v>7.8</v>
       </c>
       <c r="K77" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
@@ -10822,13 +10822,13 @@
         <v>1.12</v>
       </c>
       <c r="P77" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="Q77" t="n">
         <v>1.39</v>
       </c>
       <c r="R77" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="S77" t="n">
         <v>1.95</v>
@@ -10837,7 +10837,7 @@
         <v>1.9</v>
       </c>
       <c r="U77" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="V77" t="n">
         <v>0</v>
@@ -10858,7 +10858,7 @@
         <v>1000</v>
       </c>
       <c r="AB77" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC77" t="n">
         <v>18.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO78"/>
+  <dimension ref="A1:AO79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H2" t="n">
         <v>2.16</v>
       </c>
       <c r="I2" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="J2" t="n">
         <v>4.3</v>
@@ -697,28 +697,28 @@
         <v>1.13</v>
       </c>
       <c r="P2" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="R2" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="S2" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="T2" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="U2" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="V2" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="W2" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X2" t="n">
         <v>46</v>
@@ -820,7 +820,7 @@
         <v>3.95</v>
       </c>
       <c r="L3" t="n">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
@@ -829,40 +829,40 @@
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P3" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="R3" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S3" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="T3" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U3" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V3" t="n">
         <v>1.41</v>
       </c>
       <c r="W3" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="X3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y3" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA3" t="n">
         <v>65</v>
@@ -874,34 +874,34 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD3" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF3" t="n">
         <v>15</v>
       </c>
-      <c r="AE3" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>18</v>
-      </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AJ3" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AK3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL3" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM3" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN3" t="n">
         <v>16.5</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="G4" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="H4" t="n">
         <v>2.52</v>
@@ -961,7 +961,7 @@
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O4" t="n">
         <v>1.2</v>
@@ -970,25 +970,25 @@
         <v>2.46</v>
       </c>
       <c r="Q4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R4" t="n">
         <v>1.61</v>
       </c>
-      <c r="R4" t="n">
-        <v>1.58</v>
-      </c>
       <c r="S4" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="T4" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="U4" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="V4" t="n">
         <v>1.64</v>
       </c>
       <c r="W4" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X4" t="n">
         <v>29</v>
@@ -1000,7 +1000,7 @@
         <v>24</v>
       </c>
       <c r="AA4" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AB4" t="n">
         <v>20</v>
@@ -1009,7 +1009,7 @@
         <v>10.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
         <v>29</v>
@@ -1042,7 +1042,7 @@
         <v>20</v>
       </c>
       <c r="AO4" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -1075,16 +1075,16 @@
         <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I5" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K5" t="n">
         <v>4.1</v>
@@ -1105,7 +1105,7 @@
         <v>1.97</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1213,7 +1213,7 @@
         <v>1.84</v>
       </c>
       <c r="H6" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I6" t="n">
         <v>5</v>
@@ -1240,7 +1240,7 @@
         <v>2.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="G7" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H7" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="I7" t="n">
         <v>4.2</v>
@@ -1357,7 +1357,7 @@
         <v>3.85</v>
       </c>
       <c r="K7" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="Q7" t="n">
         <v>1.65</v>
@@ -1480,16 +1480,16 @@
         <v>2.18</v>
       </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H8" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I8" t="n">
         <v>3.5</v>
       </c>
       <c r="J8" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K8" t="n">
         <v>4.1</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="G9" t="n">
         <v>2.14</v>
       </c>
       <c r="H9" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="I9" t="n">
         <v>4.8</v>
       </c>
       <c r="J9" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K9" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q9" t="n">
         <v>1.52</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Azerbaijan Premier League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,31 +1873,31 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FC Metaloglobus Bucuresti</t>
+          <t>Zira</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>Imisli FK</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="G11" t="n">
-        <v>2.88</v>
+        <v>1.76</v>
       </c>
       <c r="H11" t="n">
-        <v>2.84</v>
+        <v>2.32</v>
       </c>
       <c r="I11" t="n">
-        <v>3.1</v>
+        <v>1000</v>
       </c>
       <c r="J11" t="n">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="K11" t="n">
-        <v>3.55</v>
+        <v>1000</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.7</v>
+        <v>1.51</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1993,7 +1993,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,61 +2008,61 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Boston Utd</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.94</v>
+        <v>1.93</v>
       </c>
       <c r="G12" t="n">
-        <v>2.98</v>
+        <v>2.14</v>
       </c>
       <c r="H12" t="n">
-        <v>2.54</v>
+        <v>3.45</v>
       </c>
       <c r="I12" t="n">
-        <v>2.56</v>
+        <v>4.1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="K12" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
       <c r="R12" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>2.84</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2071,64 +2071,64 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AI12" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AM12" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Azerbaijan Premier League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,31 +2143,31 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Zira</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Imisli FK</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.04</v>
+        <v>2.54</v>
       </c>
       <c r="G13" t="n">
-        <v>1000</v>
+        <v>2.9</v>
       </c>
       <c r="H13" t="n">
-        <v>1.04</v>
+        <v>2.66</v>
       </c>
       <c r="I13" t="n">
-        <v>1000</v>
+        <v>3.05</v>
       </c>
       <c r="J13" t="n">
-        <v>1.01</v>
+        <v>3.3</v>
       </c>
       <c r="K13" t="n">
-        <v>1000</v>
+        <v>3.9</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.24</v>
+        <v>1.93</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.01</v>
+        <v>1.85</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2263,7 +2263,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,61 +2278,61 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Boston Utd</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.93</v>
+        <v>2.9</v>
       </c>
       <c r="G14" t="n">
-        <v>2.16</v>
+        <v>2.94</v>
       </c>
       <c r="H14" t="n">
-        <v>3.35</v>
+        <v>2.56</v>
       </c>
       <c r="I14" t="n">
-        <v>4.1</v>
+        <v>2.6</v>
       </c>
       <c r="J14" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="K14" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
         <v>2.28</v>
       </c>
       <c r="Q14" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="T14" t="n">
         <v>1.62</v>
       </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2341,64 +2341,64 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,31 +2413,31 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>FC Metaloglobus Bucuresti</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Unirea Slobozia</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.52</v>
+        <v>2.7</v>
       </c>
       <c r="G15" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="H15" t="n">
-        <v>2.64</v>
+        <v>2.84</v>
       </c>
       <c r="I15" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="J15" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="K15" t="n">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.94</v>
+        <v>1.71</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.84</v>
+        <v>2.14</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2548,61 +2548,61 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Oviedo</t>
+          <t>Andorra CF</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Deportivo</t>
         </is>
       </c>
       <c r="F16" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K16" t="n">
         <v>3.85</v>
       </c>
-      <c r="G16" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.6</v>
-      </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2611,64 +2611,64 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AG16" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AH16" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AI16" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AK16" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AL16" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AM16" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="AN16" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AO16" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,61 +2683,61 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Rot-Weiss Essen</t>
+          <t>Oviedo</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SSV Ulm</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.59</v>
+        <v>3.85</v>
       </c>
       <c r="G17" t="n">
-        <v>1.73</v>
+        <v>4.1</v>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>2.12</v>
       </c>
       <c r="I17" t="n">
-        <v>6.2</v>
+        <v>2.16</v>
       </c>
       <c r="J17" t="n">
-        <v>4.2</v>
+        <v>3.55</v>
       </c>
       <c r="K17" t="n">
-        <v>5.1</v>
+        <v>3.6</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="P17" t="n">
-        <v>2.44</v>
+        <v>1.72</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.49</v>
+        <v>2.34</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2746,58 +2746,58 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
@@ -2818,31 +2818,31 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Saarbrucken</t>
+          <t>Stuttgart II</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.57</v>
+        <v>1.93</v>
       </c>
       <c r="G18" t="n">
-        <v>1.86</v>
+        <v>2.34</v>
       </c>
       <c r="H18" t="n">
-        <v>2.18</v>
+        <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>9.6</v>
+        <v>4.7</v>
       </c>
       <c r="J18" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="K18" t="n">
-        <v>950</v>
+        <v>5.6</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2.16</v>
+        <v>1.92</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.51</v>
+        <v>1.7</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2953,49 +2953,49 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Waldhof Mannheim</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Ingolstadt</t>
+          <t>Saarbrucken</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.98</v>
+        <v>1.6</v>
       </c>
       <c r="G19" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I19" t="n">
+        <v>980</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>950</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
         <v>2.2</v>
       </c>
-      <c r="H19" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I19" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K19" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.5</v>
-      </c>
       <c r="Q19" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3088,31 +3088,31 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Rot-Weiss Essen</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Stuttgart II</t>
+          <t>SSV Ulm</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.91</v>
+        <v>1.6</v>
       </c>
       <c r="G20" t="n">
-        <v>2.36</v>
+        <v>1.73</v>
       </c>
       <c r="H20" t="n">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="I20" t="n">
-        <v>4.7</v>
+        <v>7</v>
       </c>
       <c r="J20" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="K20" t="n">
-        <v>6.2</v>
+        <v>5.1</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.9</v>
+        <v>2.42</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.7</v>
+        <v>1.56</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3208,7 +3208,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3223,31 +3223,31 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Andorra CF</t>
+          <t>Waldhof Mannheim</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Deportivo</t>
+          <t>Ingolstadt</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.74</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94</v>
+        <v>2.2</v>
       </c>
       <c r="H21" t="n">
-        <v>2.56</v>
+        <v>3.35</v>
       </c>
       <c r="I21" t="n">
-        <v>2.98</v>
+        <v>4.2</v>
       </c>
       <c r="J21" t="n">
-        <v>3.35</v>
+        <v>3.85</v>
       </c>
       <c r="K21" t="n">
-        <v>3.85</v>
+        <v>4.5</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -4180,19 +4180,19 @@
         <v>2.64</v>
       </c>
       <c r="G28" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H28" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="I28" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J28" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="K28" t="n">
-        <v>4.5</v>
+        <v>3.95</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -4207,10 +4207,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -4303,31 +4303,31 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>AC Monza</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.9</v>
+        <v>1.04</v>
       </c>
       <c r="G29" t="n">
-        <v>2.06</v>
+        <v>1000</v>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>1.04</v>
       </c>
       <c r="I29" t="n">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
       <c r="J29" t="n">
-        <v>3.6</v>
+        <v>1.09</v>
       </c>
       <c r="K29" t="n">
-        <v>4.5</v>
+        <v>1000</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -4342,10 +4342,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1.94</v>
+        <v>1.04</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -4438,31 +4438,31 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Venezia</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.3</v>
+        <v>1.93</v>
       </c>
       <c r="G30" t="n">
-        <v>2.6</v>
+        <v>2.06</v>
       </c>
       <c r="H30" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="I30" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="J30" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="K30" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -4477,10 +4477,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.71</v>
+        <v>1.95</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.18</v>
+        <v>1.9</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -4573,28 +4573,28 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Juve Stabia</t>
+          <t>Venezia</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.04</v>
+        <v>2.3</v>
       </c>
       <c r="G31" t="n">
-        <v>2.2</v>
+        <v>2.56</v>
       </c>
       <c r="H31" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="I31" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="J31" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K31" t="n">
         <v>3.55</v>
@@ -4612,10 +4612,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.59</v>
+        <v>1.68</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.38</v>
+        <v>2.16</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4693,7 +4693,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4708,31 +4708,31 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Eyupspor</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Juve Stabia</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>7.8</v>
+        <v>2.04</v>
       </c>
       <c r="G32" t="n">
-        <v>9.6</v>
+        <v>2.2</v>
       </c>
       <c r="H32" t="n">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="I32" t="n">
-        <v>1.48</v>
+        <v>4.9</v>
       </c>
       <c r="J32" t="n">
-        <v>5</v>
+        <v>3.15</v>
       </c>
       <c r="K32" t="n">
-        <v>5.6</v>
+        <v>3.55</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -4747,10 +4747,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>2.24</v>
+        <v>1.59</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.64</v>
+        <v>2.38</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -4828,7 +4828,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,36 +4838,36 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Al-Fateh (KSA)</t>
+          <t>Eyupspor</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.04</v>
+        <v>7.8</v>
       </c>
       <c r="G33" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="H33" t="n">
-        <v>1.04</v>
+        <v>1.44</v>
       </c>
       <c r="I33" t="n">
-        <v>1000</v>
+        <v>1.48</v>
       </c>
       <c r="J33" t="n">
-        <v>1.01</v>
+        <v>5</v>
       </c>
       <c r="K33" t="n">
-        <v>1000</v>
+        <v>5.5</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -4882,10 +4882,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1.24</v>
+        <v>2.24</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Hungarian NB I</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4978,61 +4978,61 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Paks</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.68</v>
+        <v>2.64</v>
       </c>
       <c r="G34" t="n">
-        <v>1.82</v>
+        <v>2.66</v>
       </c>
       <c r="H34" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N34" t="n">
         <v>4.2</v>
       </c>
-      <c r="I34" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J34" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K34" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P34" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.58</v>
+        <v>1.88</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -5041,64 +5041,64 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Z34" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AA34" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AB34" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD34" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AF34" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AI34" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AK34" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AL34" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AM34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AO34" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Hungarian NB I</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5113,61 +5113,61 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Paks</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.66</v>
+        <v>1.69</v>
       </c>
       <c r="G35" t="n">
-        <v>2.7</v>
+        <v>1.83</v>
       </c>
       <c r="H35" t="n">
-        <v>2.86</v>
+        <v>4.7</v>
       </c>
       <c r="I35" t="n">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="J35" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="K35" t="n">
-        <v>3.65</v>
+        <v>4.6</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.88</v>
+        <v>1.68</v>
       </c>
       <c r="R35" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -5176,58 +5176,58 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Z35" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AA35" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AB35" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AC35" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD35" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AE35" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AF35" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AG35" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AH35" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AI35" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AJ35" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AK35" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AL35" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AM35" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN35" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AO35" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -5248,19 +5248,19 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.34</v>
+        <v>2.48</v>
       </c>
       <c r="G36" t="n">
-        <v>2.42</v>
+        <v>2.54</v>
       </c>
       <c r="H36" t="n">
         <v>3.2</v>
@@ -5269,41 +5269,41 @@
         <v>3.3</v>
       </c>
       <c r="J36" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="K36" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N36" t="n">
-        <v>4.4</v>
+        <v>3.65</v>
       </c>
       <c r="O36" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="P36" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U36" t="n">
         <v>2.16</v>
       </c>
-      <c r="Q36" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S36" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T36" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U36" t="n">
-        <v>2.32</v>
-      </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
@@ -5311,64 +5311,64 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>17.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA36" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI36" t="n">
         <v>55</v>
       </c>
-      <c r="AB36" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE36" t="n">
+      <c r="AJ36" t="n">
         <v>36</v>
       </c>
-      <c r="AF36" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI36" t="n">
+      <c r="AK36" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL36" t="n">
         <v>44</v>
       </c>
-      <c r="AJ36" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>36</v>
-      </c>
       <c r="AM36" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AN36" t="n">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="AO36" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5383,61 +5383,61 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Al-Fateh (KSA)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Al-Akhdoud</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.76</v>
+        <v>1.04</v>
       </c>
       <c r="G37" t="n">
-        <v>2.8</v>
+        <v>1000</v>
       </c>
       <c r="H37" t="n">
-        <v>2.66</v>
+        <v>1.04</v>
       </c>
       <c r="I37" t="n">
-        <v>2.72</v>
+        <v>1000</v>
       </c>
       <c r="J37" t="n">
-        <v>3.65</v>
+        <v>1.01</v>
       </c>
       <c r="K37" t="n">
-        <v>3.75</v>
+        <v>1000</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
         <v>1.24</v>
       </c>
-      <c r="P37" t="n">
-        <v>2.32</v>
-      </c>
       <c r="Q37" t="n">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="R37" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -5446,58 +5446,58 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Z37" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AA37" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AB37" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AC37" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD37" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AE37" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AF37" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AG37" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AH37" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AI37" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AJ37" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AK37" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AL37" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AM37" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AN37" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AO37" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -5530,13 +5530,13 @@
         <v>2.1</v>
       </c>
       <c r="G38" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H38" t="n">
         <v>3.5</v>
       </c>
       <c r="I38" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J38" t="n">
         <v>4</v>
@@ -5557,7 +5557,7 @@
         <v>1.17</v>
       </c>
       <c r="P38" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="Q38" t="n">
         <v>1.54</v>
@@ -5599,7 +5599,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD38" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AE38" t="n">
         <v>34</v>
@@ -5626,7 +5626,7 @@
         <v>26</v>
       </c>
       <c r="AM38" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AN38" t="n">
         <v>9.199999999999999</v>
@@ -5653,61 +5653,61 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.46</v>
+        <v>2.72</v>
       </c>
       <c r="G39" t="n">
-        <v>2.54</v>
+        <v>2.78</v>
       </c>
       <c r="H39" t="n">
-        <v>3.2</v>
+        <v>2.72</v>
       </c>
       <c r="I39" t="n">
-        <v>3.3</v>
+        <v>2.76</v>
       </c>
       <c r="J39" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="K39" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N39" t="n">
-        <v>3.65</v>
+        <v>4.9</v>
       </c>
       <c r="O39" t="n">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
       <c r="P39" t="n">
-        <v>1.89</v>
+        <v>2.3</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.04</v>
+        <v>1.72</v>
       </c>
       <c r="R39" t="n">
-        <v>1.34</v>
+        <v>1.53</v>
       </c>
       <c r="S39" t="n">
-        <v>3.75</v>
+        <v>2.78</v>
       </c>
       <c r="T39" t="n">
-        <v>1.81</v>
+        <v>1.61</v>
       </c>
       <c r="U39" t="n">
-        <v>2.16</v>
+        <v>2.56</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -5716,64 +5716,64 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>13.5</v>
+        <v>20</v>
       </c>
       <c r="Y39" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG39" t="n">
         <v>13</v>
       </c>
-      <c r="Z39" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH39" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AI39" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AJ39" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AK39" t="n">
         <v>28</v>
       </c>
       <c r="AL39" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AM39" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="AN39" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AO39" t="n">
-        <v>38</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5783,66 +5783,66 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.5</v>
+        <v>2.36</v>
       </c>
       <c r="G40" t="n">
-        <v>1.55</v>
+        <v>2.42</v>
       </c>
       <c r="H40" t="n">
-        <v>7.4</v>
+        <v>3.2</v>
       </c>
       <c r="I40" t="n">
-        <v>8.6</v>
+        <v>3.3</v>
       </c>
       <c r="J40" t="n">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="K40" t="n">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P40" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -5851,58 +5851,58 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z40" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AA40" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AB40" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC40" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD40" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AE40" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AF40" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AG40" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AI40" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AJ40" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AK40" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL40" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AM40" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AN40" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AO40" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41">
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G41" t="n">
         <v>3.85</v>
@@ -5941,13 +5941,13 @@
         <v>2.12</v>
       </c>
       <c r="I41" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="J41" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K41" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -5965,7 +5965,7 @@
         <v>1.99</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -6058,32 +6058,32 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.88</v>
+        <v>1.5</v>
       </c>
       <c r="G42" t="n">
-        <v>1.91</v>
+        <v>1.54</v>
       </c>
       <c r="H42" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="I42" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="J42" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K42" t="n">
         <v>4.8</v>
       </c>
-      <c r="I42" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J42" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K42" t="n">
-        <v>3.85</v>
-      </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
@@ -6097,10 +6097,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -6205,10 +6205,10 @@
         <v>2.74</v>
       </c>
       <c r="G43" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="H43" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="I43" t="n">
         <v>2.94</v>
@@ -6217,7 +6217,7 @@
         <v>3.35</v>
       </c>
       <c r="K43" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -6313,7 +6313,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6328,61 +6328,61 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Otelul Galati</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Arges Pitesti</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.22</v>
+        <v>1.37</v>
       </c>
       <c r="G44" t="n">
-        <v>1.24</v>
+        <v>1000</v>
       </c>
       <c r="H44" t="n">
-        <v>14</v>
+        <v>1.04</v>
       </c>
       <c r="I44" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="J44" t="n">
-        <v>8.4</v>
+        <v>1.03</v>
       </c>
       <c r="K44" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>3.4</v>
+        <v>1.25</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="R44" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -6391,64 +6391,64 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="Z44" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AA44" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="AB44" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AC44" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AD44" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AE44" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AF44" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AG44" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AH44" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AI44" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ44" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AK44" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AL44" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AM44" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN44" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="AO44" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6463,61 +6463,61 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.71</v>
+        <v>1.86</v>
       </c>
       <c r="G45" t="n">
-        <v>1.72</v>
+        <v>1.91</v>
       </c>
       <c r="H45" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="I45" t="n">
-        <v>5.7</v>
+        <v>4.9</v>
       </c>
       <c r="J45" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="K45" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>2.1</v>
+        <v>1.96</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.87</v>
+        <v>1.74</v>
       </c>
       <c r="R45" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -6526,58 +6526,58 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Z45" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AA45" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AB45" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AC45" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AD45" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AE45" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AF45" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AG45" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AH45" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AI45" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AJ45" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AK45" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AL45" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AM45" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AN45" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AO45" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -6613,7 +6613,7 @@
         <v>3.95</v>
       </c>
       <c r="H46" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="I46" t="n">
         <v>2.14</v>
@@ -6634,7 +6634,7 @@
         <v>3.75</v>
       </c>
       <c r="O46" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P46" t="n">
         <v>1.91</v>
@@ -6643,7 +6643,7 @@
         <v>2.04</v>
       </c>
       <c r="R46" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S46" t="n">
         <v>3.7</v>
@@ -6661,19 +6661,19 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y46" t="n">
         <v>9.4</v>
       </c>
       <c r="Z46" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA46" t="n">
         <v>26</v>
       </c>
       <c r="AB46" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC46" t="n">
         <v>7.8</v>
@@ -6682,22 +6682,22 @@
         <v>10.5</v>
       </c>
       <c r="AE46" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF46" t="n">
         <v>28</v>
       </c>
       <c r="AG46" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH46" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI46" t="n">
         <v>40</v>
       </c>
       <c r="AJ46" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AK46" t="n">
         <v>50</v>
@@ -6706,13 +6706,13 @@
         <v>60</v>
       </c>
       <c r="AM46" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN46" t="n">
         <v>55</v>
       </c>
       <c r="AO46" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
@@ -6748,7 +6748,7 @@
         <v>1.54</v>
       </c>
       <c r="H47" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="I47" t="n">
         <v>7.6</v>
@@ -6784,7 +6784,7 @@
         <v>2.84</v>
       </c>
       <c r="T47" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U47" t="n">
         <v>2.02</v>
@@ -6799,7 +6799,7 @@
         <v>21</v>
       </c>
       <c r="Y47" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="Z47" t="n">
         <v>65</v>
@@ -6853,7 +6853,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6868,127 +6868,127 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Otelul Galati</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Arges Pitesti</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.37</v>
+        <v>1.22</v>
       </c>
       <c r="G48" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H48" t="n">
+        <v>14</v>
+      </c>
+      <c r="I48" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J48" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="K48" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N48" t="n">
+        <v>8</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U48" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>44</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>65</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>160</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>600</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI48" t="n">
         <v>1000</v>
       </c>
-      <c r="H48" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I48" t="n">
+      <c r="AJ48" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM48" t="n">
         <v>1000</v>
       </c>
-      <c r="J48" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="n">
-        <v>0</v>
-      </c>
-      <c r="O48" t="n">
-        <v>0</v>
-      </c>
-      <c r="P48" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R48" t="n">
-        <v>0</v>
-      </c>
-      <c r="S48" t="n">
-        <v>0</v>
-      </c>
-      <c r="T48" t="n">
-        <v>0</v>
-      </c>
-      <c r="U48" t="n">
-        <v>0</v>
-      </c>
-      <c r="V48" t="n">
-        <v>0</v>
-      </c>
-      <c r="W48" t="n">
-        <v>0</v>
-      </c>
-      <c r="X48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>0</v>
-      </c>
       <c r="AN48" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="AO48" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -6998,66 +6998,66 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>12:15:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3.55</v>
+        <v>1.71</v>
       </c>
       <c r="G49" t="n">
-        <v>3.6</v>
+        <v>1.72</v>
       </c>
       <c r="H49" t="n">
-        <v>2.22</v>
+        <v>5.6</v>
       </c>
       <c r="I49" t="n">
-        <v>2.26</v>
+        <v>5.7</v>
       </c>
       <c r="J49" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="K49" t="n">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N49" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="O49" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="P49" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
       <c r="R49" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="S49" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="T49" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="U49" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -7066,64 +7066,64 @@
         <v>0</v>
       </c>
       <c r="X49" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="Y49" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="Z49" t="n">
-        <v>14.5</v>
+        <v>44</v>
       </c>
       <c r="AA49" t="n">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="AB49" t="n">
-        <v>14.5</v>
+        <v>9</v>
       </c>
       <c r="AC49" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD49" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AE49" t="n">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="AF49" t="n">
-        <v>26</v>
+        <v>10.5</v>
       </c>
       <c r="AG49" t="n">
-        <v>15</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH49" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AI49" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AJ49" t="n">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="AK49" t="n">
-        <v>55</v>
+        <v>17.5</v>
       </c>
       <c r="AL49" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AM49" t="n">
         <v>110</v>
       </c>
       <c r="AN49" t="n">
-        <v>95</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO49" t="n">
-        <v>17.5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -7138,61 +7138,61 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.09</v>
+        <v>3.55</v>
       </c>
       <c r="G50" t="n">
-        <v>980</v>
+        <v>3.65</v>
       </c>
       <c r="H50" t="n">
-        <v>1.33</v>
+        <v>2.22</v>
       </c>
       <c r="I50" t="n">
-        <v>980</v>
+        <v>2.26</v>
       </c>
       <c r="J50" t="n">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="K50" t="n">
-        <v>980</v>
+        <v>3.65</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P50" t="n">
-        <v>1.74</v>
+        <v>1.97</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.01</v>
+        <v>1.97</v>
       </c>
       <c r="R50" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="S50" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="T50" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="U50" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -7201,64 +7201,64 @@
         <v>0</v>
       </c>
       <c r="X50" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y50" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z50" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AA50" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AB50" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AC50" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD50" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE50" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AF50" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AG50" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH50" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AI50" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ50" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AK50" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AL50" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM50" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN50" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AO50" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -7268,55 +7268,55 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>12:15:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>FC Oss</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>3.5</v>
+        <v>1.09</v>
       </c>
       <c r="G51" t="n">
-        <v>4.9</v>
+        <v>980</v>
       </c>
       <c r="H51" t="n">
-        <v>1.79</v>
+        <v>1.33</v>
       </c>
       <c r="I51" t="n">
-        <v>2.16</v>
+        <v>980</v>
       </c>
       <c r="J51" t="n">
-        <v>3.9</v>
+        <v>1.7</v>
       </c>
       <c r="K51" t="n">
-        <v>6.8</v>
+        <v>980</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
       </c>
       <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q51" t="n">
         <v>1.01</v>
       </c>
-      <c r="N51" t="n">
-        <v>0</v>
-      </c>
-      <c r="O51" t="n">
-        <v>0</v>
-      </c>
-      <c r="P51" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>1.34</v>
-      </c>
       <c r="R51" t="n">
         <v>0</v>
       </c>
@@ -7324,10 +7324,10 @@
         <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
@@ -7336,64 +7336,64 @@
         <v>0</v>
       </c>
       <c r="X51" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y51" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z51" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA51" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB51" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC51" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD51" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE51" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF51" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG51" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH51" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI51" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ51" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK51" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL51" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM51" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN51" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO51" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -7403,42 +7403,42 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>13:15:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Calcio Avellino SSD</t>
+          <t>FC Oss</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="G52" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="H52" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="I52" t="n">
-        <v>1.92</v>
+        <v>2.12</v>
       </c>
       <c r="J52" t="n">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="K52" t="n">
-        <v>4.2</v>
+        <v>6.2</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -7447,10 +7447,10 @@
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>1.81</v>
+        <v>2.74</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="R52" t="n">
         <v>0</v>
@@ -7459,10 +7459,10 @@
         <v>0</v>
       </c>
       <c r="T52" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U52" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
@@ -7471,64 +7471,64 @@
         <v>0</v>
       </c>
       <c r="X52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -7538,36 +7538,36 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>13:15:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>SS Virtus Verona 1921</t>
+          <t>Calcio Avellino SSD</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Lumezzane</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -7582,10 +7582,10 @@
         <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>1.24</v>
+        <v>1.83</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="R53" t="n">
         <v>0</v>
@@ -7678,12 +7678,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Aurora Pro Patria 1919</t>
+          <t>SS Virtus Verona 1921</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Renate</t>
+          <t>Lumezzane</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -8068,7 +8068,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Hungarian NB I</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -8078,36 +8078,36 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Gyori</t>
+          <t>Aurora Pro Patria 1919</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Puskas Akademia</t>
+          <t>Renate</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -8122,10 +8122,10 @@
         <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>2.02</v>
+        <v>1.24</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
@@ -8203,7 +8203,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -8218,61 +8218,61 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="G58" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="H58" t="n">
-        <v>6.2</v>
+        <v>4.7</v>
       </c>
       <c r="I58" t="n">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="J58" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K58" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>1.85</v>
+        <v>2.32</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.1</v>
+        <v>1.66</v>
       </c>
       <c r="R58" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="S58" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="U58" t="n">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
@@ -8281,64 +8281,64 @@
         <v>0</v>
       </c>
       <c r="X58" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Y58" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="Z58" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AA58" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="AB58" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AC58" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AD58" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AE58" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AF58" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AG58" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AH58" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AI58" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AJ58" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AK58" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AL58" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AM58" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AN58" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AO58" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Hungarian NB I</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -8353,31 +8353,31 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Gyori</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Puskas Akademia</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="G59" t="n">
-        <v>1.83</v>
+        <v>2.12</v>
       </c>
       <c r="H59" t="n">
-        <v>4.7</v>
+        <v>1.89</v>
       </c>
       <c r="I59" t="n">
-        <v>5.4</v>
+        <v>6.6</v>
       </c>
       <c r="J59" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="K59" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -8392,10 +8392,10 @@
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>2.26</v>
+        <v>2.1</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
@@ -8473,7 +8473,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -8483,66 +8483,66 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Sporting Gijon</t>
+          <t>US Cremonese</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.18</v>
+        <v>1.69</v>
       </c>
       <c r="G60" t="n">
-        <v>2.32</v>
+        <v>1.7</v>
       </c>
       <c r="H60" t="n">
-        <v>3.8</v>
+        <v>6.2</v>
       </c>
       <c r="I60" t="n">
-        <v>4.2</v>
+        <v>6.6</v>
       </c>
       <c r="J60" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="K60" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N60" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="O60" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P60" t="n">
-        <v>1.55</v>
+        <v>1.85</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.46</v>
+        <v>2.1</v>
       </c>
       <c r="R60" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="S60" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="T60" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="U60" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
@@ -8551,64 +8551,64 @@
         <v>0</v>
       </c>
       <c r="X60" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y60" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Z60" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AA60" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AB60" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC60" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD60" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AE60" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AF60" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG60" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH60" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI60" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AJ60" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AK60" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AL60" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AM60" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AN60" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AO60" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -8623,61 +8623,61 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Osasuna</t>
+          <t>Tamworth FC</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Alaves</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.38</v>
+        <v>3.05</v>
       </c>
       <c r="G61" t="n">
-        <v>2.44</v>
+        <v>4.9</v>
       </c>
       <c r="H61" t="n">
-        <v>3.7</v>
+        <v>1.93</v>
       </c>
       <c r="I61" t="n">
-        <v>3.85</v>
+        <v>2.32</v>
       </c>
       <c r="J61" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="K61" t="n">
-        <v>3.15</v>
+        <v>4.8</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>2.66</v>
+        <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>1.54</v>
+        <v>1.86</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.74</v>
+        <v>1.68</v>
       </c>
       <c r="R61" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="S61" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="U61" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
@@ -8686,64 +8686,64 @@
         <v>0</v>
       </c>
       <c r="X61" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="Y61" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z61" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AA61" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AB61" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AC61" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AD61" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AE61" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AF61" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AG61" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AH61" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AI61" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AJ61" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AK61" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AL61" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AM61" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="AN61" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AO61" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -8758,31 +8758,31 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Al-Hazm (KSA)</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.04</v>
+        <v>1.21</v>
       </c>
       <c r="G62" t="n">
-        <v>1000</v>
+        <v>1.27</v>
       </c>
       <c r="H62" t="n">
-        <v>1.04</v>
+        <v>14</v>
       </c>
       <c r="I62" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="J62" t="n">
-        <v>1.01</v>
+        <v>6.8</v>
       </c>
       <c r="K62" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -8791,16 +8791,16 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>1.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.15</v>
+        <v>1.44</v>
       </c>
       <c r="R62" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -8893,127 +8893,127 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.21</v>
+        <v>3.55</v>
       </c>
       <c r="G63" t="n">
-        <v>1.28</v>
+        <v>3.65</v>
       </c>
       <c r="H63" t="n">
-        <v>1.04</v>
+        <v>2.12</v>
       </c>
       <c r="I63" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="J63" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K63" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N63" t="n">
+        <v>5</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P63" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S63" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="T63" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U63" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0</v>
+      </c>
+      <c r="X63" t="n">
         <v>21</v>
       </c>
-      <c r="J63" t="n">
-        <v>7</v>
-      </c>
-      <c r="K63" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" t="n">
-        <v>0</v>
-      </c>
-      <c r="O63" t="n">
-        <v>0</v>
-      </c>
-      <c r="P63" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R63" t="n">
-        <v>0</v>
-      </c>
-      <c r="S63" t="n">
-        <v>0</v>
-      </c>
-      <c r="T63" t="n">
-        <v>0</v>
-      </c>
-      <c r="U63" t="n">
-        <v>0</v>
-      </c>
-      <c r="V63" t="n">
-        <v>0</v>
-      </c>
-      <c r="W63" t="n">
-        <v>0</v>
-      </c>
-      <c r="X63" t="n">
-        <v>0</v>
-      </c>
       <c r="Y63" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Z63" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA63" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AB63" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AC63" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD63" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AE63" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AF63" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AG63" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH63" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AI63" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AJ63" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AK63" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AL63" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AM63" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AN63" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AO63" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -9028,61 +9028,61 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>3.55</v>
+        <v>2.18</v>
       </c>
       <c r="G64" t="n">
-        <v>3.65</v>
+        <v>2.24</v>
       </c>
       <c r="H64" t="n">
-        <v>2.14</v>
+        <v>3.4</v>
       </c>
       <c r="I64" t="n">
-        <v>2.16</v>
+        <v>3.5</v>
       </c>
       <c r="J64" t="n">
         <v>3.9</v>
       </c>
       <c r="K64" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N64" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="O64" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="P64" t="n">
-        <v>2.36</v>
+        <v>2.58</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="R64" t="n">
-        <v>1.54</v>
+        <v>1.67</v>
       </c>
       <c r="S64" t="n">
-        <v>2.78</v>
+        <v>2.42</v>
       </c>
       <c r="T64" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="U64" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="V64" t="n">
         <v>0</v>
@@ -9091,64 +9091,64 @@
         <v>0</v>
       </c>
       <c r="X64" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK64" t="n">
         <v>21</v>
       </c>
-      <c r="Y64" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z64" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA64" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB64" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC64" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF64" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG64" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH64" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI64" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ64" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK64" t="n">
-        <v>36</v>
-      </c>
       <c r="AL64" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="AM64" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN64" t="n">
-        <v>30</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO64" t="n">
-        <v>11.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -9163,31 +9163,31 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Tamworth FC</t>
+          <t>Al-Hazm (KSA)</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Al-Ittihad</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2.98</v>
+        <v>1.04</v>
       </c>
       <c r="G65" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="H65" t="n">
-        <v>1.93</v>
+        <v>1.04</v>
       </c>
       <c r="I65" t="n">
-        <v>2.24</v>
+        <v>1000</v>
       </c>
       <c r="J65" t="n">
-        <v>3.3</v>
+        <v>1.01</v>
       </c>
       <c r="K65" t="n">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -9196,16 +9196,16 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O65" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="P65" t="n">
-        <v>1.86</v>
+        <v>1.25</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.67</v>
+        <v>1.15</v>
       </c>
       <c r="R65" t="n">
         <v>0</v>
@@ -9283,7 +9283,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -9298,61 +9298,61 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Osasuna</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Alaves</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2.18</v>
+        <v>2.38</v>
       </c>
       <c r="G66" t="n">
-        <v>2.22</v>
+        <v>2.42</v>
       </c>
       <c r="H66" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I66" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="J66" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="K66" t="n">
-        <v>3.95</v>
+        <v>3.15</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>1.04</v>
+        <v>1.13</v>
       </c>
       <c r="N66" t="n">
-        <v>5.6</v>
+        <v>2.66</v>
       </c>
       <c r="O66" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="R66" t="n">
         <v>1.19</v>
       </c>
-      <c r="P66" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R66" t="n">
-        <v>1.67</v>
-      </c>
       <c r="S66" t="n">
-        <v>2.4</v>
+        <v>5.7</v>
       </c>
       <c r="T66" t="n">
-        <v>1.54</v>
+        <v>2.2</v>
       </c>
       <c r="U66" t="n">
-        <v>2.7</v>
+        <v>1.78</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
@@ -9361,64 +9361,64 @@
         <v>0</v>
       </c>
       <c r="X66" t="n">
-        <v>23</v>
+        <v>8.6</v>
       </c>
       <c r="Y66" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Z66" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AA66" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AB66" t="n">
-        <v>15</v>
+        <v>7.2</v>
       </c>
       <c r="AC66" t="n">
-        <v>9.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD66" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AE66" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ66" t="n">
         <v>36</v>
       </c>
-      <c r="AF66" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG66" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH66" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI66" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ66" t="n">
-        <v>30</v>
-      </c>
       <c r="AK66" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="AL66" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="AM66" t="n">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="AN66" t="n">
-        <v>9.800000000000001</v>
+        <v>38</v>
       </c>
       <c r="AO66" t="n">
-        <v>21</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -9428,36 +9428,36 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Sporting Gijon</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1.75</v>
+        <v>2.22</v>
       </c>
       <c r="G67" t="n">
-        <v>1.82</v>
+        <v>2.34</v>
       </c>
       <c r="H67" t="n">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="I67" t="n">
-        <v>6.4</v>
+        <v>4.2</v>
       </c>
       <c r="J67" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="K67" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -9472,10 +9472,10 @@
         <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>1.73</v>
+        <v>1.55</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.96</v>
+        <v>2.46</v>
       </c>
       <c r="R67" t="n">
         <v>0</v>
@@ -9577,22 +9577,22 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="G68" t="n">
         <v>4.9</v>
       </c>
       <c r="H68" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="I68" t="n">
         <v>2.06</v>
       </c>
       <c r="J68" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K68" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -9688,7 +9688,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -9698,36 +9698,36 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Reggiana</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2.58</v>
+        <v>1.76</v>
       </c>
       <c r="G69" t="n">
-        <v>3.5</v>
+        <v>1.84</v>
       </c>
       <c r="H69" t="n">
-        <v>2.38</v>
+        <v>5.5</v>
       </c>
       <c r="I69" t="n">
-        <v>3</v>
+        <v>6.2</v>
       </c>
       <c r="J69" t="n">
-        <v>2.96</v>
+        <v>3.6</v>
       </c>
       <c r="K69" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -9742,10 +9742,10 @@
         <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>1.66</v>
+        <v>1.76</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="R69" t="n">
         <v>0</v>
@@ -9823,7 +9823,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -9833,42 +9833,42 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>Reggiana</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1.29</v>
+        <v>2.66</v>
       </c>
       <c r="G70" t="n">
-        <v>2.64</v>
+        <v>3.6</v>
       </c>
       <c r="H70" t="n">
-        <v>2.98</v>
+        <v>2.38</v>
       </c>
       <c r="I70" t="n">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="J70" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="K70" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -9877,22 +9877,22 @@
         <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>2.44</v>
+        <v>1.68</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.4</v>
+        <v>1.92</v>
       </c>
       <c r="R70" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="S70" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U70" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V70" t="n">
         <v>0</v>
@@ -9901,64 +9901,64 @@
         <v>0</v>
       </c>
       <c r="X70" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y70" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z70" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA70" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB70" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC70" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD70" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE70" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF70" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG70" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH70" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI70" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ70" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK70" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL70" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM70" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN70" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO70" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -9968,42 +9968,42 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Dynamo Dresden</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="G71" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="H71" t="n">
-        <v>3.85</v>
+        <v>3.2</v>
       </c>
       <c r="I71" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="J71" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K71" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -10012,22 +10012,22 @@
         <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>2.2</v>
+        <v>2.74</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.69</v>
+        <v>1.47</v>
       </c>
       <c r="R71" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="S71" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="T71" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="U71" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="V71" t="n">
         <v>0</v>
@@ -10036,64 +10036,64 @@
         <v>0</v>
       </c>
       <c r="X71" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Y71" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Z71" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AA71" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB71" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC71" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AD71" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AE71" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AF71" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AG71" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AH71" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AI71" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ71" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AK71" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AL71" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AM71" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AN71" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AO71" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -10103,36 +10103,36 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Forest Green</t>
+          <t>Dynamo Dresden</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>5.2</v>
+        <v>1.92</v>
       </c>
       <c r="G72" t="n">
-        <v>7.2</v>
+        <v>2.04</v>
       </c>
       <c r="H72" t="n">
-        <v>1.62</v>
+        <v>3.85</v>
       </c>
       <c r="I72" t="n">
-        <v>1.78</v>
+        <v>4.3</v>
       </c>
       <c r="J72" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="K72" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -10147,10 +10147,10 @@
         <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>2.04</v>
+        <v>2.26</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="R72" t="n">
         <v>0</v>
@@ -10228,7 +10228,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -10243,61 +10243,61 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Forest Green</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2.18</v>
+        <v>5.2</v>
       </c>
       <c r="G73" t="n">
-        <v>2.22</v>
+        <v>6.4</v>
       </c>
       <c r="H73" t="n">
-        <v>4</v>
+        <v>1.63</v>
       </c>
       <c r="I73" t="n">
-        <v>4.3</v>
+        <v>1.78</v>
       </c>
       <c r="J73" t="n">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="K73" t="n">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
       </c>
       <c r="M73" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="O73" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>1.68</v>
+        <v>2.04</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.38</v>
+        <v>1.75</v>
       </c>
       <c r="R73" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="S73" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="T73" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="U73" t="n">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="V73" t="n">
         <v>0</v>
@@ -10306,64 +10306,64 @@
         <v>0</v>
       </c>
       <c r="X73" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y73" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Z73" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AA73" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB73" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC73" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AD73" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AE73" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF73" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AG73" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AH73" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AI73" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AJ73" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AK73" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AL73" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AM73" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="AN73" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AO73" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -10373,66 +10373,66 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Leonesa</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1.64</v>
+        <v>2.18</v>
       </c>
       <c r="G74" t="n">
-        <v>1.75</v>
+        <v>2.22</v>
       </c>
       <c r="H74" t="n">
-        <v>6.4</v>
+        <v>4</v>
       </c>
       <c r="I74" t="n">
-        <v>7.4</v>
+        <v>4.3</v>
       </c>
       <c r="J74" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="K74" t="n">
-        <v>4.1</v>
+        <v>3.35</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="N74" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="O74" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="P74" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="Q74" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="R74" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S74" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="T74" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="U74" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="V74" t="n">
         <v>0</v>
@@ -10441,64 +10441,64 @@
         <v>0</v>
       </c>
       <c r="X74" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y74" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z74" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AA74" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB74" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC74" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AD74" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AE74" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF74" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG74" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH74" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI74" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AJ74" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AK74" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AL74" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM74" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AN74" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AO74" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -10513,61 +10513,61 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>6.4</v>
+        <v>1.23</v>
       </c>
       <c r="G75" t="n">
-        <v>6.6</v>
+        <v>1.25</v>
       </c>
       <c r="H75" t="n">
-        <v>1.65</v>
+        <v>14.5</v>
       </c>
       <c r="I75" t="n">
-        <v>1.67</v>
+        <v>15.5</v>
       </c>
       <c r="J75" t="n">
-        <v>4</v>
+        <v>7.8</v>
       </c>
       <c r="K75" t="n">
-        <v>4.1</v>
+        <v>8</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="N75" t="n">
-        <v>3.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O75" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q75" t="n">
         <v>1.39</v>
       </c>
-      <c r="P75" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>2.16</v>
-      </c>
       <c r="R75" t="n">
-        <v>1.31</v>
+        <v>1.98</v>
       </c>
       <c r="S75" t="n">
-        <v>4</v>
+        <v>1.98</v>
       </c>
       <c r="T75" t="n">
-        <v>2.16</v>
+        <v>1.89</v>
       </c>
       <c r="U75" t="n">
-        <v>1.81</v>
+        <v>2.04</v>
       </c>
       <c r="V75" t="n">
         <v>0</v>
@@ -10576,64 +10576,64 @@
         <v>0</v>
       </c>
       <c r="X75" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="Y75" t="n">
-        <v>7.2</v>
+        <v>65</v>
       </c>
       <c r="Z75" t="n">
-        <v>8.6</v>
+        <v>170</v>
       </c>
       <c r="AA75" t="n">
-        <v>15.5</v>
+        <v>650</v>
       </c>
       <c r="AB75" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC75" t="n">
         <v>18</v>
       </c>
-      <c r="AC75" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="AD75" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>230</v>
+      </c>
+      <c r="AF75" t="n">
         <v>10</v>
       </c>
-      <c r="AE75" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF75" t="n">
-        <v>55</v>
-      </c>
       <c r="AG75" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="AH75" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AI75" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ75" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM75" t="n">
         <v>1000</v>
       </c>
-      <c r="AK75" t="n">
-        <v>130</v>
-      </c>
-      <c r="AL75" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM75" t="n">
-        <v>170</v>
-      </c>
       <c r="AN75" t="n">
-        <v>170</v>
+        <v>3.25</v>
       </c>
       <c r="AO75" t="n">
-        <v>11.5</v>
+        <v>230</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -10648,61 +10648,61 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Leonesa</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2.76</v>
+        <v>1.66</v>
       </c>
       <c r="G76" t="n">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="H76" t="n">
-        <v>2.86</v>
+        <v>6.4</v>
       </c>
       <c r="I76" t="n">
-        <v>2.9</v>
+        <v>7.4</v>
       </c>
       <c r="J76" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="K76" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="O76" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="R76" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="S76" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T76" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="U76" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="V76" t="n">
         <v>0</v>
@@ -10711,64 +10711,64 @@
         <v>0</v>
       </c>
       <c r="X76" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Y76" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="Z76" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AA76" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AB76" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AC76" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="AD76" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AE76" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AF76" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AG76" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AH76" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AI76" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AJ76" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AK76" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AL76" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AM76" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AN76" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AO76" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -10783,255 +10783,390 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1.23</v>
+        <v>6.4</v>
       </c>
       <c r="G77" t="n">
-        <v>1.25</v>
+        <v>6.6</v>
       </c>
       <c r="H77" t="n">
-        <v>14.5</v>
+        <v>1.65</v>
       </c>
       <c r="I77" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="J77" t="n">
+        <v>4</v>
+      </c>
+      <c r="K77" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N77" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O77" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P77" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R77" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U77" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="n">
+        <v>0</v>
+      </c>
+      <c r="X77" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AA77" t="n">
         <v>15.5</v>
       </c>
-      <c r="J77" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="K77" t="n">
-        <v>8</v>
-      </c>
-      <c r="L77" t="n">
-        <v>0</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N77" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="O77" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P77" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="R77" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="S77" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T77" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U77" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="V77" t="n">
-        <v>0</v>
-      </c>
-      <c r="W77" t="n">
-        <v>0</v>
-      </c>
-      <c r="X77" t="n">
-        <v>44</v>
-      </c>
-      <c r="Y77" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z77" t="n">
+      <c r="AB77" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>130</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN77" t="n">
         <v>170</v>
       </c>
-      <c r="AA77" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB77" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC77" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AD77" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE77" t="n">
-        <v>230</v>
-      </c>
-      <c r="AF77" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG77" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH77" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI77" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ77" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK77" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL77" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM77" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN77" t="n">
-        <v>3.2</v>
-      </c>
       <c r="AO77" t="n">
-        <v>230</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
+          <t>English Premier League</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="G78" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H78" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="I78" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J78" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K78" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N78" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O78" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P78" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R78" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U78" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="n">
+        <v>0</v>
+      </c>
+      <c r="X78" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
           <t>Portuguese Primeira Liga</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>2025-12-20</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>17:30:00</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>Club Football Estrela</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>Moreirense</t>
         </is>
       </c>
-      <c r="F78" t="n">
+      <c r="F79" t="n">
         <v>2.42</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G79" t="n">
         <v>2.6</v>
       </c>
-      <c r="H78" t="n">
+      <c r="H79" t="n">
         <v>3.15</v>
       </c>
-      <c r="I78" t="n">
+      <c r="I79" t="n">
         <v>3.55</v>
       </c>
-      <c r="J78" t="n">
+      <c r="J79" t="n">
         <v>3.2</v>
       </c>
-      <c r="K78" t="n">
+      <c r="K79" t="n">
         <v>3.35</v>
       </c>
-      <c r="L78" t="n">
-        <v>0</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0</v>
-      </c>
-      <c r="N78" t="n">
-        <v>0</v>
-      </c>
-      <c r="O78" t="n">
-        <v>0</v>
-      </c>
-      <c r="P78" t="n">
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" t="n">
         <v>1.69</v>
       </c>
-      <c r="Q78" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R78" t="n">
-        <v>0</v>
-      </c>
-      <c r="S78" t="n">
-        <v>0</v>
-      </c>
-      <c r="T78" t="n">
-        <v>0</v>
-      </c>
-      <c r="U78" t="n">
-        <v>0</v>
-      </c>
-      <c r="V78" t="n">
-        <v>0</v>
-      </c>
-      <c r="W78" t="n">
-        <v>0</v>
-      </c>
-      <c r="X78" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y78" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO78" t="n">
+      <c r="Q79" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0</v>
+      </c>
+      <c r="U79" t="n">
+        <v>0</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="n">
+        <v>0</v>
+      </c>
+      <c r="X79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO79" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO79"/>
+  <dimension ref="A1:AO83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="G2" t="n">
         <v>3.25</v>
@@ -706,7 +706,7 @@
         <v>1.88</v>
       </c>
       <c r="S2" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="T2" t="n">
         <v>1.44</v>
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="G3" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="H3" t="n">
         <v>3.35</v>
@@ -814,10 +814,10 @@
         <v>3.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="K3" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L3" t="n">
         <v>1.39</v>
@@ -829,7 +829,7 @@
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P3" t="n">
         <v>2.02</v>
@@ -838,16 +838,16 @@
         <v>1.87</v>
       </c>
       <c r="R3" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S3" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U3" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V3" t="n">
         <v>1.41</v>
@@ -868,10 +868,10 @@
         <v>65</v>
       </c>
       <c r="AB3" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD3" t="n">
         <v>14.5</v>
@@ -904,7 +904,7 @@
         <v>100</v>
       </c>
       <c r="AN3" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AO3" t="n">
         <v>36</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Australian A-League Men</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>07:45:00</t>
+          <t>07:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Perth Glory</t>
+          <t>Bandirmaspor</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Adelaide United</t>
+          <t>Erzurum BB</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.8</v>
+        <v>2.62</v>
       </c>
       <c r="G4" t="n">
-        <v>2.9</v>
+        <v>3.35</v>
       </c>
       <c r="H4" t="n">
-        <v>2.52</v>
+        <v>2.84</v>
       </c>
       <c r="I4" t="n">
-        <v>2.56</v>
+        <v>3.5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.85</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>3.45</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>5.3</v>
+        <v>1.01</v>
       </c>
       <c r="O4" t="n">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>2.46</v>
+        <v>1.61</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.62</v>
+        <v>2.14</v>
       </c>
       <c r="R4" t="n">
-        <v>1.61</v>
+        <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>2.5</v>
+        <v>3.85</v>
       </c>
       <c r="T4" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>2.58</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.64</v>
+        <v>1.4</v>
       </c>
       <c r="W4" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="X4" t="n">
-        <v>29</v>
+        <v>14.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="Z4" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AA4" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AC4" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AE4" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AH4" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AI4" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>07:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>76 Igdir Belediyespor</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>1.74</v>
       </c>
       <c r="G5" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="H5" t="n">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="I5" t="n">
-        <v>4.4</v>
+        <v>6.4</v>
       </c>
       <c r="J5" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K5" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Australian A-League Men</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>07:45:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Perth Glory</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>Adelaide United</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="G6" t="n">
-        <v>1.84</v>
+        <v>2.88</v>
       </c>
       <c r="H6" t="n">
-        <v>4.5</v>
+        <v>2.52</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>2.58</v>
       </c>
       <c r="J6" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="K6" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="Q6" t="n">
         <v>1.62</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,33 +1328,33 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Fortuna Dusseldorf</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="H7" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I7" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="J7" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="K7" t="n">
         <v>4.1</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.32</v>
+        <v>1.99</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,31 +1468,31 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Beyoglu Yeni Carsi</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FC Magdeburg</t>
+          <t>Inegolspor</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="G8" t="n">
-        <v>2.28</v>
+        <v>1000</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>1.01</v>
       </c>
       <c r="I8" t="n">
-        <v>3.5</v>
+        <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>3.85</v>
+        <v>1.01</v>
       </c>
       <c r="K8" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.6</v>
+        <v>1.24</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Hungarian NB I</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,31 +1603,31 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Zalaegerszeg</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MTK Budapest</t>
+          <t>FC Magdeburg</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.89</v>
+        <v>2.18</v>
       </c>
       <c r="G9" t="n">
-        <v>2.14</v>
+        <v>2.28</v>
       </c>
       <c r="H9" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>4.8</v>
+        <v>3.55</v>
       </c>
       <c r="J9" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="K9" t="n">
-        <v>7</v>
+        <v>4.1</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.16</v>
+        <v>2.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>Hungarian NB I</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,31 +1738,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Beyoglu Yeni Carsi</t>
+          <t>Zalaegerszeg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Inegolspor</t>
+          <t>MTK Budapest</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.01</v>
+        <v>1.99</v>
       </c>
       <c r="G10" t="n">
-        <v>1000</v>
+        <v>2.12</v>
       </c>
       <c r="H10" t="n">
-        <v>1.01</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="J10" t="n">
-        <v>1.01</v>
+        <v>3.4</v>
       </c>
       <c r="K10" t="n">
-        <v>1000</v>
+        <v>5.2</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.24</v>
+        <v>2.34</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Azerbaijan Premier League</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,36 +1868,36 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>09:30:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Zira</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Imisli FK</t>
+          <t>Karlsruhe</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="G11" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="H11" t="n">
-        <v>2.32</v>
+        <v>4.5</v>
       </c>
       <c r="I11" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>3.45</v>
+        <v>4.1</v>
       </c>
       <c r="K11" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.51</v>
+        <v>2.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1993,7 +1993,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,37 +2003,37 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>09:30:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Boston Utd</t>
+          <t>Fortuna Dusseldorf</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="G12" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="H12" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="I12" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K12" t="n">
         <v>4.1</v>
       </c>
-      <c r="J12" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4.5</v>
-      </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Azerbaijan Premier League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,31 +2143,31 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Zira</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Imisli FK</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.54</v>
+        <v>1.44</v>
       </c>
       <c r="G13" t="n">
-        <v>2.9</v>
+        <v>1.65</v>
       </c>
       <c r="H13" t="n">
-        <v>2.66</v>
+        <v>5.5</v>
       </c>
       <c r="I13" t="n">
-        <v>3.05</v>
+        <v>13</v>
       </c>
       <c r="J13" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="K13" t="n">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.93</v>
+        <v>1.65</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2263,7 +2263,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,61 +2278,61 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Boston Utd</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.9</v>
+        <v>1.93</v>
       </c>
       <c r="G14" t="n">
-        <v>2.94</v>
+        <v>2.14</v>
       </c>
       <c r="H14" t="n">
-        <v>2.56</v>
+        <v>3.45</v>
       </c>
       <c r="I14" t="n">
-        <v>2.6</v>
+        <v>4.1</v>
       </c>
       <c r="J14" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="K14" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>2.28</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="R14" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2341,64 +2341,64 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AH14" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AM14" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AN14" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AO14" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,31 +2413,31 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FC Metaloglobus Bucuresti</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.7</v>
+        <v>2.52</v>
       </c>
       <c r="G15" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="H15" t="n">
-        <v>2.84</v>
+        <v>2.66</v>
       </c>
       <c r="I15" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="J15" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="K15" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.71</v>
+        <v>1.93</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.14</v>
+        <v>1.85</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,66 +2543,66 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Andorra CF</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Deportivo</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="G16" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="H16" t="n">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="I16" t="n">
-        <v>2.92</v>
+        <v>2.66</v>
       </c>
       <c r="J16" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="K16" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2611,64 +2611,64 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,66 +2678,66 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Oviedo</t>
+          <t>FC Metaloglobus Bucuresti</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Unirea Slobozia</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.85</v>
+        <v>2.7</v>
       </c>
       <c r="G17" t="n">
-        <v>4.1</v>
+        <v>2.86</v>
       </c>
       <c r="H17" t="n">
-        <v>2.12</v>
+        <v>2.84</v>
       </c>
       <c r="I17" t="n">
-        <v>2.16</v>
+        <v>3.15</v>
       </c>
       <c r="J17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K17" t="n">
         <v>3.55</v>
       </c>
-      <c r="K17" t="n">
-        <v>3.6</v>
-      </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.34</v>
+        <v>2.14</v>
       </c>
       <c r="R17" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2746,64 +2746,64 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AI17" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AM17" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AO17" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,31 +2818,31 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Andorra CF</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Stuttgart II</t>
+          <t>Deportivo</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.93</v>
+        <v>2.8</v>
       </c>
       <c r="G18" t="n">
-        <v>2.34</v>
+        <v>2.94</v>
       </c>
       <c r="H18" t="n">
-        <v>3.4</v>
+        <v>2.54</v>
       </c>
       <c r="I18" t="n">
-        <v>4.7</v>
+        <v>3.1</v>
       </c>
       <c r="J18" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>5.6</v>
+        <v>3.85</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2938,7 +2938,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Saarbrucken</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.6</v>
+        <v>2.52</v>
       </c>
       <c r="G19" t="n">
-        <v>1.86</v>
+        <v>2.68</v>
       </c>
       <c r="H19" t="n">
-        <v>2.16</v>
+        <v>2.86</v>
       </c>
       <c r="I19" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X19" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE19" t="n">
         <v>980</v>
       </c>
-      <c r="J19" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>950</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0</v>
-      </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3088,61 +3088,61 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Rot-Weiss Essen</t>
+          <t>Oviedo</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SSV Ulm</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.6</v>
+        <v>3.85</v>
       </c>
       <c r="G20" t="n">
-        <v>1.73</v>
+        <v>4.1</v>
       </c>
       <c r="H20" t="n">
-        <v>5</v>
+        <v>2.12</v>
       </c>
       <c r="I20" t="n">
-        <v>7</v>
+        <v>2.16</v>
       </c>
       <c r="J20" t="n">
-        <v>4.3</v>
+        <v>3.55</v>
       </c>
       <c r="K20" t="n">
-        <v>5.1</v>
+        <v>3.6</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="P20" t="n">
-        <v>2.42</v>
+        <v>1.71</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.56</v>
+        <v>2.34</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -3151,58 +3151,58 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
@@ -3265,7 +3265,7 @@
         <v>2.44</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3343,7 +3343,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,36 +3353,36 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>10:15:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Al-Shabab (KSA)</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>Saarbrucken</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.04</v>
+        <v>1.53</v>
       </c>
       <c r="G22" t="n">
-        <v>1000</v>
+        <v>1.86</v>
       </c>
       <c r="H22" t="n">
-        <v>1.04</v>
+        <v>2.18</v>
       </c>
       <c r="I22" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="J22" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="K22" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.24</v>
+        <v>2.2</v>
       </c>
       <c r="Q22" t="n">
         <v>1.01</v>
@@ -3478,7 +3478,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,36 +3488,36 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Sassari Torres</t>
+          <t>Rot-Weiss Essen</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>SSV Ulm</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.24</v>
+        <v>2.42</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3613,7 +3613,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,36 +3623,36 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Sorrento</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>AZ Picerno ASD</t>
+          <t>Stuttgart II</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.24</v>
+        <v>1.92</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3748,7 +3748,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,36 +3758,36 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>10:15:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Albinoleffe</t>
+          <t>Al-Shabab (KSA)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ASD Alcione</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -3898,12 +3898,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Sassari Torres</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Foggia</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -3937,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="Q26" t="n">
         <v>1.01</v>
@@ -4018,7 +4018,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,36 +4028,36 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>JS Saoura</t>
+          <t>Sorrento</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ES Mostaganem</t>
+          <t>AZ Picerno ASD</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,36 +4163,36 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Padova</t>
+          <t>Albinoleffe</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>ASD Alcione</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>2.58</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -4207,10 +4207,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>1.51</v>
+        <v>1.24</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.38</v>
+        <v>1.01</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -4288,7 +4288,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,36 +4298,36 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>AC Monza</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Foggia</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -4342,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1.04</v>
+        <v>1.25</v>
       </c>
       <c r="Q29" t="n">
         <v>1.01</v>
@@ -4423,7 +4423,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4438,31 +4438,31 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>JS Saoura</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>ES Mostaganem</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.93</v>
+        <v>1.04</v>
       </c>
       <c r="G30" t="n">
-        <v>2.06</v>
+        <v>1000</v>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>1.04</v>
       </c>
       <c r="I30" t="n">
-        <v>4.5</v>
+        <v>1000</v>
       </c>
       <c r="J30" t="n">
-        <v>3.55</v>
+        <v>1.01</v>
       </c>
       <c r="K30" t="n">
-        <v>3.95</v>
+        <v>1000</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -4477,10 +4477,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.95</v>
+        <v>1.24</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.9</v>
+        <v>1.01</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -4573,31 +4573,31 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>Padova</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Venezia</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.3</v>
+        <v>2.64</v>
       </c>
       <c r="G31" t="n">
-        <v>2.56</v>
+        <v>3.7</v>
       </c>
       <c r="H31" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I31" t="n">
         <v>3.3</v>
       </c>
-      <c r="I31" t="n">
-        <v>4.3</v>
-      </c>
       <c r="J31" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="K31" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -4612,10 +4612,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.68</v>
+        <v>1.51</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.16</v>
+        <v>2.38</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4708,31 +4708,31 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>AC Monza</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Juve Stabia</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.04</v>
+        <v>1.52</v>
       </c>
       <c r="G32" t="n">
-        <v>2.2</v>
+        <v>1.82</v>
       </c>
       <c r="H32" t="n">
-        <v>4.1</v>
+        <v>5.2</v>
       </c>
       <c r="I32" t="n">
-        <v>4.9</v>
+        <v>10</v>
       </c>
       <c r="J32" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="K32" t="n">
-        <v>3.55</v>
+        <v>5.7</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -4747,10 +4747,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1.59</v>
+        <v>1.68</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -4828,7 +4828,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4843,31 +4843,31 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Eyupspor</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>7.8</v>
+        <v>1.93</v>
       </c>
       <c r="G33" t="n">
-        <v>10.5</v>
+        <v>2.06</v>
       </c>
       <c r="H33" t="n">
-        <v>1.44</v>
+        <v>4</v>
       </c>
       <c r="I33" t="n">
-        <v>1.48</v>
+        <v>4.5</v>
       </c>
       <c r="J33" t="n">
-        <v>5</v>
+        <v>3.55</v>
       </c>
       <c r="K33" t="n">
-        <v>5.5</v>
+        <v>3.95</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -4882,10 +4882,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.24</v>
+        <v>1.94</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.64</v>
+        <v>1.78</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,66 +4973,66 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Venezia</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.64</v>
+        <v>2.32</v>
       </c>
       <c r="G34" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="H34" t="n">
-        <v>2.88</v>
+        <v>3.3</v>
       </c>
       <c r="I34" t="n">
-        <v>2.9</v>
+        <v>3.85</v>
       </c>
       <c r="J34" t="n">
-        <v>3.6</v>
+        <v>3.05</v>
       </c>
       <c r="K34" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.08</v>
+        <v>1.7</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.88</v>
+        <v>2.2</v>
       </c>
       <c r="R34" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -5041,64 +5041,64 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Z34" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AB34" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AC34" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD34" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AE34" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AF34" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AG34" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AH34" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AI34" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AJ34" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AK34" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AL34" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AM34" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN34" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AO34" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Hungarian NB I</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,36 +5108,36 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Paks</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>Juve Stabia</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.69</v>
+        <v>2.04</v>
       </c>
       <c r="G35" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="H35" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="I35" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="J35" t="n">
-        <v>3.95</v>
+        <v>3.15</v>
       </c>
       <c r="K35" t="n">
-        <v>4.6</v>
+        <v>3.55</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -5152,10 +5152,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>2.18</v>
+        <v>1.59</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.68</v>
+        <v>2.38</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -5233,7 +5233,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,66 +5243,66 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Eyupspor</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.48</v>
+        <v>7</v>
       </c>
       <c r="G36" t="n">
-        <v>2.54</v>
+        <v>10</v>
       </c>
       <c r="H36" t="n">
-        <v>3.2</v>
+        <v>1.43</v>
       </c>
       <c r="I36" t="n">
-        <v>3.3</v>
+        <v>1.48</v>
       </c>
       <c r="J36" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="K36" t="n">
-        <v>3.45</v>
+        <v>5.5</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>1.89</v>
+        <v>2.22</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.06</v>
+        <v>1.66</v>
       </c>
       <c r="R36" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -5311,64 +5311,64 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="Z36" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AA36" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AB36" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AC36" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AD36" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AE36" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AF36" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AG36" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AH36" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AI36" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AJ36" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AK36" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AL36" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AM36" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AN36" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AO36" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5383,127 +5383,127 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Al-Fateh (KSA)</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.04</v>
+        <v>2.62</v>
       </c>
       <c r="G37" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K37" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N37" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U37" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM37" t="n">
         <v>1000</v>
       </c>
-      <c r="H37" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>0</v>
-      </c>
       <c r="AN37" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AO37" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5518,61 +5518,61 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Al-Fateh (KSA)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Al-Akhdoud</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.1</v>
+        <v>1.04</v>
       </c>
       <c r="G38" t="n">
-        <v>2.14</v>
+        <v>1000</v>
       </c>
       <c r="H38" t="n">
-        <v>3.5</v>
+        <v>1.04</v>
       </c>
       <c r="I38" t="n">
-        <v>3.6</v>
+        <v>1000</v>
       </c>
       <c r="J38" t="n">
-        <v>4</v>
+        <v>1.01</v>
       </c>
       <c r="K38" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>2.74</v>
+        <v>1.24</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="R38" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -5581,58 +5581,58 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Z38" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AA38" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AB38" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AC38" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD38" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AE38" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AF38" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AG38" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AH38" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AI38" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AJ38" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AK38" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AL38" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AM38" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AN38" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AO38" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -5653,61 +5653,61 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.72</v>
+        <v>2.44</v>
       </c>
       <c r="G39" t="n">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="H39" t="n">
-        <v>2.72</v>
+        <v>3.25</v>
       </c>
       <c r="I39" t="n">
-        <v>2.76</v>
+        <v>3.35</v>
       </c>
       <c r="J39" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="K39" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N39" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S39" t="n">
         <v>3.75</v>
       </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N39" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P39" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S39" t="n">
-        <v>2.78</v>
-      </c>
       <c r="T39" t="n">
-        <v>1.61</v>
+        <v>1.8</v>
       </c>
       <c r="U39" t="n">
-        <v>2.56</v>
+        <v>2.16</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -5716,64 +5716,64 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>20</v>
+        <v>13.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AA39" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE39" t="n">
         <v>40</v>
       </c>
-      <c r="AB39" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>27</v>
-      </c>
       <c r="AF39" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AG39" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH39" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AI39" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ39" t="n">
         <v>36</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>42</v>
       </c>
       <c r="AK39" t="n">
         <v>28</v>
       </c>
       <c r="AL39" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AM39" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="AN39" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AO39" t="n">
-        <v>18.5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Hungarian NB I</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5788,61 +5788,61 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Paks</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.36</v>
+        <v>1.69</v>
       </c>
       <c r="G40" t="n">
-        <v>2.42</v>
+        <v>1.83</v>
       </c>
       <c r="H40" t="n">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="I40" t="n">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="J40" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="K40" t="n">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="R40" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -5851,64 +5851,64 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Z40" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AA40" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AB40" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AC40" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD40" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AE40" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AF40" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AG40" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AH40" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AI40" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AJ40" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AK40" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AL40" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AM40" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AN40" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AO40" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5918,66 +5918,66 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3.45</v>
+        <v>2.1</v>
       </c>
       <c r="G41" t="n">
-        <v>3.85</v>
+        <v>2.14</v>
       </c>
       <c r="H41" t="n">
-        <v>2.12</v>
+        <v>3.5</v>
       </c>
       <c r="I41" t="n">
-        <v>2.28</v>
+        <v>3.7</v>
       </c>
       <c r="J41" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="K41" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="P41" t="n">
-        <v>1.99</v>
+        <v>2.74</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.87</v>
+        <v>1.54</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -5986,64 +5986,64 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Z41" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AA41" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB41" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AC41" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD41" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AE41" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AF41" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AG41" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AI41" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AJ41" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AK41" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AL41" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AM41" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AN41" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO41" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6053,66 +6053,66 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.5</v>
+        <v>2.36</v>
       </c>
       <c r="G42" t="n">
-        <v>1.54</v>
+        <v>2.42</v>
       </c>
       <c r="H42" t="n">
-        <v>7.6</v>
+        <v>3.15</v>
       </c>
       <c r="I42" t="n">
-        <v>8.800000000000001</v>
+        <v>3.25</v>
       </c>
       <c r="J42" t="n">
-        <v>4.6</v>
+        <v>3.65</v>
       </c>
       <c r="K42" t="n">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P42" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -6121,64 +6121,64 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AA42" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AB42" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC42" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD42" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AE42" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AF42" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AG42" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AI42" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AJ42" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AK42" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL42" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AM42" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AN42" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AO42" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6188,66 +6188,66 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="F43" t="n">
         <v>2.74</v>
       </c>
       <c r="G43" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="H43" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I43" t="n">
         <v>2.74</v>
       </c>
-      <c r="I43" t="n">
-        <v>2.94</v>
-      </c>
       <c r="J43" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="K43" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P43" t="n">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -6256,64 +6256,64 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z43" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA43" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AB43" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AC43" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD43" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AE43" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AF43" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AG43" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH43" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AI43" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AJ43" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AK43" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AL43" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AM43" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AN43" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AO43" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6328,121 +6328,121 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Otelul Galati</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Arges Pitesti</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="G44" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H44" t="n">
+        <v>14</v>
+      </c>
+      <c r="I44" t="n">
+        <v>15</v>
+      </c>
+      <c r="J44" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="K44" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N44" t="n">
+        <v>8</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U44" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>48</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>65</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>160</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>600</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI44" t="n">
         <v>1000</v>
       </c>
-      <c r="H44" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I44" t="n">
+      <c r="AJ44" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM44" t="n">
         <v>1000</v>
       </c>
-      <c r="J44" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K44" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>0</v>
-      </c>
       <c r="AN44" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="AO44" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45">
@@ -6463,31 +6463,31 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.86</v>
+        <v>3.45</v>
       </c>
       <c r="G45" t="n">
-        <v>1.91</v>
+        <v>3.85</v>
       </c>
       <c r="H45" t="n">
-        <v>4.8</v>
+        <v>2.12</v>
       </c>
       <c r="I45" t="n">
-        <v>4.9</v>
+        <v>2.28</v>
       </c>
       <c r="J45" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K45" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -6502,10 +6502,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.74</v>
+        <v>1.87</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -6583,7 +6583,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6598,61 +6598,61 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>3.85</v>
+        <v>1.5</v>
       </c>
       <c r="G46" t="n">
-        <v>3.95</v>
+        <v>1.54</v>
       </c>
       <c r="H46" t="n">
-        <v>2.12</v>
+        <v>7.6</v>
       </c>
       <c r="I46" t="n">
-        <v>2.14</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J46" t="n">
-        <v>3.65</v>
+        <v>4.6</v>
       </c>
       <c r="K46" t="n">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.04</v>
+        <v>1.64</v>
       </c>
       <c r="R46" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -6661,64 +6661,64 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="Z46" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AA46" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AB46" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AC46" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AD46" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AE46" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AF46" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AG46" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AH46" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AI46" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AJ46" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AK46" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AL46" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AM46" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AN46" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AO46" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6733,61 +6733,61 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.52</v>
+        <v>2.74</v>
       </c>
       <c r="G47" t="n">
-        <v>1.54</v>
+        <v>2.82</v>
       </c>
       <c r="H47" t="n">
-        <v>7.2</v>
+        <v>2.74</v>
       </c>
       <c r="I47" t="n">
-        <v>7.6</v>
+        <v>2.94</v>
       </c>
       <c r="J47" t="n">
-        <v>4.7</v>
+        <v>3.35</v>
       </c>
       <c r="K47" t="n">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>2.3</v>
+        <v>1.93</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.74</v>
+        <v>1.9</v>
       </c>
       <c r="R47" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>2.84</v>
+        <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
@@ -6796,64 +6796,64 @@
         <v>0</v>
       </c>
       <c r="X47" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Y47" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="Z47" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AA47" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="AB47" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC47" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AD47" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AE47" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AF47" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AG47" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AH47" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AI47" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AJ47" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AK47" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AL47" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AM47" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AN47" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="AO47" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6868,61 +6868,61 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.22</v>
+        <v>1.88</v>
       </c>
       <c r="G48" t="n">
-        <v>1.24</v>
+        <v>1.99</v>
       </c>
       <c r="H48" t="n">
-        <v>14</v>
+        <v>4.3</v>
       </c>
       <c r="I48" t="n">
-        <v>15.5</v>
+        <v>4.9</v>
       </c>
       <c r="J48" t="n">
-        <v>8.4</v>
+        <v>3.6</v>
       </c>
       <c r="K48" t="n">
-        <v>8.800000000000001</v>
+        <v>3.9</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>3.35</v>
+        <v>1.97</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.4</v>
+        <v>1.86</v>
       </c>
       <c r="R48" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="U48" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
@@ -6931,58 +6931,58 @@
         <v>0</v>
       </c>
       <c r="X48" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="Y48" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="Z48" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AA48" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="AB48" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AC48" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AD48" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AE48" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AF48" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AG48" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AH48" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AI48" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ48" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AK48" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AL48" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AM48" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN48" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="AO48" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -7012,16 +7012,16 @@
         </is>
       </c>
       <c r="F49" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G49" t="n">
         <v>1.71</v>
-      </c>
-      <c r="G49" t="n">
-        <v>1.72</v>
       </c>
       <c r="H49" t="n">
         <v>5.6</v>
       </c>
       <c r="I49" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J49" t="n">
         <v>4.2</v>
@@ -7054,7 +7054,7 @@
         <v>3.2</v>
       </c>
       <c r="T49" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U49" t="n">
         <v>2.08</v>
@@ -7096,7 +7096,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH49" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI49" t="n">
         <v>90</v>
@@ -7123,7 +7123,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -7133,30 +7133,30 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>12:15:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="G50" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="H50" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="I50" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="J50" t="n">
         <v>3.6</v>
@@ -7168,31 +7168,31 @@
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N50" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="O50" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="P50" t="n">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="R50" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="S50" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="T50" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="U50" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -7201,64 +7201,64 @@
         <v>0</v>
       </c>
       <c r="X50" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Y50" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="Z50" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA50" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB50" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC50" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD50" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE50" t="n">
         <v>24</v>
       </c>
       <c r="AF50" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AG50" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI50" t="n">
         <v>40</v>
       </c>
       <c r="AJ50" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AK50" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL50" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM50" t="n">
         <v>110</v>
       </c>
       <c r="AN50" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AO50" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -7268,66 +7268,66 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>12:15:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.09</v>
+        <v>1.52</v>
       </c>
       <c r="G51" t="n">
-        <v>980</v>
+        <v>1.53</v>
       </c>
       <c r="H51" t="n">
-        <v>1.33</v>
+        <v>7.2</v>
       </c>
       <c r="I51" t="n">
-        <v>980</v>
+        <v>7.6</v>
       </c>
       <c r="J51" t="n">
-        <v>1.7</v>
+        <v>4.7</v>
       </c>
       <c r="K51" t="n">
-        <v>980</v>
+        <v>4.8</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P51" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q51" t="n">
         <v>1.74</v>
       </c>
-      <c r="Q51" t="n">
-        <v>1.01</v>
-      </c>
       <c r="R51" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="S51" t="n">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="T51" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="U51" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
@@ -7336,64 +7336,64 @@
         <v>0</v>
       </c>
       <c r="X51" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y51" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Z51" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AA51" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="AB51" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC51" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD51" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AE51" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AF51" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG51" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH51" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI51" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AJ51" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AK51" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AL51" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AM51" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN51" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AO51" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -7403,42 +7403,42 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>FC Oss</t>
+          <t>Otelul Galati</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Arges Pitesti</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>3.6</v>
+        <v>1.37</v>
       </c>
       <c r="G52" t="n">
-        <v>5.1</v>
+        <v>1000</v>
       </c>
       <c r="H52" t="n">
-        <v>1.81</v>
+        <v>1.04</v>
       </c>
       <c r="I52" t="n">
-        <v>2.12</v>
+        <v>1000</v>
       </c>
       <c r="J52" t="n">
-        <v>3.95</v>
+        <v>1.03</v>
       </c>
       <c r="K52" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -7447,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>2.74</v>
+        <v>1.25</v>
       </c>
       <c r="Q52" t="n">
         <v>1.01</v>
@@ -7459,10 +7459,10 @@
         <v>0</v>
       </c>
       <c r="T52" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U52" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
@@ -7471,64 +7471,64 @@
         <v>0</v>
       </c>
       <c r="X52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -7538,36 +7538,36 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>13:15:00</t>
+          <t>12:15:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Calcio Avellino SSD</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="G53" t="n">
-        <v>6.4</v>
+        <v>3.85</v>
       </c>
       <c r="H53" t="n">
-        <v>1.78</v>
+        <v>2.34</v>
       </c>
       <c r="I53" t="n">
-        <v>1.97</v>
+        <v>2.56</v>
       </c>
       <c r="J53" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="K53" t="n">
-        <v>4.1</v>
+        <v>3.55</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -7582,10 +7582,10 @@
         <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="R53" t="n">
         <v>0</v>
@@ -7663,7 +7663,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -7673,66 +7673,66 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>12:15:00</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>SS Virtus Verona 1921</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Lumezzane</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P54" t="n">
-        <v>1.24</v>
+        <v>1.97</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.01</v>
+        <v>1.97</v>
       </c>
       <c r="R54" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="S54" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="T54" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="U54" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
@@ -7741,64 +7741,64 @@
         <v>0</v>
       </c>
       <c r="X54" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y54" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z54" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AA54" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AB54" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AC54" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD54" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE54" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AF54" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AG54" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH54" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AI54" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ54" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AK54" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AL54" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM54" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN54" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AO54" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -7808,42 +7808,42 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>ASD Pineto Calcio</t>
+          <t>FC Oss</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -7852,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>1.24</v>
+        <v>2.74</v>
       </c>
       <c r="Q55" t="n">
         <v>1.01</v>
@@ -7864,10 +7864,10 @@
         <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U55" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
@@ -7876,64 +7876,64 @@
         <v>0</v>
       </c>
       <c r="X55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -7943,36 +7943,36 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Livorno</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Keciorengucu</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -7987,10 +7987,10 @@
         <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>1.24</v>
+        <v>2.36</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
@@ -8068,7 +8068,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -8078,36 +8078,36 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>13:15:00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Aurora Pro Patria 1919</t>
+          <t>Calcio Avellino SSD</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Renate</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -8122,10 +8122,10 @@
         <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>1.24</v>
+        <v>1.85</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
@@ -8203,7 +8203,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -8213,36 +8213,36 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>SS Virtus Verona 1921</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Lumezzane</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -8257,10 +8257,10 @@
         <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>2.32</v>
+        <v>1.24</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.66</v>
+        <v>1.01</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
@@ -8338,7 +8338,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Hungarian NB I</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -8348,36 +8348,36 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Gyori</t>
+          <t>ASD Pineto Calcio</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Puskas Akademia</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -8392,10 +8392,10 @@
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>2.1</v>
+        <v>1.24</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
@@ -8473,7 +8473,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -8483,66 +8483,66 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Livorno</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>1.85</v>
+        <v>1.24</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.1</v>
+        <v>1.01</v>
       </c>
       <c r="R60" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="S60" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="U60" t="n">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
@@ -8551,64 +8551,64 @@
         <v>0</v>
       </c>
       <c r="X60" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Y60" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="Z60" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AA60" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="AB60" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AC60" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AD60" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AE60" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AF60" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AG60" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AH60" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AI60" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AJ60" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AK60" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AL60" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AM60" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AN60" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AO60" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -8618,36 +8618,36 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Tamworth FC</t>
+          <t>Aurora Pro Patria 1919</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Renate</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -8662,10 +8662,10 @@
         <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>1.86</v>
+        <v>1.25</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
       <c r="R61" t="n">
         <v>0</v>
@@ -8743,7 +8743,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -8753,36 +8753,36 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.21</v>
+        <v>1.71</v>
       </c>
       <c r="G62" t="n">
-        <v>1.27</v>
+        <v>1.81</v>
       </c>
       <c r="H62" t="n">
-        <v>14</v>
+        <v>4.7</v>
       </c>
       <c r="I62" t="n">
-        <v>21</v>
+        <v>5.3</v>
       </c>
       <c r="J62" t="n">
-        <v>6.8</v>
+        <v>4</v>
       </c>
       <c r="K62" t="n">
-        <v>8.6</v>
+        <v>4.6</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -8797,10 +8797,10 @@
         <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>2.8</v>
+        <v>2.34</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.44</v>
+        <v>1.64</v>
       </c>
       <c r="R62" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Hungarian NB I</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -8888,66 +8888,66 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Gyori</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Puskas Akademia</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>3.55</v>
+        <v>1.69</v>
       </c>
       <c r="G63" t="n">
-        <v>3.65</v>
+        <v>2.12</v>
       </c>
       <c r="H63" t="n">
-        <v>2.12</v>
+        <v>1.89</v>
       </c>
       <c r="I63" t="n">
-        <v>2.16</v>
+        <v>7.4</v>
       </c>
       <c r="J63" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="K63" t="n">
-        <v>3.95</v>
+        <v>1000</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>2.34</v>
+        <v>2.1</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="R63" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="S63" t="n">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="T63" t="n">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="U63" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
@@ -8956,64 +8956,64 @@
         <v>0</v>
       </c>
       <c r="X63" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Y63" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="Z63" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AA63" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AB63" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AC63" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD63" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AE63" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AF63" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AG63" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AH63" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AI63" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AJ63" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AK63" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AL63" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AM63" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AN63" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AO63" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -9023,66 +9023,66 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>US Cremonese</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2.18</v>
+        <v>1.69</v>
       </c>
       <c r="G64" t="n">
-        <v>2.24</v>
+        <v>1.7</v>
       </c>
       <c r="H64" t="n">
-        <v>3.4</v>
+        <v>6.2</v>
       </c>
       <c r="I64" t="n">
-        <v>3.5</v>
+        <v>6.6</v>
       </c>
       <c r="J64" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K64" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N64" t="n">
-        <v>5.6</v>
+        <v>3.6</v>
       </c>
       <c r="O64" t="n">
-        <v>1.2</v>
+        <v>1.37</v>
       </c>
       <c r="P64" t="n">
-        <v>2.58</v>
+        <v>1.85</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.62</v>
+        <v>2.1</v>
       </c>
       <c r="R64" t="n">
-        <v>1.67</v>
+        <v>1.32</v>
       </c>
       <c r="S64" t="n">
-        <v>2.42</v>
+        <v>3.85</v>
       </c>
       <c r="T64" t="n">
-        <v>1.55</v>
+        <v>2.06</v>
       </c>
       <c r="U64" t="n">
-        <v>2.7</v>
+        <v>1.88</v>
       </c>
       <c r="V64" t="n">
         <v>0</v>
@@ -9091,64 +9091,64 @@
         <v>0</v>
       </c>
       <c r="X64" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Y64" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z64" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="AA64" t="n">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="AB64" t="n">
-        <v>15</v>
+        <v>7.6</v>
       </c>
       <c r="AC64" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="AD64" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ64" t="n">
         <v>16.5</v>
       </c>
-      <c r="AE64" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF64" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG64" t="n">
+      <c r="AK64" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN64" t="n">
         <v>12</v>
       </c>
-      <c r="AH64" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI64" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ64" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK64" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL64" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM64" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN64" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="AO64" t="n">
-        <v>21</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -9163,31 +9163,31 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Al-Hazm (KSA)</t>
+          <t>Tamworth FC</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.04</v>
+        <v>3</v>
       </c>
       <c r="G65" t="n">
-        <v>1000</v>
+        <v>4.9</v>
       </c>
       <c r="H65" t="n">
-        <v>1.04</v>
+        <v>1.93</v>
       </c>
       <c r="I65" t="n">
-        <v>1000</v>
+        <v>2.32</v>
       </c>
       <c r="J65" t="n">
-        <v>1.01</v>
+        <v>3.3</v>
       </c>
       <c r="K65" t="n">
-        <v>1000</v>
+        <v>4.8</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -9196,16 +9196,16 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="O65" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>1.25</v>
+        <v>1.86</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.15</v>
+        <v>1.68</v>
       </c>
       <c r="R65" t="n">
         <v>0</v>
@@ -9283,7 +9283,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -9298,61 +9298,61 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Osasuna</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Alaves</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2.38</v>
+        <v>1.21</v>
       </c>
       <c r="G66" t="n">
-        <v>2.42</v>
+        <v>1.28</v>
       </c>
       <c r="H66" t="n">
-        <v>3.7</v>
+        <v>14</v>
       </c>
       <c r="I66" t="n">
-        <v>3.85</v>
+        <v>21</v>
       </c>
       <c r="J66" t="n">
-        <v>3.1</v>
+        <v>6.8</v>
       </c>
       <c r="K66" t="n">
-        <v>3.15</v>
+        <v>8.4</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>2.66</v>
+        <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>1.54</v>
+        <v>2.74</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.74</v>
+        <v>1.44</v>
       </c>
       <c r="R66" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="S66" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="T66" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="U66" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
@@ -9361,64 +9361,64 @@
         <v>0</v>
       </c>
       <c r="X66" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="Y66" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z66" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AA66" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AB66" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AC66" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AD66" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AE66" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AF66" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AG66" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AH66" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AI66" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AJ66" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AK66" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AL66" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AM66" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="AN66" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AO66" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -9433,61 +9433,61 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Sporting Gijon</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2.22</v>
+        <v>3.55</v>
       </c>
       <c r="G67" t="n">
-        <v>2.34</v>
+        <v>3.65</v>
       </c>
       <c r="H67" t="n">
-        <v>3.8</v>
+        <v>2.12</v>
       </c>
       <c r="I67" t="n">
-        <v>4.2</v>
+        <v>2.14</v>
       </c>
       <c r="J67" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="K67" t="n">
-        <v>3.4</v>
+        <v>3.95</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P67" t="n">
-        <v>1.55</v>
+        <v>2.36</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.46</v>
+        <v>1.71</v>
       </c>
       <c r="R67" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="S67" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="T67" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="U67" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="V67" t="n">
         <v>0</v>
@@ -9496,64 +9496,64 @@
         <v>0</v>
       </c>
       <c r="X67" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y67" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Z67" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA67" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AB67" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AC67" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD67" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AE67" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AF67" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AG67" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH67" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AI67" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AJ67" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AK67" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AL67" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AM67" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AN67" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AO67" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -9563,66 +9563,66 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>UTA Arad</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Dinamo Bucharest</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>4</v>
+        <v>2.16</v>
       </c>
       <c r="G68" t="n">
-        <v>4.9</v>
+        <v>2.22</v>
       </c>
       <c r="H68" t="n">
-        <v>1.93</v>
+        <v>3.45</v>
       </c>
       <c r="I68" t="n">
-        <v>2.06</v>
+        <v>3.55</v>
       </c>
       <c r="J68" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="K68" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N68" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="O68" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P68" t="n">
-        <v>1.76</v>
+        <v>2.58</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.04</v>
+        <v>1.62</v>
       </c>
       <c r="R68" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="S68" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="T68" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="U68" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="V68" t="n">
         <v>0</v>
@@ -9631,64 +9631,64 @@
         <v>0</v>
       </c>
       <c r="X68" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Y68" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="Z68" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AA68" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB68" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC68" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AD68" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AE68" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AF68" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AG68" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH68" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AI68" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ68" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AK68" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL68" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AM68" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AN68" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO68" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -9698,36 +9698,36 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Al-Hazm (KSA)</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Al-Ittihad</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1.76</v>
+        <v>1.04</v>
       </c>
       <c r="G69" t="n">
-        <v>1.84</v>
+        <v>1000</v>
       </c>
       <c r="H69" t="n">
-        <v>5.5</v>
+        <v>1.04</v>
       </c>
       <c r="I69" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="J69" t="n">
-        <v>3.6</v>
+        <v>1.01</v>
       </c>
       <c r="K69" t="n">
-        <v>3.8</v>
+        <v>1000</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -9736,16 +9736,16 @@
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O69" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="P69" t="n">
-        <v>1.76</v>
+        <v>1.25</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.08</v>
+        <v>1.15</v>
       </c>
       <c r="R69" t="n">
         <v>0</v>
@@ -9823,7 +9823,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -9833,66 +9833,66 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Osasuna</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Reggiana</t>
+          <t>Alaves</t>
         </is>
       </c>
       <c r="F70" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="G70" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H70" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I70" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J70" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K70" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N70" t="n">
         <v>2.66</v>
       </c>
-      <c r="G70" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="I70" t="n">
-        <v>3</v>
-      </c>
-      <c r="J70" t="n">
-        <v>3</v>
-      </c>
-      <c r="K70" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L70" t="n">
-        <v>0</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0</v>
-      </c>
-      <c r="N70" t="n">
-        <v>0</v>
-      </c>
       <c r="O70" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="P70" t="n">
-        <v>1.68</v>
+        <v>1.54</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.92</v>
+        <v>2.74</v>
       </c>
       <c r="R70" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="S70" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="T70" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="U70" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="V70" t="n">
         <v>0</v>
@@ -9901,64 +9901,64 @@
         <v>0</v>
       </c>
       <c r="X70" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="Y70" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Z70" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AA70" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AB70" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AC70" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AD70" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE70" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF70" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG70" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH70" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI70" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AJ70" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AK70" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AL70" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM70" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AN70" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AO70" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -9968,42 +9968,42 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>Sporting Gijon</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="G71" t="n">
-        <v>2.2</v>
+        <v>2.34</v>
       </c>
       <c r="H71" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I71" t="n">
+        <v>4</v>
+      </c>
+      <c r="J71" t="n">
         <v>3.2</v>
       </c>
-      <c r="I71" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J71" t="n">
-        <v>3.6</v>
-      </c>
       <c r="K71" t="n">
-        <v>4.8</v>
+        <v>3.35</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -10012,22 +10012,22 @@
         <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>2.74</v>
+        <v>1.55</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.47</v>
+        <v>2.54</v>
       </c>
       <c r="R71" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="S71" t="n">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="T71" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="U71" t="n">
-        <v>2.66</v>
+        <v>0</v>
       </c>
       <c r="V71" t="n">
         <v>0</v>
@@ -10036,64 +10036,64 @@
         <v>0</v>
       </c>
       <c r="X71" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="Y71" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="Z71" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AA71" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AB71" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AC71" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AD71" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AE71" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AF71" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AG71" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AH71" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AI71" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AJ71" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AK71" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AL71" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AM71" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AN71" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AO71" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -10103,54 +10103,54 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>UTA Arad</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Dynamo Dresden</t>
+          <t>Dinamo Bucharest</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1.92</v>
+        <v>4</v>
       </c>
       <c r="G72" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="I72" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="J72" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K72" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q72" t="n">
         <v>2.04</v>
-      </c>
-      <c r="H72" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="I72" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J72" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K72" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N72" t="n">
-        <v>0</v>
-      </c>
-      <c r="O72" t="n">
-        <v>0</v>
-      </c>
-      <c r="P72" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>1.69</v>
       </c>
       <c r="R72" t="n">
         <v>0</v>
@@ -10228,7 +10228,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -10238,36 +10238,36 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Forest Green</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>5.2</v>
+        <v>1.76</v>
       </c>
       <c r="G73" t="n">
-        <v>6.4</v>
+        <v>1.83</v>
       </c>
       <c r="H73" t="n">
-        <v>1.63</v>
+        <v>5.5</v>
       </c>
       <c r="I73" t="n">
-        <v>1.78</v>
+        <v>6.2</v>
       </c>
       <c r="J73" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="K73" t="n">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -10282,10 +10282,10 @@
         <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>2.04</v>
+        <v>1.73</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.75</v>
+        <v>1.96</v>
       </c>
       <c r="R73" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -10373,66 +10373,66 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Reggiana</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2.18</v>
+        <v>2.78</v>
       </c>
       <c r="G74" t="n">
-        <v>2.22</v>
+        <v>3.25</v>
       </c>
       <c r="H74" t="n">
-        <v>4</v>
+        <v>2.54</v>
       </c>
       <c r="I74" t="n">
-        <v>4.3</v>
+        <v>2.88</v>
       </c>
       <c r="J74" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K74" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="O74" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="P74" t="n">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="Q74" t="n">
-        <v>2.44</v>
+        <v>2.02</v>
       </c>
       <c r="R74" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="S74" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="T74" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="U74" t="n">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="V74" t="n">
         <v>0</v>
@@ -10441,64 +10441,64 @@
         <v>0</v>
       </c>
       <c r="X74" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y74" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Z74" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AA74" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB74" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC74" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AD74" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AE74" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AF74" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AG74" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AH74" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AI74" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AJ74" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AK74" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AL74" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AM74" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="AN74" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AO74" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -10508,66 +10508,66 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1.23</v>
+        <v>2</v>
       </c>
       <c r="G75" t="n">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="H75" t="n">
-        <v>14.5</v>
+        <v>3.2</v>
       </c>
       <c r="I75" t="n">
-        <v>15.5</v>
+        <v>3.75</v>
       </c>
       <c r="J75" t="n">
-        <v>7.8</v>
+        <v>4</v>
       </c>
       <c r="K75" t="n">
-        <v>8</v>
+        <v>4.8</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N75" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="O75" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>3.4</v>
+        <v>2.74</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="R75" t="n">
-        <v>1.98</v>
+        <v>1.7</v>
       </c>
       <c r="S75" t="n">
-        <v>1.98</v>
+        <v>2.16</v>
       </c>
       <c r="T75" t="n">
-        <v>1.89</v>
+        <v>1.47</v>
       </c>
       <c r="U75" t="n">
-        <v>2.04</v>
+        <v>2.66</v>
       </c>
       <c r="V75" t="n">
         <v>0</v>
@@ -10576,64 +10576,64 @@
         <v>0</v>
       </c>
       <c r="X75" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="Y75" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM75" t="n">
         <v>65</v>
       </c>
-      <c r="Z75" t="n">
-        <v>170</v>
-      </c>
-      <c r="AA75" t="n">
-        <v>650</v>
-      </c>
-      <c r="AB75" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC75" t="n">
-        <v>18</v>
-      </c>
-      <c r="AD75" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE75" t="n">
-        <v>230</v>
-      </c>
-      <c r="AF75" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG75" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH75" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI75" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ75" t="n">
+      <c r="AN75" t="n">
         <v>10.5</v>
       </c>
-      <c r="AK75" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL75" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM75" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN75" t="n">
-        <v>3.25</v>
-      </c>
       <c r="AO75" t="n">
-        <v>230</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -10643,36 +10643,36 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Leonesa</t>
+          <t>Dynamo Dresden</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1.66</v>
+        <v>1.92</v>
       </c>
       <c r="G76" t="n">
-        <v>1.75</v>
+        <v>2.04</v>
       </c>
       <c r="H76" t="n">
-        <v>6.4</v>
+        <v>3.85</v>
       </c>
       <c r="I76" t="n">
-        <v>7.4</v>
+        <v>4.3</v>
       </c>
       <c r="J76" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K76" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
@@ -10687,10 +10687,10 @@
         <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="Q76" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="R76" t="n">
         <v>0</v>
@@ -10768,7 +10768,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -10778,66 +10778,66 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Forest Green</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>6.4</v>
+        <v>5.2</v>
       </c>
       <c r="G77" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="H77" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="I77" t="n">
-        <v>1.66</v>
+        <v>1.78</v>
       </c>
       <c r="J77" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K77" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
       </c>
       <c r="M77" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="O77" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>1.83</v>
+        <v>2.04</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.16</v>
+        <v>1.75</v>
       </c>
       <c r="R77" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="S77" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T77" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="U77" t="n">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="V77" t="n">
         <v>0</v>
@@ -10846,64 +10846,64 @@
         <v>0</v>
       </c>
       <c r="X77" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Y77" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="Z77" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AA77" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AB77" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AC77" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD77" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AE77" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AF77" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AG77" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AH77" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AI77" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AJ77" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK77" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AL77" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AM77" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AN77" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AO77" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -10913,66 +10913,66 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2.76</v>
+        <v>2.14</v>
       </c>
       <c r="G78" t="n">
-        <v>2.8</v>
+        <v>2.18</v>
       </c>
       <c r="H78" t="n">
-        <v>2.86</v>
+        <v>4.1</v>
       </c>
       <c r="I78" t="n">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="J78" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K78" t="n">
         <v>3.35</v>
       </c>
-      <c r="K78" t="n">
-        <v>3.4</v>
-      </c>
       <c r="L78" t="n">
         <v>0</v>
       </c>
       <c r="M78" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N78" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O78" t="n">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="P78" t="n">
-        <v>1.83</v>
+        <v>1.68</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.16</v>
+        <v>2.42</v>
       </c>
       <c r="R78" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="S78" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="T78" t="n">
-        <v>1.87</v>
+        <v>2.06</v>
       </c>
       <c r="U78" t="n">
-        <v>2.08</v>
+        <v>1.88</v>
       </c>
       <c r="V78" t="n">
         <v>0</v>
@@ -10981,192 +10981,732 @@
         <v>0</v>
       </c>
       <c r="X78" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y78" t="n">
         <v>12</v>
       </c>
-      <c r="Y78" t="n">
-        <v>10.5</v>
-      </c>
       <c r="Z78" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="AA78" t="n">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="AB78" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC78" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD78" t="n">
-        <v>12.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE78" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AF78" t="n">
-        <v>17.5</v>
+        <v>12</v>
       </c>
       <c r="AG78" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH78" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="AI78" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="AJ78" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="AK78" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AL78" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM78" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="AN78" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="AO78" t="n">
-        <v>36</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H79" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="I79" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J79" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="K79" t="n">
+        <v>8</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N79" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="O79" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P79" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="R79" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="S79" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="T79" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U79" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="n">
+        <v>0</v>
+      </c>
+      <c r="X79" t="n">
+        <v>44</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>65</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>170</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>650</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>220</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Spanish Segunda Division</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Las Palmas</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Leonesa</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H80" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I80" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J80" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K80" t="n">
+        <v>4</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0</v>
+      </c>
+      <c r="T80" t="n">
+        <v>0</v>
+      </c>
+      <c r="U80" t="n">
+        <v>0</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="n">
+        <v>0</v>
+      </c>
+      <c r="X80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>English Premier League</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G81" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="J81" t="n">
+        <v>4</v>
+      </c>
+      <c r="K81" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N81" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O81" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P81" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R81" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U81" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="n">
+        <v>0</v>
+      </c>
+      <c r="X81" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>130</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>170</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>English Premier League</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="G82" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="H82" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I82" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J82" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K82" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N82" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O82" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P82" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R82" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U82" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="n">
+        <v>0</v>
+      </c>
+      <c r="X82" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
           <t>Portuguese Primeira Liga</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t>2025-12-20</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>17:30:00</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>Club Football Estrela</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>Moreirense</t>
         </is>
       </c>
-      <c r="F79" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="G79" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H79" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="I79" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="J79" t="n">
+      <c r="F83" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="G83" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H83" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I83" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J83" t="n">
         <v>3.2</v>
       </c>
-      <c r="K79" t="n">
+      <c r="K83" t="n">
         <v>3.35</v>
       </c>
-      <c r="L79" t="n">
-        <v>0</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0</v>
-      </c>
-      <c r="N79" t="n">
-        <v>0</v>
-      </c>
-      <c r="O79" t="n">
-        <v>0</v>
-      </c>
-      <c r="P79" t="n">
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
         <v>1.69</v>
       </c>
-      <c r="Q79" t="n">
+      <c r="Q83" t="n">
         <v>2.04</v>
       </c>
-      <c r="R79" t="n">
-        <v>0</v>
-      </c>
-      <c r="S79" t="n">
-        <v>0</v>
-      </c>
-      <c r="T79" t="n">
-        <v>0</v>
-      </c>
-      <c r="U79" t="n">
-        <v>0</v>
-      </c>
-      <c r="V79" t="n">
-        <v>0</v>
-      </c>
-      <c r="W79" t="n">
-        <v>0</v>
-      </c>
-      <c r="X79" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y79" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO79" t="n">
+      <c r="R83" t="n">
+        <v>0</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0</v>
+      </c>
+      <c r="T83" t="n">
+        <v>0</v>
+      </c>
+      <c r="U83" t="n">
+        <v>0</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="n">
+        <v>0</v>
+      </c>
+      <c r="X83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO83" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO113"/>
+  <dimension ref="A1:AO117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,7 +670,7 @@
         <v>3.2</v>
       </c>
       <c r="G2" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H2" t="n">
         <v>2.14</v>
@@ -682,7 +682,7 @@
         <v>4.3</v>
       </c>
       <c r="K2" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L2" t="n">
         <v>1.23</v>
@@ -691,34 +691,34 @@
         <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="O2" t="n">
         <v>1.13</v>
       </c>
       <c r="P2" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q2" t="n">
         <v>1.42</v>
       </c>
       <c r="R2" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="S2" t="n">
         <v>2.04</v>
       </c>
       <c r="T2" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="U2" t="n">
-        <v>2.98</v>
+        <v>3.15</v>
       </c>
       <c r="V2" t="n">
         <v>1.84</v>
       </c>
       <c r="W2" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X2" t="n">
         <v>40</v>
@@ -736,13 +736,13 @@
         <v>26</v>
       </c>
       <c r="AC2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD2" t="n">
         <v>12.5</v>
       </c>
-      <c r="AD2" t="n">
-        <v>13</v>
-      </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF2" t="n">
         <v>32</v>
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G3" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="H3" t="n">
         <v>3.2</v>
@@ -829,19 +829,19 @@
         <v>3.9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P3" t="n">
         <v>2.02</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R3" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S3" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T3" t="n">
         <v>1.74</v>
@@ -853,7 +853,7 @@
         <v>1.43</v>
       </c>
       <c r="W3" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="X3" t="n">
         <v>16</v>
@@ -868,7 +868,7 @@
         <v>60</v>
       </c>
       <c r="AB3" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC3" t="n">
         <v>8.4</v>
@@ -877,10 +877,10 @@
         <v>14.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF3" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG3" t="n">
         <v>11</v>
@@ -892,7 +892,7 @@
         <v>46</v>
       </c>
       <c r="AJ3" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AK3" t="n">
         <v>24</v>
@@ -907,7 +907,7 @@
         <v>17.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -946,10 +946,10 @@
         <v>2.8</v>
       </c>
       <c r="I4" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J4" t="n">
-        <v>2.78</v>
+        <v>3.05</v>
       </c>
       <c r="K4" t="n">
         <v>3.75</v>
@@ -970,7 +970,7 @@
         <v>1.61</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R4" t="n">
         <v>1.22</v>
@@ -988,7 +988,7 @@
         <v>1.45</v>
       </c>
       <c r="W4" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="X4" t="n">
         <v>980</v>
@@ -1081,10 +1081,10 @@
         <v>4.6</v>
       </c>
       <c r="I5" t="n">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="J5" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K5" t="n">
         <v>4.3</v>
@@ -1120,10 +1120,10 @@
         <v>2.02</v>
       </c>
       <c r="V5" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="W5" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="X5" t="n">
         <v>19.5</v>
@@ -1210,7 +1210,7 @@
         <v>2.68</v>
       </c>
       <c r="G6" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="H6" t="n">
         <v>2.54</v>
@@ -1225,7 +1225,7 @@
         <v>4.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
@@ -1237,7 +1237,7 @@
         <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="Q6" t="n">
         <v>1.61</v>
@@ -1249,7 +1249,7 @@
         <v>2.5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="U6" t="n">
         <v>2.58</v>
@@ -1273,7 +1273,7 @@
         <v>38</v>
       </c>
       <c r="AB6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC6" t="n">
         <v>9.4</v>
@@ -1384,7 +1384,7 @@
         <v>3.1</v>
       </c>
       <c r="T7" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U7" t="n">
         <v>2.12</v>
@@ -1480,7 +1480,7 @@
         <v>1.74</v>
       </c>
       <c r="G8" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="H8" t="n">
         <v>4.5</v>
@@ -1528,7 +1528,7 @@
         <v>1.24</v>
       </c>
       <c r="W8" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="X8" t="n">
         <v>22</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="G9" t="n">
         <v>2.06</v>
@@ -1888,16 +1888,16 @@
         <v>2.12</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I11" t="n">
         <v>4.3</v>
       </c>
       <c r="J11" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K11" t="n">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="L11" t="n">
         <v>1.25</v>
@@ -2071,7 +2071,7 @@
         <v>1.43</v>
       </c>
       <c r="X12" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y12" t="n">
         <v>11.5</v>
@@ -2122,7 +2122,7 @@
         <v>55</v>
       </c>
       <c r="AO12" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
@@ -2176,13 +2176,13 @@
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="O13" t="n">
         <v>1.01</v>
       </c>
       <c r="P13" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="Q13" t="n">
         <v>1.01</v>
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="G14" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="H14" t="n">
         <v>2.76</v>
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="G15" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="H15" t="n">
         <v>2.6</v>
@@ -2458,7 +2458,7 @@
         <v>1.74</v>
       </c>
       <c r="R15" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S15" t="n">
         <v>2.84</v>
@@ -2467,16 +2467,16 @@
         <v>1.62</v>
       </c>
       <c r="U15" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="V15" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="W15" t="n">
         <v>1.52</v>
       </c>
       <c r="X15" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y15" t="n">
         <v>14</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="G16" t="n">
         <v>2.14</v>
@@ -2830,10 +2830,10 @@
         <v>2.66</v>
       </c>
       <c r="G18" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H18" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="I18" t="n">
         <v>2.86</v>
@@ -2878,7 +2878,7 @@
         <v>1.53</v>
       </c>
       <c r="W18" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X18" t="n">
         <v>18.5</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="G20" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="H20" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K20" t="n">
         <v>4.8</v>
-      </c>
-      <c r="I20" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="J20" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K20" t="n">
-        <v>4.9</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
@@ -3127,16 +3127,16 @@
         <v>1.2</v>
       </c>
       <c r="P20" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R20" t="n">
         <v>1.45</v>
       </c>
       <c r="S20" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="T20" t="n">
         <v>1.01</v>
@@ -3145,10 +3145,10 @@
         <v>1.01</v>
       </c>
       <c r="V20" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="W20" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3265,7 +3265,7 @@
         <v>2.42</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R21" t="n">
         <v>1.5</v>
@@ -3370,16 +3370,16 @@
         <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H22" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J22" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="K22" t="n">
         <v>4.5</v>
@@ -3388,7 +3388,7 @@
         <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
         <v>5.2</v>
@@ -3415,7 +3415,7 @@
         <v>2.48</v>
       </c>
       <c r="V22" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="W22" t="n">
         <v>1.83</v>
@@ -3670,7 +3670,7 @@
         <v>2.22</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="R24" t="n">
         <v>1.43</v>
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G25" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="H25" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="I25" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="J25" t="n">
         <v>3.3</v>
@@ -3796,7 +3796,7 @@
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="O25" t="n">
         <v>1.01</v>
@@ -3820,10 +3820,10 @@
         <v>1.01</v>
       </c>
       <c r="V25" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="W25" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
@@ -3916,10 +3916,10 @@
         <v>2.14</v>
       </c>
       <c r="I26" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="J26" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K26" t="n">
         <v>3.55</v>
@@ -3955,7 +3955,7 @@
         <v>1.89</v>
       </c>
       <c r="V26" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="W26" t="n">
         <v>1.32</v>
@@ -4045,10 +4045,10 @@
         <v>2.32</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94</v>
+        <v>980</v>
       </c>
       <c r="H27" t="n">
-        <v>2.42</v>
+        <v>1.33</v>
       </c>
       <c r="I27" t="n">
         <v>3.1</v>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="G28" t="n">
         <v>1.44</v>
@@ -4192,7 +4192,7 @@
         <v>5</v>
       </c>
       <c r="K28" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
@@ -4315,7 +4315,7 @@
         <v>1.94</v>
       </c>
       <c r="G29" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="H29" t="n">
         <v>3.25</v>
@@ -4324,7 +4324,7 @@
         <v>5.2</v>
       </c>
       <c r="J29" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="K29" t="n">
         <v>5.7</v>
@@ -4336,7 +4336,7 @@
         <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="O29" t="n">
         <v>1.01</v>
@@ -4345,13 +4345,13 @@
         <v>1.52</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.65</v>
+        <v>1.47</v>
       </c>
       <c r="R29" t="n">
         <v>1.18</v>
       </c>
       <c r="S29" t="n">
-        <v>1.65</v>
+        <v>1.47</v>
       </c>
       <c r="T29" t="n">
         <v>1.01</v>
@@ -4360,10 +4360,10 @@
         <v>1.01</v>
       </c>
       <c r="V29" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W29" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X29" t="n">
         <v>1000</v>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G30" t="n">
         <v>5.2</v>
@@ -4456,13 +4456,13 @@
         <v>1.96</v>
       </c>
       <c r="I30" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="J30" t="n">
         <v>2.68</v>
       </c>
       <c r="K30" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L30" t="n">
         <v>1.44</v>
@@ -4495,7 +4495,7 @@
         <v>1.01</v>
       </c>
       <c r="V30" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="W30" t="n">
         <v>1.23</v>
@@ -4741,13 +4741,13 @@
         <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="O32" t="n">
         <v>1.01</v>
       </c>
       <c r="P32" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="Q32" t="n">
         <v>1.01</v>
@@ -4996,7 +4996,7 @@
         <v>2.74</v>
       </c>
       <c r="I34" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="J34" t="n">
         <v>3</v>
@@ -5026,7 +5026,7 @@
         <v>1.19</v>
       </c>
       <c r="S34" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="T34" t="n">
         <v>1.87</v>
@@ -5257,109 +5257,109 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="G36" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="H36" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I36" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="J36" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="K36" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="L36" t="n">
         <v>1.01</v>
       </c>
       <c r="M36" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N36" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P36" t="n">
         <v>1.94</v>
       </c>
-      <c r="O36" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P36" t="n">
+      <c r="Q36" t="n">
         <v>1.93</v>
       </c>
-      <c r="Q36" t="n">
-        <v>1.92</v>
-      </c>
       <c r="R36" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="S36" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="T36" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="U36" t="n">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="V36" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W36" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="X36" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Y36" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AA36" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB36" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF36" t="n">
         <v>13</v>
       </c>
-      <c r="AC36" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>18</v>
-      </c>
       <c r="AG36" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH36" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK36" t="n">
         <v>22</v>
       </c>
-      <c r="AI36" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>25</v>
-      </c>
       <c r="AL36" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AM36" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN36" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AO36" t="n">
         <v>1000</v>
@@ -5425,7 +5425,7 @@
         <v>1.7</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="R37" t="n">
         <v>1.21</v>
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="G39" t="n">
         <v>1.85</v>
@@ -5677,7 +5677,7 @@
         <v>3.55</v>
       </c>
       <c r="K39" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="L39" t="n">
         <v>1.01</v>
@@ -5686,16 +5686,16 @@
         <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="O39" t="n">
         <v>1.01</v>
       </c>
       <c r="P39" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="R39" t="n">
         <v>1.28</v>
@@ -5797,16 +5797,16 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="G40" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="H40" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="I40" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="J40" t="n">
         <v>5.3</v>
@@ -5830,7 +5830,7 @@
         <v>2.28</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="R40" t="n">
         <v>1.5</v>
@@ -6337,10 +6337,10 @@
         </is>
       </c>
       <c r="F44" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G44" t="n">
         <v>2.6</v>
-      </c>
-      <c r="G44" t="n">
-        <v>2.64</v>
       </c>
       <c r="H44" t="n">
         <v>2.92</v>
@@ -6355,7 +6355,7 @@
         <v>3.65</v>
       </c>
       <c r="L44" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M44" t="n">
         <v>1.06</v>
@@ -6388,7 +6388,7 @@
         <v>1.51</v>
       </c>
       <c r="W44" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="X44" t="n">
         <v>17</v>
@@ -6406,7 +6406,7 @@
         <v>12.5</v>
       </c>
       <c r="AC44" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD44" t="n">
         <v>13</v>
@@ -6502,16 +6502,16 @@
         <v>1.24</v>
       </c>
       <c r="P45" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R45" t="n">
         <v>1.52</v>
       </c>
       <c r="S45" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T45" t="n">
         <v>1.61</v>
@@ -6520,7 +6520,7 @@
         <v>2.52</v>
       </c>
       <c r="V45" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W45" t="n">
         <v>1.56</v>
@@ -6532,7 +6532,7 @@
         <v>14.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AA45" t="n">
         <v>40</v>
@@ -6640,7 +6640,7 @@
         <v>2.76</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R46" t="n">
         <v>1.72</v>
@@ -6742,10 +6742,10 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G47" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H47" t="n">
         <v>3.2</v>
@@ -6766,7 +6766,7 @@
         <v>1.06</v>
       </c>
       <c r="N47" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O47" t="n">
         <v>1.27</v>
@@ -6787,13 +6787,13 @@
         <v>1.68</v>
       </c>
       <c r="U47" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V47" t="n">
         <v>1.43</v>
       </c>
       <c r="W47" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="X47" t="n">
         <v>17.5</v>
@@ -6892,7 +6892,7 @@
         <v>3.4</v>
       </c>
       <c r="K48" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L48" t="n">
         <v>1.43</v>
@@ -6910,7 +6910,7 @@
         <v>1.89</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R48" t="n">
         <v>1.34</v>
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="G49" t="n">
         <v>2.46</v>
@@ -7027,7 +7027,7 @@
         <v>3.15</v>
       </c>
       <c r="K49" t="n">
-        <v>4.6</v>
+        <v>110</v>
       </c>
       <c r="L49" t="n">
         <v>1.01</v>
@@ -7036,13 +7036,13 @@
         <v>1.01</v>
       </c>
       <c r="N49" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="O49" t="n">
         <v>1.27</v>
       </c>
       <c r="P49" t="n">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="Q49" t="n">
         <v>1.8</v>
@@ -7147,13 +7147,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G50" t="n">
         <v>3.85</v>
       </c>
       <c r="H50" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="I50" t="n">
         <v>2.26</v>
@@ -7168,13 +7168,13 @@
         <v>1.36</v>
       </c>
       <c r="M50" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N50" t="n">
-        <v>1.98</v>
+        <v>3.85</v>
       </c>
       <c r="O50" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="P50" t="n">
         <v>1.98</v>
@@ -7183,10 +7183,10 @@
         <v>1.87</v>
       </c>
       <c r="R50" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="S50" t="n">
-        <v>2.94</v>
+        <v>3.2</v>
       </c>
       <c r="T50" t="n">
         <v>1.73</v>
@@ -7204,34 +7204,34 @@
         <v>19</v>
       </c>
       <c r="Y50" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z50" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA50" t="n">
         <v>34</v>
       </c>
       <c r="AB50" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC50" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD50" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE50" t="n">
         <v>28</v>
       </c>
       <c r="AF50" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG50" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH50" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI50" t="n">
         <v>44</v>
@@ -7252,7 +7252,7 @@
         <v>50</v>
       </c>
       <c r="AO50" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="51">
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="G51" t="n">
         <v>1.98</v>
@@ -7291,7 +7291,7 @@
         <v>4.3</v>
       </c>
       <c r="I51" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J51" t="n">
         <v>3.6</v>
@@ -7306,16 +7306,16 @@
         <v>1.01</v>
       </c>
       <c r="N51" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="O51" t="n">
         <v>1.3</v>
       </c>
       <c r="P51" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="R51" t="n">
         <v>1.31</v>
@@ -7330,7 +7330,7 @@
         <v>1.86</v>
       </c>
       <c r="V51" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W51" t="n">
         <v>2.02</v>
@@ -7435,7 +7435,7 @@
         <v>5.1</v>
       </c>
       <c r="L52" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M52" t="n">
         <v>1.01</v>
@@ -7444,7 +7444,7 @@
         <v>2.1</v>
       </c>
       <c r="O52" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P52" t="n">
         <v>2.1</v>
@@ -7459,10 +7459,10 @@
         <v>2.62</v>
       </c>
       <c r="T52" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="U52" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="V52" t="n">
         <v>1.13</v>
@@ -7576,13 +7576,13 @@
         <v>1.01</v>
       </c>
       <c r="N53" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="O53" t="n">
         <v>1.32</v>
       </c>
       <c r="P53" t="n">
-        <v>1.3</v>
+        <v>1.89</v>
       </c>
       <c r="Q53" t="n">
         <v>1.59</v>
@@ -7696,7 +7696,7 @@
         <v>2.78</v>
       </c>
       <c r="I54" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J54" t="n">
         <v>3.35</v>
@@ -7735,7 +7735,7 @@
         <v>1.01</v>
       </c>
       <c r="V54" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="W54" t="n">
         <v>1.58</v>
@@ -7864,10 +7864,10 @@
         <v>2.52</v>
       </c>
       <c r="T55" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="U55" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="V55" t="n">
         <v>1.27</v>
@@ -8143,7 +8143,7 @@
         <v>1.19</v>
       </c>
       <c r="W57" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X57" t="n">
         <v>1000</v>
@@ -8230,10 +8230,10 @@
         <v>1.53</v>
       </c>
       <c r="G58" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="H58" t="n">
-        <v>4.8</v>
+        <v>5.7</v>
       </c>
       <c r="I58" t="n">
         <v>7</v>
@@ -8242,7 +8242,7 @@
         <v>4.1</v>
       </c>
       <c r="K58" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L58" t="n">
         <v>1.01</v>
@@ -8278,7 +8278,7 @@
         <v>1.17</v>
       </c>
       <c r="W58" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="X58" t="n">
         <v>32</v>
@@ -8365,7 +8365,7 @@
         <v>3.35</v>
       </c>
       <c r="G59" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H59" t="n">
         <v>2.22</v>
@@ -8404,10 +8404,10 @@
         <v>2.94</v>
       </c>
       <c r="T59" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="U59" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="V59" t="n">
         <v>1.69</v>
@@ -8608,7 +8608,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -8623,112 +8623,112 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>St Johnstone</t>
+          <t>Stenhousemuir</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Morton</t>
+          <t>Inverness CT</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.38</v>
+        <v>3.75</v>
       </c>
       <c r="G61" t="n">
-        <v>1.5</v>
+        <v>5.1</v>
       </c>
       <c r="H61" t="n">
-        <v>8.800000000000001</v>
+        <v>1.98</v>
       </c>
       <c r="I61" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="J61" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K61" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N61" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S61" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T61" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U61" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="V61" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="W61" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X61" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y61" t="n">
         <v>12.5</v>
       </c>
-      <c r="J61" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K61" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="L61" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M61" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N61" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="O61" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P61" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="R61" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S61" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="T61" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U61" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V61" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W61" t="n">
-        <v>3</v>
-      </c>
-      <c r="X61" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>1000</v>
-      </c>
       <c r="Z61" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AA61" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AB61" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AC61" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD61" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE61" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF61" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AG61" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AH61" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI61" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ61" t="n">
         <v>1000</v>
       </c>
       <c r="AK61" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL61" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM61" t="n">
         <v>1000</v>
@@ -8758,121 +8758,121 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Stenhousemuir</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Inverness CT</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>3.7</v>
+        <v>2.44</v>
       </c>
       <c r="G62" t="n">
-        <v>5.1</v>
+        <v>2.86</v>
       </c>
       <c r="H62" t="n">
-        <v>1.96</v>
+        <v>2.56</v>
       </c>
       <c r="I62" t="n">
-        <v>2.26</v>
+        <v>2.96</v>
       </c>
       <c r="J62" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="K62" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="L62" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N62" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O62" t="n">
         <v>1.32</v>
       </c>
-      <c r="M62" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N62" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="O62" t="n">
-        <v>1.31</v>
-      </c>
       <c r="P62" t="n">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.97</v>
+        <v>1.86</v>
       </c>
       <c r="R62" t="n">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="S62" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="T62" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="U62" t="n">
-        <v>1.74</v>
+        <v>1.94</v>
       </c>
       <c r="V62" t="n">
-        <v>1.79</v>
+        <v>1.51</v>
       </c>
       <c r="W62" t="n">
-        <v>1.24</v>
+        <v>1.55</v>
       </c>
       <c r="X62" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y62" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z62" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AA62" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK62" t="n">
         <v>36</v>
       </c>
-      <c r="AB62" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC62" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD62" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE62" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF62" t="n">
-        <v>42</v>
-      </c>
-      <c r="AG62" t="n">
-        <v>24</v>
-      </c>
-      <c r="AH62" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI62" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ62" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK62" t="n">
-        <v>75</v>
-      </c>
       <c r="AL62" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="AM62" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN62" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AO62" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63">
@@ -8902,22 +8902,22 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
       </c>
       <c r="H63" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="I63" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="J63" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K63" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L63" t="n">
         <v>1.01</v>
@@ -8926,31 +8926,31 @@
         <v>1.07</v>
       </c>
       <c r="N63" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="O63" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P63" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R63" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="S63" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="T63" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U63" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="V63" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W63" t="n">
         <v>2</v>
@@ -8962,7 +8962,7 @@
         <v>19.5</v>
       </c>
       <c r="Z63" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AA63" t="n">
         <v>1000</v>
@@ -8992,7 +8992,7 @@
         <v>80</v>
       </c>
       <c r="AJ63" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AK63" t="n">
         <v>25</v>
@@ -9028,31 +9028,31 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Partick</t>
+          <t>St Johnstone</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Raith</t>
+          <t>Morton</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1.92</v>
+        <v>1.38</v>
       </c>
       <c r="G64" t="n">
-        <v>2.16</v>
+        <v>1.5</v>
       </c>
       <c r="H64" t="n">
-        <v>3.55</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I64" t="n">
-        <v>5.3</v>
+        <v>12.5</v>
       </c>
       <c r="J64" t="n">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="K64" t="n">
-        <v>4.4</v>
+        <v>5.6</v>
       </c>
       <c r="L64" t="n">
         <v>1.01</v>
@@ -9061,22 +9061,22 @@
         <v>1.01</v>
       </c>
       <c r="N64" t="n">
-        <v>1.79</v>
+        <v>2.06</v>
       </c>
       <c r="O64" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="P64" t="n">
-        <v>1.79</v>
+        <v>2.06</v>
       </c>
       <c r="Q64" t="n">
-        <v>2</v>
+        <v>1.74</v>
       </c>
       <c r="R64" t="n">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="S64" t="n">
-        <v>3.1</v>
+        <v>2.58</v>
       </c>
       <c r="T64" t="n">
         <v>1.01</v>
@@ -9085,10 +9085,10 @@
         <v>1.01</v>
       </c>
       <c r="V64" t="n">
-        <v>1.23</v>
+        <v>1.08</v>
       </c>
       <c r="W64" t="n">
-        <v>1.86</v>
+        <v>3</v>
       </c>
       <c r="X64" t="n">
         <v>1000</v>
@@ -9163,56 +9163,56 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Dunfermline</t>
+          <t>Partick</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Ayr</t>
+          <t>Raith</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2.72</v>
+        <v>1.92</v>
       </c>
       <c r="G65" t="n">
-        <v>3.15</v>
+        <v>2.16</v>
       </c>
       <c r="H65" t="n">
-        <v>2.7</v>
+        <v>3.55</v>
       </c>
       <c r="I65" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J65" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K65" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N65" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S65" t="n">
         <v>3.1</v>
       </c>
-      <c r="J65" t="n">
-        <v>3</v>
-      </c>
-      <c r="K65" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L65" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N65" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="O65" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P65" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="R65" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S65" t="n">
-        <v>3.7</v>
-      </c>
       <c r="T65" t="n">
         <v>1.01</v>
       </c>
@@ -9220,55 +9220,55 @@
         <v>1.01</v>
       </c>
       <c r="V65" t="n">
-        <v>1.47</v>
+        <v>1.23</v>
       </c>
       <c r="W65" t="n">
-        <v>1.46</v>
+        <v>1.86</v>
       </c>
       <c r="X65" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y65" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z65" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AA65" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB65" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC65" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD65" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AE65" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF65" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AG65" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AH65" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AI65" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ65" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK65" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL65" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM65" t="n">
         <v>1000</v>
@@ -9298,115 +9298,115 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Ross Co</t>
+          <t>Dunfermline</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Arbroath</t>
+          <t>Ayr</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2.06</v>
+        <v>2.72</v>
       </c>
       <c r="G66" t="n">
-        <v>2.3</v>
+        <v>3.15</v>
       </c>
       <c r="H66" t="n">
-        <v>3.35</v>
+        <v>2.7</v>
       </c>
       <c r="I66" t="n">
-        <v>3.95</v>
+        <v>3.1</v>
       </c>
       <c r="J66" t="n">
+        <v>3</v>
+      </c>
+      <c r="K66" t="n">
         <v>3.5</v>
       </c>
-      <c r="K66" t="n">
-        <v>4.1</v>
-      </c>
       <c r="L66" t="n">
         <v>1.01</v>
       </c>
       <c r="M66" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N66" t="n">
-        <v>2.04</v>
+        <v>1.72</v>
       </c>
       <c r="O66" t="n">
-        <v>1.26</v>
+        <v>1.08</v>
       </c>
       <c r="P66" t="n">
-        <v>2.04</v>
+        <v>1.64</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.76</v>
+        <v>2.22</v>
       </c>
       <c r="R66" t="n">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
       <c r="S66" t="n">
-        <v>2.68</v>
+        <v>4.2</v>
       </c>
       <c r="T66" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="U66" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="V66" t="n">
-        <v>1.34</v>
+        <v>1.47</v>
       </c>
       <c r="W66" t="n">
-        <v>1.76</v>
+        <v>1.46</v>
       </c>
       <c r="X66" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Y66" t="n">
-        <v>23</v>
+        <v>13.5</v>
       </c>
       <c r="Z66" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="AA66" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AB66" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AC66" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="AD66" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AE66" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AF66" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AG66" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AH66" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AI66" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ66" t="n">
         <v>70</v>
       </c>
-      <c r="AJ66" t="n">
-        <v>40</v>
-      </c>
       <c r="AK66" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AL66" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="AM66" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN66" t="n">
         <v>1000</v>
@@ -9418,7 +9418,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -9433,31 +9433,31 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Otelul Galati</t>
+          <t>Ross Co</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Arges Pitesti</t>
+          <t>Arbroath</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2.26</v>
+        <v>2.06</v>
       </c>
       <c r="G67" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="H67" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="I67" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="J67" t="n">
-        <v>2.88</v>
+        <v>3.55</v>
       </c>
       <c r="K67" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="L67" t="n">
         <v>1.01</v>
@@ -9466,82 +9466,82 @@
         <v>1.01</v>
       </c>
       <c r="N67" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="O67" t="n">
-        <v>1.5</v>
+        <v>1.26</v>
       </c>
       <c r="P67" t="n">
-        <v>1.49</v>
+        <v>2.04</v>
       </c>
       <c r="Q67" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R67" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S67" t="n">
         <v>2.68</v>
       </c>
-      <c r="R67" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S67" t="n">
-        <v>4.8</v>
-      </c>
       <c r="T67" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="U67" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="V67" t="n">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="W67" t="n">
-        <v>1.6</v>
+        <v>1.76</v>
       </c>
       <c r="X67" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="Y67" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z67" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA67" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB67" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC67" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD67" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE67" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF67" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG67" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH67" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI67" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ67" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK67" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL67" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM67" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN67" t="n">
         <v>1000</v>
@@ -9553,7 +9553,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -9568,121 +9568,121 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Otelul Galati</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Arges Pitesti</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.71</v>
+        <v>2.26</v>
       </c>
       <c r="G68" t="n">
-        <v>1.72</v>
+        <v>2.7</v>
       </c>
       <c r="H68" t="n">
-        <v>5.6</v>
+        <v>3.6</v>
       </c>
       <c r="I68" t="n">
-        <v>5.7</v>
+        <v>4.2</v>
       </c>
       <c r="J68" t="n">
-        <v>4.2</v>
+        <v>2.88</v>
       </c>
       <c r="K68" t="n">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="L68" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="M68" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N68" t="n">
-        <v>4.2</v>
+        <v>1.01</v>
       </c>
       <c r="O68" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="P68" t="n">
-        <v>2.1</v>
+        <v>1.49</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.87</v>
+        <v>2.68</v>
       </c>
       <c r="R68" t="n">
-        <v>1.42</v>
+        <v>1.18</v>
       </c>
       <c r="S68" t="n">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="T68" t="n">
-        <v>1.88</v>
+        <v>1.01</v>
       </c>
       <c r="U68" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="V68" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="W68" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="X68" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="Y68" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Z68" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AA68" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB68" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AC68" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD68" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE68" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF68" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AG68" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AH68" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI68" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ68" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AK68" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AL68" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM68" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN68" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AO68" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="69">
@@ -9703,121 +9703,121 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>3.75</v>
+        <v>1.7</v>
       </c>
       <c r="G69" t="n">
-        <v>3.85</v>
+        <v>1.71</v>
       </c>
       <c r="H69" t="n">
-        <v>2.16</v>
+        <v>5.6</v>
       </c>
       <c r="I69" t="n">
-        <v>2.18</v>
+        <v>5.7</v>
       </c>
       <c r="J69" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="K69" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="L69" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="M69" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N69" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="O69" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="P69" t="n">
-        <v>1.91</v>
+        <v>2.12</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.04</v>
+        <v>1.87</v>
       </c>
       <c r="R69" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="S69" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="T69" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U69" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V69" t="n">
-        <v>1.84</v>
+        <v>1.21</v>
       </c>
       <c r="W69" t="n">
-        <v>1.35</v>
+        <v>2.4</v>
       </c>
       <c r="X69" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Y69" t="n">
-        <v>9.4</v>
+        <v>20</v>
       </c>
       <c r="Z69" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="AA69" t="n">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="AB69" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AC69" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AD69" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="AE69" t="n">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="AF69" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="AG69" t="n">
-        <v>15.5</v>
+        <v>9.6</v>
       </c>
       <c r="AH69" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AI69" t="n">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ69" t="n">
-        <v>80</v>
+        <v>16.5</v>
       </c>
       <c r="AK69" t="n">
-        <v>48</v>
+        <v>16.5</v>
       </c>
       <c r="AL69" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AM69" t="n">
         <v>110</v>
       </c>
       <c r="AN69" t="n">
-        <v>50</v>
+        <v>9.4</v>
       </c>
       <c r="AO69" t="n">
-        <v>17.5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70">
@@ -9838,121 +9838,121 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1.53</v>
+        <v>3.8</v>
       </c>
       <c r="G70" t="n">
-        <v>1.54</v>
+        <v>3.85</v>
       </c>
       <c r="H70" t="n">
-        <v>7.4</v>
+        <v>2.14</v>
       </c>
       <c r="I70" t="n">
-        <v>7.6</v>
+        <v>2.16</v>
       </c>
       <c r="J70" t="n">
-        <v>4.7</v>
+        <v>3.65</v>
       </c>
       <c r="K70" t="n">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="L70" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M70" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N70" t="n">
-        <v>4.8</v>
+        <v>3.75</v>
       </c>
       <c r="O70" t="n">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="P70" t="n">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.74</v>
+        <v>2.04</v>
       </c>
       <c r="R70" t="n">
-        <v>1.52</v>
+        <v>1.34</v>
       </c>
       <c r="S70" t="n">
-        <v>2.84</v>
+        <v>3.7</v>
       </c>
       <c r="T70" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="U70" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="V70" t="n">
-        <v>1.15</v>
+        <v>1.86</v>
       </c>
       <c r="W70" t="n">
-        <v>2.86</v>
+        <v>1.35</v>
       </c>
       <c r="X70" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH70" t="n">
         <v>18.5</v>
       </c>
-      <c r="Y70" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z70" t="n">
-        <v>65</v>
-      </c>
-      <c r="AA70" t="n">
-        <v>210</v>
-      </c>
-      <c r="AB70" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC70" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD70" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF70" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG70" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH70" t="n">
-        <v>22</v>
-      </c>
       <c r="AI70" t="n">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="AJ70" t="n">
-        <v>13.5</v>
+        <v>80</v>
       </c>
       <c r="AK70" t="n">
-        <v>14.5</v>
+        <v>48</v>
       </c>
       <c r="AL70" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AM70" t="n">
         <v>110</v>
       </c>
       <c r="AN70" t="n">
-        <v>6.8</v>
+        <v>50</v>
       </c>
       <c r="AO70" t="n">
-        <v>100</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="71">
@@ -9973,127 +9973,127 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1.22</v>
+        <v>1.52</v>
       </c>
       <c r="G71" t="n">
-        <v>1.23</v>
+        <v>1.53</v>
       </c>
       <c r="H71" t="n">
-        <v>14.5</v>
+        <v>7.4</v>
       </c>
       <c r="I71" t="n">
-        <v>15</v>
+        <v>7.6</v>
       </c>
       <c r="J71" t="n">
-        <v>8.4</v>
+        <v>4.7</v>
       </c>
       <c r="K71" t="n">
-        <v>8.6</v>
+        <v>4.8</v>
       </c>
       <c r="L71" t="n">
-        <v>1.19</v>
+        <v>1.33</v>
       </c>
       <c r="M71" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N71" t="n">
-        <v>8.199999999999999</v>
+        <v>4.8</v>
       </c>
       <c r="O71" t="n">
-        <v>1.12</v>
+        <v>1.24</v>
       </c>
       <c r="P71" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="R71" t="n">
-        <v>1.98</v>
+        <v>1.52</v>
       </c>
       <c r="S71" t="n">
-        <v>1.96</v>
+        <v>2.84</v>
       </c>
       <c r="T71" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="U71" t="n">
         <v>2.04</v>
       </c>
       <c r="V71" t="n">
-        <v>1.07</v>
+        <v>1.15</v>
       </c>
       <c r="W71" t="n">
-        <v>5.3</v>
+        <v>2.86</v>
       </c>
       <c r="X71" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="Y71" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z71" t="n">
         <v>65</v>
       </c>
-      <c r="Z71" t="n">
-        <v>160</v>
-      </c>
       <c r="AA71" t="n">
-        <v>600</v>
+        <v>220</v>
       </c>
       <c r="AB71" t="n">
-        <v>14</v>
+        <v>9.4</v>
       </c>
       <c r="AC71" t="n">
-        <v>20</v>
+        <v>10.5</v>
       </c>
       <c r="AD71" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="AE71" t="n">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="AF71" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG71" t="n">
-        <v>12</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH71" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AI71" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ71" t="n">
-        <v>10</v>
+        <v>13.5</v>
       </c>
       <c r="AK71" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AL71" t="n">
         <v>32</v>
       </c>
       <c r="AM71" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN71" t="n">
-        <v>3.2</v>
+        <v>6.8</v>
       </c>
       <c r="AO71" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Scottish League One</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -10108,121 +10108,121 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2.44</v>
+        <v>1.22</v>
       </c>
       <c r="G72" t="n">
-        <v>2.86</v>
+        <v>1.23</v>
       </c>
       <c r="H72" t="n">
-        <v>2.56</v>
+        <v>14.5</v>
       </c>
       <c r="I72" t="n">
-        <v>2.96</v>
+        <v>15</v>
       </c>
       <c r="J72" t="n">
-        <v>3.6</v>
+        <v>8.4</v>
       </c>
       <c r="K72" t="n">
-        <v>4.3</v>
+        <v>8.6</v>
       </c>
       <c r="L72" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="M72" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N72" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="O72" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P72" t="n">
         <v>3.5</v>
       </c>
-      <c r="O72" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P72" t="n">
-        <v>1.9</v>
-      </c>
       <c r="Q72" t="n">
-        <v>1.86</v>
+        <v>1.39</v>
       </c>
       <c r="R72" t="n">
-        <v>1.33</v>
+        <v>1.98</v>
       </c>
       <c r="S72" t="n">
-        <v>3.4</v>
+        <v>1.96</v>
       </c>
       <c r="T72" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="U72" t="n">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="V72" t="n">
-        <v>1.51</v>
+        <v>1.07</v>
       </c>
       <c r="W72" t="n">
-        <v>1.55</v>
+        <v>5.3</v>
       </c>
       <c r="X72" t="n">
-        <v>19.5</v>
+        <v>46</v>
       </c>
       <c r="Y72" t="n">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="Z72" t="n">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="AA72" t="n">
+        <v>600</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD72" t="n">
         <v>55</v>
       </c>
-      <c r="AB72" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC72" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD72" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AE72" t="n">
-        <v>38</v>
+        <v>180</v>
       </c>
       <c r="AF72" t="n">
-        <v>21</v>
+        <v>9.4</v>
       </c>
       <c r="AG72" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AH72" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AI72" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ72" t="n">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="AK72" t="n">
-        <v>36</v>
+        <v>12.5</v>
       </c>
       <c r="AL72" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AM72" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AN72" t="n">
-        <v>30</v>
+        <v>3.15</v>
       </c>
       <c r="AO72" t="n">
-        <v>36</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73">
@@ -10252,13 +10252,13 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G73" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H73" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="I73" t="n">
         <v>2.26</v>
@@ -10282,7 +10282,7 @@
         <v>1.32</v>
       </c>
       <c r="P73" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q73" t="n">
         <v>1.98</v>
@@ -10300,10 +10300,10 @@
         <v>2.18</v>
       </c>
       <c r="V73" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="W73" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X73" t="n">
         <v>14</v>
@@ -10342,16 +10342,16 @@
         <v>38</v>
       </c>
       <c r="AJ73" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AK73" t="n">
         <v>44</v>
       </c>
       <c r="AL73" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM73" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AN73" t="n">
         <v>42</v>
@@ -10417,7 +10417,7 @@
         <v>1.39</v>
       </c>
       <c r="P74" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q74" t="n">
         <v>1.39</v>
@@ -10429,10 +10429,10 @@
         <v>3.35</v>
       </c>
       <c r="T74" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="U74" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="V74" t="n">
         <v>1.64</v>
@@ -10522,10 +10522,10 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="G75" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="H75" t="n">
         <v>3.95</v>
@@ -10537,7 +10537,7 @@
         <v>2.96</v>
       </c>
       <c r="K75" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L75" t="n">
         <v>1.01</v>
@@ -10564,16 +10564,16 @@
         <v>4.4</v>
       </c>
       <c r="T75" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="U75" t="n">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="V75" t="n">
         <v>1.19</v>
       </c>
       <c r="W75" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="X75" t="n">
         <v>12</v>
@@ -10657,10 +10657,10 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="G76" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="H76" t="n">
         <v>2.78</v>
@@ -10669,10 +10669,10 @@
         <v>4.1</v>
       </c>
       <c r="J76" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K76" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="L76" t="n">
         <v>1.01</v>
@@ -10699,16 +10699,16 @@
         <v>3.55</v>
       </c>
       <c r="T76" t="n">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="U76" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="V76" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W76" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X76" t="n">
         <v>1000</v>
@@ -10795,19 +10795,19 @@
         <v>3.55</v>
       </c>
       <c r="G77" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H77" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="I77" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="J77" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K77" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L77" t="n">
         <v>1.01</v>
@@ -10816,31 +10816,31 @@
         <v>1.02</v>
       </c>
       <c r="N77" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="O77" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="P77" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="R77" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="S77" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="T77" t="n">
         <v>1.42</v>
       </c>
       <c r="U77" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="V77" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W77" t="n">
         <v>1.32</v>
@@ -10855,13 +10855,13 @@
         <v>23</v>
       </c>
       <c r="AA77" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB77" t="n">
         <v>34</v>
       </c>
       <c r="AC77" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AD77" t="n">
         <v>14.5</v>
@@ -10873,7 +10873,7 @@
         <v>46</v>
       </c>
       <c r="AG77" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH77" t="n">
         <v>18</v>
@@ -10894,10 +10894,10 @@
         <v>55</v>
       </c>
       <c r="AN77" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO77" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="78">
@@ -10936,7 +10936,7 @@
         <v>2.06</v>
       </c>
       <c r="I78" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="J78" t="n">
         <v>3.9</v>
@@ -10966,7 +10966,7 @@
         <v>1.59</v>
       </c>
       <c r="S78" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="T78" t="n">
         <v>1.54</v>
@@ -10975,7 +10975,7 @@
         <v>2.26</v>
       </c>
       <c r="V78" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="W78" t="n">
         <v>1.38</v>
@@ -11068,7 +11068,7 @@
         <v>2.02</v>
       </c>
       <c r="H79" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I79" t="n">
         <v>5.3</v>
@@ -11098,16 +11098,16 @@
         <v>2.28</v>
       </c>
       <c r="R79" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S79" t="n">
         <v>3.75</v>
       </c>
       <c r="T79" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="U79" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="V79" t="n">
         <v>1.23</v>
@@ -11200,16 +11200,16 @@
         <v>2.92</v>
       </c>
       <c r="G80" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="H80" t="n">
         <v>2.06</v>
       </c>
       <c r="I80" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="J80" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K80" t="n">
         <v>980</v>
@@ -11248,7 +11248,7 @@
         <v>1.58</v>
       </c>
       <c r="W80" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X80" t="n">
         <v>1000</v>
@@ -11335,13 +11335,13 @@
         <v>4.6</v>
       </c>
       <c r="G81" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="H81" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="I81" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="J81" t="n">
         <v>3.55</v>
@@ -11380,7 +11380,7 @@
         <v>1.97</v>
       </c>
       <c r="V81" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="W81" t="n">
         <v>1.22</v>
@@ -11467,16 +11467,16 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="G82" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H82" t="n">
         <v>2.56</v>
       </c>
       <c r="I82" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J82" t="n">
         <v>3.1</v>
@@ -11503,7 +11503,7 @@
         <v>2.06</v>
       </c>
       <c r="R82" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S82" t="n">
         <v>3.3</v>
@@ -11518,7 +11518,7 @@
         <v>1.46</v>
       </c>
       <c r="W82" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X82" t="n">
         <v>1000</v>
@@ -11605,34 +11605,34 @@
         <v>2.36</v>
       </c>
       <c r="G83" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H83" t="n">
         <v>2.54</v>
       </c>
       <c r="I83" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="J83" t="n">
-        <v>2.68</v>
+        <v>2.88</v>
       </c>
       <c r="K83" t="n">
         <v>5.5</v>
       </c>
       <c r="L83" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M83" t="n">
         <v>1.01</v>
       </c>
       <c r="N83" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="O83" t="n">
         <v>1.01</v>
       </c>
       <c r="P83" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="Q83" t="n">
         <v>2.02</v>
@@ -11641,7 +11641,7 @@
         <v>1.18</v>
       </c>
       <c r="S83" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="T83" t="n">
         <v>1.01</v>
@@ -11650,10 +11650,10 @@
         <v>1.01</v>
       </c>
       <c r="V83" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="W83" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="X83" t="n">
         <v>1000</v>
@@ -11746,10 +11746,10 @@
         <v>3.9</v>
       </c>
       <c r="I84" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J84" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K84" t="n">
         <v>6</v>
@@ -11761,22 +11761,22 @@
         <v>1.01</v>
       </c>
       <c r="N84" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="O84" t="n">
         <v>1.01</v>
       </c>
       <c r="P84" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="Q84" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R84" t="n">
         <v>1.18</v>
       </c>
       <c r="S84" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="T84" t="n">
         <v>1.01</v>
@@ -11785,7 +11785,7 @@
         <v>1.01</v>
       </c>
       <c r="V84" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W84" t="n">
         <v>1.83</v>
@@ -11875,19 +11875,19 @@
         <v>3.35</v>
       </c>
       <c r="G85" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="H85" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="I85" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="J85" t="n">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="K85" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="L85" t="n">
         <v>1.01</v>
@@ -11896,22 +11896,22 @@
         <v>1.01</v>
       </c>
       <c r="N85" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="O85" t="n">
         <v>1.01</v>
       </c>
       <c r="P85" t="n">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="R85" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="S85" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T85" t="n">
         <v>1.01</v>
@@ -11920,10 +11920,10 @@
         <v>1.01</v>
       </c>
       <c r="V85" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="W85" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X85" t="n">
         <v>1000</v>
@@ -12010,16 +12010,16 @@
         <v>2.44</v>
       </c>
       <c r="G86" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H86" t="n">
         <v>2.42</v>
       </c>
       <c r="I86" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J86" t="n">
-        <v>2.74</v>
+        <v>2.96</v>
       </c>
       <c r="K86" t="n">
         <v>5.7</v>
@@ -12031,13 +12031,13 @@
         <v>1.01</v>
       </c>
       <c r="N86" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="O86" t="n">
         <v>1.01</v>
       </c>
       <c r="P86" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="Q86" t="n">
         <v>1.94</v>
@@ -12046,7 +12046,7 @@
         <v>1.18</v>
       </c>
       <c r="S86" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="T86" t="n">
         <v>1.01</v>
@@ -12055,10 +12055,10 @@
         <v>1.01</v>
       </c>
       <c r="V86" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="W86" t="n">
         <v>1.4</v>
-      </c>
-      <c r="W86" t="n">
-        <v>1.39</v>
       </c>
       <c r="X86" t="n">
         <v>1000</v>
@@ -12118,7 +12118,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -12133,127 +12133,127 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Thun</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>FC Zurich</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1.72</v>
+        <v>1.94</v>
       </c>
       <c r="G87" t="n">
-        <v>1.81</v>
+        <v>2.08</v>
       </c>
       <c r="H87" t="n">
-        <v>4.6</v>
+        <v>3.65</v>
       </c>
       <c r="I87" t="n">
-        <v>5.3</v>
+        <v>4.4</v>
       </c>
       <c r="J87" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="K87" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L87" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M87" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N87" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="O87" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="P87" t="n">
-        <v>2.32</v>
+        <v>2.54</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="R87" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="S87" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="T87" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U87" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V87" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W87" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="X87" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y87" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z87" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA87" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB87" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC87" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD87" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE87" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF87" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG87" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH87" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI87" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ87" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK87" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL87" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM87" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN87" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO87" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -12268,127 +12268,127 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>FK IMT Novi Beograd</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Partizan Belgrade</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>4.4</v>
+        <v>1.72</v>
       </c>
       <c r="G88" t="n">
-        <v>8.6</v>
+        <v>1.81</v>
       </c>
       <c r="H88" t="n">
-        <v>1.49</v>
+        <v>4.7</v>
       </c>
       <c r="I88" t="n">
-        <v>1.71</v>
+        <v>5.3</v>
       </c>
       <c r="J88" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="K88" t="n">
-        <v>6.2</v>
+        <v>4.5</v>
       </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M88" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N88" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="O88" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P88" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="R88" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="S88" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="T88" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="U88" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="V88" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="W88" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="X88" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Y88" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Z88" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AA88" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AB88" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC88" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD88" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE88" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF88" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AG88" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH88" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AI88" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ88" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AK88" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AL88" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AM88" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AN88" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AO88" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Hungarian NB I</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -12403,127 +12403,127 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Gyori</t>
+          <t>FK IMT Novi Beograd</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Puskas Akademia</t>
+          <t>Partizan Belgrade</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1.81</v>
+        <v>4.4</v>
       </c>
       <c r="G89" t="n">
-        <v>2.06</v>
+        <v>8.6</v>
       </c>
       <c r="H89" t="n">
-        <v>4</v>
+        <v>1.49</v>
       </c>
       <c r="I89" t="n">
-        <v>5.3</v>
+        <v>1.71</v>
       </c>
       <c r="J89" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="K89" t="n">
-        <v>4.5</v>
+        <v>6.2</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M89" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N89" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="O89" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P89" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="R89" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="S89" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="T89" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U89" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V89" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="W89" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="X89" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y89" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z89" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA89" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB89" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC89" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD89" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE89" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF89" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG89" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH89" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI89" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ89" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK89" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL89" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM89" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN89" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO89" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Hungarian NB I</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -12538,127 +12538,127 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Gyori</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>Puskas Akademia</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="G90" t="n">
-        <v>1.71</v>
+        <v>2.06</v>
       </c>
       <c r="H90" t="n">
-        <v>6.2</v>
+        <v>4</v>
       </c>
       <c r="I90" t="n">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="J90" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="K90" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M90" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N90" t="n">
-        <v>3.55</v>
+        <v>2.2</v>
       </c>
       <c r="O90" t="n">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="P90" t="n">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.1</v>
+        <v>1.58</v>
       </c>
       <c r="R90" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="S90" t="n">
-        <v>3.95</v>
+        <v>2.4</v>
       </c>
       <c r="T90" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="U90" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="V90" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="W90" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="X90" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Y90" t="n">
-        <v>18.5</v>
+        <v>29</v>
       </c>
       <c r="Z90" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA90" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AB90" t="n">
-        <v>7.8</v>
+        <v>16</v>
       </c>
       <c r="AC90" t="n">
-        <v>8.6</v>
+        <v>13.5</v>
       </c>
       <c r="AD90" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE90" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AF90" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AG90" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="AH90" t="n">
         <v>25</v>
       </c>
       <c r="AI90" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="AJ90" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AK90" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AL90" t="n">
         <v>44</v>
       </c>
       <c r="AM90" t="n">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="AN90" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AO90" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -12668,132 +12668,132 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Tamworth FC</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>US Cremonese</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>3.35</v>
+        <v>1.7</v>
       </c>
       <c r="G91" t="n">
-        <v>5.3</v>
+        <v>1.71</v>
       </c>
       <c r="H91" t="n">
-        <v>1.81</v>
+        <v>6.2</v>
       </c>
       <c r="I91" t="n">
-        <v>2.28</v>
+        <v>6.4</v>
       </c>
       <c r="J91" t="n">
-        <v>3.45</v>
+        <v>3.95</v>
       </c>
       <c r="K91" t="n">
-        <v>7.2</v>
+        <v>4</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M91" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N91" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="O91" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P91" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="R91" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="S91" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="T91" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="U91" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="V91" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="W91" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="X91" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Y91" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Z91" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AA91" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AB91" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC91" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD91" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AE91" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AF91" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG91" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH91" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI91" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AJ91" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AK91" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AL91" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AM91" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AN91" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AO91" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -12803,132 +12803,132 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1.21</v>
+        <v>1.49</v>
       </c>
       <c r="G92" t="n">
-        <v>1.27</v>
+        <v>1.6</v>
       </c>
       <c r="H92" t="n">
-        <v>14</v>
+        <v>6.2</v>
       </c>
       <c r="I92" t="n">
-        <v>21</v>
+        <v>8.6</v>
       </c>
       <c r="J92" t="n">
-        <v>7</v>
+        <v>4.6</v>
       </c>
       <c r="K92" t="n">
-        <v>8.4</v>
+        <v>5.5</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M92" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N92" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="O92" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="P92" t="n">
-        <v>2.78</v>
+        <v>2.48</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="R92" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="S92" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="T92" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U92" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V92" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="W92" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="X92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -12943,127 +12943,127 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Tamworth FC</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="G93" t="n">
-        <v>3.6</v>
+        <v>5.3</v>
       </c>
       <c r="H93" t="n">
-        <v>2.14</v>
+        <v>1.81</v>
       </c>
       <c r="I93" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="J93" t="n">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="K93" t="n">
-        <v>3.9</v>
+        <v>7.2</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M93" t="n">
         <v>1.05</v>
       </c>
       <c r="N93" t="n">
-        <v>5</v>
+        <v>1.02</v>
       </c>
       <c r="O93" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P93" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="R93" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S93" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="T93" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U93" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V93" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="W93" t="n">
         <v>1.23</v>
       </c>
-      <c r="P93" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R93" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S93" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="T93" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="U93" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="V93" t="n">
-        <v>0</v>
-      </c>
-      <c r="W93" t="n">
-        <v>0</v>
-      </c>
       <c r="X93" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y93" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z93" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AA93" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AB93" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AC93" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD93" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE93" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AF93" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AG93" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH93" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AI93" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AJ93" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK93" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL93" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM93" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN93" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO93" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -13078,127 +13078,127 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>2.16</v>
+        <v>1.21</v>
       </c>
       <c r="G94" t="n">
-        <v>2.18</v>
+        <v>1.27</v>
       </c>
       <c r="H94" t="n">
-        <v>3.45</v>
+        <v>14</v>
       </c>
       <c r="I94" t="n">
-        <v>3.55</v>
+        <v>21</v>
       </c>
       <c r="J94" t="n">
-        <v>3.85</v>
+        <v>7</v>
       </c>
       <c r="K94" t="n">
-        <v>3.95</v>
+        <v>8.4</v>
       </c>
       <c r="L94" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M94" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N94" t="n">
-        <v>5.7</v>
+        <v>2.8</v>
       </c>
       <c r="O94" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="P94" t="n">
-        <v>2.58</v>
+        <v>2.78</v>
       </c>
       <c r="Q94" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R94" t="n">
         <v>1.61</v>
       </c>
-      <c r="R94" t="n">
-        <v>1.66</v>
-      </c>
       <c r="S94" t="n">
-        <v>2.44</v>
+        <v>1.96</v>
       </c>
       <c r="T94" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="U94" t="n">
-        <v>2.72</v>
+        <v>1.01</v>
       </c>
       <c r="V94" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="W94" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="X94" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>75</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC94" t="n">
         <v>25</v>
       </c>
-      <c r="Y94" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Z94" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA94" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB94" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC94" t="n">
-        <v>9.4</v>
-      </c>
       <c r="AD94" t="n">
-        <v>16.5</v>
+        <v>80</v>
       </c>
       <c r="AE94" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF94" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG94" t="n">
         <v>17</v>
       </c>
-      <c r="AG94" t="n">
-        <v>12</v>
-      </c>
       <c r="AH94" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="AI94" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ94" t="n">
-        <v>30</v>
+        <v>13.5</v>
       </c>
       <c r="AK94" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL94" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="AM94" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AN94" t="n">
-        <v>10</v>
+        <v>4.8</v>
       </c>
       <c r="AO94" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -13213,127 +13213,127 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Ironi Tiberias</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Hapoel Beer Sheva</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>7.8</v>
+        <v>3.55</v>
       </c>
       <c r="G95" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H95" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I95" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K95" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N95" t="n">
+        <v>5</v>
+      </c>
+      <c r="O95" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P95" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R95" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S95" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="T95" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U95" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="V95" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="W95" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X95" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z95" t="n">
         <v>15</v>
       </c>
-      <c r="H95" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="J95" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="K95" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="L95" t="n">
-        <v>0</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0</v>
-      </c>
-      <c r="N95" t="n">
-        <v>0</v>
-      </c>
-      <c r="O95" t="n">
-        <v>0</v>
-      </c>
-      <c r="P95" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Q95" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R95" t="n">
-        <v>0</v>
-      </c>
-      <c r="S95" t="n">
-        <v>0</v>
-      </c>
-      <c r="T95" t="n">
-        <v>0</v>
-      </c>
-      <c r="U95" t="n">
-        <v>0</v>
-      </c>
-      <c r="V95" t="n">
-        <v>0</v>
-      </c>
-      <c r="W95" t="n">
-        <v>0</v>
-      </c>
-      <c r="X95" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y95" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z95" t="n">
-        <v>0</v>
-      </c>
       <c r="AA95" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AB95" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AC95" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD95" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AE95" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AF95" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AG95" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH95" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AI95" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AJ95" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AK95" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AL95" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AM95" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AN95" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AO95" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -13348,127 +13348,127 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Osasuna</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Alaves</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="G96" t="n">
-        <v>2.36</v>
+        <v>2.24</v>
       </c>
       <c r="H96" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="I96" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="J96" t="n">
-        <v>3.15</v>
+        <v>3.95</v>
       </c>
       <c r="K96" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="M96" t="n">
-        <v>1.13</v>
+        <v>1.04</v>
       </c>
       <c r="N96" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="O96" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P96" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R96" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S96" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="T96" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U96" t="n">
         <v>2.68</v>
       </c>
-      <c r="O96" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="P96" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="Q96" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="R96" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S96" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="T96" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U96" t="n">
-        <v>1.77</v>
-      </c>
       <c r="V96" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="W96" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="X96" t="n">
-        <v>8.6</v>
+        <v>22</v>
       </c>
       <c r="Y96" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN96" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z96" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA96" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB96" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC96" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD96" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE96" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF96" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG96" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH96" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI96" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ96" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK96" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL96" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM96" t="n">
-        <v>240</v>
-      </c>
-      <c r="AN96" t="n">
-        <v>36</v>
-      </c>
       <c r="AO96" t="n">
-        <v>120</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -13483,127 +13483,127 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Ironi Tiberias</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Sporting Gijon</t>
+          <t>Hapoel Beer Sheva</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>2.22</v>
+        <v>7.8</v>
       </c>
       <c r="G97" t="n">
-        <v>2.34</v>
+        <v>15</v>
       </c>
       <c r="H97" t="n">
-        <v>3.8</v>
+        <v>1.29</v>
       </c>
       <c r="I97" t="n">
-        <v>4.3</v>
+        <v>1.37</v>
       </c>
       <c r="J97" t="n">
-        <v>3.2</v>
+        <v>5.8</v>
       </c>
       <c r="K97" t="n">
-        <v>3.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M97" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N97" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="O97" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="P97" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R97" t="n">
         <v>1.56</v>
       </c>
-      <c r="Q97" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="R97" t="n">
-        <v>0</v>
-      </c>
       <c r="S97" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="T97" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U97" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V97" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="W97" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="X97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -13613,132 +13613,132 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Osasuna</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>PEC Zwolle</t>
+          <t>Alaves</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>2.14</v>
+        <v>2.32</v>
       </c>
       <c r="G98" t="n">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="H98" t="n">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="I98" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="J98" t="n">
-        <v>3.8</v>
+        <v>3.15</v>
       </c>
       <c r="K98" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="M98" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="N98" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="O98" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="P98" t="n">
-        <v>2.34</v>
+        <v>1.54</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.64</v>
+        <v>2.72</v>
       </c>
       <c r="R98" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="S98" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="T98" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="U98" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="V98" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="W98" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="X98" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y98" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Z98" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AA98" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AB98" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AC98" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AD98" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE98" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF98" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AG98" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH98" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI98" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ98" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AK98" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AL98" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM98" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AN98" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AO98" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -13748,132 +13748,132 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Sporting Gijon</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1.76</v>
+        <v>2.22</v>
       </c>
       <c r="G99" t="n">
-        <v>1.84</v>
+        <v>2.34</v>
       </c>
       <c r="H99" t="n">
-        <v>5.4</v>
+        <v>3.8</v>
       </c>
       <c r="I99" t="n">
-        <v>6.2</v>
+        <v>4.3</v>
       </c>
       <c r="J99" t="n">
-        <v>3.6</v>
+        <v>3.15</v>
       </c>
       <c r="K99" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L99" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M99" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="N99" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="O99" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="P99" t="n">
-        <v>1.76</v>
+        <v>1.56</v>
       </c>
       <c r="Q99" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="R99" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="n">
         <v>2.1</v>
       </c>
-      <c r="R99" t="n">
-        <v>0</v>
-      </c>
-      <c r="S99" t="n">
-        <v>0</v>
-      </c>
-      <c r="T99" t="n">
-        <v>0</v>
-      </c>
       <c r="U99" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="V99" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="W99" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="X99" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="Y99" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Z99" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AA99" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AB99" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC99" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD99" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AE99" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF99" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AG99" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH99" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI99" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AJ99" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AK99" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AL99" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM99" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AN99" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AO99" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -13883,132 +13883,132 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>UTA Arad</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Dinamo Bucharest</t>
+          <t>PEC Zwolle</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>4</v>
+        <v>2.14</v>
       </c>
       <c r="G100" t="n">
-        <v>4.8</v>
+        <v>2.26</v>
       </c>
       <c r="H100" t="n">
-        <v>1.94</v>
+        <v>3.25</v>
       </c>
       <c r="I100" t="n">
-        <v>2.08</v>
+        <v>3.55</v>
       </c>
       <c r="J100" t="n">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="K100" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="L100" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M100" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N100" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="O100" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="P100" t="n">
-        <v>1.74</v>
+        <v>2.34</v>
       </c>
       <c r="Q100" t="n">
-        <v>2.08</v>
+        <v>1.64</v>
       </c>
       <c r="R100" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="S100" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="T100" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U100" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V100" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="W100" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="X100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y100" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Z100" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AA100" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB100" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AC100" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE100" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AF100" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AG100" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH100" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI100" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ100" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AK100" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AL100" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AM100" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AN100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -14018,132 +14018,132 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>UTA Arad</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Reggiana</t>
+          <t>Dinamo Bucharest</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2.78</v>
+        <v>4</v>
       </c>
       <c r="G101" t="n">
-        <v>3.25</v>
+        <v>4.8</v>
       </c>
       <c r="H101" t="n">
-        <v>2.54</v>
+        <v>1.94</v>
       </c>
       <c r="I101" t="n">
-        <v>2.88</v>
+        <v>2.08</v>
       </c>
       <c r="J101" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K101" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="L101" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M101" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N101" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="O101" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P101" t="n">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="Q101" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="R101" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S101" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="T101" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U101" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V101" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="W101" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="X101" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Y101" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z101" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AA101" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AB101" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC101" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD101" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AE101" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AF101" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AG101" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AH101" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI101" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ101" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK101" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AL101" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AM101" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN101" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO101" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -14153,132 +14153,132 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Olympiakos</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Kifisia</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1.14</v>
+        <v>1.77</v>
       </c>
       <c r="G102" t="n">
-        <v>1.17</v>
+        <v>1.84</v>
       </c>
       <c r="H102" t="n">
-        <v>1.09</v>
+        <v>5.4</v>
       </c>
       <c r="I102" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="J102" t="n">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="K102" t="n">
-        <v>12</v>
+        <v>3.8</v>
       </c>
       <c r="L102" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="M102" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N102" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="O102" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P102" t="n">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="Q102" t="n">
-        <v>1.4</v>
+        <v>2.08</v>
       </c>
       <c r="R102" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="S102" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="T102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U102" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="V102" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="W102" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="X102" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y102" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Z102" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AA102" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AB102" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC102" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD102" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AE102" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AF102" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AG102" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH102" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI102" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AJ102" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AK102" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AL102" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AM102" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AN102" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AO102" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -14288,132 +14288,132 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Olympiakos</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>Kifisia</t>
         </is>
       </c>
       <c r="F103" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H103" t="n">
+        <v>21</v>
+      </c>
+      <c r="I103" t="n">
+        <v>42</v>
+      </c>
+      <c r="J103" t="n">
+        <v>9</v>
+      </c>
+      <c r="K103" t="n">
+        <v>11</v>
+      </c>
+      <c r="L103" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N103" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O103" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P103" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R103" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="S103" t="n">
         <v>2</v>
       </c>
-      <c r="G103" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H103" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I103" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J103" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K103" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L103" t="n">
-        <v>0</v>
-      </c>
-      <c r="M103" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N103" t="n">
-        <v>0</v>
-      </c>
-      <c r="O103" t="n">
-        <v>0</v>
-      </c>
-      <c r="P103" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="Q103" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R103" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S103" t="n">
-        <v>2.16</v>
-      </c>
       <c r="T103" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U103" t="n">
         <v>1.49</v>
       </c>
-      <c r="U103" t="n">
-        <v>2.66</v>
-      </c>
       <c r="V103" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="W103" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="X103" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y103" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Z103" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA103" t="n">
         <v>1000</v>
       </c>
       <c r="AB103" t="n">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="AC103" t="n">
-        <v>13.5</v>
+        <v>24</v>
       </c>
       <c r="AD103" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AE103" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AF103" t="n">
-        <v>22</v>
+        <v>8.6</v>
       </c>
       <c r="AG103" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AH103" t="n">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="AI103" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ103" t="n">
-        <v>32</v>
+        <v>9.4</v>
       </c>
       <c r="AK103" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AL103" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AM103" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN103" t="n">
-        <v>10.5</v>
+        <v>3.45</v>
       </c>
       <c r="AO103" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -14423,132 +14423,132 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>NEC Nijmegen</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Reggiana</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>2.26</v>
+        <v>2.84</v>
       </c>
       <c r="G104" t="n">
-        <v>2.44</v>
+        <v>3.15</v>
       </c>
       <c r="H104" t="n">
-        <v>2.78</v>
+        <v>2.56</v>
       </c>
       <c r="I104" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J104" t="n">
-        <v>4.3</v>
+        <v>3.25</v>
       </c>
       <c r="K104" t="n">
-        <v>4.6</v>
+        <v>3.65</v>
       </c>
       <c r="L104" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M104" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N104" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="O104" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P104" t="n">
-        <v>2.76</v>
+        <v>1.82</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.48</v>
+        <v>2</v>
       </c>
       <c r="R104" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S104" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T104" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U104" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="V104" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="W104" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="X104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y104" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Z104" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AA104" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB104" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AC104" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD104" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AE104" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AF104" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AG104" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AH104" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI104" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ104" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AK104" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AL104" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -14558,132 +14558,132 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>San Juan FC</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Dynamo Dresden</t>
+          <t>Jorge Wilstermann</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="G105" t="n">
-        <v>2.06</v>
+        <v>2.28</v>
       </c>
       <c r="H105" t="n">
-        <v>3.85</v>
+        <v>3.25</v>
       </c>
       <c r="I105" t="n">
-        <v>4.3</v>
+        <v>370</v>
       </c>
       <c r="J105" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="K105" t="n">
-        <v>4.1</v>
+        <v>150</v>
       </c>
       <c r="L105" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M105" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N105" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="O105" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P105" t="n">
-        <v>2.26</v>
+        <v>1.29</v>
       </c>
       <c r="Q105" t="n">
-        <v>1.68</v>
+        <v>1.22</v>
       </c>
       <c r="R105" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="S105" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="T105" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="U105" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V105" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W105" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="X105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -14693,42 +14693,42 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Forest Green</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>5.2</v>
+        <v>2</v>
       </c>
       <c r="G106" t="n">
-        <v>6.4</v>
+        <v>2.14</v>
       </c>
       <c r="H106" t="n">
-        <v>1.62</v>
+        <v>3.2</v>
       </c>
       <c r="I106" t="n">
-        <v>1.77</v>
+        <v>3.65</v>
       </c>
       <c r="J106" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K106" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L106" t="n">
         <v>0</v>
       </c>
       <c r="M106" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N106" t="n">
         <v>0</v>
@@ -14737,22 +14737,22 @@
         <v>0</v>
       </c>
       <c r="P106" t="n">
-        <v>2.04</v>
+        <v>2.74</v>
       </c>
       <c r="Q106" t="n">
-        <v>1.75</v>
+        <v>1.47</v>
       </c>
       <c r="R106" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="S106" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="T106" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="U106" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="V106" t="n">
         <v>0</v>
@@ -14761,64 +14761,64 @@
         <v>0</v>
       </c>
       <c r="X106" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Y106" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Z106" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AA106" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB106" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC106" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AD106" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AE106" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AF106" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AG106" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AH106" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AI106" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ106" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AK106" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AL106" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AM106" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AN106" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AO106" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -14828,66 +14828,66 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>NEC Nijmegen</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>2.08</v>
+        <v>2.36</v>
       </c>
       <c r="G107" t="n">
-        <v>2.1</v>
+        <v>2.44</v>
       </c>
       <c r="H107" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="I107" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="J107" t="n">
         <v>4.3</v>
       </c>
-      <c r="I107" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J107" t="n">
-        <v>3.35</v>
-      </c>
       <c r="K107" t="n">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="L107" t="n">
         <v>0</v>
       </c>
       <c r="M107" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="N107" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="O107" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="P107" t="n">
-        <v>1.69</v>
+        <v>2.84</v>
       </c>
       <c r="Q107" t="n">
-        <v>2.36</v>
+        <v>1.48</v>
       </c>
       <c r="R107" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="S107" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="T107" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="U107" t="n">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="V107" t="n">
         <v>0</v>
@@ -14896,64 +14896,64 @@
         <v>0</v>
       </c>
       <c r="X107" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y107" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="Z107" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA107" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AB107" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AC107" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AD107" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AE107" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AF107" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AG107" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AH107" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AI107" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AJ107" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AK107" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AL107" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AM107" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AN107" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AO107" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -14963,66 +14963,66 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Dynamo Dresden</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1.23</v>
+        <v>1.92</v>
       </c>
       <c r="G108" t="n">
-        <v>1.25</v>
+        <v>2.06</v>
       </c>
       <c r="H108" t="n">
-        <v>14.5</v>
+        <v>3.85</v>
       </c>
       <c r="I108" t="n">
-        <v>15.5</v>
+        <v>4.3</v>
       </c>
       <c r="J108" t="n">
-        <v>7.8</v>
+        <v>3.8</v>
       </c>
       <c r="K108" t="n">
-        <v>8</v>
+        <v>4.1</v>
       </c>
       <c r="L108" t="n">
         <v>0</v>
       </c>
       <c r="M108" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="N108" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="O108" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="P108" t="n">
-        <v>3.4</v>
+        <v>2.26</v>
       </c>
       <c r="Q108" t="n">
-        <v>1.39</v>
+        <v>1.68</v>
       </c>
       <c r="R108" t="n">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="S108" t="n">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="T108" t="n">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="U108" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="V108" t="n">
         <v>0</v>
@@ -15031,64 +15031,64 @@
         <v>0</v>
       </c>
       <c r="X108" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="Y108" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="Z108" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AA108" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB108" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AC108" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AD108" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AE108" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="AF108" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AG108" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AH108" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AI108" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ108" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AK108" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AL108" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AM108" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AN108" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="AO108" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -15098,66 +15098,66 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>FC Basel</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>2.72</v>
+        <v>1.68</v>
       </c>
       <c r="G109" t="n">
-        <v>2.74</v>
+        <v>1.78</v>
       </c>
       <c r="H109" t="n">
-        <v>2.92</v>
+        <v>4.5</v>
       </c>
       <c r="I109" t="n">
-        <v>2.96</v>
+        <v>5.4</v>
       </c>
       <c r="J109" t="n">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="K109" t="n">
-        <v>3.45</v>
+        <v>5</v>
       </c>
       <c r="L109" t="n">
         <v>0</v>
       </c>
       <c r="M109" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N109" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="O109" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="P109" t="n">
-        <v>1.82</v>
+        <v>2.78</v>
       </c>
       <c r="Q109" t="n">
-        <v>2.18</v>
+        <v>1.48</v>
       </c>
       <c r="R109" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="S109" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T109" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="U109" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="V109" t="n">
         <v>0</v>
@@ -15166,64 +15166,64 @@
         <v>0</v>
       </c>
       <c r="X109" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Y109" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="Z109" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AA109" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AB109" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC109" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AD109" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AE109" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AF109" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AG109" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AH109" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AI109" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AJ109" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AK109" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AL109" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AM109" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AN109" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AO109" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -15233,54 +15233,54 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Leonesa</t>
+          <t>Forest Green</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1.66</v>
+        <v>5.2</v>
       </c>
       <c r="G110" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="J110" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K110" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" t="n">
+        <v>0</v>
+      </c>
+      <c r="P110" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q110" t="n">
         <v>1.75</v>
-      </c>
-      <c r="H110" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="I110" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="J110" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K110" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L110" t="n">
-        <v>0</v>
-      </c>
-      <c r="M110" t="n">
-        <v>0</v>
-      </c>
-      <c r="N110" t="n">
-        <v>0</v>
-      </c>
-      <c r="O110" t="n">
-        <v>0</v>
-      </c>
-      <c r="P110" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q110" t="n">
-        <v>0</v>
       </c>
       <c r="R110" t="n">
         <v>0</v>
@@ -15358,7 +15358,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -15368,66 +15368,66 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>NAC Breda</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>SC Telstar</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1.89</v>
+        <v>2.08</v>
       </c>
       <c r="G111" t="n">
-        <v>1.94</v>
+        <v>2.1</v>
       </c>
       <c r="H111" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="I111" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="J111" t="n">
-        <v>3.9</v>
+        <v>3.35</v>
       </c>
       <c r="K111" t="n">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="L111" t="n">
         <v>0</v>
       </c>
       <c r="M111" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="N111" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="O111" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="P111" t="n">
-        <v>2.24</v>
+        <v>1.69</v>
       </c>
       <c r="Q111" t="n">
-        <v>1.69</v>
+        <v>2.38</v>
       </c>
       <c r="R111" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S111" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="T111" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="U111" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="V111" t="n">
         <v>0</v>
@@ -15436,64 +15436,64 @@
         <v>0</v>
       </c>
       <c r="X111" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y111" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Z111" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA111" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AB111" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC111" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AD111" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AE111" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AF111" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG111" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH111" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI111" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AJ111" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AK111" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL111" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM111" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AN111" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AO111" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -15508,61 +15508,61 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>6.6</v>
+        <v>1.24</v>
       </c>
       <c r="G112" t="n">
-        <v>6.8</v>
+        <v>1.25</v>
       </c>
       <c r="H112" t="n">
-        <v>1.65</v>
+        <v>14.5</v>
       </c>
       <c r="I112" t="n">
-        <v>1.66</v>
+        <v>15.5</v>
       </c>
       <c r="J112" t="n">
-        <v>4</v>
+        <v>7.8</v>
       </c>
       <c r="K112" t="n">
-        <v>4.1</v>
+        <v>8</v>
       </c>
       <c r="L112" t="n">
         <v>0</v>
       </c>
       <c r="M112" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="N112" t="n">
-        <v>3.5</v>
+        <v>8.4</v>
       </c>
       <c r="O112" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P112" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q112" t="n">
         <v>1.39</v>
       </c>
-      <c r="P112" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Q112" t="n">
-        <v>2.16</v>
-      </c>
       <c r="R112" t="n">
-        <v>1.31</v>
+        <v>1.98</v>
       </c>
       <c r="S112" t="n">
-        <v>4</v>
+        <v>1.97</v>
       </c>
       <c r="T112" t="n">
-        <v>2.16</v>
+        <v>1.89</v>
       </c>
       <c r="U112" t="n">
-        <v>1.81</v>
+        <v>2.04</v>
       </c>
       <c r="V112" t="n">
         <v>0</v>
@@ -15571,192 +15571,732 @@
         <v>0</v>
       </c>
       <c r="X112" t="n">
+        <v>44</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>65</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>170</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>230</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK112" t="n">
         <v>13</v>
       </c>
-      <c r="Y112" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="Z112" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AA112" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AB112" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC112" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD112" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE112" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF112" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG112" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH112" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI112" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ112" t="n">
-        <v>260</v>
-      </c>
-      <c r="AK112" t="n">
-        <v>110</v>
-      </c>
       <c r="AL112" t="n">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="AM112" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN112" t="n">
-        <v>170</v>
+        <v>3.15</v>
       </c>
       <c r="AO112" t="n">
-        <v>11.5</v>
+        <v>220</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
+          <t>English Premier League</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="G113" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H113" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="I113" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J113" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K113" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N113" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O113" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P113" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R113" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S113" t="n">
+        <v>4</v>
+      </c>
+      <c r="T113" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U113" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="n">
+        <v>0</v>
+      </c>
+      <c r="X113" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK113" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL113" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO113" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Spanish Segunda Division</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Las Palmas</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Leonesa</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H114" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I114" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J114" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K114" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0</v>
+      </c>
+      <c r="O114" t="n">
+        <v>0</v>
+      </c>
+      <c r="P114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>0</v>
+      </c>
+      <c r="R114" t="n">
+        <v>0</v>
+      </c>
+      <c r="S114" t="n">
+        <v>0</v>
+      </c>
+      <c r="T114" t="n">
+        <v>0</v>
+      </c>
+      <c r="U114" t="n">
+        <v>0</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="n">
+        <v>0</v>
+      </c>
+      <c r="X114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Dutch Eredivisie</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>NAC Breda</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>SC Telstar</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+      <c r="I115" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J115" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K115" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0</v>
+      </c>
+      <c r="O115" t="n">
+        <v>0</v>
+      </c>
+      <c r="P115" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R115" t="n">
+        <v>0</v>
+      </c>
+      <c r="S115" t="n">
+        <v>0</v>
+      </c>
+      <c r="T115" t="n">
+        <v>0</v>
+      </c>
+      <c r="U115" t="n">
+        <v>0</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="n">
+        <v>0</v>
+      </c>
+      <c r="X115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>English Premier League</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G116" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J116" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K116" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N116" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O116" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P116" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R116" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S116" t="n">
+        <v>4</v>
+      </c>
+      <c r="T116" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U116" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V116" t="n">
+        <v>0</v>
+      </c>
+      <c r="W116" t="n">
+        <v>0</v>
+      </c>
+      <c r="X116" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>270</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL116" t="n">
+        <v>140</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>190</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
           <t>Portuguese Primeira Liga</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B117" t="inlineStr">
         <is>
           <t>2025-12-20</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="C117" t="inlineStr">
         <is>
           <t>17:30:00</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="D117" t="inlineStr">
         <is>
           <t>Club Football Estrela</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>Moreirense</t>
         </is>
       </c>
-      <c r="F113" t="n">
+      <c r="F117" t="n">
         <v>2.38</v>
       </c>
-      <c r="G113" t="n">
+      <c r="G117" t="n">
         <v>2.58</v>
       </c>
-      <c r="H113" t="n">
+      <c r="H117" t="n">
         <v>3.25</v>
       </c>
-      <c r="I113" t="n">
+      <c r="I117" t="n">
         <v>3.6</v>
       </c>
-      <c r="J113" t="n">
+      <c r="J117" t="n">
         <v>3.2</v>
       </c>
-      <c r="K113" t="n">
+      <c r="K117" t="n">
         <v>3.35</v>
       </c>
-      <c r="L113" t="n">
-        <v>0</v>
-      </c>
-      <c r="M113" t="n">
-        <v>0</v>
-      </c>
-      <c r="N113" t="n">
-        <v>0</v>
-      </c>
-      <c r="O113" t="n">
-        <v>0</v>
-      </c>
-      <c r="P113" t="n">
+      <c r="L117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O117" t="n">
+        <v>0</v>
+      </c>
+      <c r="P117" t="n">
         <v>1.69</v>
       </c>
-      <c r="Q113" t="n">
+      <c r="Q117" t="n">
         <v>2.24</v>
       </c>
-      <c r="R113" t="n">
-        <v>0</v>
-      </c>
-      <c r="S113" t="n">
-        <v>0</v>
-      </c>
-      <c r="T113" t="n">
-        <v>0</v>
-      </c>
-      <c r="U113" t="n">
-        <v>0</v>
-      </c>
-      <c r="V113" t="n">
-        <v>0</v>
-      </c>
-      <c r="W113" t="n">
-        <v>0</v>
-      </c>
-      <c r="X113" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y113" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO113" t="n">
+      <c r="R117" t="n">
+        <v>0</v>
+      </c>
+      <c r="S117" t="n">
+        <v>0</v>
+      </c>
+      <c r="T117" t="n">
+        <v>0</v>
+      </c>
+      <c r="U117" t="n">
+        <v>0</v>
+      </c>
+      <c r="V117" t="n">
+        <v>0</v>
+      </c>
+      <c r="W117" t="n">
+        <v>0</v>
+      </c>
+      <c r="X117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO117" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-20.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="G2" t="n">
         <v>3.3</v>
       </c>
       <c r="H2" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="I2" t="n">
         <v>2.18</v>
@@ -682,7 +682,7 @@
         <v>4.3</v>
       </c>
       <c r="K2" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L2" t="n">
         <v>1.23</v>
@@ -706,16 +706,16 @@
         <v>1.9</v>
       </c>
       <c r="S2" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="T2" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="U2" t="n">
         <v>3.15</v>
       </c>
       <c r="V2" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="W2" t="n">
         <v>1.43</v>
@@ -742,7 +742,7 @@
         <v>12.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AF2" t="n">
         <v>32</v>
@@ -769,7 +769,7 @@
         <v>50</v>
       </c>
       <c r="AN2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO2" t="n">
         <v>8.199999999999999</v>
@@ -808,7 +808,7 @@
         <v>2.34</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I3" t="n">
         <v>3.3</v>
@@ -826,7 +826,7 @@
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
         <v>1.3</v>
@@ -835,13 +835,13 @@
         <v>2.02</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="R3" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S3" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T3" t="n">
         <v>1.76</v>
@@ -853,7 +853,7 @@
         <v>1.43</v>
       </c>
       <c r="W3" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="X3" t="n">
         <v>16</v>
@@ -940,7 +940,7 @@
         <v>2.66</v>
       </c>
       <c r="G4" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H4" t="n">
         <v>2.8</v>
@@ -958,10 +958,10 @@
         <v>1.44</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="O4" t="n">
         <v>1.44</v>
@@ -970,16 +970,16 @@
         <v>1.61</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="R4" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S4" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="T4" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U4" t="n">
         <v>1.87</v>
@@ -1003,7 +1003,7 @@
         <v>65</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC4" t="n">
         <v>8.800000000000001</v>
@@ -1075,16 +1075,16 @@
         <v>1.74</v>
       </c>
       <c r="G5" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H5" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I5" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J5" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K5" t="n">
         <v>4.3</v>
@@ -1096,13 +1096,13 @@
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O5" t="n">
         <v>1.28</v>
       </c>
       <c r="P5" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q5" t="n">
         <v>1.84</v>
@@ -1117,10 +1117,10 @@
         <v>1.79</v>
       </c>
       <c r="U5" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W5" t="n">
         <v>2.1</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="G6" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="H6" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="I6" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="J6" t="n">
         <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L6" t="n">
         <v>1.29</v>
@@ -1231,34 +1231,34 @@
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O6" t="n">
         <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="Q6" t="n">
         <v>1.61</v>
       </c>
       <c r="R6" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S6" t="n">
         <v>2.5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="U6" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="V6" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="W6" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="X6" t="n">
         <v>25</v>
@@ -1270,10 +1270,10 @@
         <v>21</v>
       </c>
       <c r="AA6" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AB6" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC6" t="n">
         <v>9.4</v>
@@ -1309,10 +1309,10 @@
         <v>60</v>
       </c>
       <c r="AN6" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AO6" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="7">
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="G7" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="H7" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I7" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="J7" t="n">
         <v>3.6</v>
       </c>
       <c r="K7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L7" t="n">
         <v>1.39</v>
@@ -1366,19 +1366,19 @@
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O7" t="n">
         <v>1.29</v>
       </c>
       <c r="P7" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="Q7" t="n">
         <v>1.87</v>
       </c>
       <c r="R7" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S7" t="n">
         <v>3.1</v>
@@ -1390,10 +1390,10 @@
         <v>2.12</v>
       </c>
       <c r="V7" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W7" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="X7" t="n">
         <v>19.5</v>
@@ -1423,22 +1423,22 @@
         <v>16</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ7" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AK7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL7" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AM7" t="n">
         <v>110</v>
@@ -1447,7 +1447,7 @@
         <v>16.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
@@ -1531,7 +1531,7 @@
         <v>2.26</v>
       </c>
       <c r="X8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y8" t="n">
         <v>23</v>
@@ -1543,7 +1543,7 @@
         <v>140</v>
       </c>
       <c r="AB8" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC8" t="n">
         <v>10.5</v>
@@ -1576,10 +1576,10 @@
         <v>29</v>
       </c>
       <c r="AM8" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AN8" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AO8" t="n">
         <v>48</v>
@@ -1780,7 +1780,7 @@
         <v>2.66</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="R10" t="n">
         <v>1.68</v>
@@ -1888,7 +1888,7 @@
         <v>2.12</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I11" t="n">
         <v>4.3</v>
@@ -1915,13 +1915,13 @@
         <v>2.34</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R11" t="n">
         <v>1.21</v>
       </c>
       <c r="S11" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="T11" t="n">
         <v>1.01</v>
@@ -2020,7 +2020,7 @@
         <v>2.84</v>
       </c>
       <c r="G12" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H12" t="n">
         <v>2.56</v>
@@ -2029,46 +2029,46 @@
         <v>2.94</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K12" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L12" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M12" t="n">
         <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="O12" t="n">
         <v>1.41</v>
       </c>
       <c r="P12" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="Q12" t="n">
         <v>2.2</v>
       </c>
       <c r="R12" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S12" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T12" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="U12" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="V12" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="W12" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X12" t="n">
         <v>11.5</v>
@@ -2080,7 +2080,7 @@
         <v>18.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AB12" t="n">
         <v>11</v>
@@ -2089,10 +2089,10 @@
         <v>7.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF12" t="n">
         <v>24</v>
@@ -2104,25 +2104,25 @@
         <v>21</v>
       </c>
       <c r="AI12" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ12" t="n">
         <v>60</v>
       </c>
       <c r="AK12" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AL12" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM12" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN12" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AO12" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
@@ -2311,13 +2311,13 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="O14" t="n">
         <v>1.01</v>
       </c>
       <c r="P14" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q14" t="n">
         <v>1.01</v>
@@ -2326,7 +2326,7 @@
         <v>1.18</v>
       </c>
       <c r="S14" t="n">
-        <v>1.02</v>
+        <v>1.37</v>
       </c>
       <c r="T14" t="n">
         <v>1.01</v>
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="G16" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="H16" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I16" t="n">
         <v>2.6</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.62</v>
       </c>
       <c r="J16" t="n">
         <v>3.65</v>
@@ -2587,13 +2587,13 @@
         <v>1.25</v>
       </c>
       <c r="P16" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R16" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S16" t="n">
         <v>2.84</v>
@@ -2605,10 +2605,10 @@
         <v>2.54</v>
       </c>
       <c r="V16" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="W16" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X16" t="n">
         <v>18.5</v>
@@ -2617,7 +2617,7 @@
         <v>14</v>
       </c>
       <c r="Z16" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA16" t="n">
         <v>38</v>
@@ -2650,7 +2650,7 @@
         <v>44</v>
       </c>
       <c r="AK16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL16" t="n">
         <v>34</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="G18" t="n">
         <v>2.14</v>
@@ -2980,7 +2980,7 @@
         <v>3.95</v>
       </c>
       <c r="L19" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
@@ -3127,7 +3127,7 @@
         <v>1.28</v>
       </c>
       <c r="P20" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="Q20" t="n">
         <v>1.83</v>
@@ -3514,13 +3514,13 @@
         <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="K23" t="n">
         <v>4.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="M23" t="n">
         <v>1.03</v>
@@ -3550,7 +3550,7 @@
         <v>2.48</v>
       </c>
       <c r="V23" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="W23" t="n">
         <v>1.83</v>
@@ -3661,7 +3661,7 @@
         <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="O24" t="n">
         <v>1.26</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="G25" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="H25" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="I25" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K25" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
@@ -3796,22 +3796,22 @@
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="O25" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P25" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="Q25" t="n">
         <v>1.57</v>
       </c>
       <c r="R25" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="S25" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="T25" t="n">
         <v>1.01</v>
@@ -3820,10 +3820,10 @@
         <v>1.01</v>
       </c>
       <c r="V25" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="W25" t="n">
-        <v>2.58</v>
+        <v>2.76</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
@@ -4042,16 +4042,16 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="G27" t="n">
         <v>4.1</v>
       </c>
       <c r="H27" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="I27" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="J27" t="n">
         <v>3.45</v>
@@ -4072,7 +4072,7 @@
         <v>1.46</v>
       </c>
       <c r="P27" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Q27" t="n">
         <v>2.36</v>
@@ -4090,7 +4090,7 @@
         <v>1.89</v>
       </c>
       <c r="V27" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="W27" t="n">
         <v>1.32</v>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="G29" t="n">
         <v>1.42</v>
@@ -4327,7 +4327,7 @@
         <v>5.2</v>
       </c>
       <c r="K29" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
@@ -4336,7 +4336,7 @@
         <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="O29" t="n">
         <v>1.22</v>
@@ -4360,7 +4360,7 @@
         <v>1.01</v>
       </c>
       <c r="V29" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W29" t="n">
         <v>3.3</v>
@@ -4501,58 +4501,58 @@
         <v>1.65</v>
       </c>
       <c r="X30" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB30" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC30" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE30" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF30" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG30" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH30" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI30" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK30" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL30" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM30" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="G31" t="n">
         <v>5.2</v>
@@ -4597,10 +4597,10 @@
         <v>2.72</v>
       </c>
       <c r="K31" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="L31" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="M31" t="n">
         <v>1.01</v>
@@ -4621,7 +4621,7 @@
         <v>1.18</v>
       </c>
       <c r="S31" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="T31" t="n">
         <v>1.01</v>
@@ -4756,7 +4756,7 @@
         <v>1.18</v>
       </c>
       <c r="S32" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="T32" t="n">
         <v>1.01</v>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.04</v>
+        <v>1.66</v>
       </c>
       <c r="G33" t="n">
         <v>1000</v>
@@ -4876,22 +4876,22 @@
         <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="O33" t="n">
         <v>1.01</v>
       </c>
       <c r="P33" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.01</v>
+        <v>2.48</v>
       </c>
       <c r="R33" t="n">
         <v>1.13</v>
       </c>
       <c r="S33" t="n">
-        <v>1.02</v>
+        <v>2.48</v>
       </c>
       <c r="T33" t="n">
         <v>1.01</v>
@@ -4900,10 +4900,10 @@
         <v>1.01</v>
       </c>
       <c r="V33" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="W33" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="X33" t="n">
         <v>1000</v>
@@ -4993,7 +4993,7 @@
         <v>3.15</v>
       </c>
       <c r="H34" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I34" t="n">
         <v>3.1</v>
@@ -5020,7 +5020,7 @@
         <v>1.57</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="R34" t="n">
         <v>1.21</v>
@@ -5122,19 +5122,19 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="G35" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H35" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="I35" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="J35" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K35" t="n">
         <v>3.3</v>
@@ -5146,13 +5146,13 @@
         <v>1.07</v>
       </c>
       <c r="N35" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="O35" t="n">
-        <v>1.48</v>
+        <v>1.08</v>
       </c>
       <c r="P35" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q35" t="n">
         <v>2.44</v>
@@ -5167,13 +5167,13 @@
         <v>1.87</v>
       </c>
       <c r="U35" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="V35" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="W35" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="X35" t="n">
         <v>10.5</v>
@@ -5257,22 +5257,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="G36" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="H36" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I36" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J36" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K36" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -5287,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Q36" t="n">
         <v>2.02</v>
@@ -5392,22 +5392,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="G37" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="H37" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="I37" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J37" t="n">
         <v>3.7</v>
       </c>
       <c r="K37" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
@@ -5434,7 +5434,7 @@
         <v>3.3</v>
       </c>
       <c r="T37" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U37" t="n">
         <v>2.08</v>
@@ -5443,7 +5443,7 @@
         <v>1.27</v>
       </c>
       <c r="W37" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X37" t="n">
         <v>16</v>
@@ -5470,7 +5470,7 @@
         <v>60</v>
       </c>
       <c r="AF37" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG37" t="n">
         <v>11</v>
@@ -5482,7 +5482,7 @@
         <v>65</v>
       </c>
       <c r="AJ37" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK37" t="n">
         <v>22</v>
@@ -5527,22 +5527,22 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G38" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="H38" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I38" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J38" t="n">
         <v>3.15</v>
       </c>
       <c r="K38" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L38" t="n">
         <v>1.01</v>
@@ -5569,16 +5569,16 @@
         <v>3.6</v>
       </c>
       <c r="T38" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="U38" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="V38" t="n">
         <v>1.38</v>
       </c>
       <c r="W38" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="X38" t="n">
         <v>1000</v>
@@ -5662,16 +5662,16 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="G39" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="H39" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="I39" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="J39" t="n">
         <v>3.1</v>
@@ -5683,16 +5683,16 @@
         <v>1.01</v>
       </c>
       <c r="M39" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N39" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="O39" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="P39" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="Q39" t="n">
         <v>2.4</v>
@@ -5707,25 +5707,25 @@
         <v>2.06</v>
       </c>
       <c r="U39" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="V39" t="n">
         <v>1.28</v>
       </c>
       <c r="W39" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X39" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AA39" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB39" t="n">
         <v>7.6</v>
@@ -5734,10 +5734,10 @@
         <v>9</v>
       </c>
       <c r="AD39" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE39" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AF39" t="n">
         <v>14.5</v>
@@ -5746,28 +5746,28 @@
         <v>12</v>
       </c>
       <c r="AH39" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AI39" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ39" t="n">
         <v>34</v>
       </c>
       <c r="AK39" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AL39" t="n">
         <v>60</v>
       </c>
       <c r="AM39" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN39" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AO39" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40">
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="G41" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="H41" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="I41" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="J41" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="K41" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="L41" t="n">
         <v>1.32</v>
@@ -5962,7 +5962,7 @@
         <v>1.22</v>
       </c>
       <c r="P41" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="Q41" t="n">
         <v>1.6</v>
@@ -6031,10 +6031,10 @@
         <v>120</v>
       </c>
       <c r="AM41" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AN41" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AO41" t="n">
         <v>6.4</v>
@@ -6361,13 +6361,13 @@
         <v>1.01</v>
       </c>
       <c r="N44" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="O44" t="n">
         <v>1.01</v>
       </c>
       <c r="P44" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q44" t="n">
         <v>1.01</v>
@@ -6376,7 +6376,7 @@
         <v>1.18</v>
       </c>
       <c r="S44" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="T44" t="n">
         <v>1.01</v>
@@ -6607,10 +6607,10 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="G46" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="H46" t="n">
         <v>2.9</v>
@@ -6685,7 +6685,7 @@
         <v>30</v>
       </c>
       <c r="AF46" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AG46" t="n">
         <v>12</v>
@@ -6742,13 +6742,13 @@
         </is>
       </c>
       <c r="F47" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="G47" t="n">
         <v>2.76</v>
       </c>
-      <c r="G47" t="n">
-        <v>2.78</v>
-      </c>
       <c r="H47" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="I47" t="n">
         <v>2.76</v>
@@ -6790,7 +6790,7 @@
         <v>2.52</v>
       </c>
       <c r="V47" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="W47" t="n">
         <v>1.56</v>
@@ -7171,16 +7171,16 @@
         <v>1.08</v>
       </c>
       <c r="N50" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O50" t="n">
         <v>1.35</v>
       </c>
       <c r="P50" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R50" t="n">
         <v>1.34</v>
@@ -7189,13 +7189,13 @@
         <v>3.75</v>
       </c>
       <c r="T50" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U50" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V50" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W50" t="n">
         <v>1.66</v>
@@ -7216,7 +7216,7 @@
         <v>10.5</v>
       </c>
       <c r="AC50" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD50" t="n">
         <v>14</v>
@@ -7231,7 +7231,7 @@
         <v>11.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI50" t="n">
         <v>55</v>
@@ -7252,7 +7252,7 @@
         <v>23</v>
       </c>
       <c r="AO50" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51">
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="G53" t="n">
         <v>1.98</v>
@@ -7597,7 +7597,7 @@
         <v>1.54</v>
       </c>
       <c r="U53" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V53" t="n">
         <v>1.27</v>
@@ -7708,10 +7708,10 @@
         <v>1.35</v>
       </c>
       <c r="M54" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N54" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O54" t="n">
         <v>1.26</v>
@@ -7729,10 +7729,10 @@
         <v>2.96</v>
       </c>
       <c r="T54" t="n">
-        <v>1.66</v>
+        <v>1.93</v>
       </c>
       <c r="U54" t="n">
-        <v>1.77</v>
+        <v>1.9</v>
       </c>
       <c r="V54" t="n">
         <v>1.13</v>
@@ -7828,16 +7828,16 @@
         <v>3.2</v>
       </c>
       <c r="H55" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="I55" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J55" t="n">
         <v>3.2</v>
       </c>
       <c r="K55" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L55" t="n">
         <v>1.4</v>
@@ -7870,7 +7870,7 @@
         <v>1.01</v>
       </c>
       <c r="V55" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W55" t="n">
         <v>1.46</v>
@@ -7960,13 +7960,13 @@
         <v>2.36</v>
       </c>
       <c r="G56" t="n">
-        <v>2.94</v>
+        <v>2.72</v>
       </c>
       <c r="H56" t="n">
         <v>2.78</v>
       </c>
       <c r="I56" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J56" t="n">
         <v>3.35</v>
@@ -8005,7 +8005,7 @@
         <v>1.84</v>
       </c>
       <c r="V56" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="W56" t="n">
         <v>1.51</v>
@@ -8104,7 +8104,7 @@
         <v>4.6</v>
       </c>
       <c r="J57" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K57" t="n">
         <v>5.2</v>
@@ -8260,13 +8260,13 @@
         <v>1.89</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R58" t="n">
         <v>1.09</v>
       </c>
       <c r="S58" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="T58" t="n">
         <v>1.01</v>
@@ -8362,13 +8362,13 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="G59" t="n">
         <v>1.88</v>
       </c>
       <c r="H59" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I59" t="n">
         <v>6.2</v>
@@ -8395,7 +8395,7 @@
         <v>2.2</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="R59" t="n">
         <v>1.45</v>
@@ -8497,7 +8497,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="G60" t="n">
         <v>1.68</v>
@@ -8512,7 +8512,7 @@
         <v>4.1</v>
       </c>
       <c r="K60" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="L60" t="n">
         <v>1.01</v>
@@ -8770,10 +8770,10 @@
         <v>1.96</v>
       </c>
       <c r="G62" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H62" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="I62" t="n">
         <v>4.3</v>
@@ -8782,13 +8782,13 @@
         <v>3.7</v>
       </c>
       <c r="K62" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L62" t="n">
         <v>1.27</v>
       </c>
       <c r="M62" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N62" t="n">
         <v>3.65</v>
@@ -8818,7 +8818,7 @@
         <v>1.31</v>
       </c>
       <c r="W62" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="X62" t="n">
         <v>980</v>
@@ -8902,16 +8902,16 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="G63" t="n">
         <v>4.6</v>
       </c>
       <c r="H63" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="I63" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="J63" t="n">
         <v>3.2</v>
@@ -8923,7 +8923,7 @@
         <v>1.32</v>
       </c>
       <c r="M63" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N63" t="n">
         <v>1.79</v>
@@ -8950,7 +8950,7 @@
         <v>1.76</v>
       </c>
       <c r="V63" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="W63" t="n">
         <v>1.27</v>
@@ -8959,13 +8959,13 @@
         <v>17.5</v>
       </c>
       <c r="Y63" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z63" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA63" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB63" t="n">
         <v>21</v>
@@ -9058,7 +9058,7 @@
         <v>1.33</v>
       </c>
       <c r="M64" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N64" t="n">
         <v>3.5</v>
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -9187,7 +9187,7 @@
         <v>3.4</v>
       </c>
       <c r="K65" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L65" t="n">
         <v>1.01</v>
@@ -9217,7 +9217,7 @@
         <v>1.82</v>
       </c>
       <c r="U65" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="V65" t="n">
         <v>1.26</v>
@@ -9307,25 +9307,25 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="G66" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="H66" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="I66" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="J66" t="n">
         <v>4.6</v>
       </c>
       <c r="K66" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L66" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M66" t="n">
         <v>1.01</v>
@@ -9340,7 +9340,7 @@
         <v>2.06</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R66" t="n">
         <v>1.34</v>
@@ -9355,10 +9355,10 @@
         <v>1.01</v>
       </c>
       <c r="V66" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="W66" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="X66" t="n">
         <v>1000</v>
@@ -9451,7 +9451,7 @@
         <v>3.55</v>
       </c>
       <c r="I67" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J67" t="n">
         <v>3.3</v>
@@ -9589,7 +9589,7 @@
         <v>3.1</v>
       </c>
       <c r="J68" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K68" t="n">
         <v>3.5</v>
@@ -9712,10 +9712,10 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="G69" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H69" t="n">
         <v>3.45</v>
@@ -9724,7 +9724,7 @@
         <v>3.95</v>
       </c>
       <c r="J69" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K69" t="n">
         <v>4.1</v>
@@ -9733,91 +9733,91 @@
         <v>1.01</v>
       </c>
       <c r="M69" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N69" t="n">
-        <v>2.28</v>
+        <v>3.4</v>
       </c>
       <c r="O69" t="n">
         <v>1.26</v>
       </c>
       <c r="P69" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="Q69" t="n">
         <v>1.76</v>
       </c>
       <c r="R69" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="S69" t="n">
-        <v>2.68</v>
+        <v>2.92</v>
       </c>
       <c r="T69" t="n">
-        <v>1.48</v>
+        <v>1.66</v>
       </c>
       <c r="U69" t="n">
-        <v>1.89</v>
+        <v>2.2</v>
       </c>
       <c r="V69" t="n">
         <v>1.34</v>
       </c>
       <c r="W69" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="X69" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="Y69" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK69" t="n">
         <v>23</v>
       </c>
-      <c r="Z69" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA69" t="n">
-        <v>95</v>
-      </c>
-      <c r="AB69" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC69" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD69" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE69" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF69" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG69" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH69" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI69" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ69" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK69" t="n">
-        <v>32</v>
-      </c>
       <c r="AL69" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AM69" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AN69" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO69" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70">
@@ -9895,7 +9895,7 @@
         <v>1.01</v>
       </c>
       <c r="V70" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="W70" t="n">
         <v>1.6</v>
@@ -9985,13 +9985,13 @@
         <v>1.7</v>
       </c>
       <c r="G71" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="H71" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="I71" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J71" t="n">
         <v>4.2</v>
@@ -10024,7 +10024,7 @@
         <v>3.2</v>
       </c>
       <c r="T71" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U71" t="n">
         <v>2.08</v>
@@ -10045,10 +10045,10 @@
         <v>44</v>
       </c>
       <c r="AA71" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AB71" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC71" t="n">
         <v>9</v>
@@ -10057,10 +10057,10 @@
         <v>21</v>
       </c>
       <c r="AE71" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF71" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG71" t="n">
         <v>9.6</v>
@@ -10117,10 +10117,10 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="G72" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="H72" t="n">
         <v>2.16</v>
@@ -10129,10 +10129,10 @@
         <v>2.18</v>
       </c>
       <c r="J72" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K72" t="n">
         <v>3.65</v>
-      </c>
-      <c r="K72" t="n">
-        <v>3.7</v>
       </c>
       <c r="L72" t="n">
         <v>1.4</v>
@@ -10153,7 +10153,7 @@
         <v>2.04</v>
       </c>
       <c r="R72" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S72" t="n">
         <v>3.7</v>
@@ -10177,7 +10177,7 @@
         <v>9.4</v>
       </c>
       <c r="Z72" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA72" t="n">
         <v>26</v>
@@ -10216,7 +10216,7 @@
         <v>60</v>
       </c>
       <c r="AM72" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN72" t="n">
         <v>50</v>
@@ -10294,7 +10294,7 @@
         <v>2.84</v>
       </c>
       <c r="T73" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="U73" t="n">
         <v>2.04</v>
@@ -10309,7 +10309,7 @@
         <v>19</v>
       </c>
       <c r="Y73" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z73" t="n">
         <v>65</v>
@@ -10333,7 +10333,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AG73" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH73" t="n">
         <v>21</v>
@@ -10387,10 +10387,10 @@
         </is>
       </c>
       <c r="F74" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G74" t="n">
         <v>1.23</v>
-      </c>
-      <c r="G74" t="n">
-        <v>1.24</v>
       </c>
       <c r="H74" t="n">
         <v>14.5</v>
@@ -10399,7 +10399,7 @@
         <v>15</v>
       </c>
       <c r="J74" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K74" t="n">
         <v>8.6</v>
@@ -10426,7 +10426,7 @@
         <v>1.98</v>
       </c>
       <c r="S74" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="T74" t="n">
         <v>1.91</v>
@@ -10441,7 +10441,7 @@
         <v>5.3</v>
       </c>
       <c r="X74" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y74" t="n">
         <v>65</v>
@@ -10489,7 +10489,7 @@
         <v>150</v>
       </c>
       <c r="AN74" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AO74" t="n">
         <v>200</v>
@@ -10522,16 +10522,16 @@
         </is>
       </c>
       <c r="F75" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G75" t="n">
         <v>3.65</v>
       </c>
-      <c r="G75" t="n">
-        <v>3.75</v>
-      </c>
       <c r="H75" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I75" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="J75" t="n">
         <v>3.6</v>
@@ -10570,7 +10570,7 @@
         <v>2.18</v>
       </c>
       <c r="V75" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="W75" t="n">
         <v>1.37</v>
@@ -10624,10 +10624,10 @@
         <v>95</v>
       </c>
       <c r="AN75" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AO75" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76">
@@ -10657,22 +10657,22 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>3.2</v>
+        <v>2.82</v>
       </c>
       <c r="G76" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H76" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="I76" t="n">
-        <v>2.56</v>
+        <v>2.92</v>
       </c>
       <c r="J76" t="n">
-        <v>3.2</v>
+        <v>2.54</v>
       </c>
       <c r="K76" t="n">
-        <v>3.55</v>
+        <v>4.8</v>
       </c>
       <c r="L76" t="n">
         <v>1.46</v>
@@ -10684,13 +10684,13 @@
         <v>3</v>
       </c>
       <c r="O76" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P76" t="n">
         <v>1.75</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="R76" t="n">
         <v>1.24</v>
@@ -10699,16 +10699,16 @@
         <v>3.35</v>
       </c>
       <c r="T76" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="U76" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="V76" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="W76" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="X76" t="n">
         <v>1000</v>
@@ -10795,7 +10795,7 @@
         <v>1.8</v>
       </c>
       <c r="G77" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="H77" t="n">
         <v>3.95</v>
@@ -10834,16 +10834,16 @@
         <v>4.4</v>
       </c>
       <c r="T77" t="n">
-        <v>2.2</v>
+        <v>1.01</v>
       </c>
       <c r="U77" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="V77" t="n">
         <v>1.19</v>
       </c>
       <c r="W77" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="X77" t="n">
         <v>12</v>
@@ -10969,10 +10969,10 @@
         <v>3.55</v>
       </c>
       <c r="T78" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U78" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="V78" t="n">
         <v>1.33</v>
@@ -11200,10 +11200,10 @@
         <v>3.4</v>
       </c>
       <c r="G80" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H80" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="I80" t="n">
         <v>2.22</v>
@@ -11239,7 +11239,7 @@
         <v>2.46</v>
       </c>
       <c r="T80" t="n">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="U80" t="n">
         <v>2.66</v>
@@ -11335,7 +11335,7 @@
         <v>1.91</v>
       </c>
       <c r="G81" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H81" t="n">
         <v>4.6</v>
@@ -11344,10 +11344,10 @@
         <v>5.3</v>
       </c>
       <c r="J81" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K81" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L81" t="n">
         <v>1.47</v>
@@ -11383,7 +11383,7 @@
         <v>1.23</v>
       </c>
       <c r="W81" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X81" t="n">
         <v>15</v>
@@ -11470,7 +11470,7 @@
         <v>2.92</v>
       </c>
       <c r="G82" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="H82" t="n">
         <v>2.1</v>
@@ -11500,7 +11500,7 @@
         <v>2.16</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="R82" t="n">
         <v>1.47</v>
@@ -11617,10 +11617,10 @@
         <v>3.55</v>
       </c>
       <c r="K83" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L83" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="M83" t="n">
         <v>1.07</v>
@@ -11740,16 +11740,16 @@
         <v>2.76</v>
       </c>
       <c r="G84" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="H84" t="n">
         <v>2.56</v>
       </c>
       <c r="I84" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J84" t="n">
-        <v>3.1</v>
+        <v>2.86</v>
       </c>
       <c r="K84" t="n">
         <v>3.65</v>
@@ -11785,10 +11785,10 @@
         <v>1.71</v>
       </c>
       <c r="V84" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="W84" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X84" t="n">
         <v>18</v>
@@ -11872,22 +11872,22 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="G85" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H85" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="I85" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J85" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="K85" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="L85" t="n">
         <v>1.38</v>
@@ -11896,22 +11896,22 @@
         <v>1.01</v>
       </c>
       <c r="N85" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="O85" t="n">
         <v>1.01</v>
       </c>
       <c r="P85" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R85" t="n">
         <v>1.18</v>
       </c>
       <c r="S85" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="T85" t="n">
         <v>1.01</v>
@@ -12007,37 +12007,37 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="G86" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H86" t="n">
         <v>3.9</v>
       </c>
       <c r="I86" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="J86" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="K86" t="n">
         <v>4.9</v>
       </c>
       <c r="L86" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M86" t="n">
         <v>1.01</v>
       </c>
       <c r="N86" t="n">
-        <v>1.25</v>
+        <v>1.47</v>
       </c>
       <c r="O86" t="n">
         <v>1.01</v>
       </c>
       <c r="P86" t="n">
-        <v>1.25</v>
+        <v>1.47</v>
       </c>
       <c r="Q86" t="n">
         <v>2.2</v>
@@ -12046,7 +12046,7 @@
         <v>1.18</v>
       </c>
       <c r="S86" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="T86" t="n">
         <v>1.01</v>
@@ -12055,10 +12055,10 @@
         <v>1.01</v>
       </c>
       <c r="V86" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="W86" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="X86" t="n">
         <v>1000</v>
@@ -12142,46 +12142,46 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="G87" t="n">
         <v>5.3</v>
       </c>
       <c r="H87" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="I87" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="J87" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="K87" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="L87" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M87" t="n">
         <v>1.01</v>
       </c>
       <c r="N87" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="O87" t="n">
         <v>1.01</v>
       </c>
       <c r="P87" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.72</v>
+        <v>2.52</v>
       </c>
       <c r="R87" t="n">
         <v>1.18</v>
       </c>
       <c r="S87" t="n">
-        <v>2.72</v>
+        <v>2.52</v>
       </c>
       <c r="T87" t="n">
         <v>1.01</v>
@@ -12190,7 +12190,7 @@
         <v>1.01</v>
       </c>
       <c r="V87" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="W87" t="n">
         <v>1.23</v>
@@ -12277,22 +12277,22 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2.48</v>
+        <v>2.38</v>
       </c>
       <c r="G88" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H88" t="n">
         <v>2.48</v>
       </c>
       <c r="I88" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="J88" t="n">
-        <v>2.96</v>
+        <v>2.3</v>
       </c>
       <c r="K88" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="L88" t="n">
         <v>1.01</v>
@@ -12301,22 +12301,22 @@
         <v>1.01</v>
       </c>
       <c r="N88" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="O88" t="n">
         <v>1.01</v>
       </c>
       <c r="P88" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="R88" t="n">
         <v>1.18</v>
       </c>
       <c r="S88" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="T88" t="n">
         <v>1.01</v>
@@ -12325,10 +12325,10 @@
         <v>1.01</v>
       </c>
       <c r="V88" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="W88" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="X88" t="n">
         <v>1000</v>
@@ -12415,10 +12415,10 @@
         <v>1.94</v>
       </c>
       <c r="G89" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="H89" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I89" t="n">
         <v>4.4</v>
@@ -12454,16 +12454,16 @@
         <v>2.1</v>
       </c>
       <c r="T89" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="U89" t="n">
-        <v>1.01</v>
+        <v>2.4</v>
       </c>
       <c r="V89" t="n">
         <v>1.3</v>
       </c>
       <c r="W89" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="X89" t="n">
         <v>1000</v>
@@ -12547,16 +12547,16 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="G90" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="H90" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I90" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="J90" t="n">
         <v>4.1</v>
@@ -12565,28 +12565,28 @@
         <v>4.5</v>
       </c>
       <c r="L90" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M90" t="n">
         <v>1.04</v>
       </c>
       <c r="N90" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O90" t="n">
         <v>1.22</v>
       </c>
       <c r="P90" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R90" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S90" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="T90" t="n">
         <v>1.55</v>
@@ -12598,13 +12598,13 @@
         <v>1.23</v>
       </c>
       <c r="W90" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="X90" t="n">
         <v>27</v>
       </c>
       <c r="Y90" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z90" t="n">
         <v>42</v>
@@ -12622,7 +12622,7 @@
         <v>20</v>
       </c>
       <c r="AE90" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AF90" t="n">
         <v>12.5</v>
@@ -12649,10 +12649,10 @@
         <v>75</v>
       </c>
       <c r="AN90" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AO90" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91">
@@ -12685,7 +12685,7 @@
         <v>1.49</v>
       </c>
       <c r="G91" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="H91" t="n">
         <v>6.2</v>
@@ -12706,19 +12706,19 @@
         <v>1.03</v>
       </c>
       <c r="N91" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="O91" t="n">
         <v>1.17</v>
       </c>
       <c r="P91" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="R91" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S91" t="n">
         <v>2.12</v>
@@ -12733,7 +12733,7 @@
         <v>1.13</v>
       </c>
       <c r="W91" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="X91" t="n">
         <v>1000</v>
@@ -12826,10 +12826,10 @@
         <v>1.49</v>
       </c>
       <c r="I92" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="J92" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="K92" t="n">
         <v>6.2</v>
@@ -12865,7 +12865,7 @@
         <v>1.01</v>
       </c>
       <c r="V92" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="W92" t="n">
         <v>1.13</v>
@@ -12961,7 +12961,7 @@
         <v>6.2</v>
       </c>
       <c r="I93" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J93" t="n">
         <v>3.9</v>
@@ -12976,7 +12976,7 @@
         <v>1.08</v>
       </c>
       <c r="N93" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O93" t="n">
         <v>1.37</v>
@@ -12985,7 +12985,7 @@
         <v>1.84</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R93" t="n">
         <v>1.32</v>
@@ -13087,22 +13087,22 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="G94" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H94" t="n">
         <v>4</v>
       </c>
       <c r="I94" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="J94" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K94" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L94" t="n">
         <v>1.01</v>
@@ -13111,40 +13111,40 @@
         <v>1.03</v>
       </c>
       <c r="N94" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="O94" t="n">
         <v>1.23</v>
       </c>
       <c r="P94" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="R94" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="S94" t="n">
         <v>2.4</v>
       </c>
       <c r="T94" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="U94" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="V94" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="W94" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="X94" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y94" t="n">
         <v>29</v>
-      </c>
-      <c r="Y94" t="n">
-        <v>28</v>
       </c>
       <c r="Z94" t="n">
         <v>50</v>
@@ -13153,13 +13153,13 @@
         <v>1000</v>
       </c>
       <c r="AB94" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AC94" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD94" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE94" t="n">
         <v>70</v>
@@ -13186,7 +13186,7 @@
         <v>44</v>
       </c>
       <c r="AM94" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN94" t="n">
         <v>1000</v>
@@ -13222,19 +13222,19 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G95" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="H95" t="n">
         <v>1.81</v>
       </c>
       <c r="I95" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="J95" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K95" t="n">
         <v>5.4</v>
@@ -13246,19 +13246,19 @@
         <v>1.05</v>
       </c>
       <c r="N95" t="n">
-        <v>1.99</v>
+        <v>1.01</v>
       </c>
       <c r="O95" t="n">
         <v>1.05</v>
       </c>
       <c r="P95" t="n">
-        <v>1.99</v>
+        <v>1.87</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.69</v>
+        <v>1.28</v>
       </c>
       <c r="R95" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S95" t="n">
         <v>2.66</v>
@@ -13270,10 +13270,10 @@
         <v>1.01</v>
       </c>
       <c r="V95" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="W95" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="X95" t="n">
         <v>1000</v>
@@ -13357,22 +13357,22 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="G96" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="H96" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I96" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="J96" t="n">
         <v>7</v>
       </c>
       <c r="K96" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="L96" t="n">
         <v>1.16</v>
@@ -13381,34 +13381,34 @@
         <v>1.02</v>
       </c>
       <c r="N96" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O96" t="n">
         <v>1.14</v>
       </c>
       <c r="P96" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="R96" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S96" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="T96" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="U96" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="V96" t="n">
         <v>1.05</v>
       </c>
       <c r="W96" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="X96" t="n">
         <v>36</v>
@@ -13459,7 +13459,7 @@
         <v>1000</v>
       </c>
       <c r="AN96" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO96" t="n">
         <v>1000</v>
@@ -13507,7 +13507,7 @@
         <v>3.85</v>
       </c>
       <c r="K97" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L97" t="n">
         <v>1.31</v>
@@ -13549,7 +13549,7 @@
         <v>19.5</v>
       </c>
       <c r="Y97" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z97" t="n">
         <v>15</v>
@@ -13627,16 +13627,16 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="G98" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="H98" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I98" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J98" t="n">
         <v>3.95</v>
@@ -13645,7 +13645,7 @@
         <v>4.1</v>
       </c>
       <c r="L98" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M98" t="n">
         <v>1.04</v>
@@ -13669,22 +13669,22 @@
         <v>2.44</v>
       </c>
       <c r="T98" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="U98" t="n">
         <v>2.7</v>
       </c>
       <c r="V98" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W98" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X98" t="n">
         <v>22</v>
       </c>
       <c r="Y98" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Z98" t="n">
         <v>28</v>
@@ -13924,7 +13924,7 @@
         <v>2.68</v>
       </c>
       <c r="O100" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="P100" t="n">
         <v>1.55</v>
@@ -13969,7 +13969,7 @@
         <v>7.2</v>
       </c>
       <c r="AD100" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AE100" t="n">
         <v>65</v>
@@ -13990,13 +13990,13 @@
         <v>32</v>
       </c>
       <c r="AK100" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL100" t="n">
         <v>65</v>
       </c>
       <c r="AM100" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AN100" t="n">
         <v>34</v>
@@ -14032,22 +14032,22 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="G101" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="H101" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I101" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="J101" t="n">
         <v>3.2</v>
       </c>
       <c r="K101" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L101" t="n">
         <v>1.56</v>
@@ -14056,7 +14056,7 @@
         <v>1.11</v>
       </c>
       <c r="N101" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="O101" t="n">
         <v>1.52</v>
@@ -14065,7 +14065,7 @@
         <v>1.56</v>
       </c>
       <c r="Q101" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="R101" t="n">
         <v>1.19</v>
@@ -14080,10 +14080,10 @@
         <v>1.77</v>
       </c>
       <c r="V101" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W101" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="X101" t="n">
         <v>9.6</v>
@@ -14092,10 +14092,10 @@
         <v>11.5</v>
       </c>
       <c r="Z101" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA101" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB101" t="n">
         <v>7.6</v>
@@ -14107,7 +14107,7 @@
         <v>18.5</v>
       </c>
       <c r="AE101" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF101" t="n">
         <v>13.5</v>
@@ -14119,7 +14119,7 @@
         <v>25</v>
       </c>
       <c r="AI101" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AJ101" t="n">
         <v>34</v>
@@ -14137,7 +14137,7 @@
         <v>34</v>
       </c>
       <c r="AO101" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="102">
@@ -14176,7 +14176,7 @@
         <v>3.25</v>
       </c>
       <c r="I102" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J102" t="n">
         <v>3.8</v>
@@ -14209,16 +14209,16 @@
         <v>2.58</v>
       </c>
       <c r="T102" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="U102" t="n">
         <v>2.46</v>
       </c>
       <c r="V102" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W102" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X102" t="n">
         <v>22</v>
@@ -14332,10 +14332,10 @@
         <v>1.4</v>
       </c>
       <c r="P103" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="Q103" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R103" t="n">
         <v>1.27</v>
@@ -14461,7 +14461,7 @@
         <v>1.07</v>
       </c>
       <c r="N104" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="O104" t="n">
         <v>1.37</v>
@@ -14572,22 +14572,22 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>2.84</v>
+        <v>2.7</v>
       </c>
       <c r="G105" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="H105" t="n">
-        <v>2.56</v>
+        <v>2.7</v>
       </c>
       <c r="I105" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J105" t="n">
         <v>3.25</v>
       </c>
       <c r="K105" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L105" t="n">
         <v>1.01</v>
@@ -14596,64 +14596,64 @@
         <v>1.07</v>
       </c>
       <c r="N105" t="n">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="O105" t="n">
         <v>1.36</v>
       </c>
       <c r="P105" t="n">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="Q105" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R105" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S105" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="T105" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U105" t="n">
         <v>1.9</v>
       </c>
       <c r="V105" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W105" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="X105" t="n">
         <v>1000</v>
       </c>
       <c r="Y105" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="Z105" t="n">
         <v>26</v>
       </c>
       <c r="AA105" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AB105" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AC105" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AD105" t="n">
         <v>18</v>
       </c>
       <c r="AE105" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AF105" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AG105" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH105" t="n">
         <v>26</v>
@@ -14662,13 +14662,13 @@
         <v>65</v>
       </c>
       <c r="AJ105" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK105" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AL105" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM105" t="n">
         <v>1000</v>
@@ -14851,13 +14851,13 @@
         <v>3.25</v>
       </c>
       <c r="I107" t="n">
-        <v>330</v>
+        <v>980</v>
       </c>
       <c r="J107" t="n">
         <v>3.7</v>
       </c>
       <c r="K107" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="L107" t="n">
         <v>1.01</v>
@@ -14977,10 +14977,10 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="G108" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="H108" t="n">
         <v>3.2</v>
@@ -14992,7 +14992,7 @@
         <v>4</v>
       </c>
       <c r="K108" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L108" t="n">
         <v>1.01</v>
@@ -15019,16 +15019,16 @@
         <v>2.16</v>
       </c>
       <c r="T108" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="U108" t="n">
         <v>2.66</v>
       </c>
       <c r="V108" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W108" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="X108" t="n">
         <v>38</v>
@@ -15112,22 +15112,22 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G109" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="H109" t="n">
         <v>2.78</v>
       </c>
       <c r="I109" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="J109" t="n">
         <v>4.3</v>
       </c>
       <c r="K109" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L109" t="n">
         <v>1.24</v>
@@ -15160,10 +15160,10 @@
         <v>2.8</v>
       </c>
       <c r="V109" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W109" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="X109" t="n">
         <v>32</v>
@@ -15175,7 +15175,7 @@
         <v>26</v>
       </c>
       <c r="AA109" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AB109" t="n">
         <v>17.5</v>
@@ -15418,16 +15418,16 @@
         <v>1.48</v>
       </c>
       <c r="R111" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="S111" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="T111" t="n">
         <v>1.46</v>
       </c>
       <c r="U111" t="n">
-        <v>1.01</v>
+        <v>2.34</v>
       </c>
       <c r="V111" t="n">
         <v>1.24</v>
@@ -15517,61 +15517,61 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="G112" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="H112" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="I112" t="n">
-        <v>1.77</v>
+        <v>1.67</v>
       </c>
       <c r="J112" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="K112" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="L112" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M112" t="n">
         <v>1.05</v>
       </c>
       <c r="N112" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="O112" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P112" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="Q112" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R112" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S112" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="T112" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="U112" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="V112" t="n">
-        <v>2.28</v>
+        <v>2.48</v>
       </c>
       <c r="W112" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="X112" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="Y112" t="n">
         <v>9.800000000000001</v>
@@ -15580,28 +15580,28 @@
         <v>11.5</v>
       </c>
       <c r="AA112" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB112" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AC112" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD112" t="n">
         <v>10.5</v>
       </c>
       <c r="AE112" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF112" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AG112" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH112" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI112" t="n">
         <v>36</v>
@@ -15610,10 +15610,10 @@
         <v>180</v>
       </c>
       <c r="AK112" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AL112" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AM112" t="n">
         <v>130</v>
@@ -15622,7 +15622,7 @@
         <v>100</v>
       </c>
       <c r="AO112" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="113">
@@ -15664,7 +15664,7 @@
         <v>4.5</v>
       </c>
       <c r="J113" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K113" t="n">
         <v>3.4</v>
@@ -15688,7 +15688,7 @@
         <v>2.38</v>
       </c>
       <c r="R113" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S113" t="n">
         <v>4.6</v>
@@ -15697,13 +15697,13 @@
         <v>2.06</v>
       </c>
       <c r="U113" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="V113" t="n">
         <v>1.28</v>
       </c>
       <c r="W113" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="X113" t="n">
         <v>9.6</v>
@@ -15934,7 +15934,7 @@
         <v>4.6</v>
       </c>
       <c r="J115" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K115" t="n">
         <v>4.3</v>
@@ -15955,7 +15955,7 @@
         <v>2.28</v>
       </c>
       <c r="Q115" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="R115" t="n">
         <v>1.43</v>
@@ -15967,7 +15967,7 @@
         <v>1.56</v>
       </c>
       <c r="U115" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="V115" t="n">
         <v>1.27</v>
@@ -16090,7 +16090,7 @@
         <v>1.83</v>
       </c>
       <c r="Q116" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R116" t="n">
         <v>1.31</v>
@@ -16114,7 +16114,7 @@
         <v>12.5</v>
       </c>
       <c r="Y116" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Z116" t="n">
         <v>8</v>
@@ -16147,7 +16147,7 @@
         <v>44</v>
       </c>
       <c r="AJ116" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AK116" t="n">
         <v>110</v>
@@ -16162,7 +16162,7 @@
         <v>160</v>
       </c>
       <c r="AO116" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117">
@@ -16192,16 +16192,16 @@
         </is>
       </c>
       <c r="F117" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="G117" t="n">
         <v>2.74</v>
-      </c>
-      <c r="G117" t="n">
-        <v>2.76</v>
       </c>
       <c r="H117" t="n">
         <v>2.9</v>
       </c>
       <c r="I117" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="J117" t="n">
         <v>3.4</v>
@@ -16240,16 +16240,16 @@
         <v>2.08</v>
       </c>
       <c r="V117" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="W117" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X117" t="n">
         <v>11.5</v>
       </c>
       <c r="Y117" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z117" t="n">
         <v>18</v>
@@ -16267,7 +16267,7 @@
         <v>12.5</v>
       </c>
       <c r="AE117" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AF117" t="n">
         <v>17</v>
@@ -16294,7 +16294,7 @@
         <v>110</v>
       </c>
       <c r="AN117" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO117" t="n">
         <v>32</v>
@@ -16330,10 +16330,10 @@
         <v>1.23</v>
       </c>
       <c r="G118" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="H118" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="I118" t="n">
         <v>15.5</v>
@@ -16369,61 +16369,61 @@
         <v>1.97</v>
       </c>
       <c r="T118" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U118" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V118" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W118" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="X118" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y118" t="n">
         <v>65</v>
       </c>
       <c r="Z118" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AA118" t="n">
-        <v>1000</v>
+        <v>690</v>
       </c>
       <c r="AB118" t="n">
         <v>14.5</v>
       </c>
       <c r="AC118" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AD118" t="n">
         <v>55</v>
       </c>
       <c r="AE118" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AF118" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG118" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH118" t="n">
         <v>30</v>
       </c>
       <c r="AI118" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ118" t="n">
         <v>10.5</v>
       </c>
       <c r="AK118" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AL118" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM118" t="n">
         <v>130</v>
@@ -16432,7 +16432,7 @@
         <v>3.15</v>
       </c>
       <c r="AO118" t="n">
-        <v>220</v>
+        <v>170</v>
       </c>
     </row>
     <row r="119">
@@ -16462,16 +16462,16 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="G119" t="n">
         <v>2.58</v>
       </c>
       <c r="H119" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I119" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J119" t="n">
         <v>3.2</v>
@@ -16486,31 +16486,31 @@
         <v>1.08</v>
       </c>
       <c r="N119" t="n">
-        <v>1.04</v>
+        <v>1.7</v>
       </c>
       <c r="O119" t="n">
         <v>1.41</v>
       </c>
       <c r="P119" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q119" t="n">
         <v>2.24</v>
       </c>
       <c r="R119" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S119" t="n">
         <v>3.85</v>
       </c>
       <c r="T119" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="U119" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="V119" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="W119" t="n">
         <v>1.64</v>
@@ -16519,28 +16519,28 @@
         <v>12.5</v>
       </c>
       <c r="Y119" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z119" t="n">
         <v>26</v>
       </c>
       <c r="AA119" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB119" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC119" t="n">
         <v>8.6</v>
       </c>
       <c r="AD119" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE119" t="n">
         <v>50</v>
       </c>
       <c r="AF119" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AG119" t="n">
         <v>13.5</v>
@@ -16552,7 +16552,7 @@
         <v>70</v>
       </c>
       <c r="AJ119" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AK119" t="n">
         <v>36</v>
@@ -16597,7 +16597,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1.53</v>
+        <v>1.04</v>
       </c>
       <c r="G120" t="n">
         <v>1.93</v>
@@ -16609,10 +16609,10 @@
         <v>1000</v>
       </c>
       <c r="J120" t="n">
-        <v>2.06</v>
+        <v>3.75</v>
       </c>
       <c r="K120" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L120" t="n">
         <v>0</v>
@@ -16732,7 +16732,7 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1.45</v>
+        <v>1.04</v>
       </c>
       <c r="G121" t="n">
         <v>1.81</v>
@@ -16747,7 +16747,7 @@
         <v>2.22</v>
       </c>
       <c r="K121" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L121" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-20.xlsx
@@ -670,19 +670,19 @@
         <v>3.2</v>
       </c>
       <c r="G2" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H2" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="I2" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="J2" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K2" t="n">
         <v>4.5</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4.6</v>
       </c>
       <c r="L2" t="n">
         <v>1.23</v>
@@ -697,10 +697,10 @@
         <v>1.13</v>
       </c>
       <c r="P2" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="R2" t="n">
         <v>1.92</v>
@@ -715,7 +715,7 @@
         <v>3.15</v>
       </c>
       <c r="V2" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="W2" t="n">
         <v>1.44</v>
@@ -724,7 +724,7 @@
         <v>38</v>
       </c>
       <c r="Y2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z2" t="n">
         <v>21</v>
@@ -739,7 +739,7 @@
         <v>11.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AE2" t="n">
         <v>19</v>
@@ -763,7 +763,7 @@
         <v>29</v>
       </c>
       <c r="AL2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM2" t="n">
         <v>44</v>
@@ -772,7 +772,7 @@
         <v>14.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -820,7 +820,7 @@
         <v>3.85</v>
       </c>
       <c r="L3" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
@@ -832,7 +832,7 @@
         <v>1.31</v>
       </c>
       <c r="P3" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q3" t="n">
         <v>1.91</v>
@@ -904,10 +904,10 @@
         <v>90</v>
       </c>
       <c r="AN3" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AO3" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -940,22 +940,22 @@
         <v>2.68</v>
       </c>
       <c r="G4" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I4" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J4" t="n">
         <v>3.05</v>
       </c>
       <c r="K4" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M4" t="n">
         <v>1.09</v>
@@ -970,7 +970,7 @@
         <v>1.61</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.3</v>
+        <v>2.14</v>
       </c>
       <c r="R4" t="n">
         <v>1.23</v>
@@ -982,13 +982,13 @@
         <v>1.93</v>
       </c>
       <c r="U4" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V4" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="W4" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="X4" t="n">
         <v>12</v>
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="G5" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="H5" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I5" t="n">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="J5" t="n">
         <v>3.7</v>
@@ -1102,7 +1102,7 @@
         <v>1.3</v>
       </c>
       <c r="P5" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q5" t="n">
         <v>1.83</v>
@@ -1120,7 +1120,7 @@
         <v>2.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="W5" t="n">
         <v>2.12</v>
@@ -1213,16 +1213,16 @@
         <v>2.76</v>
       </c>
       <c r="H6" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="I6" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="J6" t="n">
         <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L6" t="n">
         <v>1.3</v>
@@ -1252,16 +1252,16 @@
         <v>1.55</v>
       </c>
       <c r="U6" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="V6" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="W6" t="n">
         <v>1.56</v>
       </c>
       <c r="X6" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y6" t="n">
         <v>16</v>
@@ -1309,7 +1309,7 @@
         <v>60</v>
       </c>
       <c r="AN6" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AO6" t="n">
         <v>14.5</v>
@@ -1345,16 +1345,16 @@
         <v>1.93</v>
       </c>
       <c r="G7" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H7" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="I7" t="n">
         <v>4.6</v>
       </c>
       <c r="J7" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K7" t="n">
         <v>4.2</v>
@@ -1393,7 +1393,7 @@
         <v>1.28</v>
       </c>
       <c r="W7" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="X7" t="n">
         <v>19.5</v>
@@ -1420,7 +1420,7 @@
         <v>55</v>
       </c>
       <c r="AF7" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AG7" t="n">
         <v>12.5</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="G8" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="H8" t="n">
         <v>4.6</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J8" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K8" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L8" t="n">
         <v>1.31</v>
@@ -1525,10 +1525,10 @@
         <v>2.34</v>
       </c>
       <c r="V8" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W8" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="X8" t="n">
         <v>23</v>
@@ -1537,10 +1537,10 @@
         <v>23</v>
       </c>
       <c r="Z8" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AA8" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="AB8" t="n">
         <v>12.5</v>
@@ -1618,7 +1618,7 @@
         <v>2.02</v>
       </c>
       <c r="H9" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="I9" t="n">
         <v>4.2</v>
@@ -1654,7 +1654,7 @@
         <v>2.68</v>
       </c>
       <c r="T9" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="U9" t="n">
         <v>2.36</v>
@@ -1663,7 +1663,7 @@
         <v>1.31</v>
       </c>
       <c r="W9" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="X9" t="n">
         <v>26</v>
@@ -1750,16 +1750,16 @@
         <v>2.22</v>
       </c>
       <c r="G10" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H10" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="n">
         <v>3.3</v>
       </c>
       <c r="J10" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
         <v>4.1</v>
@@ -1783,10 +1783,10 @@
         <v>1.54</v>
       </c>
       <c r="R10" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="S10" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="T10" t="n">
         <v>1.52</v>
@@ -1798,7 +1798,7 @@
         <v>1.43</v>
       </c>
       <c r="W10" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="X10" t="n">
         <v>28</v>
@@ -1885,19 +1885,19 @@
         <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="H11" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I11" t="n">
         <v>3.85</v>
       </c>
       <c r="J11" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K11" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="L11" t="n">
         <v>1.25</v>
@@ -1906,22 +1906,22 @@
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="O11" t="n">
         <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="Q11" t="n">
         <v>1.6</v>
       </c>
       <c r="R11" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S11" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="T11" t="n">
         <v>1.01</v>
@@ -1933,7 +1933,7 @@
         <v>1.35</v>
       </c>
       <c r="W11" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -1951,7 +1951,7 @@
         <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD11" t="n">
         <v>1000</v>
@@ -1963,7 +1963,7 @@
         <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH11" t="n">
         <v>1000</v>
@@ -1984,7 +1984,7 @@
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="G12" t="n">
         <v>3.25</v>
       </c>
       <c r="H12" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="I12" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="J12" t="n">
         <v>3.05</v>
       </c>
       <c r="K12" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L12" t="n">
         <v>1.46</v>
@@ -2053,22 +2053,22 @@
         <v>2.2</v>
       </c>
       <c r="R12" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S12" t="n">
         <v>4.1</v>
       </c>
       <c r="T12" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U12" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="V12" t="n">
         <v>1.51</v>
       </c>
       <c r="W12" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X12" t="n">
         <v>11.5</v>
@@ -2086,7 +2086,7 @@
         <v>11</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD12" t="n">
         <v>13.5</v>
@@ -2104,7 +2104,7 @@
         <v>21</v>
       </c>
       <c r="AI12" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ12" t="n">
         <v>60</v>
@@ -2428,7 +2428,7 @@
         <v>2.92</v>
       </c>
       <c r="H15" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="I15" t="n">
         <v>3.05</v>
@@ -2437,34 +2437,34 @@
         <v>3.1</v>
       </c>
       <c r="K15" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L15" t="n">
         <v>1.39</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N15" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O15" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P15" t="n">
         <v>1.71</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="R15" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S15" t="n">
         <v>4</v>
       </c>
       <c r="T15" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="U15" t="n">
         <v>1.98</v>
@@ -2476,7 +2476,7 @@
         <v>1.52</v>
       </c>
       <c r="X15" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y15" t="n">
         <v>11</v>
@@ -2488,7 +2488,7 @@
         <v>60</v>
       </c>
       <c r="AB15" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AC15" t="n">
         <v>9</v>
@@ -2497,7 +2497,7 @@
         <v>14</v>
       </c>
       <c r="AE15" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AF15" t="n">
         <v>21</v>
@@ -2560,7 +2560,7 @@
         <v>2.92</v>
       </c>
       <c r="G16" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="H16" t="n">
         <v>2.58</v>
@@ -2596,13 +2596,13 @@
         <v>1.52</v>
       </c>
       <c r="S16" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="T16" t="n">
         <v>1.62</v>
       </c>
       <c r="U16" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="V16" t="n">
         <v>1.62</v>
@@ -2704,7 +2704,7 @@
         <v>4.1</v>
       </c>
       <c r="J17" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K17" t="n">
         <v>4.5</v>
@@ -2731,13 +2731,13 @@
         <v>1.52</v>
       </c>
       <c r="S17" t="n">
-        <v>2.52</v>
+        <v>2.34</v>
       </c>
       <c r="T17" t="n">
         <v>1.59</v>
       </c>
       <c r="U17" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V17" t="n">
         <v>1.33</v>
@@ -2752,10 +2752,10 @@
         <v>23</v>
       </c>
       <c r="Z17" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA17" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB17" t="n">
         <v>15.5</v>
@@ -2779,7 +2779,7 @@
         <v>19.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -2797,7 +2797,7 @@
         <v>13</v>
       </c>
       <c r="AO17" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
@@ -2833,7 +2833,7 @@
         <v>1.65</v>
       </c>
       <c r="H18" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="I18" t="n">
         <v>12</v>
@@ -2842,7 +2842,7 @@
         <v>3.65</v>
       </c>
       <c r="K18" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="G19" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="H19" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="I19" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="J19" t="n">
         <v>3.4</v>
@@ -2986,34 +2986,34 @@
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O19" t="n">
         <v>1.3</v>
       </c>
       <c r="P19" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="R19" t="n">
         <v>1.37</v>
       </c>
       <c r="S19" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="T19" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="U19" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="V19" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="W19" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X19" t="n">
         <v>1000</v>
@@ -3022,16 +3022,16 @@
         <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
         <v>980</v>
       </c>
       <c r="AB19" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD19" t="n">
         <v>1000</v>
@@ -3040,13 +3040,13 @@
         <v>980</v>
       </c>
       <c r="AF19" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
         <v>980</v>
@@ -3064,7 +3064,7 @@
         <v>100</v>
       </c>
       <c r="AN19" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AO19" t="n">
         <v>980</v>
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="G20" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="H20" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I20" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
         <v>4</v>
@@ -3145,10 +3145,10 @@
         <v>1.04</v>
       </c>
       <c r="V20" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W20" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3370,19 +3370,19 @@
         <v>1.79</v>
       </c>
       <c r="G22" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="H22" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I22" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J22" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K22" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3397,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G23" t="n">
         <v>2.18</v>
@@ -3511,22 +3511,22 @@
         <v>3.3</v>
       </c>
       <c r="I23" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J23" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K23" t="n">
         <v>4.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="M23" t="n">
         <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O23" t="n">
         <v>1.18</v>
@@ -3535,13 +3535,13 @@
         <v>2.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R23" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="S23" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="T23" t="n">
         <v>1.54</v>
@@ -3550,7 +3550,7 @@
         <v>2.52</v>
       </c>
       <c r="V23" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W23" t="n">
         <v>1.84</v>
@@ -3583,13 +3583,13 @@
         <v>20</v>
       </c>
       <c r="AG23" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH23" t="n">
         <v>18.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ23" t="n">
         <v>32</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="G25" t="n">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="H25" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="I25" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J25" t="n">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="K25" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
@@ -3802,10 +3802,10 @@
         <v>1.21</v>
       </c>
       <c r="P25" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="R25" t="n">
         <v>1.47</v>
@@ -3823,7 +3823,7 @@
         <v>1.11</v>
       </c>
       <c r="W25" t="n">
-        <v>2.74</v>
+        <v>3.2</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
@@ -3838,10 +3838,10 @@
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AD25" t="n">
         <v>1000</v>
@@ -3850,7 +3850,7 @@
         <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG25" t="n">
         <v>15</v>
@@ -3862,10 +3862,10 @@
         <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AK25" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL25" t="n">
         <v>1000</v>
@@ -3907,37 +3907,37 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.04</v>
+        <v>4.2</v>
       </c>
       <c r="G26" t="n">
         <v>5.7</v>
       </c>
       <c r="H26" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="I26" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="J26" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="K26" t="n">
         <v>3.95</v>
       </c>
       <c r="L26" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M26" t="n">
         <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="O26" t="n">
         <v>1.01</v>
       </c>
       <c r="P26" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="Q26" t="n">
         <v>2.02</v>
@@ -3955,7 +3955,7 @@
         <v>1.01</v>
       </c>
       <c r="V26" t="n">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="W26" t="n">
         <v>1.21</v>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="G27" t="n">
         <v>4.1</v>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="G28" t="n">
         <v>3.1</v>
@@ -4186,7 +4186,7 @@
         <v>2.54</v>
       </c>
       <c r="I28" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="J28" t="n">
         <v>3.35</v>
@@ -4312,91 +4312,91 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.18</v>
+        <v>2.36</v>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>2.62</v>
       </c>
       <c r="H29" t="n">
-        <v>2.58</v>
+        <v>2.92</v>
       </c>
       <c r="I29" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="J29" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="K29" t="n">
-        <v>6.6</v>
+        <v>4</v>
       </c>
       <c r="L29" t="n">
         <v>1.31</v>
       </c>
       <c r="M29" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>1.01</v>
+        <v>3.85</v>
       </c>
       <c r="O29" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P29" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R29" t="n">
         <v>1.38</v>
       </c>
-      <c r="Q29" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.18</v>
-      </c>
       <c r="S29" t="n">
-        <v>1.01</v>
+        <v>3.1</v>
       </c>
       <c r="T29" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="U29" t="n">
-        <v>1.01</v>
+        <v>2.22</v>
       </c>
       <c r="V29" t="n">
         <v>1.44</v>
       </c>
       <c r="W29" t="n">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="X29" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y29" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA29" t="n">
         <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD29" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE29" t="n">
         <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AI29" t="n">
         <v>1000</v>
@@ -4405,7 +4405,7 @@
         <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL29" t="n">
         <v>1000</v>
@@ -4414,10 +4414,10 @@
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
@@ -4459,7 +4459,7 @@
         <v>1000</v>
       </c>
       <c r="J30" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K30" t="n">
         <v>11.5</v>
@@ -4471,19 +4471,19 @@
         <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="O30" t="n">
         <v>1.22</v>
       </c>
       <c r="P30" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R30" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S30" t="n">
         <v>2.48</v>
@@ -4498,7 +4498,7 @@
         <v>1.01</v>
       </c>
       <c r="W30" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="X30" t="n">
         <v>1000</v>
@@ -4582,22 +4582,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="G31" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="H31" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I31" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="J31" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="K31" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L31" t="n">
         <v>1.41</v>
@@ -4606,13 +4606,13 @@
         <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="O31" t="n">
         <v>1.01</v>
       </c>
       <c r="P31" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q31" t="n">
         <v>1.47</v>
@@ -4630,10 +4630,10 @@
         <v>1.01</v>
       </c>
       <c r="V31" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="W31" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
@@ -4720,16 +4720,16 @@
         <v>1.86</v>
       </c>
       <c r="G32" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="H32" t="n">
         <v>3.6</v>
       </c>
       <c r="I32" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J32" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="K32" t="n">
         <v>5.4</v>
@@ -4741,7 +4741,7 @@
         <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="O32" t="n">
         <v>1.01</v>
@@ -4750,7 +4750,7 @@
         <v>1.59</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R32" t="n">
         <v>1.21</v>
@@ -4858,40 +4858,40 @@
         <v>5.2</v>
       </c>
       <c r="H33" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="J33" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="K33" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L33" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M33" t="n">
         <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="O33" t="n">
         <v>1.01</v>
       </c>
       <c r="P33" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R33" t="n">
         <v>1.18</v>
       </c>
       <c r="S33" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="T33" t="n">
         <v>1.01</v>
@@ -4987,58 +4987,58 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.04</v>
+        <v>2.28</v>
       </c>
       <c r="G34" t="n">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="H34" t="n">
-        <v>1.04</v>
+        <v>2.88</v>
       </c>
       <c r="I34" t="n">
-        <v>1000</v>
+        <v>3.95</v>
       </c>
       <c r="J34" t="n">
-        <v>1.01</v>
+        <v>2.8</v>
       </c>
       <c r="K34" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="L34" t="n">
         <v>1.01</v>
       </c>
       <c r="M34" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N34" t="n">
-        <v>1.01</v>
+        <v>2.8</v>
       </c>
       <c r="O34" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="P34" t="n">
-        <v>1.23</v>
+        <v>1.64</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="R34" t="n">
-        <v>1.09</v>
+        <v>1.24</v>
       </c>
       <c r="S34" t="n">
-        <v>1.02</v>
+        <v>3.4</v>
       </c>
       <c r="T34" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="U34" t="n">
-        <v>1.01</v>
+        <v>1.91</v>
       </c>
       <c r="V34" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="W34" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="X34" t="n">
         <v>1000</v>
@@ -5122,64 +5122,64 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.79</v>
+        <v>1.94</v>
       </c>
       <c r="G35" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="H35" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="I35" t="n">
-        <v>6</v>
+        <v>4.9</v>
       </c>
       <c r="J35" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="K35" t="n">
-        <v>5.3</v>
+        <v>3.75</v>
       </c>
       <c r="L35" t="n">
         <v>1.01</v>
       </c>
       <c r="M35" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N35" t="n">
-        <v>1.63</v>
+        <v>2.74</v>
       </c>
       <c r="O35" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="P35" t="n">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="R35" t="n">
-        <v>1.1</v>
+        <v>1.26</v>
       </c>
       <c r="S35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T35" t="n">
-        <v>1.01</v>
+        <v>1.91</v>
       </c>
       <c r="U35" t="n">
-        <v>1.01</v>
+        <v>1.88</v>
       </c>
       <c r="V35" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="W35" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="X35" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y35" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z35" t="n">
         <v>1000</v>
@@ -5188,10 +5188,10 @@
         <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC35" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD35" t="n">
         <v>1000</v>
@@ -5200,10 +5200,10 @@
         <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH35" t="n">
         <v>1000</v>
@@ -5266,7 +5266,7 @@
         <v>6.2</v>
       </c>
       <c r="I36" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="J36" t="n">
         <v>3.3</v>
@@ -5395,13 +5395,13 @@
         <v>2.86</v>
       </c>
       <c r="G37" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H37" t="n">
         <v>2.8</v>
       </c>
       <c r="I37" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J37" t="n">
         <v>3</v>
@@ -5416,13 +5416,13 @@
         <v>1.1</v>
       </c>
       <c r="N37" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="O37" t="n">
         <v>1.5</v>
       </c>
       <c r="P37" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q37" t="n">
         <v>2.48</v>
@@ -5440,7 +5440,7 @@
         <v>1.72</v>
       </c>
       <c r="V37" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="W37" t="n">
         <v>1.47</v>
@@ -5527,13 +5527,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="G38" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="H38" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="I38" t="n">
         <v>3.05</v>
@@ -5569,7 +5569,7 @@
         <v>4.4</v>
       </c>
       <c r="T38" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="U38" t="n">
         <v>1.78</v>
@@ -5668,13 +5668,13 @@
         <v>1.69</v>
       </c>
       <c r="H39" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I39" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J39" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K39" t="n">
         <v>4.3</v>
@@ -5692,10 +5692,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -5821,7 +5821,7 @@
         <v>1.06</v>
       </c>
       <c r="N40" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O40" t="n">
         <v>1.31</v>
@@ -5833,10 +5833,10 @@
         <v>1.91</v>
       </c>
       <c r="R40" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S40" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T40" t="n">
         <v>1.82</v>
@@ -5851,7 +5851,7 @@
         <v>2.06</v>
       </c>
       <c r="X40" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y40" t="n">
         <v>16.5</v>
@@ -5881,7 +5881,7 @@
         <v>11</v>
       </c>
       <c r="AH40" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AI40" t="n">
         <v>65</v>
@@ -5890,7 +5890,7 @@
         <v>23</v>
       </c>
       <c r="AK40" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL40" t="n">
         <v>980</v>
@@ -5938,13 +5938,13 @@
         <v>2.2</v>
       </c>
       <c r="H41" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I41" t="n">
         <v>4.5</v>
       </c>
       <c r="J41" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K41" t="n">
         <v>3.4</v>
@@ -5968,7 +5968,7 @@
         <v>2.44</v>
       </c>
       <c r="R41" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S41" t="n">
         <v>4.8</v>
@@ -6010,7 +6010,7 @@
         <v>70</v>
       </c>
       <c r="AF41" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG41" t="n">
         <v>12</v>
@@ -6082,7 +6082,7 @@
         <v>3.6</v>
       </c>
       <c r="K42" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L42" t="n">
         <v>1.31</v>
@@ -6091,13 +6091,13 @@
         <v>1.01</v>
       </c>
       <c r="N42" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="O42" t="n">
         <v>1.29</v>
       </c>
       <c r="P42" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="Q42" t="n">
         <v>1.85</v>
@@ -6118,7 +6118,7 @@
         <v>1.13</v>
       </c>
       <c r="W42" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="X42" t="n">
         <v>1000</v>
@@ -6226,19 +6226,19 @@
         <v>1.01</v>
       </c>
       <c r="N43" t="n">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="O43" t="n">
         <v>1.01</v>
       </c>
       <c r="P43" t="n">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="Q43" t="n">
         <v>1.01</v>
       </c>
       <c r="R43" t="n">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="S43" t="n">
         <v>1.01</v>
@@ -6340,19 +6340,19 @@
         <v>7.6</v>
       </c>
       <c r="G44" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H44" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="I44" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="J44" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="K44" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="L44" t="n">
         <v>1.32</v>
@@ -6361,7 +6361,7 @@
         <v>1.04</v>
       </c>
       <c r="N44" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="O44" t="n">
         <v>1.22</v>
@@ -6370,22 +6370,22 @@
         <v>2.32</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R44" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S44" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="T44" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U44" t="n">
         <v>1.96</v>
       </c>
       <c r="V44" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="W44" t="n">
         <v>1.13</v>
@@ -6415,7 +6415,7 @@
         <v>15.5</v>
       </c>
       <c r="AF44" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG44" t="n">
         <v>32</v>
@@ -6502,7 +6502,7 @@
         <v>1.43</v>
       </c>
       <c r="P45" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q45" t="n">
         <v>2.22</v>
@@ -6514,7 +6514,7 @@
         <v>4.2</v>
       </c>
       <c r="T45" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U45" t="n">
         <v>1.96</v>
@@ -6607,22 +6607,22 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="G46" t="n">
         <v>1.82</v>
       </c>
       <c r="H46" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I46" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J46" t="n">
         <v>3.6</v>
       </c>
       <c r="K46" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L46" t="n">
         <v>1.01</v>
@@ -6631,13 +6631,13 @@
         <v>1.04</v>
       </c>
       <c r="N46" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="O46" t="n">
         <v>1.23</v>
       </c>
       <c r="P46" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="Q46" t="n">
         <v>1.68</v>
@@ -6652,7 +6652,7 @@
         <v>1.7</v>
       </c>
       <c r="U46" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V46" t="n">
         <v>1.21</v>
@@ -6670,7 +6670,7 @@
         <v>980</v>
       </c>
       <c r="AA46" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB46" t="n">
         <v>12.5</v>
@@ -6679,7 +6679,7 @@
         <v>10.5</v>
       </c>
       <c r="AD46" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE46" t="n">
         <v>65</v>
@@ -6691,10 +6691,10 @@
         <v>11</v>
       </c>
       <c r="AH46" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI46" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ46" t="n">
         <v>22</v>
@@ -6703,16 +6703,16 @@
         <v>21</v>
       </c>
       <c r="AL46" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM46" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN46" t="n">
         <v>10.5</v>
       </c>
       <c r="AO46" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47">
@@ -6742,19 +6742,19 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="G47" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="H47" t="n">
-        <v>14</v>
+        <v>1.04</v>
       </c>
       <c r="I47" t="n">
         <v>1000</v>
       </c>
       <c r="J47" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K47" t="n">
         <v>1000</v>
@@ -6766,19 +6766,19 @@
         <v>1.01</v>
       </c>
       <c r="N47" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O47" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="P47" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Q47" t="n">
         <v>1.17</v>
       </c>
       <c r="R47" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="S47" t="n">
         <v>1.24</v>
@@ -6793,7 +6793,7 @@
         <v>1.01</v>
       </c>
       <c r="W47" t="n">
-        <v>6.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X47" t="n">
         <v>1000</v>
@@ -7042,7 +7042,7 @@
         <v>1.01</v>
       </c>
       <c r="P49" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="Q49" t="n">
         <v>1.59</v>
@@ -7051,7 +7051,7 @@
         <v>1.35</v>
       </c>
       <c r="S49" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="T49" t="n">
         <v>1.04</v>
@@ -7147,22 +7147,22 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G50" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="H50" t="n">
         <v>3.3</v>
       </c>
       <c r="I50" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J50" t="n">
         <v>3.4</v>
       </c>
       <c r="K50" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L50" t="n">
         <v>1.43</v>
@@ -7198,7 +7198,7 @@
         <v>1.42</v>
       </c>
       <c r="W50" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="X50" t="n">
         <v>12.5</v>
@@ -7234,7 +7234,7 @@
         <v>17.5</v>
       </c>
       <c r="AI50" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ50" t="n">
         <v>34</v>
@@ -7246,7 +7246,7 @@
         <v>42</v>
       </c>
       <c r="AM50" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN50" t="n">
         <v>22</v>
@@ -7315,7 +7315,7 @@
         <v>2.28</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R51" t="n">
         <v>1.52</v>
@@ -7333,7 +7333,7 @@
         <v>1.56</v>
       </c>
       <c r="W51" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X51" t="n">
         <v>18.5</v>
@@ -7384,7 +7384,7 @@
         <v>65</v>
       </c>
       <c r="AN51" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AO51" t="n">
         <v>18.5</v>
@@ -7417,22 +7417,22 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G52" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H52" t="n">
         <v>3.5</v>
       </c>
       <c r="I52" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J52" t="n">
         <v>4</v>
       </c>
       <c r="K52" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L52" t="n">
         <v>1.26</v>
@@ -7450,22 +7450,22 @@
         <v>2.76</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R52" t="n">
         <v>1.72</v>
       </c>
       <c r="S52" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="T52" t="n">
         <v>1.51</v>
       </c>
       <c r="U52" t="n">
-        <v>2.94</v>
+        <v>2.82</v>
       </c>
       <c r="V52" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W52" t="n">
         <v>1.88</v>
@@ -7474,7 +7474,7 @@
         <v>26</v>
       </c>
       <c r="Y52" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z52" t="n">
         <v>32</v>
@@ -7489,7 +7489,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD52" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE52" t="n">
         <v>34</v>
@@ -7507,16 +7507,16 @@
         <v>34</v>
       </c>
       <c r="AJ52" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK52" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AL52" t="n">
         <v>25</v>
       </c>
       <c r="AM52" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AN52" t="n">
         <v>9.199999999999999</v>
@@ -7588,7 +7588,7 @@
         <v>1.82</v>
       </c>
       <c r="R53" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S53" t="n">
         <v>3.05</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G54" t="n">
         <v>2.62</v>
@@ -7699,10 +7699,10 @@
         <v>2.94</v>
       </c>
       <c r="J54" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K54" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L54" t="n">
         <v>1.36</v>
@@ -7720,10 +7720,10 @@
         <v>2.08</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R54" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S54" t="n">
         <v>3.2</v>
@@ -7738,10 +7738,10 @@
         <v>1.51</v>
       </c>
       <c r="W54" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="X54" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y54" t="n">
         <v>13</v>
@@ -7822,22 +7822,22 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="G55" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="H55" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="I55" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="J55" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K55" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="L55" t="n">
         <v>1.28</v>
@@ -7855,7 +7855,7 @@
         <v>1.84</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="R55" t="n">
         <v>1.27</v>
@@ -7873,7 +7873,7 @@
         <v>1.32</v>
       </c>
       <c r="W55" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="X55" t="n">
         <v>1000</v>
@@ -7957,7 +7957,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G56" t="n">
         <v>3.8</v>
@@ -8005,7 +8005,7 @@
         <v>2.18</v>
       </c>
       <c r="V56" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="W56" t="n">
         <v>1.35</v>
@@ -8032,7 +8032,7 @@
         <v>13</v>
       </c>
       <c r="AE56" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF56" t="n">
         <v>30</v>
@@ -8047,7 +8047,7 @@
         <v>44</v>
       </c>
       <c r="AJ56" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK56" t="n">
         <v>48</v>
@@ -8098,13 +8098,13 @@
         <v>1.96</v>
       </c>
       <c r="H57" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I57" t="n">
         <v>4.8</v>
       </c>
       <c r="J57" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K57" t="n">
         <v>3.85</v>
@@ -8116,7 +8116,7 @@
         <v>1.06</v>
       </c>
       <c r="N57" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="O57" t="n">
         <v>1.31</v>
@@ -8125,13 +8125,13 @@
         <v>1.96</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R57" t="n">
         <v>1.36</v>
       </c>
       <c r="S57" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T57" t="n">
         <v>1.78</v>
@@ -8143,7 +8143,7 @@
         <v>1.26</v>
       </c>
       <c r="W57" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X57" t="n">
         <v>16</v>
@@ -8239,7 +8239,7 @@
         <v>8.4</v>
       </c>
       <c r="J58" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K58" t="n">
         <v>5</v>
@@ -8275,10 +8275,10 @@
         <v>1.9</v>
       </c>
       <c r="V58" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W58" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="X58" t="n">
         <v>19</v>
@@ -8365,19 +8365,19 @@
         <v>2.74</v>
       </c>
       <c r="G59" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I59" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J59" t="n">
         <v>2.98</v>
       </c>
-      <c r="H59" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2.8</v>
-      </c>
       <c r="K59" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="L59" t="n">
         <v>1.4</v>
@@ -8392,7 +8392,7 @@
         <v>1.32</v>
       </c>
       <c r="P59" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q59" t="n">
         <v>1.39</v>
@@ -8410,7 +8410,7 @@
         <v>1.98</v>
       </c>
       <c r="V59" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W59" t="n">
         <v>1.51</v>
@@ -8497,16 +8497,16 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="G60" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="H60" t="n">
         <v>2.6</v>
       </c>
       <c r="I60" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="J60" t="n">
         <v>3.35</v>
@@ -8536,7 +8536,7 @@
         <v>1.29</v>
       </c>
       <c r="S60" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="T60" t="n">
         <v>1.47</v>
@@ -8545,10 +8545,10 @@
         <v>1.87</v>
       </c>
       <c r="V60" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="W60" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X60" t="n">
         <v>23</v>
@@ -8581,13 +8581,13 @@
         <v>17.5</v>
       </c>
       <c r="AH60" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI60" t="n">
         <v>55</v>
       </c>
       <c r="AJ60" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK60" t="n">
         <v>38</v>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="G61" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="H61" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I61" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="J61" t="n">
         <v>3.4</v>
@@ -8680,10 +8680,10 @@
         <v>2.2</v>
       </c>
       <c r="V61" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W61" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="X61" t="n">
         <v>20</v>
@@ -8767,25 +8767,25 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="G62" t="n">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="H62" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="I62" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="J62" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K62" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L62" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M62" t="n">
         <v>1.01</v>
@@ -8800,13 +8800,13 @@
         <v>1.9</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="R62" t="n">
         <v>1.09</v>
       </c>
       <c r="S62" t="n">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="T62" t="n">
         <v>1.01</v>
@@ -8815,10 +8815,10 @@
         <v>1.01</v>
       </c>
       <c r="V62" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="W62" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="X62" t="n">
         <v>1000</v>
@@ -8905,7 +8905,7 @@
         <v>1.67</v>
       </c>
       <c r="G63" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="H63" t="n">
         <v>3.5</v>
@@ -8926,7 +8926,7 @@
         <v>1.01</v>
       </c>
       <c r="N63" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="O63" t="n">
         <v>1.17</v>
@@ -8953,7 +8953,7 @@
         <v>1.19</v>
       </c>
       <c r="W63" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="X63" t="n">
         <v>1000</v>
@@ -9175,7 +9175,7 @@
         <v>3.25</v>
       </c>
       <c r="G65" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="H65" t="n">
         <v>2.24</v>
@@ -9184,13 +9184,13 @@
         <v>2.44</v>
       </c>
       <c r="J65" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K65" t="n">
         <v>3.65</v>
       </c>
       <c r="L65" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M65" t="n">
         <v>1.08</v>
@@ -9340,13 +9340,13 @@
         <v>2.08</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R66" t="n">
         <v>1.43</v>
       </c>
       <c r="S66" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="T66" t="n">
         <v>1.58</v>
@@ -9448,7 +9448,7 @@
         <v>5.2</v>
       </c>
       <c r="H67" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="I67" t="n">
         <v>2.1</v>
@@ -9460,7 +9460,7 @@
         <v>4</v>
       </c>
       <c r="L67" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M67" t="n">
         <v>1.07</v>
@@ -9481,13 +9481,13 @@
         <v>1.3</v>
       </c>
       <c r="S67" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T67" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U67" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V67" t="n">
         <v>1.9</v>
@@ -9592,7 +9592,7 @@
         <v>3.45</v>
       </c>
       <c r="K68" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L68" t="n">
         <v>1.01</v>
@@ -9601,7 +9601,7 @@
         <v>1.07</v>
       </c>
       <c r="N68" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O68" t="n">
         <v>1.32</v>
@@ -9613,7 +9613,7 @@
         <v>1.97</v>
       </c>
       <c r="R68" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S68" t="n">
         <v>3.5</v>
@@ -9622,7 +9622,7 @@
         <v>1.81</v>
       </c>
       <c r="U68" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V68" t="n">
         <v>1.26</v>
@@ -9715,43 +9715,43 @@
         <v>1.39</v>
       </c>
       <c r="G69" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="H69" t="n">
-        <v>1.04</v>
+        <v>8.6</v>
       </c>
       <c r="I69" t="n">
         <v>12.5</v>
       </c>
       <c r="J69" t="n">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="K69" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L69" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="M69" t="n">
         <v>1.01</v>
       </c>
       <c r="N69" t="n">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="O69" t="n">
         <v>1.26</v>
       </c>
       <c r="P69" t="n">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.64</v>
+        <v>1.77</v>
       </c>
       <c r="R69" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S69" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="T69" t="n">
         <v>1.04</v>
@@ -9760,10 +9760,10 @@
         <v>1.04</v>
       </c>
       <c r="V69" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W69" t="n">
-        <v>2.74</v>
+        <v>3</v>
       </c>
       <c r="X69" t="n">
         <v>1000</v>
@@ -9847,22 +9847,22 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="G70" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="H70" t="n">
         <v>4</v>
       </c>
       <c r="I70" t="n">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="J70" t="n">
         <v>3.35</v>
       </c>
       <c r="K70" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L70" t="n">
         <v>1.01</v>
@@ -9880,7 +9880,7 @@
         <v>1.79</v>
       </c>
       <c r="Q70" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="R70" t="n">
         <v>1.3</v>
@@ -9913,7 +9913,7 @@
         <v>1000</v>
       </c>
       <c r="AB70" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC70" t="n">
         <v>9.800000000000001</v>
@@ -9925,7 +9925,7 @@
         <v>1000</v>
       </c>
       <c r="AF70" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG70" t="n">
         <v>13</v>
@@ -9949,7 +9949,7 @@
         <v>1000</v>
       </c>
       <c r="AN70" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AO70" t="n">
         <v>1000</v>
@@ -9982,22 +9982,22 @@
         </is>
       </c>
       <c r="F71" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="G71" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H71" t="n">
         <v>2.72</v>
       </c>
-      <c r="G71" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="H71" t="n">
-        <v>2.7</v>
-      </c>
       <c r="I71" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J71" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K71" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L71" t="n">
         <v>1.01</v>
@@ -10015,7 +10015,7 @@
         <v>1.64</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R71" t="n">
         <v>1.24</v>
@@ -10024,16 +10024,16 @@
         <v>4.3</v>
       </c>
       <c r="T71" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U71" t="n">
         <v>1.91</v>
       </c>
       <c r="V71" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W71" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="X71" t="n">
         <v>12.5</v>
@@ -10117,13 +10117,13 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="G72" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H72" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I72" t="n">
         <v>3.65</v>
@@ -10150,16 +10150,16 @@
         <v>2.2</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="R72" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S72" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="T72" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="U72" t="n">
         <v>2.24</v>
@@ -10279,10 +10279,10 @@
         <v>1.01</v>
       </c>
       <c r="O73" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="P73" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="Q73" t="n">
         <v>2.72</v>
@@ -10393,10 +10393,10 @@
         <v>1.73</v>
       </c>
       <c r="H74" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="I74" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J74" t="n">
         <v>4.1</v>
@@ -10438,7 +10438,7 @@
         <v>1.21</v>
       </c>
       <c r="W74" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="X74" t="n">
         <v>16</v>
@@ -10573,7 +10573,7 @@
         <v>1.87</v>
       </c>
       <c r="W75" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X75" t="n">
         <v>13</v>
@@ -10627,7 +10627,7 @@
         <v>50</v>
       </c>
       <c r="AO75" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76">
@@ -10657,16 +10657,16 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="G76" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="H76" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I76" t="n">
         <v>7.4</v>
-      </c>
-      <c r="I76" t="n">
-        <v>7.6</v>
       </c>
       <c r="J76" t="n">
         <v>4.7</v>
@@ -10699,7 +10699,7 @@
         <v>2.84</v>
       </c>
       <c r="T76" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="U76" t="n">
         <v>2.04</v>
@@ -10708,7 +10708,7 @@
         <v>1.15</v>
       </c>
       <c r="W76" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="X76" t="n">
         <v>19</v>
@@ -10738,7 +10738,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AG76" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH76" t="n">
         <v>21</v>
@@ -10798,10 +10798,10 @@
         <v>1.23</v>
       </c>
       <c r="H77" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="I77" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="J77" t="n">
         <v>8.4</v>
@@ -10825,7 +10825,7 @@
         <v>3.4</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="R77" t="n">
         <v>1.98</v>
@@ -10834,16 +10834,16 @@
         <v>1.97</v>
       </c>
       <c r="T77" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U77" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V77" t="n">
         <v>1.06</v>
       </c>
       <c r="W77" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="X77" t="n">
         <v>44</v>
@@ -10861,13 +10861,13 @@
         <v>14</v>
       </c>
       <c r="AC77" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AD77" t="n">
         <v>55</v>
       </c>
       <c r="AE77" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="AF77" t="n">
         <v>9.6</v>
@@ -10879,7 +10879,7 @@
         <v>34</v>
       </c>
       <c r="AI77" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ77" t="n">
         <v>10</v>
@@ -10894,7 +10894,7 @@
         <v>1000</v>
       </c>
       <c r="AN77" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AO77" t="n">
         <v>200</v>
@@ -10930,10 +10930,10 @@
         <v>2.44</v>
       </c>
       <c r="G78" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="H78" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="I78" t="n">
         <v>2.88</v>
@@ -10960,7 +10960,7 @@
         <v>1.9</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="R78" t="n">
         <v>1.33</v>
@@ -11071,10 +11071,10 @@
         <v>2.48</v>
       </c>
       <c r="I79" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="J79" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="K79" t="n">
         <v>3.95</v>
@@ -11110,7 +11110,7 @@
         <v>1.86</v>
       </c>
       <c r="V79" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W79" t="n">
         <v>1.45</v>
@@ -11203,7 +11203,7 @@
         <v>3.65</v>
       </c>
       <c r="H80" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="I80" t="n">
         <v>2.26</v>
@@ -11233,7 +11233,7 @@
         <v>1.97</v>
       </c>
       <c r="R80" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S80" t="n">
         <v>3.5</v>
@@ -11248,7 +11248,7 @@
         <v>1.79</v>
       </c>
       <c r="W80" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X80" t="n">
         <v>14</v>
@@ -11290,7 +11290,7 @@
         <v>70</v>
       </c>
       <c r="AK80" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AL80" t="n">
         <v>55</v>
@@ -11302,7 +11302,7 @@
         <v>40</v>
       </c>
       <c r="AO80" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81">
@@ -11332,7 +11332,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="G81" t="n">
         <v>2.24</v>
@@ -11347,7 +11347,7 @@
         <v>2.96</v>
       </c>
       <c r="K81" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L81" t="n">
         <v>1.01</v>
@@ -11602,22 +11602,22 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G83" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H83" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="I83" t="n">
         <v>2.2</v>
       </c>
       <c r="J83" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K83" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L83" t="n">
         <v>1.28</v>
@@ -11626,7 +11626,7 @@
         <v>1.04</v>
       </c>
       <c r="N83" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="O83" t="n">
         <v>1.19</v>
@@ -11635,13 +11635,13 @@
         <v>2.52</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="R83" t="n">
         <v>1.61</v>
       </c>
       <c r="S83" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="T83" t="n">
         <v>1.56</v>
@@ -11650,7 +11650,7 @@
         <v>2.66</v>
       </c>
       <c r="V83" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="W83" t="n">
         <v>1.4</v>
@@ -11692,7 +11692,7 @@
         <v>29</v>
       </c>
       <c r="AJ83" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AK83" t="n">
         <v>34</v>
@@ -11701,7 +11701,7 @@
         <v>38</v>
       </c>
       <c r="AM83" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AN83" t="n">
         <v>1000</v>
@@ -11737,7 +11737,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G84" t="n">
         <v>4.1</v>
@@ -11749,7 +11749,7 @@
         <v>1.98</v>
       </c>
       <c r="J84" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K84" t="n">
         <v>4.8</v>
@@ -11764,25 +11764,25 @@
         <v>7.2</v>
       </c>
       <c r="O84" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P84" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="R84" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="S84" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="T84" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="U84" t="n">
-        <v>2.86</v>
+        <v>2.96</v>
       </c>
       <c r="V84" t="n">
         <v>2.02</v>
@@ -11824,25 +11824,25 @@
         <v>18</v>
       </c>
       <c r="AI84" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AJ84" t="n">
         <v>85</v>
       </c>
       <c r="AK84" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AL84" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM84" t="n">
         <v>55</v>
       </c>
       <c r="AN84" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO84" t="n">
-        <v>8</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="85">
@@ -11872,10 +11872,10 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="G85" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="H85" t="n">
         <v>4.6</v>
@@ -11923,7 +11923,7 @@
         <v>1.23</v>
       </c>
       <c r="W85" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="X85" t="n">
         <v>11</v>
@@ -12007,19 +12007,19 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="G86" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="H86" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I86" t="n">
         <v>2.48</v>
       </c>
       <c r="J86" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="K86" t="n">
         <v>4.4</v>
@@ -12040,13 +12040,13 @@
         <v>2.38</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R86" t="n">
         <v>1.55</v>
       </c>
       <c r="S86" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T86" t="n">
         <v>1.54</v>
@@ -12055,10 +12055,10 @@
         <v>2.46</v>
       </c>
       <c r="V86" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="W86" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="X86" t="n">
         <v>28</v>
@@ -12148,16 +12148,16 @@
         <v>5.5</v>
       </c>
       <c r="H87" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="I87" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="J87" t="n">
         <v>3.55</v>
       </c>
       <c r="K87" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L87" t="n">
         <v>1.42</v>
@@ -12166,7 +12166,7 @@
         <v>1.07</v>
       </c>
       <c r="N87" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O87" t="n">
         <v>1.34</v>
@@ -12184,7 +12184,7 @@
         <v>3.6</v>
       </c>
       <c r="T87" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U87" t="n">
         <v>1.97</v>
@@ -12277,22 +12277,22 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="G88" t="n">
-        <v>2.62</v>
+        <v>2.28</v>
       </c>
       <c r="H88" t="n">
-        <v>3.25</v>
+        <v>4.1</v>
       </c>
       <c r="I88" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="J88" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="K88" t="n">
-        <v>950</v>
+        <v>3.5</v>
       </c>
       <c r="L88" t="n">
         <v>1.46</v>
@@ -12301,22 +12301,22 @@
         <v>1.01</v>
       </c>
       <c r="N88" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="O88" t="n">
         <v>1.01</v>
       </c>
       <c r="P88" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="R88" t="n">
         <v>1.18</v>
       </c>
       <c r="S88" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="T88" t="n">
         <v>1.01</v>
@@ -12325,10 +12325,10 @@
         <v>1.01</v>
       </c>
       <c r="V88" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W88" t="n">
-        <v>1.61</v>
+        <v>1.78</v>
       </c>
       <c r="X88" t="n">
         <v>1000</v>
@@ -12415,34 +12415,34 @@
         <v>2.76</v>
       </c>
       <c r="G89" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="H89" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="I89" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="J89" t="n">
-        <v>2.86</v>
+        <v>3.15</v>
       </c>
       <c r="K89" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L89" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M89" t="n">
         <v>1.01</v>
       </c>
       <c r="N89" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="O89" t="n">
         <v>1.01</v>
       </c>
       <c r="P89" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="Q89" t="n">
         <v>2.06</v>
@@ -12460,10 +12460,10 @@
         <v>1.81</v>
       </c>
       <c r="V89" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="W89" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="X89" t="n">
         <v>17.5</v>
@@ -12472,7 +12472,7 @@
         <v>15</v>
       </c>
       <c r="Z89" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA89" t="n">
         <v>1000</v>
@@ -12484,7 +12484,7 @@
         <v>10.5</v>
       </c>
       <c r="AD89" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE89" t="n">
         <v>1000</v>
@@ -12493,7 +12493,7 @@
         <v>1000</v>
       </c>
       <c r="AG89" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AH89" t="n">
         <v>1000</v>
@@ -12547,58 +12547,58 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="G90" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="H90" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="I90" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="J90" t="n">
-        <v>2.4</v>
+        <v>3.05</v>
       </c>
       <c r="K90" t="n">
-        <v>5.1</v>
+        <v>3.75</v>
       </c>
       <c r="L90" t="n">
         <v>1.01</v>
       </c>
       <c r="M90" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N90" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O90" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="P90" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="Q90" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R90" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S90" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T90" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U90" t="n">
         <v>1.98</v>
       </c>
-      <c r="R90" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S90" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="T90" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U90" t="n">
-        <v>1.04</v>
-      </c>
       <c r="V90" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="W90" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X90" t="n">
         <v>1000</v>
@@ -12817,79 +12817,79 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>2.58</v>
+        <v>2.82</v>
       </c>
       <c r="G92" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H92" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I92" t="n">
         <v>3.1</v>
       </c>
-      <c r="H92" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="I92" t="n">
-        <v>3.2</v>
-      </c>
       <c r="J92" t="n">
-        <v>2.92</v>
+        <v>2.76</v>
       </c>
       <c r="K92" t="n">
-        <v>5</v>
+        <v>3.55</v>
       </c>
       <c r="L92" t="n">
         <v>1.38</v>
       </c>
       <c r="M92" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N92" t="n">
-        <v>1.58</v>
+        <v>2.86</v>
       </c>
       <c r="O92" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="P92" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.06</v>
+        <v>2.28</v>
       </c>
       <c r="R92" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S92" t="n">
-        <v>2.06</v>
+        <v>4.2</v>
       </c>
       <c r="T92" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="U92" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="V92" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="W92" t="n">
         <v>1.45</v>
       </c>
-      <c r="W92" t="n">
-        <v>1.48</v>
-      </c>
       <c r="X92" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y92" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z92" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AA92" t="n">
         <v>1000</v>
       </c>
       <c r="AB92" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC92" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD92" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE92" t="n">
         <v>1000</v>
@@ -12898,7 +12898,7 @@
         <v>1000</v>
       </c>
       <c r="AG92" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AH92" t="n">
         <v>1000</v>
@@ -12952,7 +12952,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="G93" t="n">
         <v>2.08</v>
@@ -12979,22 +12979,22 @@
         <v>5.6</v>
       </c>
       <c r="O93" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P93" t="n">
         <v>2.56</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R93" t="n">
         <v>1.63</v>
       </c>
       <c r="S93" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="T93" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="U93" t="n">
         <v>2.6</v>
@@ -13099,7 +13099,7 @@
         <v>8.6</v>
       </c>
       <c r="J94" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="K94" t="n">
         <v>5.5</v>
@@ -13120,7 +13120,7 @@
         <v>2.52</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="R94" t="n">
         <v>1.54</v>
@@ -13138,7 +13138,7 @@
         <v>1.13</v>
       </c>
       <c r="W94" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="X94" t="n">
         <v>1000</v>
@@ -13222,19 +13222,19 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="G95" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="H95" t="n">
         <v>5</v>
       </c>
       <c r="I95" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J95" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="K95" t="n">
         <v>4.6</v>
@@ -13246,13 +13246,13 @@
         <v>1.04</v>
       </c>
       <c r="N95" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O95" t="n">
         <v>1.22</v>
       </c>
       <c r="P95" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q95" t="n">
         <v>1.67</v>
@@ -13267,22 +13267,22 @@
         <v>1.67</v>
       </c>
       <c r="U95" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V95" t="n">
         <v>1.23</v>
       </c>
       <c r="W95" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="X95" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y95" t="n">
         <v>23</v>
       </c>
       <c r="Z95" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AA95" t="n">
         <v>130</v>
@@ -13291,7 +13291,7 @@
         <v>11.5</v>
       </c>
       <c r="AC95" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD95" t="n">
         <v>21</v>
@@ -13309,7 +13309,7 @@
         <v>17.5</v>
       </c>
       <c r="AI95" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ95" t="n">
         <v>18.5</v>
@@ -13357,16 +13357,16 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="G96" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="H96" t="n">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
       <c r="I96" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="J96" t="n">
         <v>3.3</v>
@@ -13375,28 +13375,28 @@
         <v>950</v>
       </c>
       <c r="L96" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M96" t="n">
         <v>1.01</v>
       </c>
       <c r="N96" t="n">
-        <v>4.1</v>
+        <v>1.96</v>
       </c>
       <c r="O96" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P96" t="n">
         <v>1.95</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="R96" t="n">
         <v>1.35</v>
       </c>
       <c r="S96" t="n">
-        <v>2.6</v>
+        <v>2.78</v>
       </c>
       <c r="T96" t="n">
         <v>1.01</v>
@@ -13405,10 +13405,10 @@
         <v>1.01</v>
       </c>
       <c r="V96" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="W96" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X96" t="n">
         <v>1000</v>
@@ -13495,10 +13495,10 @@
         <v>4.5</v>
       </c>
       <c r="G97" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H97" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="I97" t="n">
         <v>1.7</v>
@@ -13507,7 +13507,7 @@
         <v>4.1</v>
       </c>
       <c r="K97" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="L97" t="n">
         <v>1.01</v>
@@ -13627,16 +13627,16 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="G98" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="H98" t="n">
         <v>6.2</v>
       </c>
       <c r="I98" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J98" t="n">
         <v>3.9</v>
@@ -13669,16 +13669,16 @@
         <v>3.95</v>
       </c>
       <c r="T98" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U98" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V98" t="n">
         <v>1.18</v>
       </c>
       <c r="W98" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="X98" t="n">
         <v>12.5</v>
@@ -13726,7 +13726,7 @@
         <v>42</v>
       </c>
       <c r="AM98" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN98" t="n">
         <v>12</v>
@@ -13762,7 +13762,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="G99" t="n">
         <v>2.02</v>
@@ -13771,10 +13771,10 @@
         <v>4.1</v>
       </c>
       <c r="I99" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="J99" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K99" t="n">
         <v>4.5</v>
@@ -13810,7 +13810,7 @@
         <v>1.01</v>
       </c>
       <c r="V99" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="W99" t="n">
         <v>1.99</v>
@@ -13819,7 +13819,7 @@
         <v>30</v>
       </c>
       <c r="Y99" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z99" t="n">
         <v>50</v>
@@ -13834,7 +13834,7 @@
         <v>13.5</v>
       </c>
       <c r="AD99" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE99" t="n">
         <v>70</v>
@@ -13933,7 +13933,7 @@
         <v>2.36</v>
       </c>
       <c r="R100" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="S100" t="n">
         <v>2.36</v>
@@ -14032,7 +14032,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="G101" t="n">
         <v>5.2</v>
@@ -14041,7 +14041,7 @@
         <v>1.83</v>
       </c>
       <c r="I101" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="J101" t="n">
         <v>3.55</v>
@@ -14080,7 +14080,7 @@
         <v>1.01</v>
       </c>
       <c r="V101" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="W101" t="n">
         <v>1.24</v>
@@ -14173,13 +14173,13 @@
         <v>1.28</v>
       </c>
       <c r="H102" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="I102" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="J102" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="K102" t="n">
         <v>8.199999999999999</v>
@@ -14188,7 +14188,7 @@
         <v>1.17</v>
       </c>
       <c r="M102" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N102" t="n">
         <v>6</v>
@@ -14197,7 +14197,7 @@
         <v>1.15</v>
       </c>
       <c r="P102" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="Q102" t="n">
         <v>1.45</v>
@@ -14221,10 +14221,10 @@
         <v>4.5</v>
       </c>
       <c r="X102" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Y102" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Z102" t="n">
         <v>1000</v>
@@ -14236,10 +14236,10 @@
         <v>12</v>
       </c>
       <c r="AC102" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AD102" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AE102" t="n">
         <v>1000</v>
@@ -14248,7 +14248,7 @@
         <v>9.4</v>
       </c>
       <c r="AG102" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH102" t="n">
         <v>36</v>
@@ -14260,7 +14260,7 @@
         <v>10</v>
       </c>
       <c r="AK102" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL102" t="n">
         <v>40</v>
@@ -14269,7 +14269,7 @@
         <v>1000</v>
       </c>
       <c r="AN102" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="AO102" t="n">
         <v>1000</v>
@@ -14302,19 +14302,19 @@
         </is>
       </c>
       <c r="F103" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G103" t="n">
         <v>3.6</v>
       </c>
-      <c r="G103" t="n">
-        <v>3.65</v>
-      </c>
       <c r="H103" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="I103" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="J103" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K103" t="n">
         <v>3.95</v>
@@ -14335,7 +14335,7 @@
         <v>2.36</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R103" t="n">
         <v>1.53</v>
@@ -14350,10 +14350,10 @@
         <v>2.5</v>
       </c>
       <c r="V103" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="W103" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="X103" t="n">
         <v>19.5</v>
@@ -14407,7 +14407,7 @@
         <v>28</v>
       </c>
       <c r="AO103" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104">
@@ -14437,16 +14437,16 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G104" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H104" t="n">
         <v>3.4</v>
       </c>
       <c r="I104" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J104" t="n">
         <v>3.9</v>
@@ -14482,19 +14482,19 @@
         <v>1.55</v>
       </c>
       <c r="U104" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="V104" t="n">
         <v>1.4</v>
       </c>
       <c r="W104" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="X104" t="n">
         <v>22</v>
       </c>
       <c r="Y104" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Z104" t="n">
         <v>28</v>
@@ -14527,7 +14527,7 @@
         <v>36</v>
       </c>
       <c r="AJ104" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK104" t="n">
         <v>20</v>
@@ -14572,7 +14572,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>8.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="G105" t="n">
         <v>15</v>
@@ -14587,7 +14587,7 @@
         <v>5.9</v>
       </c>
       <c r="K105" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="L105" t="n">
         <v>1.18</v>
@@ -14605,13 +14605,13 @@
         <v>2.64</v>
       </c>
       <c r="Q105" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="R105" t="n">
         <v>1.56</v>
       </c>
       <c r="S105" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="T105" t="n">
         <v>1.01</v>
@@ -14710,13 +14710,13 @@
         <v>2.3</v>
       </c>
       <c r="G106" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="H106" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I106" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J106" t="n">
         <v>3.15</v>
@@ -14776,7 +14776,7 @@
         <v>7</v>
       </c>
       <c r="AC106" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD106" t="n">
         <v>17.5</v>
@@ -14842,13 +14842,13 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="G107" t="n">
         <v>2.36</v>
       </c>
       <c r="H107" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I107" t="n">
         <v>3.9</v>
@@ -14875,10 +14875,10 @@
         <v>1.57</v>
       </c>
       <c r="Q107" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="R107" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S107" t="n">
         <v>5.1</v>
@@ -14983,16 +14983,16 @@
         <v>2.2</v>
       </c>
       <c r="H108" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I108" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J108" t="n">
         <v>4</v>
       </c>
       <c r="K108" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L108" t="n">
         <v>1.29</v>
@@ -15001,31 +15001,31 @@
         <v>1.04</v>
       </c>
       <c r="N108" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O108" t="n">
         <v>1.22</v>
       </c>
       <c r="P108" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="Q108" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="R108" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S108" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="T108" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="U108" t="n">
         <v>2.46</v>
       </c>
       <c r="V108" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W108" t="n">
         <v>1.83</v>
@@ -15034,10 +15034,10 @@
         <v>21</v>
       </c>
       <c r="Y108" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z108" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA108" t="n">
         <v>60</v>
@@ -15079,7 +15079,7 @@
         <v>65</v>
       </c>
       <c r="AN108" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AO108" t="n">
         <v>26</v>
@@ -15115,55 +15115,55 @@
         <v>1.77</v>
       </c>
       <c r="G109" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="H109" t="n">
         <v>5.5</v>
       </c>
       <c r="I109" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J109" t="n">
         <v>3.65</v>
       </c>
       <c r="K109" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L109" t="n">
         <v>1.49</v>
       </c>
       <c r="M109" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N109" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O109" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P109" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="Q109" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="R109" t="n">
         <v>1.27</v>
       </c>
       <c r="S109" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T109" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="U109" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="V109" t="n">
         <v>1.2</v>
       </c>
       <c r="W109" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="X109" t="n">
         <v>13</v>
@@ -15178,7 +15178,7 @@
         <v>200</v>
       </c>
       <c r="AB109" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC109" t="n">
         <v>8.800000000000001</v>
@@ -15253,16 +15253,16 @@
         <v>4.8</v>
       </c>
       <c r="H110" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="I110" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="J110" t="n">
         <v>3.35</v>
       </c>
       <c r="K110" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L110" t="n">
         <v>1.01</v>
@@ -15274,7 +15274,7 @@
         <v>3.2</v>
       </c>
       <c r="O110" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P110" t="n">
         <v>1.75</v>
@@ -15289,7 +15289,7 @@
         <v>3.8</v>
       </c>
       <c r="T110" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="U110" t="n">
         <v>1.94</v>
@@ -15301,7 +15301,7 @@
         <v>1.26</v>
       </c>
       <c r="X110" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y110" t="n">
         <v>8.6</v>
@@ -15382,22 +15382,22 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="G111" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="H111" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="I111" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="J111" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K111" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L111" t="n">
         <v>1.01</v>
@@ -15409,34 +15409,34 @@
         <v>3.25</v>
       </c>
       <c r="O111" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P111" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="Q111" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R111" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S111" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="T111" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="U111" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="V111" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="W111" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="X111" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Y111" t="n">
         <v>11</v>
@@ -15523,16 +15523,16 @@
         <v>1.15</v>
       </c>
       <c r="H112" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I112" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J112" t="n">
         <v>10</v>
       </c>
       <c r="K112" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L112" t="n">
         <v>1.21</v>
@@ -15541,25 +15541,25 @@
         <v>1.02</v>
       </c>
       <c r="N112" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="O112" t="n">
         <v>1.14</v>
       </c>
       <c r="P112" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="Q112" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="R112" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="S112" t="n">
         <v>2.06</v>
       </c>
       <c r="T112" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="U112" t="n">
         <v>1.6</v>
@@ -15598,7 +15598,7 @@
         <v>970</v>
       </c>
       <c r="AG112" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AH112" t="n">
         <v>60</v>
@@ -15619,7 +15619,7 @@
         <v>1000</v>
       </c>
       <c r="AN112" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="AO112" t="n">
         <v>1000</v>
@@ -15667,7 +15667,7 @@
         <v>3.7</v>
       </c>
       <c r="K113" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="L113" t="n">
         <v>1.01</v>
@@ -15694,13 +15694,13 @@
         <v>1.23</v>
       </c>
       <c r="T113" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U113" t="n">
         <v>1.04</v>
       </c>
       <c r="V113" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W113" t="n">
         <v>1.78</v>
@@ -15787,19 +15787,19 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G114" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H114" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I114" t="n">
         <v>3.6</v>
       </c>
       <c r="J114" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K114" t="n">
         <v>4.7</v>
@@ -15817,7 +15817,7 @@
         <v>1.15</v>
       </c>
       <c r="P114" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="Q114" t="n">
         <v>1.47</v>
@@ -15838,7 +15838,7 @@
         <v>1.38</v>
       </c>
       <c r="W114" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X114" t="n">
         <v>38</v>
@@ -15922,16 +15922,16 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="G115" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="H115" t="n">
         <v>2.82</v>
       </c>
       <c r="I115" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="J115" t="n">
         <v>4.3</v>
@@ -15946,40 +15946,40 @@
         <v>1.03</v>
       </c>
       <c r="N115" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="O115" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P115" t="n">
-        <v>2.96</v>
+        <v>2.8</v>
       </c>
       <c r="Q115" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="R115" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S115" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="T115" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="U115" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="V115" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="W115" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="X115" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Y115" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Z115" t="n">
         <v>27</v>
@@ -15988,7 +15988,7 @@
         <v>50</v>
       </c>
       <c r="AB115" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC115" t="n">
         <v>11</v>
@@ -15997,10 +15997,10 @@
         <v>14</v>
       </c>
       <c r="AE115" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF115" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG115" t="n">
         <v>12</v>
@@ -16009,25 +16009,25 @@
         <v>14.5</v>
       </c>
       <c r="AI115" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ115" t="n">
         <v>36</v>
       </c>
       <c r="AK115" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL115" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM115" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AN115" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AO115" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="116">
@@ -16057,13 +16057,13 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="G116" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H116" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I116" t="n">
         <v>4.3</v>
@@ -16081,34 +16081,34 @@
         <v>1.05</v>
       </c>
       <c r="N116" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O116" t="n">
         <v>1.23</v>
       </c>
       <c r="P116" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q116" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R116" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S116" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T116" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U116" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="V116" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W116" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="X116" t="n">
         <v>24</v>
@@ -16195,10 +16195,10 @@
         <v>1.69</v>
       </c>
       <c r="G117" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="H117" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I117" t="n">
         <v>5.1</v>
@@ -16216,25 +16216,25 @@
         <v>1.03</v>
       </c>
       <c r="N117" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="O117" t="n">
         <v>1.16</v>
       </c>
       <c r="P117" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="Q117" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="R117" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="S117" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="T117" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="U117" t="n">
         <v>2.56</v>
@@ -16258,7 +16258,7 @@
         <v>110</v>
       </c>
       <c r="AB117" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AC117" t="n">
         <v>970</v>
@@ -16267,10 +16267,10 @@
         <v>24</v>
       </c>
       <c r="AE117" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AF117" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AG117" t="n">
         <v>13</v>
@@ -16279,13 +16279,13 @@
         <v>21</v>
       </c>
       <c r="AI117" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AJ117" t="n">
         <v>23</v>
       </c>
       <c r="AK117" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AL117" t="n">
         <v>30</v>
@@ -16297,7 +16297,7 @@
         <v>6.6</v>
       </c>
       <c r="AO117" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="118">
@@ -16333,10 +16333,10 @@
         <v>7.4</v>
       </c>
       <c r="H118" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="I118" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="J118" t="n">
         <v>4.1</v>
@@ -16351,16 +16351,16 @@
         <v>1.05</v>
       </c>
       <c r="N118" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="O118" t="n">
         <v>1.25</v>
       </c>
       <c r="P118" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q118" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R118" t="n">
         <v>1.37</v>
@@ -16369,13 +16369,13 @@
         <v>2.56</v>
       </c>
       <c r="T118" t="n">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="U118" t="n">
-        <v>1.74</v>
+        <v>1.84</v>
       </c>
       <c r="V118" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="W118" t="n">
         <v>1.16</v>
@@ -16420,7 +16420,7 @@
         <v>180</v>
       </c>
       <c r="AK118" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AL118" t="n">
         <v>80</v>
@@ -16468,10 +16468,10 @@
         <v>2.08</v>
       </c>
       <c r="H119" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I119" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J119" t="n">
         <v>3.35</v>
@@ -16489,7 +16489,7 @@
         <v>3.1</v>
       </c>
       <c r="O119" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P119" t="n">
         <v>1.69</v>
@@ -16507,7 +16507,7 @@
         <v>2.08</v>
       </c>
       <c r="U119" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="V119" t="n">
         <v>1.27</v>
@@ -16522,7 +16522,7 @@
         <v>13</v>
       </c>
       <c r="Z119" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA119" t="n">
         <v>110</v>
@@ -16603,13 +16603,13 @@
         <v>1.94</v>
       </c>
       <c r="H120" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I120" t="n">
         <v>4.6</v>
       </c>
       <c r="J120" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K120" t="n">
         <v>4.4</v>
@@ -16627,16 +16627,16 @@
         <v>1.23</v>
       </c>
       <c r="P120" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="Q120" t="n">
-        <v>1.68</v>
+        <v>1.77</v>
       </c>
       <c r="R120" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="S120" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="T120" t="n">
         <v>1.65</v>
@@ -16657,7 +16657,7 @@
         <v>20</v>
       </c>
       <c r="Z120" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AA120" t="n">
         <v>100</v>
@@ -16684,7 +16684,7 @@
         <v>17.5</v>
       </c>
       <c r="AI120" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ120" t="n">
         <v>22</v>
@@ -16762,10 +16762,10 @@
         <v>1.38</v>
       </c>
       <c r="P121" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="Q121" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R121" t="n">
         <v>1.31</v>
@@ -16780,7 +16780,7 @@
         <v>1.81</v>
       </c>
       <c r="V121" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="W121" t="n">
         <v>1.17</v>
@@ -16834,10 +16834,10 @@
         <v>170</v>
       </c>
       <c r="AN121" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AO121" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="122">
@@ -16867,16 +16867,16 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="G122" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="H122" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="I122" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="J122" t="n">
         <v>3.4</v>
@@ -16885,7 +16885,7 @@
         <v>3.45</v>
       </c>
       <c r="L122" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M122" t="n">
         <v>1.09</v>
@@ -16903,7 +16903,7 @@
         <v>2.16</v>
       </c>
       <c r="R122" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S122" t="n">
         <v>4</v>
@@ -16915,13 +16915,13 @@
         <v>2.08</v>
       </c>
       <c r="V122" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="W122" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X122" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y122" t="n">
         <v>11</v>
@@ -16930,7 +16930,7 @@
         <v>18</v>
       </c>
       <c r="AA122" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AB122" t="n">
         <v>10.5</v>
@@ -16939,7 +16939,7 @@
         <v>7.2</v>
       </c>
       <c r="AD122" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE122" t="n">
         <v>34</v>
@@ -16960,7 +16960,7 @@
         <v>42</v>
       </c>
       <c r="AK122" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL122" t="n">
         <v>48</v>
@@ -16972,7 +16972,7 @@
         <v>29</v>
       </c>
       <c r="AO122" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="123">
@@ -17014,10 +17014,10 @@
         <v>14.5</v>
       </c>
       <c r="J123" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="K123" t="n">
         <v>7.8</v>
-      </c>
-      <c r="K123" t="n">
-        <v>8</v>
       </c>
       <c r="L123" t="n">
         <v>1.21</v>
@@ -17035,16 +17035,16 @@
         <v>3.4</v>
       </c>
       <c r="Q123" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="R123" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="S123" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="T123" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U123" t="n">
         <v>2.04</v>
@@ -17062,13 +17062,13 @@
         <v>65</v>
       </c>
       <c r="Z123" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AA123" t="n">
         <v>690</v>
       </c>
       <c r="AB123" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC123" t="n">
         <v>18</v>
@@ -17077,10 +17077,10 @@
         <v>50</v>
       </c>
       <c r="AE123" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="AF123" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AG123" t="n">
         <v>11.5</v>
@@ -17089,13 +17089,13 @@
         <v>30</v>
       </c>
       <c r="AI123" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AJ123" t="n">
         <v>10.5</v>
       </c>
       <c r="AK123" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AL123" t="n">
         <v>30</v>
@@ -17107,7 +17107,7 @@
         <v>3.2</v>
       </c>
       <c r="AO123" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124">
@@ -17149,7 +17149,7 @@
         <v>7.4</v>
       </c>
       <c r="J124" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K124" t="n">
         <v>4</v>
@@ -17272,13 +17272,13 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="G125" t="n">
         <v>2.58</v>
       </c>
       <c r="H125" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="I125" t="n">
         <v>3.4</v>
@@ -17299,19 +17299,19 @@
         <v>3</v>
       </c>
       <c r="O125" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P125" t="n">
         <v>1.69</v>
       </c>
       <c r="Q125" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R125" t="n">
         <v>1.26</v>
       </c>
       <c r="S125" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T125" t="n">
         <v>1.89</v>
@@ -17407,19 +17407,19 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1.57</v>
+        <v>1.04</v>
       </c>
       <c r="G126" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="H126" t="n">
-        <v>2.14</v>
+        <v>2.32</v>
       </c>
       <c r="I126" t="n">
         <v>1000</v>
       </c>
       <c r="J126" t="n">
-        <v>2.14</v>
+        <v>3.9</v>
       </c>
       <c r="K126" t="n">
         <v>950</v>
@@ -17542,13 +17542,13 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>1.04</v>
+        <v>1.49</v>
       </c>
       <c r="G127" t="n">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="H127" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="I127" t="n">
         <v>1000</v>
@@ -17572,10 +17572,10 @@
         <v>0</v>
       </c>
       <c r="P127" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q127" t="n">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
       <c r="R127" t="n">
         <v>0</v>
@@ -17683,13 +17683,13 @@
         <v>2.32</v>
       </c>
       <c r="H128" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I128" t="n">
         <v>3.5</v>
       </c>
       <c r="J128" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K128" t="n">
         <v>3.75</v>
@@ -17701,19 +17701,19 @@
         <v>1.06</v>
       </c>
       <c r="N128" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O128" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P128" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="Q128" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="R128" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="S128" t="n">
         <v>3.15</v>
@@ -17728,7 +17728,7 @@
         <v>1.4</v>
       </c>
       <c r="W128" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X128" t="n">
         <v>16.5</v>
@@ -17737,7 +17737,7 @@
         <v>15</v>
       </c>
       <c r="Z128" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA128" t="n">
         <v>1000</v>
@@ -17779,10 +17779,10 @@
         <v>100</v>
       </c>
       <c r="AN128" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO128" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO129"/>
+  <dimension ref="A1:AO130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H2" t="n">
         <v>2.14</v>
@@ -679,10 +679,10 @@
         <v>2.16</v>
       </c>
       <c r="J2" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K2" t="n">
         <v>4.4</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4.5</v>
       </c>
       <c r="L2" t="n">
         <v>1.23</v>
@@ -700,7 +700,7 @@
         <v>3.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="R2" t="n">
         <v>1.91</v>
@@ -718,7 +718,7 @@
         <v>1.86</v>
       </c>
       <c r="W2" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="X2" t="n">
         <v>38</v>
@@ -772,7 +772,7 @@
         <v>14.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -835,7 +835,7 @@
         <v>2.02</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="R3" t="n">
         <v>1.4</v>
@@ -874,7 +874,7 @@
         <v>8.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE3" t="n">
         <v>38</v>
@@ -904,10 +904,10 @@
         <v>90</v>
       </c>
       <c r="AN3" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -955,7 +955,7 @@
         <v>3.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M4" t="n">
         <v>1.09</v>
@@ -967,7 +967,7 @@
         <v>1.45</v>
       </c>
       <c r="P4" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q4" t="n">
         <v>2.26</v>
@@ -991,7 +991,7 @@
         <v>1.51</v>
       </c>
       <c r="X4" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
         <v>11.5</v>
@@ -1015,7 +1015,7 @@
         <v>980</v>
       </c>
       <c r="AF4" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AG4" t="n">
         <v>16</v>
@@ -1081,10 +1081,10 @@
         <v>4.7</v>
       </c>
       <c r="I5" t="n">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="K5" t="n">
         <v>4.3</v>
@@ -1210,10 +1210,10 @@
         <v>2.72</v>
       </c>
       <c r="G6" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="H6" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="I6" t="n">
         <v>2.62</v>
@@ -1243,7 +1243,7 @@
         <v>1.62</v>
       </c>
       <c r="R6" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S6" t="n">
         <v>2.54</v>
@@ -1252,13 +1252,13 @@
         <v>1.55</v>
       </c>
       <c r="U6" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="V6" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="W6" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X6" t="n">
         <v>23</v>
@@ -1309,7 +1309,7 @@
         <v>60</v>
       </c>
       <c r="AN6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO6" t="n">
         <v>14.5</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="G7" t="n">
         <v>2</v>
@@ -1354,7 +1354,7 @@
         <v>4.6</v>
       </c>
       <c r="J7" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K7" t="n">
         <v>3.95</v>
@@ -1390,7 +1390,7 @@
         <v>2.18</v>
       </c>
       <c r="V7" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W7" t="n">
         <v>2</v>
@@ -1480,7 +1480,7 @@
         <v>1.79</v>
       </c>
       <c r="G8" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="H8" t="n">
         <v>4.6</v>
@@ -1507,7 +1507,7 @@
         <v>1.21</v>
       </c>
       <c r="P8" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q8" t="n">
         <v>1.63</v>
@@ -1519,16 +1519,16 @@
         <v>2.56</v>
       </c>
       <c r="T8" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="U8" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V8" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W8" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="X8" t="n">
         <v>23</v>
@@ -1615,7 +1615,7 @@
         <v>1.96</v>
       </c>
       <c r="G9" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="H9" t="n">
         <v>3.9</v>
@@ -1624,7 +1624,7 @@
         <v>4.2</v>
       </c>
       <c r="J9" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K9" t="n">
         <v>4.1</v>
@@ -1636,34 +1636,34 @@
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P9" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="R9" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="S9" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="T9" t="n">
         <v>1.63</v>
       </c>
       <c r="U9" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="V9" t="n">
         <v>1.31</v>
       </c>
       <c r="W9" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X9" t="n">
         <v>26</v>
@@ -1681,13 +1681,13 @@
         <v>12.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AF9" t="n">
         <v>17</v>
@@ -1696,25 +1696,25 @@
         <v>11.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AI9" t="n">
         <v>46</v>
       </c>
       <c r="AJ9" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AK9" t="n">
         <v>20</v>
       </c>
       <c r="AL9" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AM9" t="n">
         <v>70</v>
       </c>
       <c r="AN9" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO9" t="n">
         <v>36</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G10" t="n">
         <v>2.26</v>
@@ -1756,7 +1756,7 @@
         <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="J10" t="n">
         <v>4</v>
@@ -1780,22 +1780,22 @@
         <v>2.68</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R10" t="n">
         <v>1.69</v>
       </c>
       <c r="S10" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="T10" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="U10" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="V10" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W10" t="n">
         <v>1.79</v>
@@ -1807,7 +1807,7 @@
         <v>21</v>
       </c>
       <c r="Z10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA10" t="n">
         <v>55</v>
@@ -1819,10 +1819,10 @@
         <v>10.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE10" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF10" t="n">
         <v>18.5</v>
@@ -1837,7 +1837,7 @@
         <v>34</v>
       </c>
       <c r="AJ10" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK10" t="n">
         <v>21</v>
@@ -1852,7 +1852,7 @@
         <v>10.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1891,10 +1891,10 @@
         <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J11" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K11" t="n">
         <v>4.7</v>
@@ -1924,10 +1924,10 @@
         <v>2.5</v>
       </c>
       <c r="T11" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="U11" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V11" t="n">
         <v>1.36</v>
@@ -2023,7 +2023,7 @@
         <v>3.25</v>
       </c>
       <c r="H12" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="I12" t="n">
         <v>2.9</v>
@@ -2059,16 +2059,16 @@
         <v>4</v>
       </c>
       <c r="T12" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U12" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V12" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W12" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X12" t="n">
         <v>13.5</v>
@@ -2152,46 +2152,46 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.02</v>
+        <v>2.06</v>
       </c>
       <c r="G13" t="n">
-        <v>1000</v>
+        <v>2.66</v>
       </c>
       <c r="H13" t="n">
-        <v>1.02</v>
+        <v>2.92</v>
       </c>
       <c r="I13" t="n">
-        <v>1000</v>
+        <v>3.5</v>
       </c>
       <c r="J13" t="n">
-        <v>1.02</v>
+        <v>2.94</v>
       </c>
       <c r="K13" t="n">
-        <v>1000</v>
+        <v>5.8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M13" t="n">
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>1.34</v>
+        <v>1.61</v>
       </c>
       <c r="O13" t="n">
         <v>1.01</v>
       </c>
       <c r="P13" t="n">
-        <v>1.34</v>
+        <v>1.61</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.01</v>
+        <v>1.88</v>
       </c>
       <c r="R13" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S13" t="n">
-        <v>1.36</v>
+        <v>1.88</v>
       </c>
       <c r="T13" t="n">
         <v>1.01</v>
@@ -2200,10 +2200,10 @@
         <v>1.01</v>
       </c>
       <c r="V13" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="W13" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
@@ -2287,46 +2287,46 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.16</v>
+        <v>2.36</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H14" t="n">
-        <v>2.74</v>
+        <v>2.4</v>
       </c>
       <c r="I14" t="n">
-        <v>4.2</v>
+        <v>3.45</v>
       </c>
       <c r="J14" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="K14" t="n">
-        <v>5.9</v>
+        <v>1000</v>
       </c>
       <c r="L14" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M14" t="n">
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>2.6</v>
+        <v>1.63</v>
       </c>
       <c r="O14" t="n">
         <v>1.01</v>
       </c>
       <c r="P14" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R14" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S14" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="T14" t="n">
         <v>1.01</v>
@@ -2335,10 +2335,10 @@
         <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="W14" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2422,13 +2422,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.66</v>
+        <v>2.78</v>
       </c>
       <c r="G15" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="H15" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="I15" t="n">
         <v>3.05</v>
@@ -2437,7 +2437,7 @@
         <v>3.1</v>
       </c>
       <c r="K15" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2452,7 +2452,7 @@
         <v>1.39</v>
       </c>
       <c r="P15" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q15" t="n">
         <v>2.16</v>
@@ -2461,19 +2461,19 @@
         <v>1.26</v>
       </c>
       <c r="S15" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="T15" t="n">
         <v>1.84</v>
       </c>
       <c r="U15" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="V15" t="n">
         <v>1.48</v>
       </c>
       <c r="W15" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X15" t="n">
         <v>14</v>
@@ -2494,7 +2494,7 @@
         <v>9</v>
       </c>
       <c r="AD15" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE15" t="n">
         <v>44</v>
@@ -2515,10 +2515,10 @@
         <v>55</v>
       </c>
       <c r="AK15" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AL15" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM15" t="n">
         <v>140</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="G16" t="n">
         <v>2.94</v>
@@ -2581,37 +2581,37 @@
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P16" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q16" t="n">
         <v>1.73</v>
       </c>
       <c r="R16" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S16" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="T16" t="n">
         <v>1.6</v>
       </c>
       <c r="U16" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="V16" t="n">
         <v>1.62</v>
       </c>
       <c r="W16" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X16" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y16" t="n">
         <v>14</v>
@@ -2632,25 +2632,25 @@
         <v>11.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AF16" t="n">
         <v>21</v>
       </c>
       <c r="AG16" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH16" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AI16" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ16" t="n">
         <v>44</v>
       </c>
       <c r="AK16" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL16" t="n">
         <v>34</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="G17" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H17" t="n">
         <v>2.46</v>
       </c>
       <c r="I17" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="J17" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K17" t="n">
         <v>4.1</v>
@@ -2716,7 +2716,7 @@
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O17" t="n">
         <v>1.3</v>
@@ -2725,7 +2725,7 @@
         <v>1.96</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R17" t="n">
         <v>1.37</v>
@@ -2740,7 +2740,7 @@
         <v>2.16</v>
       </c>
       <c r="V17" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="W17" t="n">
         <v>1.48</v>
@@ -2752,7 +2752,7 @@
         <v>14</v>
       </c>
       <c r="Z17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA17" t="n">
         <v>980</v>
@@ -2761,13 +2761,13 @@
         <v>15</v>
       </c>
       <c r="AC17" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD17" t="n">
         <v>14.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AF17" t="n">
         <v>25</v>
@@ -2797,7 +2797,7 @@
         <v>980</v>
       </c>
       <c r="AO17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
@@ -2827,19 +2827,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="G18" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H18" t="n">
         <v>3.25</v>
       </c>
       <c r="I18" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J18" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K18" t="n">
         <v>4.2</v>
@@ -2860,22 +2860,22 @@
         <v>2.12</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R18" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S18" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="T18" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U18" t="n">
         <v>2.26</v>
       </c>
       <c r="V18" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W18" t="n">
         <v>1.76</v>
@@ -2896,13 +2896,13 @@
         <v>14.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD18" t="n">
         <v>18</v>
       </c>
       <c r="AE18" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF18" t="n">
         <v>18</v>
@@ -2962,46 +2962,46 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="G19" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="H19" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I19" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J19" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="K19" t="n">
         <v>4.8</v>
       </c>
       <c r="L19" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M19" t="n">
         <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="O19" t="n">
         <v>1.01</v>
       </c>
       <c r="P19" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R19" t="n">
         <v>1.18</v>
       </c>
       <c r="S19" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="T19" t="n">
         <v>1.01</v>
@@ -3010,10 +3010,10 @@
         <v>1.01</v>
       </c>
       <c r="V19" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W19" t="n">
-        <v>2.58</v>
+        <v>2.48</v>
       </c>
       <c r="X19" t="n">
         <v>1000</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="G20" t="n">
         <v>1000</v>
       </c>
       <c r="H20" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="I20" t="n">
         <v>1000</v>
       </c>
       <c r="J20" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K20" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
@@ -3121,13 +3121,13 @@
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="O20" t="n">
         <v>1.01</v>
       </c>
       <c r="P20" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="Q20" t="n">
         <v>1.01</v>
@@ -3136,7 +3136,7 @@
         <v>1.18</v>
       </c>
       <c r="S20" t="n">
-        <v>1.02</v>
+        <v>1.34</v>
       </c>
       <c r="T20" t="n">
         <v>1.01</v>
@@ -3244,7 +3244,7 @@
         <v>5</v>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K21" t="n">
         <v>4.7</v>
@@ -3259,13 +3259,13 @@
         <v>4.7</v>
       </c>
       <c r="O21" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P21" t="n">
         <v>2.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R21" t="n">
         <v>1.51</v>
@@ -3274,10 +3274,10 @@
         <v>2.6</v>
       </c>
       <c r="T21" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U21" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V21" t="n">
         <v>1.25</v>
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="G22" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="H22" t="n">
         <v>5.1</v>
@@ -3391,10 +3391,10 @@
         <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>2.22</v>
+        <v>3.25</v>
       </c>
       <c r="O22" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P22" t="n">
         <v>2.22</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="G23" t="n">
         <v>1.92</v>
@@ -3511,7 +3511,7 @@
         <v>4.2</v>
       </c>
       <c r="I23" t="n">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
       <c r="J23" t="n">
         <v>3.9</v>
@@ -3535,7 +3535,7 @@
         <v>2.24</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="G24" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="H24" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="J24" t="n">
         <v>3.9</v>
@@ -3655,7 +3655,7 @@
         <v>4.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="M24" t="n">
         <v>1.03</v>
@@ -3664,19 +3664,19 @@
         <v>5.3</v>
       </c>
       <c r="O24" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P24" t="n">
         <v>2.48</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R24" t="n">
         <v>1.6</v>
       </c>
       <c r="S24" t="n">
-        <v>2.18</v>
+        <v>2.38</v>
       </c>
       <c r="T24" t="n">
         <v>1.54</v>
@@ -3685,19 +3685,19 @@
         <v>2.52</v>
       </c>
       <c r="V24" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W24" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="X24" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z24" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA24" t="n">
         <v>1000</v>
@@ -3706,25 +3706,25 @@
         <v>17.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD24" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE24" t="n">
         <v>42</v>
       </c>
       <c r="AF24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG24" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH24" t="n">
         <v>18.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ24" t="n">
         <v>32</v>
@@ -3739,10 +3739,10 @@
         <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
@@ -3784,7 +3784,7 @@
         <v>4.2</v>
       </c>
       <c r="J25" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="K25" t="n">
         <v>950</v>
@@ -3796,7 +3796,7 @@
         <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="O25" t="n">
         <v>1.26</v>
@@ -3805,7 +3805,7 @@
         <v>2.06</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="R25" t="n">
         <v>1.37</v>
@@ -3907,16 +3907,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="G26" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H26" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="I26" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="J26" t="n">
         <v>5.1</v>
@@ -3931,13 +3931,13 @@
         <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O26" t="n">
         <v>1.21</v>
       </c>
       <c r="P26" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q26" t="n">
         <v>1.6</v>
@@ -3946,7 +3946,7 @@
         <v>1.48</v>
       </c>
       <c r="S26" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="T26" t="n">
         <v>1.72</v>
@@ -3958,7 +3958,7 @@
         <v>1.12</v>
       </c>
       <c r="W26" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
@@ -3985,7 +3985,7 @@
         <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG26" t="n">
         <v>14.5</v>
@@ -3997,10 +3997,10 @@
         <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AK26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL26" t="n">
         <v>1000</v>
@@ -4072,7 +4072,7 @@
         <v>1.35</v>
       </c>
       <c r="P27" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="Q27" t="n">
         <v>2.02</v>
@@ -4099,7 +4099,7 @@
         <v>15.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z27" t="n">
         <v>14.5</v>
@@ -4111,7 +4111,7 @@
         <v>18</v>
       </c>
       <c r="AC27" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="AD27" t="n">
         <v>13</v>
@@ -4180,10 +4180,10 @@
         <v>3.95</v>
       </c>
       <c r="G28" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H28" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="I28" t="n">
         <v>2.18</v>
@@ -4219,19 +4219,19 @@
         <v>4.6</v>
       </c>
       <c r="T28" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U28" t="n">
         <v>1.9</v>
       </c>
       <c r="V28" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="W28" t="n">
         <v>1.33</v>
       </c>
       <c r="X28" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y28" t="n">
         <v>7.8</v>
@@ -4240,7 +4240,7 @@
         <v>12</v>
       </c>
       <c r="AA28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB28" t="n">
         <v>12</v>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="G29" t="n">
         <v>3.1</v>
@@ -4321,13 +4321,13 @@
         <v>2.54</v>
       </c>
       <c r="I29" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="J29" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K29" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="G30" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="H30" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="I30" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J30" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K30" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="L30" t="n">
         <v>1.31</v>
@@ -4471,7 +4471,7 @@
         <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O30" t="n">
         <v>1.28</v>
@@ -4489,16 +4489,16 @@
         <v>3.1</v>
       </c>
       <c r="T30" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U30" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V30" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W30" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="X30" t="n">
         <v>19.5</v>
@@ -4537,7 +4537,7 @@
         <v>55</v>
       </c>
       <c r="AJ30" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AK30" t="n">
         <v>32</v>
@@ -4720,7 +4720,7 @@
         <v>1.84</v>
       </c>
       <c r="G32" t="n">
-        <v>2.4</v>
+        <v>980</v>
       </c>
       <c r="H32" t="n">
         <v>3.55</v>
@@ -4768,7 +4768,7 @@
         <v>1.19</v>
       </c>
       <c r="W32" t="n">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="X32" t="n">
         <v>1000</v>
@@ -4855,7 +4855,7 @@
         <v>1.98</v>
       </c>
       <c r="G33" t="n">
-        <v>2.6</v>
+        <v>980</v>
       </c>
       <c r="H33" t="n">
         <v>3.25</v>
@@ -4876,22 +4876,22 @@
         <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="O33" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="P33" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.47</v>
+        <v>2.16</v>
       </c>
       <c r="R33" t="n">
         <v>1.18</v>
       </c>
       <c r="S33" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="T33" t="n">
         <v>1.01</v>
@@ -4903,7 +4903,7 @@
         <v>1.24</v>
       </c>
       <c r="W33" t="n">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="X33" t="n">
         <v>1000</v>
@@ -4990,13 +4990,13 @@
         <v>3.75</v>
       </c>
       <c r="G34" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="H34" t="n">
         <v>2.1</v>
       </c>
       <c r="I34" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="J34" t="n">
         <v>3.05</v>
@@ -5017,7 +5017,7 @@
         <v>1.44</v>
       </c>
       <c r="P34" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="Q34" t="n">
         <v>2.28</v>
@@ -5026,7 +5026,7 @@
         <v>1.23</v>
       </c>
       <c r="S34" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="T34" t="n">
         <v>1.96</v>
@@ -5035,10 +5035,10 @@
         <v>1.85</v>
       </c>
       <c r="V34" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="W34" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="X34" t="n">
         <v>12.5</v>
@@ -5131,7 +5131,7 @@
         <v>2.92</v>
       </c>
       <c r="I35" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J35" t="n">
         <v>2.76</v>
@@ -5152,16 +5152,16 @@
         <v>1.36</v>
       </c>
       <c r="P35" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="R35" t="n">
         <v>1.23</v>
       </c>
       <c r="S35" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="T35" t="n">
         <v>1.8</v>
@@ -5188,7 +5188,7 @@
         <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC35" t="n">
         <v>9</v>
@@ -5257,64 +5257,64 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.82</v>
+        <v>1.69</v>
       </c>
       <c r="G36" t="n">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="H36" t="n">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="I36" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="J36" t="n">
-        <v>3.05</v>
+        <v>3.6</v>
       </c>
       <c r="K36" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="L36" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="M36" t="n">
         <v>1.07</v>
       </c>
       <c r="N36" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="O36" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P36" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="R36" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="S36" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="T36" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="U36" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="V36" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="W36" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="X36" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Z36" t="n">
         <v>1000</v>
@@ -5323,10 +5323,10 @@
         <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AC36" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD36" t="n">
         <v>1000</v>
@@ -5335,10 +5335,10 @@
         <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG36" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH36" t="n">
         <v>1000</v>
@@ -5359,7 +5359,7 @@
         <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AO36" t="n">
         <v>1000</v>
@@ -5458,7 +5458,7 @@
         <v>70</v>
       </c>
       <c r="AB37" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AC37" t="n">
         <v>7.6</v>
@@ -5530,7 +5530,7 @@
         <v>1.54</v>
       </c>
       <c r="G38" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H38" t="n">
         <v>6.6</v>
@@ -5560,7 +5560,7 @@
         <v>1.48</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.52</v>
+        <v>2.38</v>
       </c>
       <c r="R38" t="n">
         <v>1.17</v>
@@ -5578,7 +5578,7 @@
         <v>1.1</v>
       </c>
       <c r="W38" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="X38" t="n">
         <v>1000</v>
@@ -5668,7 +5668,7 @@
         <v>3.2</v>
       </c>
       <c r="H39" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="I39" t="n">
         <v>3.05</v>
@@ -5677,91 +5677,91 @@
         <v>3</v>
       </c>
       <c r="K39" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L39" t="n">
         <v>1.01</v>
       </c>
       <c r="M39" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N39" t="n">
-        <v>2.72</v>
+        <v>2.54</v>
       </c>
       <c r="O39" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="P39" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.5</v>
+        <v>2.74</v>
       </c>
       <c r="R39" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="S39" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="T39" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="U39" t="n">
-        <v>1.84</v>
+        <v>1.71</v>
       </c>
       <c r="V39" t="n">
         <v>1.49</v>
       </c>
       <c r="W39" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="X39" t="n">
         <v>9.4</v>
       </c>
       <c r="Y39" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="Z39" t="n">
         <v>18.5</v>
       </c>
       <c r="AA39" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB39" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC39" t="n">
         <v>7.2</v>
       </c>
       <c r="AD39" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE39" t="n">
         <v>980</v>
       </c>
       <c r="AF39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH39" t="n">
         <v>980</v>
       </c>
-      <c r="AG39" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>22</v>
-      </c>
       <c r="AI39" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ39" t="n">
         <v>65</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>55</v>
       </c>
       <c r="AK39" t="n">
         <v>980</v>
       </c>
       <c r="AL39" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AM39" t="n">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="AN39" t="n">
         <v>1000</v>
@@ -5812,13 +5812,13 @@
         <v>3.05</v>
       </c>
       <c r="K40" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L40" t="n">
         <v>1.01</v>
       </c>
       <c r="M40" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N40" t="n">
         <v>2.8</v>
@@ -5938,13 +5938,13 @@
         <v>1.72</v>
       </c>
       <c r="H41" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I41" t="n">
         <v>980</v>
       </c>
       <c r="J41" t="n">
-        <v>4</v>
+        <v>2.38</v>
       </c>
       <c r="K41" t="n">
         <v>4.3</v>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="G42" t="n">
         <v>1.91</v>
@@ -6076,10 +6076,10 @@
         <v>4.4</v>
       </c>
       <c r="I42" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="J42" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K42" t="n">
         <v>3.95</v>
@@ -6091,16 +6091,16 @@
         <v>1.06</v>
       </c>
       <c r="N42" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O42" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P42" t="n">
         <v>1.96</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="R42" t="n">
         <v>1.37</v>
@@ -6109,19 +6109,19 @@
         <v>3.35</v>
       </c>
       <c r="T42" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="U42" t="n">
         <v>2.06</v>
       </c>
       <c r="V42" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W42" t="n">
         <v>2.08</v>
       </c>
       <c r="X42" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y42" t="n">
         <v>19.5</v>
@@ -6211,7 +6211,7 @@
         <v>4.1</v>
       </c>
       <c r="I43" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J43" t="n">
         <v>3.2</v>
@@ -6232,7 +6232,7 @@
         <v>1.49</v>
       </c>
       <c r="P43" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q43" t="n">
         <v>2.44</v>
@@ -6337,67 +6337,67 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="G44" t="n">
-        <v>1.69</v>
+        <v>1.77</v>
       </c>
       <c r="H44" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I44" t="n">
         <v>6.2</v>
       </c>
-      <c r="I44" t="n">
-        <v>7.2</v>
-      </c>
       <c r="J44" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="K44" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L44" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N44" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O44" t="n">
         <v>1.32</v>
       </c>
-      <c r="M44" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N44" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1.3</v>
-      </c>
       <c r="P44" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="R44" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="S44" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T44" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="U44" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="V44" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W44" t="n">
-        <v>2.44</v>
+        <v>2.28</v>
       </c>
       <c r="X44" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y44" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Z44" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA44" t="n">
         <v>1000</v>
@@ -6406,10 +6406,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC44" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD44" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AE44" t="n">
         <v>1000</v>
@@ -6421,7 +6421,7 @@
         <v>10.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AI44" t="n">
         <v>1000</v>
@@ -6496,13 +6496,13 @@
         <v>1.01</v>
       </c>
       <c r="N45" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="O45" t="n">
         <v>1.01</v>
       </c>
       <c r="P45" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="Q45" t="n">
         <v>1.01</v>
@@ -6610,16 +6610,16 @@
         <v>7.8</v>
       </c>
       <c r="G46" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="H46" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="I46" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="J46" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="K46" t="n">
         <v>5.7</v>
@@ -6655,7 +6655,7 @@
         <v>1.96</v>
       </c>
       <c r="V46" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="W46" t="n">
         <v>1.13</v>
@@ -6685,13 +6685,13 @@
         <v>14.5</v>
       </c>
       <c r="AF46" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG46" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AH46" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI46" t="n">
         <v>34</v>
@@ -6700,7 +6700,7 @@
         <v>340</v>
       </c>
       <c r="AK46" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AL46" t="n">
         <v>120</v>
@@ -6760,7 +6760,7 @@
         <v>5.2</v>
       </c>
       <c r="L47" t="n">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="M47" t="n">
         <v>1.01</v>
@@ -6781,7 +6781,7 @@
         <v>1.25</v>
       </c>
       <c r="S47" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="T47" t="n">
         <v>1.01</v>
@@ -6877,7 +6877,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="G48" t="n">
         <v>2.48</v>
@@ -6886,10 +6886,10 @@
         <v>3.25</v>
       </c>
       <c r="I48" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J48" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K48" t="n">
         <v>3.5</v>
@@ -6907,7 +6907,7 @@
         <v>1.35</v>
       </c>
       <c r="P48" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q48" t="n">
         <v>2.06</v>
@@ -6946,7 +6946,7 @@
         <v>10.5</v>
       </c>
       <c r="AC48" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD48" t="n">
         <v>14</v>
@@ -7039,7 +7039,7 @@
         <v>2.92</v>
       </c>
       <c r="O49" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="P49" t="n">
         <v>1.92</v>
@@ -7180,16 +7180,16 @@
         <v>4.8</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="R50" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="S50" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="T50" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="U50" t="n">
         <v>1.56</v>
@@ -7237,7 +7237,7 @@
         <v>1000</v>
       </c>
       <c r="AJ50" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AK50" t="n">
         <v>1000</v>
@@ -7420,13 +7420,13 @@
         <v>2.36</v>
       </c>
       <c r="G52" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H52" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I52" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J52" t="n">
         <v>3.65</v>
@@ -7552,22 +7552,22 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="G53" t="n">
-        <v>2.76</v>
+        <v>2.88</v>
       </c>
       <c r="H53" t="n">
-        <v>2.74</v>
+        <v>2.6</v>
       </c>
       <c r="I53" t="n">
-        <v>2.78</v>
+        <v>2.66</v>
       </c>
       <c r="J53" t="n">
         <v>3.65</v>
       </c>
       <c r="K53" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L53" t="n">
         <v>1.33</v>
@@ -7576,13 +7576,13 @@
         <v>1.05</v>
       </c>
       <c r="N53" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O53" t="n">
         <v>1.23</v>
       </c>
       <c r="P53" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q53" t="n">
         <v>1.72</v>
@@ -7591,7 +7591,7 @@
         <v>1.53</v>
       </c>
       <c r="S53" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="T53" t="n">
         <v>1.6</v>
@@ -7600,10 +7600,10 @@
         <v>2.56</v>
       </c>
       <c r="V53" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="W53" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="X53" t="n">
         <v>18.5</v>
@@ -7618,19 +7618,19 @@
         <v>40</v>
       </c>
       <c r="AB53" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC53" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD53" t="n">
         <v>12.5</v>
       </c>
       <c r="AE53" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AF53" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AG53" t="n">
         <v>12.5</v>
@@ -7642,10 +7642,10 @@
         <v>34</v>
       </c>
       <c r="AJ53" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AK53" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL53" t="n">
         <v>34</v>
@@ -7654,10 +7654,10 @@
         <v>65</v>
       </c>
       <c r="AN53" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AO53" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54">
@@ -7687,10 +7687,10 @@
         </is>
       </c>
       <c r="F54" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G54" t="n">
         <v>2.12</v>
-      </c>
-      <c r="G54" t="n">
-        <v>2.16</v>
       </c>
       <c r="H54" t="n">
         <v>3.5</v>
@@ -7702,7 +7702,7 @@
         <v>4</v>
       </c>
       <c r="K54" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L54" t="n">
         <v>1.26</v>
@@ -7729,7 +7729,7 @@
         <v>2.3</v>
       </c>
       <c r="T54" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="U54" t="n">
         <v>2.9</v>
@@ -7738,7 +7738,7 @@
         <v>1.38</v>
       </c>
       <c r="W54" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="X54" t="n">
         <v>26</v>
@@ -7780,13 +7780,13 @@
         <v>27</v>
       </c>
       <c r="AK54" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL54" t="n">
         <v>25</v>
       </c>
       <c r="AM54" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AN54" t="n">
         <v>9</v>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G55" t="n">
         <v>2.62</v>
@@ -7831,7 +7831,7 @@
         <v>2.92</v>
       </c>
       <c r="I55" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="J55" t="n">
         <v>3.6</v>
@@ -7849,19 +7849,19 @@
         <v>4.2</v>
       </c>
       <c r="O55" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P55" t="n">
         <v>2.08</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R55" t="n">
         <v>1.43</v>
       </c>
       <c r="S55" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T55" t="n">
         <v>1.7</v>
@@ -7957,22 +7957,22 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="G56" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H56" t="n">
         <v>3</v>
       </c>
       <c r="I56" t="n">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="J56" t="n">
         <v>3</v>
       </c>
       <c r="K56" t="n">
-        <v>5.8</v>
+        <v>4.6</v>
       </c>
       <c r="L56" t="n">
         <v>1.31</v>
@@ -7981,13 +7981,13 @@
         <v>1.01</v>
       </c>
       <c r="N56" t="n">
-        <v>3</v>
+        <v>1.76</v>
       </c>
       <c r="O56" t="n">
         <v>1.01</v>
       </c>
       <c r="P56" t="n">
-        <v>1.89</v>
+        <v>1.76</v>
       </c>
       <c r="Q56" t="n">
         <v>1.87</v>
@@ -8005,10 +8005,10 @@
         <v>1.01</v>
       </c>
       <c r="V56" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="W56" t="n">
-        <v>1.66</v>
+        <v>1.59</v>
       </c>
       <c r="X56" t="n">
         <v>1000</v>
@@ -8227,19 +8227,19 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="G58" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="H58" t="n">
         <v>6</v>
       </c>
       <c r="I58" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J58" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="K58" t="n">
         <v>7.2</v>
@@ -8269,7 +8269,7 @@
         <v>2.12</v>
       </c>
       <c r="T58" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U58" t="n">
         <v>2.16</v>
@@ -8278,7 +8278,7 @@
         <v>1.16</v>
       </c>
       <c r="W58" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="X58" t="n">
         <v>1000</v>
@@ -8362,28 +8362,28 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="G59" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="H59" t="n">
         <v>4</v>
       </c>
       <c r="I59" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="J59" t="n">
         <v>3.7</v>
       </c>
       <c r="K59" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="L59" t="n">
         <v>1.24</v>
       </c>
       <c r="M59" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N59" t="n">
         <v>4.5</v>
@@ -8410,7 +8410,7 @@
         <v>2.28</v>
       </c>
       <c r="V59" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="W59" t="n">
         <v>2.04</v>
@@ -8500,19 +8500,19 @@
         <v>1.82</v>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="H60" t="n">
         <v>3.8</v>
       </c>
       <c r="I60" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J60" t="n">
         <v>3.5</v>
       </c>
       <c r="K60" t="n">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="L60" t="n">
         <v>1.01</v>
@@ -8548,7 +8548,7 @@
         <v>1.28</v>
       </c>
       <c r="W60" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="X60" t="n">
         <v>24</v>
@@ -8632,58 +8632,58 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="G61" t="n">
-        <v>2.36</v>
+        <v>2.58</v>
       </c>
       <c r="H61" t="n">
-        <v>3.4</v>
+        <v>2.94</v>
       </c>
       <c r="I61" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="J61" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K61" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L61" t="n">
         <v>1.28</v>
       </c>
       <c r="M61" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N61" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="O61" t="n">
         <v>1.28</v>
       </c>
       <c r="P61" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="R61" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S61" t="n">
-        <v>2.78</v>
+        <v>2.96</v>
       </c>
       <c r="T61" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="U61" t="n">
         <v>2.16</v>
       </c>
       <c r="V61" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="W61" t="n">
-        <v>1.74</v>
+        <v>1.63</v>
       </c>
       <c r="X61" t="n">
         <v>1000</v>
@@ -8782,34 +8782,34 @@
         <v>3.3</v>
       </c>
       <c r="K62" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="L62" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M62" t="n">
         <v>1.01</v>
       </c>
       <c r="N62" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O62" t="n">
         <v>1.32</v>
       </c>
       <c r="P62" t="n">
-        <v>1.89</v>
+        <v>1.42</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.6</v>
+        <v>1.99</v>
       </c>
       <c r="R62" t="n">
         <v>1.32</v>
       </c>
       <c r="S62" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="T62" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="U62" t="n">
         <v>1.98</v>
@@ -8821,58 +8821,58 @@
         <v>1.54</v>
       </c>
       <c r="X62" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y62" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z62" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA62" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB62" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC62" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD62" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE62" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF62" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG62" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH62" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI62" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ62" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK62" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL62" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM62" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN62" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO62" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63">
@@ -8902,22 +8902,22 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="G63" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="H63" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="I63" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="J63" t="n">
         <v>4.5</v>
       </c>
       <c r="K63" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L63" t="n">
         <v>1.35</v>
@@ -8932,16 +8932,16 @@
         <v>1.26</v>
       </c>
       <c r="P63" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="R63" t="n">
         <v>1.43</v>
       </c>
       <c r="S63" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="T63" t="n">
         <v>1.93</v>
@@ -8950,40 +8950,40 @@
         <v>1.91</v>
       </c>
       <c r="V63" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W63" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="X63" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y63" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Z63" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AA63" t="n">
         <v>300</v>
       </c>
       <c r="AB63" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC63" t="n">
         <v>13</v>
       </c>
       <c r="AD63" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AE63" t="n">
         <v>140</v>
       </c>
       <c r="AF63" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG63" t="n">
         <v>11</v>
-      </c>
-      <c r="AG63" t="n">
-        <v>12.5</v>
       </c>
       <c r="AH63" t="n">
         <v>29</v>
@@ -8992,10 +8992,10 @@
         <v>130</v>
       </c>
       <c r="AJ63" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AK63" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL63" t="n">
         <v>44</v>
@@ -9004,7 +9004,7 @@
         <v>160</v>
       </c>
       <c r="AN63" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AO63" t="n">
         <v>1000</v>
@@ -9049,7 +9049,7 @@
         <v>4.8</v>
       </c>
       <c r="J64" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K64" t="n">
         <v>3.9</v>
@@ -9079,7 +9079,7 @@
         <v>3.25</v>
       </c>
       <c r="T64" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U64" t="n">
         <v>2.08</v>
@@ -9097,7 +9097,7 @@
         <v>20</v>
       </c>
       <c r="Z64" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AA64" t="n">
         <v>120</v>
@@ -9112,10 +9112,10 @@
         <v>22</v>
       </c>
       <c r="AE64" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF64" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG64" t="n">
         <v>11</v>
@@ -9127,10 +9127,10 @@
         <v>65</v>
       </c>
       <c r="AJ64" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AK64" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL64" t="n">
         <v>38</v>
@@ -9178,10 +9178,10 @@
         <v>3.85</v>
       </c>
       <c r="H65" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="I65" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="J65" t="n">
         <v>3.6</v>
@@ -9202,10 +9202,10 @@
         <v>1.29</v>
       </c>
       <c r="P65" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="R65" t="n">
         <v>1.39</v>
@@ -9220,7 +9220,7 @@
         <v>2.18</v>
       </c>
       <c r="V65" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="W65" t="n">
         <v>1.35</v>
@@ -9253,7 +9253,7 @@
         <v>27</v>
       </c>
       <c r="AG65" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AH65" t="n">
         <v>21</v>
@@ -9307,22 +9307,22 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2.28</v>
+        <v>2.62</v>
       </c>
       <c r="G66" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H66" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I66" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J66" t="n">
         <v>3.35</v>
       </c>
-      <c r="H66" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="I66" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J66" t="n">
-        <v>3.05</v>
-      </c>
       <c r="K66" t="n">
-        <v>7.6</v>
+        <v>4</v>
       </c>
       <c r="L66" t="n">
         <v>1.29</v>
@@ -9355,13 +9355,13 @@
         <v>1.04</v>
       </c>
       <c r="V66" t="n">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="W66" t="n">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="X66" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y66" t="n">
         <v>1000</v>
@@ -9445,7 +9445,7 @@
         <v>1.9</v>
       </c>
       <c r="G67" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="H67" t="n">
         <v>3.7</v>
@@ -9457,7 +9457,7 @@
         <v>3.55</v>
       </c>
       <c r="K67" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="L67" t="n">
         <v>1.29</v>
@@ -9481,7 +9481,7 @@
         <v>1.43</v>
       </c>
       <c r="S67" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="T67" t="n">
         <v>1.58</v>
@@ -9493,7 +9493,7 @@
         <v>1.3</v>
       </c>
       <c r="W67" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="X67" t="n">
         <v>980</v>
@@ -9517,7 +9517,7 @@
         <v>980</v>
       </c>
       <c r="AE67" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AF67" t="n">
         <v>980</v>
@@ -9553,7 +9553,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -9568,121 +9568,121 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Airdrieonians</t>
+          <t>Stenhousemuir</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Queens Park</t>
+          <t>Inverness CT</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.9</v>
+        <v>4.3</v>
       </c>
       <c r="G68" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="I68" t="n">
         <v>2</v>
       </c>
-      <c r="H68" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I68" t="n">
-        <v>4.9</v>
-      </c>
       <c r="J68" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="K68" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="L68" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M68" t="n">
         <v>1.07</v>
       </c>
       <c r="N68" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="O68" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P68" t="n">
-        <v>1.93</v>
+        <v>1.77</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="R68" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="S68" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="T68" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="U68" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V68" t="n">
         <v>2</v>
       </c>
-      <c r="V68" t="n">
-        <v>1.26</v>
-      </c>
       <c r="W68" t="n">
-        <v>2</v>
+        <v>1.23</v>
       </c>
       <c r="X68" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="Y68" t="n">
-        <v>18.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z68" t="n">
-        <v>40</v>
+        <v>12.5</v>
       </c>
       <c r="AA68" t="n">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="AB68" t="n">
-        <v>10.5</v>
+        <v>19</v>
       </c>
       <c r="AC68" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD68" t="n">
-        <v>22</v>
+        <v>12.5</v>
       </c>
       <c r="AE68" t="n">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="AF68" t="n">
-        <v>14.5</v>
+        <v>44</v>
       </c>
       <c r="AG68" t="n">
-        <v>12.5</v>
+        <v>24</v>
       </c>
       <c r="AH68" t="n">
         <v>24</v>
       </c>
       <c r="AI68" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="AJ68" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AK68" t="n">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="AL68" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AM68" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN68" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AO68" t="n">
-        <v>70</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="69">
@@ -9703,112 +9703,112 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Stenhousemuir</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Inverness CT</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>4.3</v>
+        <v>2.48</v>
       </c>
       <c r="G69" t="n">
-        <v>5.2</v>
+        <v>2.84</v>
       </c>
       <c r="H69" t="n">
-        <v>1.83</v>
+        <v>2.58</v>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>2.88</v>
       </c>
       <c r="J69" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="K69" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L69" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="M69" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N69" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="O69" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R69" t="n">
         <v>1.33</v>
       </c>
-      <c r="P69" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>2</v>
-      </c>
-      <c r="R69" t="n">
-        <v>1.29</v>
-      </c>
       <c r="S69" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="T69" t="n">
-        <v>1.82</v>
+        <v>1.64</v>
       </c>
       <c r="U69" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V69" t="n">
-        <v>2</v>
+        <v>1.53</v>
       </c>
       <c r="W69" t="n">
-        <v>1.23</v>
+        <v>1.54</v>
       </c>
       <c r="X69" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y69" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z69" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AA69" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="AB69" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AC69" t="n">
-        <v>9.6</v>
+        <v>970</v>
       </c>
       <c r="AD69" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AE69" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AF69" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AG69" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AH69" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI69" t="n">
         <v>44</v>
       </c>
       <c r="AJ69" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK69" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="AL69" t="n">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="AM69" t="n">
         <v>1000</v>
@@ -9817,7 +9817,7 @@
         <v>1000</v>
       </c>
       <c r="AO69" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="70">
@@ -9838,121 +9838,121 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>St Johnstone</t>
+          <t>Airdrieonians</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Morton</t>
+          <t>Queens Park</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1.41</v>
+        <v>1.97</v>
       </c>
       <c r="G70" t="n">
-        <v>1.48</v>
+        <v>2</v>
       </c>
       <c r="H70" t="n">
-        <v>8.6</v>
+        <v>4.2</v>
       </c>
       <c r="I70" t="n">
-        <v>11</v>
+        <v>4.7</v>
       </c>
       <c r="J70" t="n">
-        <v>4.6</v>
+        <v>3.45</v>
       </c>
       <c r="K70" t="n">
-        <v>5.5</v>
+        <v>3.85</v>
       </c>
       <c r="L70" t="n">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="M70" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N70" t="n">
-        <v>4.1</v>
+        <v>3.45</v>
       </c>
       <c r="O70" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="P70" t="n">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.79</v>
+        <v>1.96</v>
       </c>
       <c r="R70" t="n">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="S70" t="n">
-        <v>2.94</v>
+        <v>3.4</v>
       </c>
       <c r="T70" t="n">
-        <v>2.02</v>
+        <v>1.8</v>
       </c>
       <c r="U70" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V70" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="W70" t="n">
-        <v>3.05</v>
+        <v>2</v>
       </c>
       <c r="X70" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="Y70" t="n">
-        <v>36</v>
+        <v>18.5</v>
       </c>
       <c r="Z70" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA70" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB70" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AC70" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AD70" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="AE70" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF70" t="n">
-        <v>10</v>
+        <v>14.5</v>
       </c>
       <c r="AG70" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH70" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AI70" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ70" t="n">
-        <v>14.5</v>
+        <v>28</v>
       </c>
       <c r="AK70" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AL70" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AM70" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN70" t="n">
-        <v>8.199999999999999</v>
+        <v>18</v>
       </c>
       <c r="AO70" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71">
@@ -9973,73 +9973,73 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Partick</t>
+          <t>St Johnstone</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Raith</t>
+          <t>Morton</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>2.04</v>
+        <v>1.37</v>
       </c>
       <c r="G71" t="n">
-        <v>2.12</v>
+        <v>1.43</v>
       </c>
       <c r="H71" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="I71" t="n">
+        <v>12</v>
+      </c>
+      <c r="J71" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K71" t="n">
+        <v>6</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N71" t="n">
         <v>4.1</v>
       </c>
-      <c r="I71" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J71" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K71" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L71" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M71" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N71" t="n">
-        <v>2.98</v>
-      </c>
       <c r="O71" t="n">
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
       <c r="P71" t="n">
-        <v>1.67</v>
+        <v>2.1</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.18</v>
+        <v>1.74</v>
       </c>
       <c r="R71" t="n">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="S71" t="n">
-        <v>3.9</v>
+        <v>2.94</v>
       </c>
       <c r="T71" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="U71" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="V71" t="n">
-        <v>1.29</v>
+        <v>1.09</v>
       </c>
       <c r="W71" t="n">
-        <v>1.89</v>
+        <v>3.3</v>
       </c>
       <c r="X71" t="n">
-        <v>13.5</v>
+        <v>23</v>
       </c>
       <c r="Y71" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="Z71" t="n">
         <v>1000</v>
@@ -10048,43 +10048,43 @@
         <v>1000</v>
       </c>
       <c r="AB71" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC71" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>42</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF71" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AD71" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE71" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF71" t="n">
-        <v>15</v>
-      </c>
       <c r="AG71" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH71" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI71" t="n">
         <v>1000</v>
       </c>
       <c r="AJ71" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AK71" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AL71" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM71" t="n">
         <v>1000</v>
       </c>
       <c r="AN71" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AO71" t="n">
         <v>1000</v>
@@ -10108,121 +10108,121 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Dunfermline</t>
+          <t>Partick</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Ayr</t>
+          <t>Raith</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2.68</v>
+        <v>2.04</v>
       </c>
       <c r="G72" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H72" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J72" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K72" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N72" t="n">
         <v>2.88</v>
       </c>
-      <c r="H72" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="I72" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J72" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K72" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L72" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N72" t="n">
-        <v>2.92</v>
-      </c>
       <c r="O72" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P72" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="R72" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S72" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="T72" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="U72" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="V72" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="W72" t="n">
-        <v>1.53</v>
+        <v>1.89</v>
       </c>
       <c r="X72" t="n">
         <v>13</v>
       </c>
       <c r="Y72" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z72" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AA72" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB72" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC72" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD72" t="n">
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="AE72" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AF72" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG72" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AH72" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI72" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ72" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK72" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AL72" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM72" t="n">
         <v>1000</v>
       </c>
       <c r="AN72" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AO72" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="73">
@@ -10243,127 +10243,127 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Ross Co</t>
+          <t>Dunfermline</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Arbroath</t>
+          <t>Ayr</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2.18</v>
+        <v>2.58</v>
       </c>
       <c r="G73" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H73" t="n">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
       <c r="I73" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="J73" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K73" t="n">
         <v>3.4</v>
       </c>
-      <c r="K73" t="n">
-        <v>3.85</v>
-      </c>
       <c r="L73" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="M73" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N73" t="n">
-        <v>3.65</v>
+        <v>2.92</v>
       </c>
       <c r="O73" t="n">
-        <v>1.3</v>
+        <v>1.43</v>
       </c>
       <c r="P73" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R73" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T73" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U73" t="n">
         <v>1.92</v>
       </c>
-      <c r="Q73" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R73" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S73" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T73" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U73" t="n">
-        <v>2.12</v>
-      </c>
       <c r="V73" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="W73" t="n">
-        <v>1.71</v>
+        <v>1.53</v>
       </c>
       <c r="X73" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="Y73" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Z73" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AA73" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB73" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC73" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD73" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AE73" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK73" t="n">
         <v>42</v>
       </c>
-      <c r="AF73" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG73" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH73" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI73" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ73" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK73" t="n">
-        <v>28</v>
-      </c>
       <c r="AL73" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN73" t="n">
         <v>38</v>
       </c>
-      <c r="AM73" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN73" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AO73" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -10378,127 +10378,127 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Otelul Galati</t>
+          <t>Ross Co</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Arges Pitesti</t>
+          <t>Arbroath</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="G74" t="n">
-        <v>2.48</v>
+        <v>2.34</v>
       </c>
       <c r="H74" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I74" t="n">
         <v>3.7</v>
       </c>
-      <c r="I74" t="n">
-        <v>4.2</v>
-      </c>
       <c r="J74" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="K74" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N74" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O74" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R74" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S74" t="n">
         <v>3.25</v>
       </c>
-      <c r="L74" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M74" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N74" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="O74" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P74" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="R74" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S74" t="n">
-        <v>5.1</v>
-      </c>
       <c r="T74" t="n">
-        <v>2.16</v>
+        <v>1.72</v>
       </c>
       <c r="U74" t="n">
-        <v>1.71</v>
+        <v>2.12</v>
       </c>
       <c r="V74" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="W74" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="X74" t="n">
-        <v>8.4</v>
+        <v>18</v>
       </c>
       <c r="Y74" t="n">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="Z74" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AA74" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="AB74" t="n">
-        <v>8.4</v>
+        <v>11</v>
       </c>
       <c r="AC74" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD74" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AE74" t="n">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="AF74" t="n">
         <v>16</v>
       </c>
       <c r="AG74" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="AH74" t="n">
-        <v>32</v>
+        <v>17.5</v>
       </c>
       <c r="AI74" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="AJ74" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="AK74" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="AL74" t="n">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="AM74" t="n">
-        <v>260</v>
+        <v>90</v>
       </c>
       <c r="AN74" t="n">
-        <v>46</v>
+        <v>18.5</v>
       </c>
       <c r="AO74" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -10513,121 +10513,121 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Otelul Galati</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Arges Pitesti</t>
         </is>
       </c>
       <c r="F75" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G75" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="H75" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I75" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J75" t="n">
+        <v>3</v>
+      </c>
+      <c r="K75" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N75" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="O75" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P75" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="R75" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="T75" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U75" t="n">
         <v>1.71</v>
       </c>
-      <c r="G75" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="H75" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="I75" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="J75" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K75" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L75" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M75" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N75" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O75" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P75" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R75" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S75" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T75" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U75" t="n">
-        <v>2.06</v>
-      </c>
       <c r="V75" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="W75" t="n">
-        <v>2.38</v>
+        <v>1.68</v>
       </c>
       <c r="X75" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF75" t="n">
         <v>16</v>
       </c>
-      <c r="Y75" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z75" t="n">
+      <c r="AG75" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ75" t="n">
         <v>44</v>
       </c>
-      <c r="AA75" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB75" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC75" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD75" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE75" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF75" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG75" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH75" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI75" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ75" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AK75" t="n">
-        <v>16.5</v>
+        <v>44</v>
       </c>
       <c r="AL75" t="n">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="AM75" t="n">
-        <v>110</v>
+        <v>260</v>
       </c>
       <c r="AN75" t="n">
-        <v>9.4</v>
+        <v>46</v>
       </c>
       <c r="AO75" t="n">
-        <v>75</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76">
@@ -10648,121 +10648,121 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>3.8</v>
+        <v>1.69</v>
       </c>
       <c r="G76" t="n">
-        <v>3.85</v>
+        <v>1.7</v>
       </c>
       <c r="H76" t="n">
-        <v>2.14</v>
+        <v>5.7</v>
       </c>
       <c r="I76" t="n">
-        <v>2.16</v>
+        <v>5.8</v>
       </c>
       <c r="J76" t="n">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="K76" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="L76" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M76" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N76" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="O76" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="P76" t="n">
-        <v>1.92</v>
+        <v>2.12</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.04</v>
+        <v>1.87</v>
       </c>
       <c r="R76" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="S76" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="T76" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="U76" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="V76" t="n">
-        <v>1.87</v>
+        <v>1.2</v>
       </c>
       <c r="W76" t="n">
-        <v>1.35</v>
+        <v>2.42</v>
       </c>
       <c r="X76" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Y76" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN76" t="n">
         <v>9.4</v>
       </c>
-      <c r="Z76" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA76" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB76" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC76" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD76" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE76" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF76" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG76" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH76" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI76" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ76" t="n">
+      <c r="AO76" t="n">
         <v>75</v>
-      </c>
-      <c r="AK76" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL76" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM76" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN76" t="n">
-        <v>50</v>
-      </c>
-      <c r="AO76" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="77">
@@ -10783,121 +10783,121 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1.54</v>
+        <v>3.8</v>
       </c>
       <c r="G77" t="n">
-        <v>1.55</v>
+        <v>3.85</v>
       </c>
       <c r="H77" t="n">
-        <v>7.2</v>
+        <v>2.12</v>
       </c>
       <c r="I77" t="n">
-        <v>7.4</v>
+        <v>2.14</v>
       </c>
       <c r="J77" t="n">
-        <v>4.6</v>
+        <v>3.65</v>
       </c>
       <c r="K77" t="n">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="L77" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="M77" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N77" t="n">
-        <v>4.8</v>
+        <v>3.75</v>
       </c>
       <c r="O77" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="P77" t="n">
-        <v>2.32</v>
+        <v>1.92</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.74</v>
+        <v>2.06</v>
       </c>
       <c r="R77" t="n">
-        <v>1.52</v>
+        <v>1.35</v>
       </c>
       <c r="S77" t="n">
-        <v>2.86</v>
+        <v>3.7</v>
       </c>
       <c r="T77" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="U77" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="V77" t="n">
-        <v>1.15</v>
+        <v>1.87</v>
       </c>
       <c r="W77" t="n">
-        <v>2.8</v>
+        <v>1.35</v>
       </c>
       <c r="X77" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Y77" t="n">
-        <v>27</v>
+        <v>9.4</v>
       </c>
       <c r="Z77" t="n">
-        <v>65</v>
+        <v>12.5</v>
       </c>
       <c r="AA77" t="n">
-        <v>210</v>
+        <v>26</v>
       </c>
       <c r="AB77" t="n">
-        <v>9.4</v>
+        <v>14</v>
       </c>
       <c r="AC77" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD77" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD77" t="n">
+      <c r="AE77" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF77" t="n">
         <v>26</v>
       </c>
-      <c r="AE77" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF77" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="AG77" t="n">
-        <v>9.800000000000001</v>
+        <v>15.5</v>
       </c>
       <c r="AH77" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AI77" t="n">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="AJ77" t="n">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="AK77" t="n">
-        <v>14.5</v>
+        <v>48</v>
       </c>
       <c r="AL77" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AM77" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN77" t="n">
-        <v>6.8</v>
+        <v>50</v>
       </c>
       <c r="AO77" t="n">
-        <v>90</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="78">
@@ -10918,127 +10918,127 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1.22</v>
+        <v>1.53</v>
       </c>
       <c r="G78" t="n">
-        <v>1.23</v>
+        <v>1.54</v>
       </c>
       <c r="H78" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I78" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="J78" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K78" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L78" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N78" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O78" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P78" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R78" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S78" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="T78" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U78" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V78" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W78" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="X78" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>210</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK78" t="n">
         <v>14.5</v>
-      </c>
-      <c r="I78" t="n">
-        <v>15</v>
-      </c>
-      <c r="J78" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="K78" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="L78" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M78" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N78" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="O78" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P78" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="R78" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S78" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="T78" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U78" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V78" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W78" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="X78" t="n">
-        <v>44</v>
-      </c>
-      <c r="Y78" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z78" t="n">
-        <v>160</v>
-      </c>
-      <c r="AA78" t="n">
-        <v>580</v>
-      </c>
-      <c r="AB78" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC78" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AD78" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE78" t="n">
-        <v>170</v>
-      </c>
-      <c r="AF78" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG78" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH78" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI78" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ78" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK78" t="n">
-        <v>12.5</v>
       </c>
       <c r="AL78" t="n">
         <v>32</v>
       </c>
       <c r="AM78" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="AN78" t="n">
-        <v>3.1</v>
+        <v>6.8</v>
       </c>
       <c r="AO78" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Scottish League One</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -11053,121 +11053,121 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2.44</v>
+        <v>1.23</v>
       </c>
       <c r="G79" t="n">
-        <v>2.74</v>
+        <v>1.24</v>
       </c>
       <c r="H79" t="n">
-        <v>2.64</v>
+        <v>14.5</v>
       </c>
       <c r="I79" t="n">
-        <v>2.88</v>
+        <v>15</v>
       </c>
       <c r="J79" t="n">
-        <v>3.6</v>
+        <v>8.4</v>
       </c>
       <c r="K79" t="n">
-        <v>4.4</v>
+        <v>8.6</v>
       </c>
       <c r="L79" t="n">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="M79" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N79" t="n">
-        <v>3.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O79" t="n">
-        <v>1.32</v>
+        <v>1.12</v>
       </c>
       <c r="P79" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="R79" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S79" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="T79" t="n">
         <v>1.9</v>
       </c>
-      <c r="Q79" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R79" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S79" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T79" t="n">
-        <v>1.64</v>
-      </c>
       <c r="U79" t="n">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="V79" t="n">
-        <v>1.53</v>
+        <v>1.07</v>
       </c>
       <c r="W79" t="n">
-        <v>1.57</v>
+        <v>5.3</v>
       </c>
       <c r="X79" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="Y79" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="Z79" t="n">
-        <v>970</v>
+        <v>160</v>
       </c>
       <c r="AA79" t="n">
-        <v>46</v>
+        <v>550</v>
       </c>
       <c r="AB79" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC79" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="AD79" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AE79" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AF79" t="n">
-        <v>970</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG79" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AH79" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AI79" t="n">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="AJ79" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="AK79" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="AL79" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AM79" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN79" t="n">
-        <v>1000</v>
+        <v>3.1</v>
       </c>
       <c r="AO79" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80">
@@ -11200,13 +11200,13 @@
         <v>3.55</v>
       </c>
       <c r="G80" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H80" t="n">
         <v>2.24</v>
       </c>
       <c r="I80" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="J80" t="n">
         <v>3.6</v>
@@ -11332,7 +11332,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G81" t="n">
         <v>3.2</v>
@@ -11347,7 +11347,7 @@
         <v>3.2</v>
       </c>
       <c r="K81" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L81" t="n">
         <v>1.46</v>
@@ -11356,7 +11356,7 @@
         <v>1.08</v>
       </c>
       <c r="N81" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O81" t="n">
         <v>1.38</v>
@@ -11368,7 +11368,7 @@
         <v>2.12</v>
       </c>
       <c r="R81" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S81" t="n">
         <v>3.9</v>
@@ -11386,7 +11386,7 @@
         <v>1.45</v>
       </c>
       <c r="X81" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y81" t="n">
         <v>12</v>
@@ -11467,25 +11467,25 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="G82" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="H82" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="I82" t="n">
         <v>6.2</v>
       </c>
       <c r="J82" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K82" t="n">
-        <v>5.3</v>
+        <v>4.6</v>
       </c>
       <c r="L82" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M82" t="n">
         <v>1.01</v>
@@ -11494,7 +11494,7 @@
         <v>1.49</v>
       </c>
       <c r="O82" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="P82" t="n">
         <v>1.49</v>
@@ -11512,16 +11512,16 @@
         <v>1.01</v>
       </c>
       <c r="U82" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="V82" t="n">
         <v>1.19</v>
       </c>
       <c r="W82" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="X82" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y82" t="n">
         <v>1000</v>
@@ -11743,7 +11743,7 @@
         <v>4.2</v>
       </c>
       <c r="H84" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="I84" t="n">
         <v>1.98</v>
@@ -11767,16 +11767,16 @@
         <v>1.12</v>
       </c>
       <c r="P84" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="Q84" t="n">
         <v>1.37</v>
       </c>
       <c r="R84" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="S84" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T84" t="n">
         <v>1.42</v>
@@ -11797,7 +11797,7 @@
         <v>23</v>
       </c>
       <c r="Z84" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA84" t="n">
         <v>29</v>
@@ -11872,7 +11872,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="G85" t="n">
         <v>3.5</v>
@@ -11881,7 +11881,7 @@
         <v>2.14</v>
       </c>
       <c r="I85" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="J85" t="n">
         <v>4</v>
@@ -11902,10 +11902,10 @@
         <v>1.19</v>
       </c>
       <c r="P85" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R85" t="n">
         <v>1.63</v>
@@ -11914,13 +11914,13 @@
         <v>2.4</v>
       </c>
       <c r="T85" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="U85" t="n">
         <v>2.66</v>
       </c>
       <c r="V85" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="W85" t="n">
         <v>1.4</v>
@@ -11935,7 +11935,7 @@
         <v>17.5</v>
       </c>
       <c r="AA85" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AB85" t="n">
         <v>20</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="G86" t="n">
         <v>2.06</v>
@@ -12016,10 +12016,10 @@
         <v>4.6</v>
       </c>
       <c r="I86" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J86" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K86" t="n">
         <v>3.55</v>
@@ -12079,7 +12079,7 @@
         <v>9.4</v>
       </c>
       <c r="AD86" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE86" t="n">
         <v>100</v>
@@ -12151,7 +12151,7 @@
         <v>2.2</v>
       </c>
       <c r="I87" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="J87" t="n">
         <v>3.7</v>
@@ -12196,7 +12196,7 @@
         <v>1.43</v>
       </c>
       <c r="X87" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Y87" t="n">
         <v>17.5</v>
@@ -12277,7 +12277,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="G88" t="n">
         <v>5.3</v>
@@ -12319,10 +12319,10 @@
         <v>3.5</v>
       </c>
       <c r="T88" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U88" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="V88" t="n">
         <v>2.1</v>
@@ -12415,16 +12415,16 @@
         <v>2.78</v>
       </c>
       <c r="G89" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H89" t="n">
         <v>2.56</v>
       </c>
       <c r="I89" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="J89" t="n">
-        <v>3.15</v>
+        <v>2.84</v>
       </c>
       <c r="K89" t="n">
         <v>3.65</v>
@@ -12433,7 +12433,7 @@
         <v>1.44</v>
       </c>
       <c r="M89" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N89" t="n">
         <v>3.2</v>
@@ -12451,7 +12451,7 @@
         <v>1.29</v>
       </c>
       <c r="S89" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T89" t="n">
         <v>1.8</v>
@@ -12559,13 +12559,13 @@
         <v>3.35</v>
       </c>
       <c r="J90" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="K90" t="n">
         <v>3.75</v>
       </c>
       <c r="L90" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="M90" t="n">
         <v>1.07</v>
@@ -12580,7 +12580,7 @@
         <v>1.75</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R90" t="n">
         <v>1.29</v>
@@ -12688,7 +12688,7 @@
         <v>5.3</v>
       </c>
       <c r="H91" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="I91" t="n">
         <v>2.6</v>
@@ -12826,10 +12826,10 @@
         <v>3.15</v>
       </c>
       <c r="I92" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="J92" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="K92" t="n">
         <v>3.65</v>
@@ -12952,37 +12952,37 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="G93" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="H93" t="n">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="I93" t="n">
-        <v>6</v>
+        <v>4.9</v>
       </c>
       <c r="J93" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K93" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="L93" t="n">
         <v>1.44</v>
       </c>
       <c r="M93" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N93" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="O93" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P93" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q93" t="n">
         <v>2.3</v>
@@ -12994,22 +12994,22 @@
         <v>4.2</v>
       </c>
       <c r="T93" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U93" t="n">
         <v>1.71</v>
       </c>
       <c r="V93" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="W93" t="n">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="X93" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y93" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="Z93" t="n">
         <v>1000</v>
@@ -13021,7 +13021,7 @@
         <v>7.4</v>
       </c>
       <c r="AC93" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD93" t="n">
         <v>1000</v>
@@ -13063,7 +13063,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -13078,127 +13078,127 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Thun</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>FC Zurich</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1.69</v>
+        <v>1.91</v>
       </c>
       <c r="G94" t="n">
-        <v>1.72</v>
+        <v>2.02</v>
       </c>
       <c r="H94" t="n">
-        <v>5.1</v>
+        <v>3.85</v>
       </c>
       <c r="I94" t="n">
-        <v>5.3</v>
+        <v>4.2</v>
       </c>
       <c r="J94" t="n">
-        <v>4.5</v>
+        <v>3.95</v>
       </c>
       <c r="K94" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="L94" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N94" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="O94" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P94" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R94" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S94" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="T94" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U94" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="V94" t="n">
         <v>1.31</v>
       </c>
-      <c r="M94" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N94" t="n">
-        <v>5</v>
-      </c>
-      <c r="O94" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P94" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="R94" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S94" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="T94" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U94" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="V94" t="n">
-        <v>1.23</v>
-      </c>
       <c r="W94" t="n">
-        <v>2.38</v>
+        <v>1.98</v>
       </c>
       <c r="X94" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Y94" t="n">
         <v>27</v>
       </c>
       <c r="Z94" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI94" t="n">
         <v>50</v>
       </c>
-      <c r="AA94" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB94" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC94" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD94" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE94" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF94" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG94" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH94" t="n">
+      <c r="AJ94" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK94" t="n">
         <v>22</v>
       </c>
-      <c r="AI94" t="n">
+      <c r="AL94" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM94" t="n">
         <v>70</v>
       </c>
-      <c r="AJ94" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK94" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL94" t="n">
+      <c r="AN94" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AO94" t="n">
         <v>34</v>
-      </c>
-      <c r="AM94" t="n">
-        <v>95</v>
-      </c>
-      <c r="AN94" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AO94" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -13213,127 +13213,127 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Thun</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>FC Zurich</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1.91</v>
+        <v>1.69</v>
       </c>
       <c r="G95" t="n">
-        <v>2.04</v>
+        <v>1.7</v>
       </c>
       <c r="H95" t="n">
-        <v>3.85</v>
+        <v>5.1</v>
       </c>
       <c r="I95" t="n">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="J95" t="n">
-        <v>3.95</v>
+        <v>4.6</v>
       </c>
       <c r="K95" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="L95" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N95" t="n">
+        <v>5</v>
+      </c>
+      <c r="O95" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P95" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R95" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S95" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T95" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U95" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V95" t="n">
         <v>1.23</v>
       </c>
-      <c r="M95" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N95" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="O95" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P95" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="Q95" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R95" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="S95" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="T95" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="U95" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="V95" t="n">
-        <v>1.31</v>
-      </c>
       <c r="W95" t="n">
-        <v>1.97</v>
+        <v>2.44</v>
       </c>
       <c r="X95" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y95" t="n">
         <v>27</v>
       </c>
       <c r="Z95" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AA95" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB95" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="AC95" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD95" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AE95" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AF95" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="AG95" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH95" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AI95" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AJ95" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AK95" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL95" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM95" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="AN95" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AO95" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -13348,100 +13348,100 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Bellinzona</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>FC Wil</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>2.52</v>
+        <v>1.43</v>
       </c>
       <c r="G96" t="n">
-        <v>2.96</v>
+        <v>1.58</v>
       </c>
       <c r="H96" t="n">
-        <v>2.62</v>
+        <v>5.3</v>
       </c>
       <c r="I96" t="n">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="J96" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="K96" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="L96" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="M96" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N96" t="n">
-        <v>3.95</v>
+        <v>2.38</v>
       </c>
       <c r="O96" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="P96" t="n">
-        <v>2.02</v>
+        <v>2.38</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.79</v>
+        <v>1.46</v>
       </c>
       <c r="R96" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="S96" t="n">
-        <v>3</v>
+        <v>2.22</v>
       </c>
       <c r="T96" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="U96" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="V96" t="n">
-        <v>1.49</v>
+        <v>1.11</v>
       </c>
       <c r="W96" t="n">
-        <v>1.51</v>
+        <v>2.72</v>
       </c>
       <c r="X96" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y96" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z96" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AA96" t="n">
         <v>1000</v>
       </c>
       <c r="AB96" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC96" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD96" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE96" t="n">
         <v>1000</v>
       </c>
       <c r="AF96" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG96" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH96" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI96" t="n">
         <v>1000</v>
@@ -13459,16 +13459,16 @@
         <v>1000</v>
       </c>
       <c r="AN96" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AO96" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -13483,100 +13483,100 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>Bellinzona</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>FC Wil</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1.39</v>
+        <v>2.52</v>
       </c>
       <c r="G97" t="n">
-        <v>1.58</v>
+        <v>2.94</v>
       </c>
       <c r="H97" t="n">
-        <v>5.3</v>
+        <v>2.6</v>
       </c>
       <c r="I97" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J97" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K97" t="n">
+        <v>4</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N97" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O97" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P97" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R97" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>3</v>
+      </c>
+      <c r="T97" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U97" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V97" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="W97" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X97" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC97" t="n">
         <v>10.5</v>
       </c>
-      <c r="J97" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K97" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L97" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M97" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N97" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="O97" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P97" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q97" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="R97" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S97" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="T97" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="U97" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V97" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W97" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="X97" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y97" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z97" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA97" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB97" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC97" t="n">
-        <v>1000</v>
-      </c>
       <c r="AD97" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE97" t="n">
         <v>1000</v>
       </c>
       <c r="AF97" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG97" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH97" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI97" t="n">
         <v>1000</v>
@@ -13594,10 +13594,10 @@
         <v>1000</v>
       </c>
       <c r="AN97" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AO97" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98">
@@ -13630,10 +13630,10 @@
         <v>1.7</v>
       </c>
       <c r="G98" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="H98" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I98" t="n">
         <v>6.6</v>
@@ -13663,7 +13663,7 @@
         <v>2.14</v>
       </c>
       <c r="R98" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S98" t="n">
         <v>3.95</v>
@@ -13678,7 +13678,7 @@
         <v>1.18</v>
       </c>
       <c r="W98" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="X98" t="n">
         <v>12.5</v>
@@ -13801,7 +13801,7 @@
         <v>1.47</v>
       </c>
       <c r="S99" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="T99" t="n">
         <v>1.65</v>
@@ -13843,13 +13843,13 @@
         <v>16</v>
       </c>
       <c r="AG99" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH99" t="n">
         <v>21</v>
       </c>
       <c r="AI99" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ99" t="n">
         <v>26</v>
@@ -13909,7 +13909,7 @@
         <v>9.6</v>
       </c>
       <c r="J100" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="K100" t="n">
         <v>5.7</v>
@@ -13921,7 +13921,7 @@
         <v>1.01</v>
       </c>
       <c r="N100" t="n">
-        <v>2.08</v>
+        <v>1.44</v>
       </c>
       <c r="O100" t="n">
         <v>1.01</v>
@@ -14071,7 +14071,7 @@
         <v>1.42</v>
       </c>
       <c r="S101" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="T101" t="n">
         <v>1.01</v>
@@ -14173,10 +14173,10 @@
         <v>4.1</v>
       </c>
       <c r="H102" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="I102" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="J102" t="n">
         <v>3.7</v>
@@ -14215,7 +14215,7 @@
         <v>2.28</v>
       </c>
       <c r="V102" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="W102" t="n">
         <v>1.32</v>
@@ -14302,7 +14302,7 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="G103" t="n">
         <v>1.28</v>
@@ -14311,13 +14311,13 @@
         <v>13</v>
       </c>
       <c r="I103" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="J103" t="n">
         <v>6.8</v>
       </c>
       <c r="K103" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="L103" t="n">
         <v>1.2</v>
@@ -14329,13 +14329,13 @@
         <v>6.2</v>
       </c>
       <c r="O103" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P103" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="R103" t="n">
         <v>1.73</v>
@@ -14344,7 +14344,7 @@
         <v>2.1</v>
       </c>
       <c r="T103" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U103" t="n">
         <v>1.8</v>
@@ -14374,7 +14374,7 @@
         <v>21</v>
       </c>
       <c r="AD103" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AE103" t="n">
         <v>1000</v>
@@ -14386,13 +14386,13 @@
         <v>14.5</v>
       </c>
       <c r="AH103" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AI103" t="n">
         <v>1000</v>
       </c>
       <c r="AJ103" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AK103" t="n">
         <v>17</v>
@@ -14404,7 +14404,7 @@
         <v>1000</v>
       </c>
       <c r="AN103" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AO103" t="n">
         <v>1000</v>
@@ -14446,7 +14446,7 @@
         <v>2.14</v>
       </c>
       <c r="I104" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="J104" t="n">
         <v>3.9</v>
@@ -14467,13 +14467,13 @@
         <v>1.23</v>
       </c>
       <c r="P104" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="R104" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S104" t="n">
         <v>2.78</v>
@@ -14482,10 +14482,10 @@
         <v>1.62</v>
       </c>
       <c r="U104" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V104" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="W104" t="n">
         <v>1.38</v>
@@ -14494,7 +14494,7 @@
         <v>19.5</v>
       </c>
       <c r="Y104" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z104" t="n">
         <v>15</v>
@@ -14521,7 +14521,7 @@
         <v>14.5</v>
       </c>
       <c r="AH104" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI104" t="n">
         <v>28</v>
@@ -14536,7 +14536,7 @@
         <v>40</v>
       </c>
       <c r="AM104" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN104" t="n">
         <v>28</v>
@@ -14572,16 +14572,16 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="G105" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="H105" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I105" t="n">
         <v>3.4</v>
-      </c>
-      <c r="I105" t="n">
-        <v>3.45</v>
       </c>
       <c r="J105" t="n">
         <v>3.9</v>
@@ -14611,25 +14611,25 @@
         <v>1.65</v>
       </c>
       <c r="S105" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="T105" t="n">
         <v>1.55</v>
       </c>
       <c r="U105" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="V105" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="W105" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="X105" t="n">
         <v>22</v>
       </c>
       <c r="Y105" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Z105" t="n">
         <v>28</v>
@@ -14719,7 +14719,7 @@
         <v>1.37</v>
       </c>
       <c r="J106" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="K106" t="n">
         <v>7.2</v>
@@ -14746,7 +14746,7 @@
         <v>1.66</v>
       </c>
       <c r="S106" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="T106" t="n">
         <v>1.89</v>
@@ -14842,13 +14842,13 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G107" t="n">
         <v>2.34</v>
       </c>
       <c r="H107" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I107" t="n">
         <v>4</v>
@@ -14887,13 +14887,13 @@
         <v>2.2</v>
       </c>
       <c r="U107" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="V107" t="n">
         <v>1.33</v>
       </c>
       <c r="W107" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="X107" t="n">
         <v>8.199999999999999</v>
@@ -14977,7 +14977,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G108" t="n">
         <v>2.36</v>
@@ -14986,13 +14986,13 @@
         <v>3.7</v>
       </c>
       <c r="I108" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J108" t="n">
         <v>3.2</v>
       </c>
       <c r="K108" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L108" t="n">
         <v>1.01</v>
@@ -15025,7 +15025,7 @@
         <v>1.78</v>
       </c>
       <c r="V108" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W108" t="n">
         <v>1.73</v>
@@ -15115,7 +15115,7 @@
         <v>2.16</v>
       </c>
       <c r="G109" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H109" t="n">
         <v>3.35</v>
@@ -15142,7 +15142,7 @@
         <v>1.23</v>
       </c>
       <c r="P109" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="Q109" t="n">
         <v>1.67</v>
@@ -15163,7 +15163,7 @@
         <v>1.4</v>
       </c>
       <c r="W109" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="X109" t="n">
         <v>21</v>
@@ -15247,7 +15247,7 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="G110" t="n">
         <v>1.82</v>
@@ -15262,7 +15262,7 @@
         <v>3.65</v>
       </c>
       <c r="K110" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L110" t="n">
         <v>1.47</v>
@@ -15424,10 +15424,10 @@
         <v>3.75</v>
       </c>
       <c r="T111" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U111" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V111" t="n">
         <v>1.87</v>
@@ -15526,13 +15526,13 @@
         <v>2.72</v>
       </c>
       <c r="I112" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="J112" t="n">
         <v>3.2</v>
       </c>
       <c r="K112" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L112" t="n">
         <v>1.45</v>
@@ -15565,7 +15565,7 @@
         <v>2.04</v>
       </c>
       <c r="V112" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W112" t="n">
         <v>1.5</v>
@@ -15658,16 +15658,16 @@
         <v>1.15</v>
       </c>
       <c r="H113" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I113" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J113" t="n">
         <v>10</v>
       </c>
       <c r="K113" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L113" t="n">
         <v>1.22</v>
@@ -15694,10 +15694,10 @@
         <v>2.02</v>
       </c>
       <c r="T113" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="U113" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="V113" t="n">
         <v>1.03</v>
@@ -15796,13 +15796,13 @@
         <v>3.25</v>
       </c>
       <c r="I114" t="n">
-        <v>670</v>
+        <v>5.4</v>
       </c>
       <c r="J114" t="n">
         <v>3.7</v>
       </c>
       <c r="K114" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="L114" t="n">
         <v>1.01</v>
@@ -15829,7 +15829,7 @@
         <v>1.23</v>
       </c>
       <c r="T114" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U114" t="n">
         <v>1.04</v>
@@ -15925,7 +15925,7 @@
         <v>2.02</v>
       </c>
       <c r="G115" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H115" t="n">
         <v>3.2</v>
@@ -16066,7 +16066,7 @@
         <v>2.82</v>
       </c>
       <c r="I116" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="J116" t="n">
         <v>4.3</v>
@@ -16087,7 +16087,7 @@
         <v>1.16</v>
       </c>
       <c r="P116" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="Q116" t="n">
         <v>1.51</v>
@@ -16102,7 +16102,7 @@
         <v>1.48</v>
       </c>
       <c r="U116" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="V116" t="n">
         <v>1.52</v>
@@ -16114,7 +16114,7 @@
         <v>29</v>
       </c>
       <c r="Y116" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z116" t="n">
         <v>26</v>
@@ -16132,7 +16132,7 @@
         <v>14</v>
       </c>
       <c r="AE116" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF116" t="n">
         <v>21</v>
@@ -16144,7 +16144,7 @@
         <v>14.5</v>
       </c>
       <c r="AI116" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ116" t="n">
         <v>34</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="G118" t="n">
         <v>1.76</v>
@@ -16336,7 +16336,7 @@
         <v>4.6</v>
       </c>
       <c r="I118" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J118" t="n">
         <v>4.5</v>
@@ -16357,22 +16357,22 @@
         <v>1.16</v>
       </c>
       <c r="P118" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="Q118" t="n">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="R118" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="S118" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="T118" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="U118" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V118" t="n">
         <v>1.23</v>
@@ -16393,7 +16393,7 @@
         <v>120</v>
       </c>
       <c r="AB118" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC118" t="n">
         <v>14</v>
@@ -16462,22 +16462,22 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="G119" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="H119" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="I119" t="n">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="J119" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K119" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L119" t="n">
         <v>1.27</v>
@@ -16486,34 +16486,34 @@
         <v>1.05</v>
       </c>
       <c r="N119" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O119" t="n">
         <v>1.26</v>
       </c>
       <c r="P119" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q119" t="n">
         <v>1.74</v>
       </c>
       <c r="R119" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S119" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="T119" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="U119" t="n">
         <v>2.02</v>
       </c>
       <c r="V119" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="W119" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="X119" t="n">
         <v>23</v>
@@ -16543,7 +16543,7 @@
         <v>60</v>
       </c>
       <c r="AG119" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH119" t="n">
         <v>25</v>
@@ -16558,7 +16558,7 @@
         <v>95</v>
       </c>
       <c r="AL119" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AM119" t="n">
         <v>130</v>
@@ -16567,7 +16567,7 @@
         <v>110</v>
       </c>
       <c r="AO119" t="n">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="120">
@@ -16651,7 +16651,7 @@
         <v>1.93</v>
       </c>
       <c r="X120" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y120" t="n">
         <v>13</v>
@@ -16744,13 +16744,13 @@
         <v>4.5</v>
       </c>
       <c r="J121" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K121" t="n">
         <v>4.1</v>
       </c>
       <c r="L121" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M121" t="n">
         <v>1.05</v>
@@ -16759,7 +16759,7 @@
         <v>4.4</v>
       </c>
       <c r="O121" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P121" t="n">
         <v>2.18</v>
@@ -16873,10 +16873,10 @@
         <v>6.8</v>
       </c>
       <c r="H122" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="I122" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="J122" t="n">
         <v>4.1</v>
@@ -16897,10 +16897,10 @@
         <v>1.38</v>
       </c>
       <c r="P122" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="Q122" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R122" t="n">
         <v>1.31</v>
@@ -16909,13 +16909,13 @@
         <v>4</v>
       </c>
       <c r="T122" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="U122" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="V122" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="W122" t="n">
         <v>1.17</v>
@@ -16936,7 +16936,7 @@
         <v>19</v>
       </c>
       <c r="AC122" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD122" t="n">
         <v>10.5</v>
@@ -16945,19 +16945,19 @@
         <v>18.5</v>
       </c>
       <c r="AF122" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG122" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH122" t="n">
         <v>26</v>
       </c>
       <c r="AI122" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ122" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AK122" t="n">
         <v>110</v>
@@ -16966,7 +16966,7 @@
         <v>120</v>
       </c>
       <c r="AM122" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AN122" t="n">
         <v>160</v>
@@ -17002,16 +17002,16 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="G123" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="H123" t="n">
         <v>2.9</v>
       </c>
       <c r="I123" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="J123" t="n">
         <v>3.4</v>
@@ -17029,7 +17029,7 @@
         <v>3.5</v>
       </c>
       <c r="O123" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P123" t="n">
         <v>1.83</v>
@@ -17038,13 +17038,13 @@
         <v>2.16</v>
       </c>
       <c r="R123" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S123" t="n">
         <v>4</v>
       </c>
       <c r="T123" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U123" t="n">
         <v>2.08</v>
@@ -17053,7 +17053,7 @@
         <v>1.52</v>
       </c>
       <c r="W123" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="X123" t="n">
         <v>12</v>
@@ -17143,10 +17143,10 @@
         <v>1.25</v>
       </c>
       <c r="H124" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="I124" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="J124" t="n">
         <v>7.8</v>
@@ -17161,7 +17161,7 @@
         <v>1.02</v>
       </c>
       <c r="N124" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="O124" t="n">
         <v>1.12</v>
@@ -17182,7 +17182,7 @@
         <v>1.89</v>
       </c>
       <c r="U124" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="V124" t="n">
         <v>1.07</v>
@@ -17197,7 +17197,7 @@
         <v>65</v>
       </c>
       <c r="Z124" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AA124" t="n">
         <v>670</v>
@@ -17242,7 +17242,7 @@
         <v>3.15</v>
       </c>
       <c r="AO124" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125">
@@ -17272,16 +17272,16 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="G125" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="H125" t="n">
         <v>6.6</v>
       </c>
       <c r="I125" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="J125" t="n">
         <v>3.8</v>
@@ -17410,13 +17410,13 @@
         <v>2.5</v>
       </c>
       <c r="G126" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="H126" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="I126" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J126" t="n">
         <v>3.2</v>
@@ -17434,31 +17434,31 @@
         <v>3.05</v>
       </c>
       <c r="O126" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P126" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R126" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S126" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T126" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U126" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V126" t="n">
         <v>1.43</v>
       </c>
-      <c r="P126" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Q126" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R126" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S126" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T126" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U126" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V126" t="n">
-        <v>1.41</v>
-      </c>
       <c r="W126" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="X126" t="n">
         <v>13</v>
@@ -17467,10 +17467,10 @@
         <v>13</v>
       </c>
       <c r="Z126" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA126" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AB126" t="n">
         <v>11</v>
@@ -17479,7 +17479,7 @@
         <v>8.4</v>
       </c>
       <c r="AD126" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE126" t="n">
         <v>55</v>
@@ -17491,10 +17491,10 @@
         <v>14.5</v>
       </c>
       <c r="AH126" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI126" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AJ126" t="n">
         <v>48</v>
@@ -17506,10 +17506,10 @@
         <v>65</v>
       </c>
       <c r="AM126" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN126" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AO126" t="n">
         <v>60</v>
@@ -17533,31 +17533,31 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Deportivo Cuenca</t>
+          <t>Aucas</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Emelec</t>
+          <t>Macara</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="G127" t="n">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="H127" t="n">
-        <v>2.42</v>
+        <v>4.7</v>
       </c>
       <c r="I127" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="J127" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="K127" t="n">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="L127" t="n">
         <v>0</v>
@@ -17572,10 +17572,10 @@
         <v>0</v>
       </c>
       <c r="P127" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q127" t="n">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="R127" t="n">
         <v>0</v>
@@ -17668,31 +17668,31 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Aucas</t>
+          <t>Deportivo Cuenca</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Macara</t>
+          <t>Emelec</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
       <c r="G128" t="n">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="H128" t="n">
-        <v>4.7</v>
+        <v>2.42</v>
       </c>
       <c r="I128" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="J128" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="K128" t="n">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="L128" t="n">
         <v>0</v>
@@ -17710,7 +17710,7 @@
         <v>1.74</v>
       </c>
       <c r="Q128" t="n">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="R128" t="n">
         <v>0</v>
@@ -17788,135 +17788,270 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
+          <t>Honduras Liga Nacional</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>CD Motagua</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>CD Olimpia</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K129" t="n">
+        <v>950</v>
+      </c>
+      <c r="L129" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M129" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N129" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="O129" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P129" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R129" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S129" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T129" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U129" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V129" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W129" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X129" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB129" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC129" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD129" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE129" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF129" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG129" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH129" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI129" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ129" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK129" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL129" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM129" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN129" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO129" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
           <t>Australian A-League Men</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B130" t="inlineStr">
         <is>
           <t>2025-12-20</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>23:00:00</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="D130" t="inlineStr">
         <is>
           <t>Wellington Phoenix</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>Central Coast Mariners</t>
         </is>
       </c>
-      <c r="F129" t="n">
+      <c r="F130" t="n">
         <v>2.28</v>
       </c>
-      <c r="G129" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="H129" t="n">
+      <c r="G130" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H130" t="n">
         <v>3.35</v>
       </c>
-      <c r="I129" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J129" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K129" t="n">
+      <c r="I130" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J130" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K130" t="n">
         <v>3.75</v>
       </c>
-      <c r="L129" t="n">
+      <c r="L130" t="n">
         <v>1.38</v>
       </c>
-      <c r="M129" t="n">
+      <c r="M130" t="n">
         <v>1.06</v>
       </c>
-      <c r="N129" t="n">
+      <c r="N130" t="n">
         <v>4</v>
       </c>
-      <c r="O129" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P129" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q129" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="R129" t="n">
+      <c r="O130" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P130" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R130" t="n">
         <v>1.41</v>
       </c>
-      <c r="S129" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T129" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="U129" t="n">
+      <c r="S130" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T130" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U130" t="n">
         <v>2.22</v>
       </c>
-      <c r="V129" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W129" t="n">
+      <c r="V130" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="W130" t="n">
         <v>1.76</v>
       </c>
-      <c r="X129" t="n">
+      <c r="X130" t="n">
         <v>20</v>
       </c>
-      <c r="Y129" t="n">
+      <c r="Y130" t="n">
         <v>17.5</v>
       </c>
-      <c r="Z129" t="n">
+      <c r="Z130" t="n">
         <v>32</v>
       </c>
-      <c r="AA129" t="n">
+      <c r="AA130" t="n">
         <v>75</v>
       </c>
-      <c r="AB129" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC129" t="n">
+      <c r="AB130" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC130" t="n">
         <v>8.6</v>
       </c>
-      <c r="AD129" t="n">
+      <c r="AD130" t="n">
         <v>15.5</v>
       </c>
-      <c r="AE129" t="n">
+      <c r="AE130" t="n">
         <v>48</v>
       </c>
-      <c r="AF129" t="n">
+      <c r="AF130" t="n">
         <v>16</v>
       </c>
-      <c r="AG129" t="n">
+      <c r="AG130" t="n">
         <v>12</v>
       </c>
-      <c r="AH129" t="n">
+      <c r="AH130" t="n">
         <v>20</v>
       </c>
-      <c r="AI129" t="n">
+      <c r="AI130" t="n">
         <v>55</v>
       </c>
-      <c r="AJ129" t="n">
+      <c r="AJ130" t="n">
         <v>36</v>
       </c>
-      <c r="AK129" t="n">
+      <c r="AK130" t="n">
         <v>28</v>
       </c>
-      <c r="AL129" t="n">
+      <c r="AL130" t="n">
         <v>42</v>
       </c>
-      <c r="AM129" t="n">
+      <c r="AM130" t="n">
         <v>100</v>
       </c>
-      <c r="AN129" t="n">
+      <c r="AN130" t="n">
         <v>19</v>
       </c>
-      <c r="AO129" t="n">
+      <c r="AO130" t="n">
         <v>42</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-20.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="G2" t="n">
         <v>3.3</v>
       </c>
       <c r="H2" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="I2" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="J2" t="n">
         <v>4.3</v>
@@ -694,7 +694,7 @@
         <v>7.6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P2" t="n">
         <v>3.2</v>
@@ -715,7 +715,7 @@
         <v>3.15</v>
       </c>
       <c r="V2" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="W2" t="n">
         <v>1.43</v>
@@ -724,13 +724,13 @@
         <v>38</v>
       </c>
       <c r="Y2" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z2" t="n">
         <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB2" t="n">
         <v>26</v>
@@ -739,7 +739,7 @@
         <v>11.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE2" t="n">
         <v>19</v>
@@ -760,13 +760,13 @@
         <v>55</v>
       </c>
       <c r="AK2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL2" t="n">
         <v>29</v>
       </c>
       <c r="AM2" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AN2" t="n">
         <v>14.5</v>
@@ -805,13 +805,13 @@
         <v>2.28</v>
       </c>
       <c r="G3" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H3" t="n">
         <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J3" t="n">
         <v>3.8</v>
@@ -826,7 +826,7 @@
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
         <v>1.31</v>
@@ -835,13 +835,13 @@
         <v>2.02</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="R3" t="n">
         <v>1.4</v>
       </c>
       <c r="S3" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T3" t="n">
         <v>1.76</v>
@@ -850,10 +850,10 @@
         <v>2.22</v>
       </c>
       <c r="V3" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="W3" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X3" t="n">
         <v>15</v>
@@ -880,7 +880,7 @@
         <v>38</v>
       </c>
       <c r="AF3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG3" t="n">
         <v>11</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H4" t="n">
         <v>2.78</v>
@@ -949,7 +949,7 @@
         <v>3.15</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
         <v>3.4</v>
@@ -967,7 +967,7 @@
         <v>1.45</v>
       </c>
       <c r="P4" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="Q4" t="n">
         <v>2.26</v>
@@ -985,7 +985,7 @@
         <v>1.89</v>
       </c>
       <c r="V4" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W4" t="n">
         <v>1.51</v>
@@ -1075,13 +1075,13 @@
         <v>1.75</v>
       </c>
       <c r="G5" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="H5" t="n">
         <v>4.7</v>
       </c>
       <c r="I5" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J5" t="n">
         <v>3.7</v>
@@ -1105,13 +1105,13 @@
         <v>1.81</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.33</v>
+        <v>1.54</v>
       </c>
       <c r="R5" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="S5" t="n">
-        <v>1.89</v>
+        <v>2.2</v>
       </c>
       <c r="T5" t="n">
         <v>1.04</v>
@@ -1120,10 +1120,10 @@
         <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W5" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="X5" t="n">
         <v>19.5</v>
@@ -1246,13 +1246,13 @@
         <v>1.61</v>
       </c>
       <c r="S6" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="T6" t="n">
         <v>1.55</v>
       </c>
       <c r="U6" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="V6" t="n">
         <v>1.61</v>
@@ -1276,7 +1276,7 @@
         <v>16.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
         <v>12.5</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="G7" t="n">
         <v>2</v>
@@ -1354,10 +1354,10 @@
         <v>4.6</v>
       </c>
       <c r="J7" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K7" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L7" t="n">
         <v>1.39</v>
@@ -1369,7 +1369,7 @@
         <v>4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P7" t="n">
         <v>2.04</v>
@@ -1384,10 +1384,10 @@
         <v>3.15</v>
       </c>
       <c r="T7" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U7" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V7" t="n">
         <v>1.28</v>
@@ -1429,7 +1429,7 @@
         <v>18.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ7" t="n">
         <v>24</v>
@@ -1543,7 +1543,7 @@
         <v>110</v>
       </c>
       <c r="AB8" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC8" t="n">
         <v>9.800000000000001</v>
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="G9" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="H9" t="n">
         <v>3.9</v>
@@ -1624,10 +1624,10 @@
         <v>4.2</v>
       </c>
       <c r="J9" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="K9" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L9" t="n">
         <v>1.32</v>
@@ -1651,19 +1651,19 @@
         <v>1.55</v>
       </c>
       <c r="S9" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="T9" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U9" t="n">
         <v>2.42</v>
       </c>
       <c r="V9" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W9" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X9" t="n">
         <v>26</v>
@@ -1675,7 +1675,7 @@
         <v>34</v>
       </c>
       <c r="AA9" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AB9" t="n">
         <v>12.5</v>
@@ -1747,94 +1747,94 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="G10" t="n">
-        <v>2.26</v>
+        <v>2.4</v>
       </c>
       <c r="H10" t="n">
-        <v>3.2</v>
+        <v>2.94</v>
       </c>
       <c r="I10" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K10" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L10" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P10" t="n">
         <v>2.68</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="R10" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="S10" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="T10" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="U10" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="V10" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="W10" t="n">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="X10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y10" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AA10" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AB10" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC10" t="n">
         <v>10.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AE10" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AF10" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AG10" t="n">
         <v>12</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ10" t="n">
         <v>32</v>
@@ -1843,16 +1843,16 @@
         <v>21</v>
       </c>
       <c r="AL10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM10" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AN10" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="11">
@@ -1888,16 +1888,16 @@
         <v>2.08</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I11" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J11" t="n">
         <v>3.8</v>
       </c>
-      <c r="J11" t="n">
-        <v>3.9</v>
-      </c>
       <c r="K11" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1930,7 +1930,7 @@
         <v>2.44</v>
       </c>
       <c r="V11" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W11" t="n">
         <v>1.92</v>
@@ -2059,10 +2059,10 @@
         <v>4</v>
       </c>
       <c r="T12" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="U12" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V12" t="n">
         <v>1.53</v>
@@ -2110,16 +2110,16 @@
         <v>60</v>
       </c>
       <c r="AK12" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AL12" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM12" t="n">
         <v>140</v>
       </c>
       <c r="AN12" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO12" t="n">
         <v>34</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="G13" t="n">
-        <v>2.66</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>2.92</v>
+        <v>2.6</v>
       </c>
       <c r="I13" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="J13" t="n">
-        <v>2.94</v>
+        <v>2.82</v>
       </c>
       <c r="K13" t="n">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="L13" t="n">
         <v>1.35</v>
@@ -2176,7 +2176,7 @@
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>1.61</v>
+        <v>2.78</v>
       </c>
       <c r="O13" t="n">
         <v>1.01</v>
@@ -2185,25 +2185,25 @@
         <v>1.61</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R13" t="n">
         <v>1.19</v>
       </c>
       <c r="S13" t="n">
-        <v>1.88</v>
+        <v>2.58</v>
       </c>
       <c r="T13" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U13" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V13" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="W13" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="G14" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H14" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="I14" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J14" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="K14" t="n">
         <v>1000</v>
@@ -2311,34 +2311,34 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>1.63</v>
+        <v>2.7</v>
       </c>
       <c r="O14" t="n">
         <v>1.01</v>
       </c>
       <c r="P14" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="R14" t="n">
         <v>1.2</v>
       </c>
       <c r="S14" t="n">
-        <v>1.9</v>
+        <v>2.62</v>
       </c>
       <c r="T14" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U14" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V14" t="n">
         <v>1.4</v>
       </c>
       <c r="W14" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.78</v>
+        <v>2.7</v>
       </c>
       <c r="G15" t="n">
         <v>2.96</v>
       </c>
       <c r="H15" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="I15" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J15" t="n">
         <v>3.1</v>
@@ -2476,7 +2476,7 @@
         <v>1.51</v>
       </c>
       <c r="X15" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y15" t="n">
         <v>12.5</v>
@@ -2485,13 +2485,13 @@
         <v>23</v>
       </c>
       <c r="AA15" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AB15" t="n">
         <v>12</v>
       </c>
       <c r="AC15" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD15" t="n">
         <v>14</v>
@@ -2518,13 +2518,13 @@
         <v>980</v>
       </c>
       <c r="AL15" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM15" t="n">
         <v>140</v>
       </c>
       <c r="AN15" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AO15" t="n">
         <v>44</v>
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="G16" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="H16" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="I16" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="J16" t="n">
         <v>3.65</v>
@@ -2581,16 +2581,16 @@
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O16" t="n">
         <v>1.24</v>
       </c>
       <c r="P16" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R16" t="n">
         <v>1.52</v>
@@ -2599,25 +2599,25 @@
         <v>2.8</v>
       </c>
       <c r="T16" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U16" t="n">
         <v>2.58</v>
       </c>
       <c r="V16" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="W16" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X16" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y16" t="n">
         <v>14</v>
       </c>
       <c r="Z16" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AA16" t="n">
         <v>38</v>
@@ -2644,7 +2644,7 @@
         <v>14</v>
       </c>
       <c r="AI16" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ16" t="n">
         <v>44</v>
@@ -2659,7 +2659,7 @@
         <v>65</v>
       </c>
       <c r="AN16" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AO16" t="n">
         <v>16.5</v>
@@ -2695,7 +2695,7 @@
         <v>2.72</v>
       </c>
       <c r="G17" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H17" t="n">
         <v>2.46</v>
@@ -2704,7 +2704,7 @@
         <v>2.78</v>
       </c>
       <c r="J17" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K17" t="n">
         <v>4.1</v>
@@ -2986,7 +2986,7 @@
         <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>1.7</v>
+        <v>2.38</v>
       </c>
       <c r="O19" t="n">
         <v>1.01</v>
@@ -3001,13 +3001,13 @@
         <v>1.18</v>
       </c>
       <c r="S19" t="n">
-        <v>2.06</v>
+        <v>2.66</v>
       </c>
       <c r="T19" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U19" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V19" t="n">
         <v>1.1</v>
@@ -3121,13 +3121,13 @@
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="O20" t="n">
         <v>1.01</v>
       </c>
       <c r="P20" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="Q20" t="n">
         <v>1.01</v>
@@ -3139,10 +3139,10 @@
         <v>1.34</v>
       </c>
       <c r="T20" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U20" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V20" t="n">
         <v>1.01</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="G21" t="n">
         <v>1.86</v>
@@ -3400,7 +3400,7 @@
         <v>2.22</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.48</v>
+        <v>1.19</v>
       </c>
       <c r="R22" t="n">
         <v>1.54</v>
@@ -3409,13 +3409,13 @@
         <v>2.18</v>
       </c>
       <c r="T22" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="U22" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V22" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="W22" t="n">
         <v>2.4</v>
@@ -3514,7 +3514,7 @@
         <v>4.9</v>
       </c>
       <c r="J23" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K23" t="n">
         <v>4.5</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="G24" t="n">
         <v>2.24</v>
@@ -3646,16 +3646,16 @@
         <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J24" t="n">
         <v>3.9</v>
       </c>
       <c r="K24" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L24" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="M24" t="n">
         <v>1.03</v>
@@ -3682,10 +3682,10 @@
         <v>1.54</v>
       </c>
       <c r="U24" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="V24" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W24" t="n">
         <v>1.81</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.97</v>
+        <v>1.88</v>
       </c>
       <c r="G25" t="n">
-        <v>2.18</v>
+        <v>3.5</v>
       </c>
       <c r="H25" t="n">
-        <v>2.76</v>
+        <v>2.54</v>
       </c>
       <c r="I25" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="J25" t="n">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="K25" t="n">
-        <v>950</v>
+        <v>980</v>
       </c>
       <c r="L25" t="n">
         <v>1.27</v>
@@ -3796,7 +3796,7 @@
         <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="O25" t="n">
         <v>1.26</v>
@@ -3805,7 +3805,7 @@
         <v>2.06</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="R25" t="n">
         <v>1.37</v>
@@ -3814,16 +3814,16 @@
         <v>2.62</v>
       </c>
       <c r="T25" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U25" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V25" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="W25" t="n">
-        <v>1.84</v>
+        <v>1.4</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
@@ -3931,7 +3931,7 @@
         <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O26" t="n">
         <v>1.21</v>
@@ -3940,7 +3940,7 @@
         <v>2.34</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R26" t="n">
         <v>1.48</v>
@@ -3952,7 +3952,7 @@
         <v>1.72</v>
       </c>
       <c r="U26" t="n">
-        <v>1.04</v>
+        <v>1.79</v>
       </c>
       <c r="V26" t="n">
         <v>1.12</v>
@@ -3976,7 +3976,7 @@
         <v>13.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AD26" t="n">
         <v>1000</v>
@@ -4051,13 +4051,13 @@
         <v>1.88</v>
       </c>
       <c r="I27" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="J27" t="n">
         <v>3.3</v>
       </c>
       <c r="K27" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L27" t="n">
         <v>1.42</v>
@@ -4177,16 +4177,16 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="G28" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H28" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="I28" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="J28" t="n">
         <v>3.5</v>
@@ -4198,52 +4198,52 @@
         <v>1.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N28" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O28" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="P28" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="R28" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S28" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="T28" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="U28" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="V28" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W28" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X28" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z28" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB28" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC28" t="n">
         <v>7.6</v>
@@ -4255,10 +4255,10 @@
         <v>26</v>
       </c>
       <c r="AF28" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AG28" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH28" t="n">
         <v>22</v>
@@ -4267,19 +4267,19 @@
         <v>48</v>
       </c>
       <c r="AJ28" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AK28" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL28" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AM28" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AN28" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AO28" t="n">
         <v>23</v>
@@ -4327,7 +4327,7 @@
         <v>3.4</v>
       </c>
       <c r="K29" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -4453,16 +4453,16 @@
         <v>2.64</v>
       </c>
       <c r="H30" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="I30" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J30" t="n">
         <v>3.4</v>
       </c>
       <c r="K30" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L30" t="n">
         <v>1.31</v>
@@ -4489,16 +4489,16 @@
         <v>3.1</v>
       </c>
       <c r="T30" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="U30" t="n">
         <v>2.22</v>
       </c>
       <c r="V30" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W30" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="X30" t="n">
         <v>19.5</v>
@@ -4582,10 +4582,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="G31" t="n">
-        <v>980</v>
+        <v>1.43</v>
       </c>
       <c r="H31" t="n">
         <v>9.199999999999999</v>
@@ -4597,7 +4597,7 @@
         <v>5.1</v>
       </c>
       <c r="K31" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
@@ -4606,7 +4606,7 @@
         <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>2.04</v>
+        <v>3.4</v>
       </c>
       <c r="O31" t="n">
         <v>1.22</v>
@@ -4624,10 +4624,10 @@
         <v>2.42</v>
       </c>
       <c r="T31" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U31" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V31" t="n">
         <v>1.01</v>
@@ -4720,16 +4720,16 @@
         <v>1.84</v>
       </c>
       <c r="G32" t="n">
-        <v>980</v>
+        <v>2.5</v>
       </c>
       <c r="H32" t="n">
         <v>3.55</v>
       </c>
       <c r="I32" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J32" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="K32" t="n">
         <v>5.7</v>
@@ -4741,13 +4741,13 @@
         <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>2.24</v>
+        <v>3</v>
       </c>
       <c r="O32" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="P32" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q32" t="n">
         <v>2</v>
@@ -4765,10 +4765,10 @@
         <v>1.04</v>
       </c>
       <c r="V32" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W32" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="X32" t="n">
         <v>1000</v>
@@ -4855,7 +4855,7 @@
         <v>1.98</v>
       </c>
       <c r="G33" t="n">
-        <v>980</v>
+        <v>2.62</v>
       </c>
       <c r="H33" t="n">
         <v>3.25</v>
@@ -4864,7 +4864,7 @@
         <v>5.2</v>
       </c>
       <c r="J33" t="n">
-        <v>2.8</v>
+        <v>2.96</v>
       </c>
       <c r="K33" t="n">
         <v>5.3</v>
@@ -4876,7 +4876,7 @@
         <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>1.53</v>
+        <v>1.1</v>
       </c>
       <c r="O33" t="n">
         <v>1.35</v>
@@ -4891,19 +4891,19 @@
         <v>1.18</v>
       </c>
       <c r="S33" t="n">
-        <v>1.01</v>
+        <v>3.2</v>
       </c>
       <c r="T33" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U33" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V33" t="n">
         <v>1.24</v>
       </c>
       <c r="W33" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="X33" t="n">
         <v>1000</v>
@@ -4987,10 +4987,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="G34" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="H34" t="n">
         <v>2.1</v>
@@ -4999,7 +4999,7 @@
         <v>2.34</v>
       </c>
       <c r="J34" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K34" t="n">
         <v>3.55</v>
@@ -5026,7 +5026,7 @@
         <v>1.23</v>
       </c>
       <c r="S34" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="T34" t="n">
         <v>1.96</v>
@@ -5035,7 +5035,7 @@
         <v>1.85</v>
       </c>
       <c r="V34" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="W34" t="n">
         <v>1.28</v>
@@ -5044,7 +5044,7 @@
         <v>12.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z34" t="n">
         <v>15.5</v>
@@ -5056,7 +5056,7 @@
         <v>14.5</v>
       </c>
       <c r="AC34" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD34" t="n">
         <v>13.5</v>
@@ -5122,19 +5122,19 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G35" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="H35" t="n">
         <v>2.92</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="J35" t="n">
-        <v>2.76</v>
+        <v>2.94</v>
       </c>
       <c r="K35" t="n">
         <v>4.1</v>
@@ -5155,22 +5155,22 @@
         <v>1.62</v>
       </c>
       <c r="Q35" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="R35" t="n">
         <v>1.23</v>
       </c>
       <c r="S35" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="T35" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U35" t="n">
         <v>1.88</v>
       </c>
       <c r="V35" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W35" t="n">
         <v>1.54</v>
@@ -5191,7 +5191,7 @@
         <v>1000</v>
       </c>
       <c r="AC35" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD35" t="n">
         <v>1000</v>
@@ -5290,7 +5290,7 @@
         <v>1.78</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R36" t="n">
         <v>1.3</v>
@@ -5392,22 +5392,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G37" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="H37" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I37" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J37" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K37" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
@@ -5416,7 +5416,7 @@
         <v>1.09</v>
       </c>
       <c r="N37" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="O37" t="n">
         <v>1.42</v>
@@ -5425,28 +5425,28 @@
         <v>1.72</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="R37" t="n">
         <v>1.27</v>
       </c>
       <c r="S37" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T37" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="U37" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="V37" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W37" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X37" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y37" t="n">
         <v>12</v>
@@ -5527,22 +5527,22 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="G38" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H38" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I38" t="n">
         <v>11</v>
       </c>
       <c r="J38" t="n">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="K38" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="L38" t="n">
         <v>1.47</v>
@@ -5551,28 +5551,28 @@
         <v>1.1</v>
       </c>
       <c r="N38" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="O38" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P38" t="n">
         <v>1.51</v>
       </c>
-      <c r="P38" t="n">
-        <v>1.48</v>
-      </c>
       <c r="Q38" t="n">
-        <v>2.38</v>
+        <v>2.58</v>
       </c>
       <c r="R38" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="S38" t="n">
         <v>4.8</v>
       </c>
       <c r="T38" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="U38" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="V38" t="n">
         <v>1.1</v>
@@ -5605,7 +5605,7 @@
         <v>1000</v>
       </c>
       <c r="AF38" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AG38" t="n">
         <v>1000</v>
@@ -5662,25 +5662,25 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="G39" t="n">
         <v>3.2</v>
       </c>
       <c r="H39" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I39" t="n">
         <v>3.05</v>
       </c>
       <c r="J39" t="n">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="K39" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L39" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="M39" t="n">
         <v>1.13</v>
@@ -5689,13 +5689,13 @@
         <v>2.54</v>
       </c>
       <c r="O39" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="P39" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="R39" t="n">
         <v>1.18</v>
@@ -5707,7 +5707,7 @@
         <v>2.16</v>
       </c>
       <c r="U39" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="V39" t="n">
         <v>1.49</v>
@@ -5758,7 +5758,7 @@
         <v>980</v>
       </c>
       <c r="AL39" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM39" t="n">
         <v>240</v>
@@ -5797,28 +5797,28 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="H40" t="n">
-        <v>2.86</v>
+        <v>2.94</v>
       </c>
       <c r="I40" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J40" t="n">
         <v>3.05</v>
       </c>
       <c r="K40" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L40" t="n">
         <v>1.01</v>
       </c>
       <c r="M40" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N40" t="n">
         <v>2.8</v>
@@ -5830,7 +5830,7 @@
         <v>1.61</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="R40" t="n">
         <v>1.22</v>
@@ -5839,19 +5839,19 @@
         <v>4.9</v>
       </c>
       <c r="T40" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U40" t="n">
         <v>1.89</v>
       </c>
       <c r="V40" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="W40" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X40" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Y40" t="n">
         <v>9.199999999999999</v>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="G41" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="H41" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="I41" t="n">
-        <v>980</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J41" t="n">
-        <v>2.38</v>
+        <v>3.75</v>
       </c>
       <c r="K41" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -5962,10 +5962,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>1.76</v>
+        <v>1.25</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.9</v>
+        <v>1.01</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -6067,10 +6067,10 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="G42" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="H42" t="n">
         <v>4.4</v>
@@ -6097,22 +6097,22 @@
         <v>1.32</v>
       </c>
       <c r="P42" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R42" t="n">
         <v>1.37</v>
       </c>
       <c r="S42" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T42" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U42" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V42" t="n">
         <v>1.27</v>
@@ -6127,19 +6127,19 @@
         <v>19.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AA42" t="n">
         <v>130</v>
       </c>
       <c r="AB42" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC42" t="n">
         <v>10</v>
       </c>
       <c r="AD42" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE42" t="n">
         <v>65</v>
@@ -6151,19 +6151,19 @@
         <v>11</v>
       </c>
       <c r="AH42" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI42" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AJ42" t="n">
         <v>23</v>
       </c>
       <c r="AK42" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AL42" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AM42" t="n">
         <v>130</v>
@@ -6205,13 +6205,13 @@
         <v>2.12</v>
       </c>
       <c r="G43" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="H43" t="n">
         <v>4.1</v>
       </c>
       <c r="I43" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J43" t="n">
         <v>3.2</v>
@@ -6226,7 +6226,7 @@
         <v>1.1</v>
       </c>
       <c r="N43" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="O43" t="n">
         <v>1.49</v>
@@ -6235,7 +6235,7 @@
         <v>1.62</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="R43" t="n">
         <v>1.22</v>
@@ -6247,13 +6247,13 @@
         <v>2.06</v>
       </c>
       <c r="U43" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="V43" t="n">
         <v>1.29</v>
       </c>
       <c r="W43" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="X43" t="n">
         <v>10.5</v>
@@ -6268,16 +6268,16 @@
         <v>130</v>
       </c>
       <c r="AB43" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AC43" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AD43" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE43" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AF43" t="n">
         <v>13</v>
@@ -6286,19 +6286,19 @@
         <v>12</v>
       </c>
       <c r="AH43" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AI43" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AJ43" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AK43" t="n">
         <v>34</v>
       </c>
       <c r="AL43" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM43" t="n">
         <v>210</v>
@@ -6337,37 +6337,37 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="G44" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="H44" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I44" t="n">
         <v>6.2</v>
       </c>
       <c r="J44" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K44" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L44" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M44" t="n">
         <v>1.07</v>
       </c>
       <c r="N44" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O44" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P44" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q44" t="n">
         <v>1.95</v>
@@ -6379,13 +6379,13 @@
         <v>3.4</v>
       </c>
       <c r="T44" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U44" t="n">
         <v>1.94</v>
       </c>
       <c r="V44" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W44" t="n">
         <v>2.28</v>
@@ -6403,10 +6403,10 @@
         <v>1000</v>
       </c>
       <c r="AB44" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC44" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD44" t="n">
         <v>27</v>
@@ -6415,7 +6415,7 @@
         <v>1000</v>
       </c>
       <c r="AF44" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG44" t="n">
         <v>10.5</v>
@@ -6472,58 +6472,58 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.02</v>
+        <v>1.89</v>
       </c>
       <c r="G45" t="n">
-        <v>1000</v>
+        <v>2.62</v>
       </c>
       <c r="H45" t="n">
-        <v>1.02</v>
+        <v>3.15</v>
       </c>
       <c r="I45" t="n">
-        <v>1000</v>
+        <v>5.3</v>
       </c>
       <c r="J45" t="n">
-        <v>1.02</v>
+        <v>2.96</v>
       </c>
       <c r="K45" t="n">
-        <v>950</v>
+        <v>6.6</v>
       </c>
       <c r="L45" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M45" t="n">
         <v>1.01</v>
       </c>
       <c r="N45" t="n">
-        <v>1.28</v>
+        <v>2.58</v>
       </c>
       <c r="O45" t="n">
         <v>1.01</v>
       </c>
       <c r="P45" t="n">
-        <v>1.28</v>
+        <v>1.67</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.01</v>
+        <v>1.91</v>
       </c>
       <c r="R45" t="n">
         <v>1.18</v>
       </c>
       <c r="S45" t="n">
-        <v>1.01</v>
+        <v>2.6</v>
       </c>
       <c r="T45" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U45" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V45" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="W45" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="X45" t="n">
         <v>1000</v>
@@ -6610,16 +6610,16 @@
         <v>7.8</v>
       </c>
       <c r="G46" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H46" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="I46" t="n">
         <v>1.43</v>
       </c>
-      <c r="I46" t="n">
-        <v>1.44</v>
-      </c>
       <c r="J46" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="K46" t="n">
         <v>5.7</v>
@@ -6637,7 +6637,7 @@
         <v>1.23</v>
       </c>
       <c r="P46" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q46" t="n">
         <v>1.67</v>
@@ -6646,7 +6646,7 @@
         <v>1.53</v>
       </c>
       <c r="S46" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="T46" t="n">
         <v>1.93</v>
@@ -6655,13 +6655,13 @@
         <v>1.96</v>
       </c>
       <c r="V46" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="W46" t="n">
         <v>1.13</v>
       </c>
       <c r="X46" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Y46" t="n">
         <v>11.5</v>
@@ -6688,7 +6688,7 @@
         <v>75</v>
       </c>
       <c r="AG46" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AH46" t="n">
         <v>25</v>
@@ -6706,7 +6706,7 @@
         <v>120</v>
       </c>
       <c r="AM46" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN46" t="n">
         <v>140</v>
@@ -6745,43 +6745,43 @@
         <v>2.4</v>
       </c>
       <c r="G47" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="H47" t="n">
-        <v>2.56</v>
+        <v>2.44</v>
       </c>
       <c r="I47" t="n">
         <v>3.55</v>
       </c>
       <c r="J47" t="n">
-        <v>2.84</v>
+        <v>2.74</v>
       </c>
       <c r="K47" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="L47" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="M47" t="n">
         <v>1.01</v>
       </c>
       <c r="N47" t="n">
-        <v>2.76</v>
+        <v>3.2</v>
       </c>
       <c r="O47" t="n">
         <v>1.3</v>
       </c>
       <c r="P47" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="R47" t="n">
         <v>1.25</v>
       </c>
       <c r="S47" t="n">
-        <v>2.64</v>
+        <v>3.25</v>
       </c>
       <c r="T47" t="n">
         <v>1.01</v>
@@ -6793,7 +6793,7 @@
         <v>1.39</v>
       </c>
       <c r="W47" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X47" t="n">
         <v>1000</v>
@@ -6877,16 +6877,16 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G48" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="H48" t="n">
         <v>3.25</v>
       </c>
       <c r="I48" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J48" t="n">
         <v>3.45</v>
@@ -6910,7 +6910,7 @@
         <v>1.9</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R48" t="n">
         <v>1.35</v>
@@ -6919,7 +6919,7 @@
         <v>3.75</v>
       </c>
       <c r="T48" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U48" t="n">
         <v>2.16</v>
@@ -6931,13 +6931,13 @@
         <v>1.67</v>
       </c>
       <c r="X48" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y48" t="n">
         <v>12.5</v>
       </c>
       <c r="Z48" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA48" t="n">
         <v>60</v>
@@ -7015,16 +7015,16 @@
         <v>1.94</v>
       </c>
       <c r="G49" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="H49" t="n">
         <v>2.88</v>
       </c>
       <c r="I49" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J49" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="K49" t="n">
         <v>7.4</v>
@@ -7042,7 +7042,7 @@
         <v>1.23</v>
       </c>
       <c r="P49" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="Q49" t="n">
         <v>1.59</v>
@@ -7060,10 +7060,10 @@
         <v>1.04</v>
       </c>
       <c r="V49" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W49" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="X49" t="n">
         <v>1000</v>
@@ -7282,22 +7282,22 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="G51" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="H51" t="n">
         <v>4.7</v>
       </c>
       <c r="I51" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J51" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K51" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L51" t="n">
         <v>1.01</v>
@@ -7306,13 +7306,13 @@
         <v>1.04</v>
       </c>
       <c r="N51" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O51" t="n">
         <v>1.23</v>
       </c>
       <c r="P51" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q51" t="n">
         <v>1.68</v>
@@ -7324,7 +7324,7 @@
         <v>2.7</v>
       </c>
       <c r="T51" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U51" t="n">
         <v>2.16</v>
@@ -7333,7 +7333,7 @@
         <v>1.21</v>
       </c>
       <c r="W51" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="X51" t="n">
         <v>25</v>
@@ -7420,13 +7420,13 @@
         <v>2.36</v>
       </c>
       <c r="G52" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H52" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I52" t="n">
         <v>3.3</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3.35</v>
       </c>
       <c r="J52" t="n">
         <v>3.65</v>
@@ -7453,7 +7453,7 @@
         <v>1.82</v>
       </c>
       <c r="R52" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S52" t="n">
         <v>3.05</v>
@@ -7468,7 +7468,7 @@
         <v>1.43</v>
       </c>
       <c r="W52" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X52" t="n">
         <v>17.5</v>
@@ -7477,7 +7477,7 @@
         <v>15</v>
       </c>
       <c r="Z52" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA52" t="n">
         <v>55</v>
@@ -7552,25 +7552,25 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="G53" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H53" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="I53" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="J53" t="n">
         <v>3.65</v>
       </c>
       <c r="K53" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L53" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M53" t="n">
         <v>1.05</v>
@@ -7579,31 +7579,31 @@
         <v>5</v>
       </c>
       <c r="O53" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P53" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R53" t="n">
         <v>1.53</v>
       </c>
       <c r="S53" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T53" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U53" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="V53" t="n">
         <v>1.6</v>
       </c>
-      <c r="U53" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="V53" t="n">
-        <v>1.58</v>
-      </c>
       <c r="W53" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="X53" t="n">
         <v>18.5</v>
@@ -7612,10 +7612,10 @@
         <v>14.5</v>
       </c>
       <c r="Z53" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA53" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB53" t="n">
         <v>15</v>
@@ -7627,7 +7627,7 @@
         <v>12.5</v>
       </c>
       <c r="AE53" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF53" t="n">
         <v>21</v>
@@ -7636,13 +7636,13 @@
         <v>12.5</v>
       </c>
       <c r="AH53" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AI53" t="n">
         <v>34</v>
       </c>
       <c r="AJ53" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AK53" t="n">
         <v>28</v>
@@ -7654,7 +7654,7 @@
         <v>65</v>
       </c>
       <c r="AN53" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AO53" t="n">
         <v>17</v>
@@ -7693,16 +7693,16 @@
         <v>2.12</v>
       </c>
       <c r="H54" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I54" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J54" t="n">
         <v>4</v>
       </c>
       <c r="K54" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L54" t="n">
         <v>1.26</v>
@@ -7714,25 +7714,25 @@
         <v>6.4</v>
       </c>
       <c r="O54" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P54" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="R54" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="S54" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="T54" t="n">
         <v>1.5</v>
       </c>
       <c r="U54" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="V54" t="n">
         <v>1.38</v>
@@ -7744,7 +7744,7 @@
         <v>26</v>
       </c>
       <c r="Y54" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z54" t="n">
         <v>32</v>
@@ -7756,10 +7756,10 @@
         <v>16</v>
       </c>
       <c r="AC54" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD54" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AE54" t="n">
         <v>34</v>
@@ -7789,7 +7789,7 @@
         <v>48</v>
       </c>
       <c r="AN54" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO54" t="n">
         <v>21</v>
@@ -7828,13 +7828,13 @@
         <v>2.62</v>
       </c>
       <c r="H55" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I55" t="n">
         <v>2.92</v>
       </c>
-      <c r="I55" t="n">
-        <v>2.94</v>
-      </c>
       <c r="J55" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K55" t="n">
         <v>3.7</v>
@@ -7849,7 +7849,7 @@
         <v>4.2</v>
       </c>
       <c r="O55" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P55" t="n">
         <v>2.08</v>
@@ -7861,7 +7861,7 @@
         <v>1.43</v>
       </c>
       <c r="S55" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T55" t="n">
         <v>1.7</v>
@@ -7870,7 +7870,7 @@
         <v>2.38</v>
       </c>
       <c r="V55" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="W55" t="n">
         <v>1.61</v>
@@ -7918,13 +7918,13 @@
         <v>26</v>
       </c>
       <c r="AL55" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM55" t="n">
         <v>80</v>
       </c>
       <c r="AN55" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO55" t="n">
         <v>24</v>
@@ -7957,58 +7957,58 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="G56" t="n">
-        <v>2.7</v>
+        <v>2.42</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="I56" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="J56" t="n">
         <v>3</v>
       </c>
       <c r="K56" t="n">
-        <v>4.6</v>
+        <v>3.95</v>
       </c>
       <c r="L56" t="n">
         <v>1.31</v>
       </c>
       <c r="M56" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N56" t="n">
-        <v>1.76</v>
+        <v>3.6</v>
       </c>
       <c r="O56" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="P56" t="n">
-        <v>1.76</v>
+        <v>1.9</v>
       </c>
       <c r="Q56" t="n">
         <v>1.87</v>
       </c>
       <c r="R56" t="n">
-        <v>1.09</v>
+        <v>1.35</v>
       </c>
       <c r="S56" t="n">
-        <v>1.87</v>
+        <v>3.2</v>
       </c>
       <c r="T56" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="U56" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="V56" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="W56" t="n">
-        <v>1.59</v>
+        <v>1.71</v>
       </c>
       <c r="X56" t="n">
         <v>1000</v>
@@ -8107,7 +8107,7 @@
         <v>3.3</v>
       </c>
       <c r="K57" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L57" t="n">
         <v>1.34</v>
@@ -8131,7 +8131,7 @@
         <v>1.3</v>
       </c>
       <c r="S57" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="T57" t="n">
         <v>1.76</v>
@@ -8155,13 +8155,13 @@
         <v>970</v>
       </c>
       <c r="AA57" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AB57" t="n">
         <v>970</v>
       </c>
       <c r="AC57" t="n">
-        <v>9.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="AD57" t="n">
         <v>970</v>
@@ -8170,7 +8170,7 @@
         <v>34</v>
       </c>
       <c r="AF57" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AG57" t="n">
         <v>970</v>
@@ -8227,22 +8227,22 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="G58" t="n">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="H58" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="I58" t="n">
-        <v>8.800000000000001</v>
+        <v>7</v>
       </c>
       <c r="J58" t="n">
         <v>4.4</v>
       </c>
       <c r="K58" t="n">
-        <v>7.2</v>
+        <v>5.5</v>
       </c>
       <c r="L58" t="n">
         <v>1.01</v>
@@ -8254,7 +8254,7 @@
         <v>4.8</v>
       </c>
       <c r="O58" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P58" t="n">
         <v>2.28</v>
@@ -8266,19 +8266,19 @@
         <v>1.51</v>
       </c>
       <c r="S58" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="T58" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="U58" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V58" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W58" t="n">
-        <v>2.82</v>
+        <v>2.56</v>
       </c>
       <c r="X58" t="n">
         <v>1000</v>
@@ -8323,7 +8323,7 @@
         <v>970</v>
       </c>
       <c r="AL58" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM58" t="n">
         <v>1000</v>
@@ -8362,16 +8362,16 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="G59" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="H59" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="I59" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="J59" t="n">
         <v>3.7</v>
@@ -8407,13 +8407,13 @@
         <v>1.6</v>
       </c>
       <c r="U59" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V59" t="n">
         <v>1.23</v>
       </c>
       <c r="W59" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X59" t="n">
         <v>1000</v>
@@ -8497,46 +8497,46 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="G60" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="H60" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="I60" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="J60" t="n">
         <v>3.5</v>
       </c>
       <c r="K60" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="L60" t="n">
         <v>1.01</v>
       </c>
       <c r="M60" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N60" t="n">
         <v>3.9</v>
       </c>
       <c r="O60" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P60" t="n">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="R60" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="S60" t="n">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="T60" t="n">
         <v>1.66</v>
@@ -8545,16 +8545,16 @@
         <v>2.16</v>
       </c>
       <c r="V60" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W60" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="X60" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="Y60" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="Z60" t="n">
         <v>1000</v>
@@ -8563,34 +8563,34 @@
         <v>1000</v>
       </c>
       <c r="AB60" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AC60" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AD60" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AE60" t="n">
         <v>1000</v>
       </c>
       <c r="AF60" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AG60" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AH60" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AI60" t="n">
         <v>1000</v>
       </c>
       <c r="AJ60" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AK60" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AL60" t="n">
         <v>1000</v>
@@ -8635,19 +8635,19 @@
         <v>2.2</v>
       </c>
       <c r="G61" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="H61" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="I61" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J61" t="n">
         <v>3.3</v>
       </c>
       <c r="K61" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L61" t="n">
         <v>1.28</v>
@@ -8674,16 +8674,16 @@
         <v>2.96</v>
       </c>
       <c r="T61" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U61" t="n">
         <v>2.16</v>
       </c>
       <c r="V61" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="W61" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X61" t="n">
         <v>1000</v>
@@ -8776,7 +8776,7 @@
         <v>2.9</v>
       </c>
       <c r="I62" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J62" t="n">
         <v>3.3</v>
@@ -8785,37 +8785,37 @@
         <v>3.6</v>
       </c>
       <c r="L62" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="M62" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N62" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="O62" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="P62" t="n">
-        <v>1.42</v>
+        <v>1.85</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="R62" t="n">
         <v>1.32</v>
       </c>
       <c r="S62" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="T62" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U62" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="V62" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="W62" t="n">
         <v>1.54</v>
@@ -8836,16 +8836,16 @@
         <v>13</v>
       </c>
       <c r="AC62" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD62" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE62" t="n">
         <v>42</v>
       </c>
       <c r="AF62" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG62" t="n">
         <v>15</v>
@@ -8860,7 +8860,7 @@
         <v>55</v>
       </c>
       <c r="AK62" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AL62" t="n">
         <v>55</v>
@@ -8902,19 +8902,19 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="G63" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="H63" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="I63" t="n">
         <v>8</v>
       </c>
       <c r="J63" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="K63" t="n">
         <v>5.1</v>
@@ -8932,19 +8932,19 @@
         <v>1.26</v>
       </c>
       <c r="P63" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="R63" t="n">
         <v>1.43</v>
       </c>
       <c r="S63" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="T63" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="U63" t="n">
         <v>1.91</v>
@@ -8953,16 +8953,16 @@
         <v>1.14</v>
       </c>
       <c r="W63" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="X63" t="n">
         <v>18.5</v>
       </c>
       <c r="Y63" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z63" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AA63" t="n">
         <v>300</v>
@@ -8974,7 +8974,7 @@
         <v>13</v>
       </c>
       <c r="AD63" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE63" t="n">
         <v>140</v>
@@ -8986,7 +8986,7 @@
         <v>11</v>
       </c>
       <c r="AH63" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI63" t="n">
         <v>130</v>
@@ -9004,7 +9004,7 @@
         <v>160</v>
       </c>
       <c r="AN63" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AO63" t="n">
         <v>1000</v>
@@ -9037,19 +9037,19 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="G64" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H64" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I64" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="J64" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K64" t="n">
         <v>3.9</v>
@@ -9079,16 +9079,16 @@
         <v>3.25</v>
       </c>
       <c r="T64" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="U64" t="n">
         <v>2.08</v>
       </c>
       <c r="V64" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W64" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X64" t="n">
         <v>18.5</v>
@@ -9172,16 +9172,16 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="G65" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="H65" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="I65" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="J65" t="n">
         <v>3.6</v>
@@ -9196,16 +9196,16 @@
         <v>1.06</v>
       </c>
       <c r="N65" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O65" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P65" t="n">
         <v>2</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="R65" t="n">
         <v>1.39</v>
@@ -9220,10 +9220,10 @@
         <v>2.18</v>
       </c>
       <c r="V65" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="W65" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X65" t="n">
         <v>19</v>
@@ -9250,25 +9250,25 @@
         <v>23</v>
       </c>
       <c r="AF65" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG65" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH65" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI65" t="n">
         <v>36</v>
       </c>
       <c r="AJ65" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK65" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AL65" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM65" t="n">
         <v>110</v>
@@ -9307,16 +9307,16 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="G66" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="H66" t="n">
         <v>2.58</v>
       </c>
       <c r="I66" t="n">
-        <v>2.9</v>
+        <v>2.76</v>
       </c>
       <c r="J66" t="n">
         <v>3.35</v>
@@ -9328,25 +9328,25 @@
         <v>1.29</v>
       </c>
       <c r="M66" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N66" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="O66" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="P66" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="Q66" t="n">
         <v>1.8</v>
       </c>
       <c r="R66" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S66" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="T66" t="n">
         <v>1.04</v>
@@ -9355,55 +9355,55 @@
         <v>1.04</v>
       </c>
       <c r="V66" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W66" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X66" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Y66" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z66" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AA66" t="n">
         <v>1000</v>
       </c>
       <c r="AB66" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AC66" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD66" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE66" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF66" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AG66" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AH66" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI66" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ66" t="n">
         <v>1000</v>
       </c>
       <c r="AK66" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL66" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM66" t="n">
         <v>1000</v>
@@ -9466,7 +9466,7 @@
         <v>1.05</v>
       </c>
       <c r="N67" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="O67" t="n">
         <v>1.25</v>
@@ -9481,7 +9481,7 @@
         <v>1.43</v>
       </c>
       <c r="S67" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="T67" t="n">
         <v>1.58</v>
@@ -9508,19 +9508,19 @@
         <v>95</v>
       </c>
       <c r="AB67" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AC67" t="n">
         <v>11.5</v>
       </c>
       <c r="AD67" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE67" t="n">
         <v>980</v>
       </c>
       <c r="AF67" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG67" t="n">
         <v>13</v>
@@ -9544,7 +9544,7 @@
         <v>110</v>
       </c>
       <c r="AN67" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO67" t="n">
         <v>980</v>
@@ -9586,7 +9586,7 @@
         <v>1.83</v>
       </c>
       <c r="I68" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="J68" t="n">
         <v>3.25</v>
@@ -9712,22 +9712,22 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="G69" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="H69" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="I69" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="J69" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K69" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L69" t="n">
         <v>1.33</v>
@@ -9742,10 +9742,10 @@
         <v>1.32</v>
       </c>
       <c r="P69" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R69" t="n">
         <v>1.33</v>
@@ -9754,61 +9754,61 @@
         <v>3.4</v>
       </c>
       <c r="T69" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="U69" t="n">
-        <v>1.94</v>
+        <v>2.08</v>
       </c>
       <c r="V69" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W69" t="n">
         <v>1.54</v>
       </c>
       <c r="X69" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Y69" t="n">
         <v>1000</v>
       </c>
       <c r="Z69" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA69" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AB69" t="n">
         <v>1000</v>
       </c>
       <c r="AC69" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD69" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE69" t="n">
         <v>1000</v>
       </c>
       <c r="AF69" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG69" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH69" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI69" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AJ69" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AK69" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AL69" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AM69" t="n">
         <v>1000</v>
@@ -9847,34 +9847,34 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
       </c>
       <c r="H70" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I70" t="n">
         <v>4.7</v>
       </c>
       <c r="J70" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="K70" t="n">
         <v>3.85</v>
       </c>
       <c r="L70" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M70" t="n">
         <v>1.07</v>
       </c>
       <c r="N70" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O70" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P70" t="n">
         <v>1.93</v>
@@ -9883,16 +9883,16 @@
         <v>1.96</v>
       </c>
       <c r="R70" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S70" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T70" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U70" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V70" t="n">
         <v>1.27</v>
@@ -9904,7 +9904,7 @@
         <v>17</v>
       </c>
       <c r="Y70" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z70" t="n">
         <v>40</v>
@@ -9985,7 +9985,7 @@
         <v>1.37</v>
       </c>
       <c r="G71" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="H71" t="n">
         <v>9.199999999999999</v>
@@ -9997,7 +9997,7 @@
         <v>4.9</v>
       </c>
       <c r="K71" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L71" t="n">
         <v>1.31</v>
@@ -10051,7 +10051,7 @@
         <v>9.6</v>
       </c>
       <c r="AC71" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD71" t="n">
         <v>42</v>
@@ -10063,7 +10063,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AG71" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH71" t="n">
         <v>32</v>
@@ -10072,7 +10072,7 @@
         <v>1000</v>
       </c>
       <c r="AJ71" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AK71" t="n">
         <v>18.5</v>
@@ -10117,22 +10117,22 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="G72" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="H72" t="n">
         <v>4.1</v>
       </c>
       <c r="I72" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="J72" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K72" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="L72" t="n">
         <v>1.41</v>
@@ -10141,22 +10141,22 @@
         <v>1.08</v>
       </c>
       <c r="N72" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="O72" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P72" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="R72" t="n">
         <v>1.24</v>
       </c>
       <c r="S72" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T72" t="n">
         <v>1.94</v>
@@ -10168,7 +10168,7 @@
         <v>1.29</v>
       </c>
       <c r="W72" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="X72" t="n">
         <v>13</v>
@@ -10189,7 +10189,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD72" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AE72" t="n">
         <v>1000</v>
@@ -10258,7 +10258,7 @@
         <v>2.9</v>
       </c>
       <c r="H73" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I73" t="n">
         <v>3.3</v>
@@ -10267,34 +10267,34 @@
         <v>3.05</v>
       </c>
       <c r="K73" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L73" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M73" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N73" t="n">
         <v>2.92</v>
       </c>
       <c r="O73" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P73" t="n">
         <v>1.65</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="R73" t="n">
         <v>1.24</v>
       </c>
       <c r="S73" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T73" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U73" t="n">
         <v>1.92</v>
@@ -10303,7 +10303,7 @@
         <v>1.44</v>
       </c>
       <c r="W73" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X73" t="n">
         <v>13</v>
@@ -10348,7 +10348,7 @@
         <v>42</v>
       </c>
       <c r="AL73" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM73" t="n">
         <v>1000</v>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="G74" t="n">
         <v>2.34</v>
@@ -10402,7 +10402,7 @@
         <v>3.4</v>
       </c>
       <c r="K74" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="L74" t="n">
         <v>1.32</v>
@@ -10411,7 +10411,7 @@
         <v>1.06</v>
       </c>
       <c r="N74" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O74" t="n">
         <v>1.3</v>
@@ -10420,7 +10420,7 @@
         <v>1.96</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R74" t="n">
         <v>1.36</v>
@@ -10432,7 +10432,7 @@
         <v>1.72</v>
       </c>
       <c r="U74" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V74" t="n">
         <v>1.37</v>
@@ -10444,7 +10444,7 @@
         <v>18</v>
       </c>
       <c r="Y74" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z74" t="n">
         <v>27</v>
@@ -10522,7 +10522,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G75" t="n">
         <v>2.48</v>
@@ -10531,40 +10531,40 @@
         <v>3.7</v>
       </c>
       <c r="I75" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J75" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K75" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L75" t="n">
         <v>1.01</v>
       </c>
       <c r="M75" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N75" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="O75" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="P75" t="n">
         <v>1.49</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="R75" t="n">
         <v>1.18</v>
       </c>
       <c r="S75" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="T75" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="U75" t="n">
         <v>1.71</v>
@@ -10579,7 +10579,7 @@
         <v>8.4</v>
       </c>
       <c r="Y75" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z75" t="n">
         <v>32</v>
@@ -10594,7 +10594,7 @@
         <v>8.6</v>
       </c>
       <c r="AD75" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE75" t="n">
         <v>85</v>
@@ -10663,10 +10663,10 @@
         <v>1.7</v>
       </c>
       <c r="H76" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="I76" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J76" t="n">
         <v>4.2</v>
@@ -10675,73 +10675,73 @@
         <v>4.3</v>
       </c>
       <c r="L76" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M76" t="n">
         <v>1.06</v>
       </c>
       <c r="N76" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O76" t="n">
         <v>1.29</v>
       </c>
       <c r="P76" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="R76" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="S76" t="n">
         <v>3.2</v>
       </c>
       <c r="T76" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U76" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V76" t="n">
         <v>1.2</v>
       </c>
       <c r="W76" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="X76" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y76" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z76" t="n">
         <v>44</v>
       </c>
       <c r="AA76" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AB76" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC76" t="n">
         <v>9</v>
       </c>
       <c r="AD76" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE76" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AF76" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AG76" t="n">
         <v>9.6</v>
       </c>
       <c r="AH76" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI76" t="n">
         <v>75</v>
@@ -10750,19 +10750,19 @@
         <v>16.5</v>
       </c>
       <c r="AK76" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AL76" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM76" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN76" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AO76" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77">
@@ -10792,16 +10792,16 @@
         </is>
       </c>
       <c r="F77" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G77" t="n">
         <v>3.8</v>
       </c>
-      <c r="G77" t="n">
-        <v>3.85</v>
-      </c>
       <c r="H77" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="I77" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="J77" t="n">
         <v>3.65</v>
@@ -10816,16 +10816,16 @@
         <v>1.08</v>
       </c>
       <c r="N77" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="O77" t="n">
         <v>1.35</v>
       </c>
       <c r="P77" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R77" t="n">
         <v>1.35</v>
@@ -10834,13 +10834,13 @@
         <v>3.7</v>
       </c>
       <c r="T77" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U77" t="n">
         <v>2.12</v>
       </c>
       <c r="V77" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="W77" t="n">
         <v>1.35</v>
@@ -10849,7 +10849,7 @@
         <v>13</v>
       </c>
       <c r="Y77" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z77" t="n">
         <v>12.5</v>
@@ -10858,7 +10858,7 @@
         <v>26</v>
       </c>
       <c r="AB77" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC77" t="n">
         <v>7.8</v>
@@ -10870,10 +10870,10 @@
         <v>23</v>
       </c>
       <c r="AF77" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG77" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH77" t="n">
         <v>18.5</v>
@@ -10885,7 +10885,7 @@
         <v>75</v>
       </c>
       <c r="AK77" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AL77" t="n">
         <v>60</v>
@@ -10927,22 +10927,22 @@
         </is>
       </c>
       <c r="F78" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G78" t="n">
         <v>1.53</v>
       </c>
-      <c r="G78" t="n">
-        <v>1.54</v>
-      </c>
       <c r="H78" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="I78" t="n">
         <v>7.6</v>
       </c>
       <c r="J78" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K78" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L78" t="n">
         <v>1.32</v>
@@ -10957,31 +10957,31 @@
         <v>1.24</v>
       </c>
       <c r="P78" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="R78" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S78" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="T78" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U78" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V78" t="n">
         <v>1.15</v>
       </c>
       <c r="W78" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="X78" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y78" t="n">
         <v>27</v>
@@ -10990,10 +10990,10 @@
         <v>65</v>
       </c>
       <c r="AA78" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AB78" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC78" t="n">
         <v>10.5</v>
@@ -11011,7 +11011,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH78" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI78" t="n">
         <v>90</v>
@@ -11029,7 +11029,7 @@
         <v>110</v>
       </c>
       <c r="AN78" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AO78" t="n">
         <v>100</v>
@@ -11068,16 +11068,16 @@
         <v>1.24</v>
       </c>
       <c r="H79" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="I79" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="J79" t="n">
+        <v>8</v>
+      </c>
+      <c r="K79" t="n">
         <v>8.4</v>
-      </c>
-      <c r="K79" t="n">
-        <v>8.6</v>
       </c>
       <c r="L79" t="n">
         <v>1.21</v>
@@ -11086,34 +11086,34 @@
         <v>1.02</v>
       </c>
       <c r="N79" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="O79" t="n">
         <v>1.12</v>
       </c>
       <c r="P79" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="Q79" t="n">
         <v>1.38</v>
       </c>
       <c r="R79" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="S79" t="n">
         <v>1.97</v>
       </c>
       <c r="T79" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U79" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V79" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W79" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="X79" t="n">
         <v>44</v>
@@ -11128,10 +11128,10 @@
         <v>550</v>
       </c>
       <c r="AB79" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC79" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AD79" t="n">
         <v>55</v>
@@ -11140,22 +11140,22 @@
         <v>170</v>
       </c>
       <c r="AF79" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG79" t="n">
         <v>12</v>
       </c>
       <c r="AH79" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI79" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AJ79" t="n">
         <v>10</v>
       </c>
       <c r="AK79" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AL79" t="n">
         <v>32</v>
@@ -11212,7 +11212,7 @@
         <v>3.6</v>
       </c>
       <c r="K80" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L80" t="n">
         <v>1.41</v>
@@ -11230,7 +11230,7 @@
         <v>1.98</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R80" t="n">
         <v>1.37</v>
@@ -11332,37 +11332,37 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="G81" t="n">
         <v>3.2</v>
       </c>
       <c r="H81" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="I81" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="J81" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K81" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L81" t="n">
         <v>1.46</v>
       </c>
       <c r="M81" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N81" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O81" t="n">
         <v>1.38</v>
       </c>
       <c r="P81" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q81" t="n">
         <v>2.12</v>
@@ -11371,16 +11371,16 @@
         <v>1.3</v>
       </c>
       <c r="S81" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T81" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U81" t="n">
         <v>2.04</v>
       </c>
       <c r="V81" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W81" t="n">
         <v>1.45</v>
@@ -11395,7 +11395,7 @@
         <v>20</v>
       </c>
       <c r="AA81" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AB81" t="n">
         <v>13.5</v>
@@ -11413,7 +11413,7 @@
         <v>26</v>
       </c>
       <c r="AG81" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH81" t="n">
         <v>22</v>
@@ -11434,7 +11434,7 @@
         <v>140</v>
       </c>
       <c r="AN81" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO81" t="n">
         <v>34</v>
@@ -11467,22 +11467,22 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="G82" t="n">
-        <v>2.16</v>
+        <v>2.02</v>
       </c>
       <c r="H82" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="I82" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="J82" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K82" t="n">
-        <v>4.6</v>
+        <v>3.65</v>
       </c>
       <c r="L82" t="n">
         <v>1.47</v>
@@ -11500,25 +11500,25 @@
         <v>1.49</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="R82" t="n">
         <v>1.16</v>
       </c>
       <c r="S82" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T82" t="n">
         <v>1.01</v>
       </c>
       <c r="U82" t="n">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
       <c r="V82" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="W82" t="n">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="X82" t="n">
         <v>1000</v>
@@ -11605,7 +11605,7 @@
         <v>2.28</v>
       </c>
       <c r="G83" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="H83" t="n">
         <v>2.96</v>
@@ -11614,7 +11614,7 @@
         <v>3.95</v>
       </c>
       <c r="J83" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K83" t="n">
         <v>4.6</v>
@@ -11632,7 +11632,7 @@
         <v>1.01</v>
       </c>
       <c r="P83" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q83" t="n">
         <v>2.1</v>
@@ -11644,16 +11644,16 @@
         <v>3.55</v>
       </c>
       <c r="T83" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U83" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="V83" t="n">
         <v>1.34</v>
       </c>
       <c r="W83" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="X83" t="n">
         <v>1000</v>
@@ -11737,7 +11737,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G84" t="n">
         <v>4.2</v>
@@ -11746,7 +11746,7 @@
         <v>1.86</v>
       </c>
       <c r="I84" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="J84" t="n">
         <v>4.4</v>
@@ -11767,7 +11767,7 @@
         <v>1.12</v>
       </c>
       <c r="P84" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q84" t="n">
         <v>1.37</v>
@@ -11782,13 +11782,13 @@
         <v>1.42</v>
       </c>
       <c r="U84" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="V84" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="W84" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="X84" t="n">
         <v>48</v>
@@ -11896,13 +11896,13 @@
         <v>1.04</v>
       </c>
       <c r="N85" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O85" t="n">
         <v>1.19</v>
       </c>
       <c r="P85" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="Q85" t="n">
         <v>1.58</v>
@@ -11920,7 +11920,7 @@
         <v>2.66</v>
       </c>
       <c r="V85" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="W85" t="n">
         <v>1.4</v>
@@ -12007,10 +12007,10 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="G86" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="H86" t="n">
         <v>4.6</v>
@@ -12019,7 +12019,7 @@
         <v>5.2</v>
       </c>
       <c r="J86" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K86" t="n">
         <v>3.55</v>
@@ -12037,10 +12037,10 @@
         <v>1.44</v>
       </c>
       <c r="P86" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R86" t="n">
         <v>1.23</v>
@@ -12049,7 +12049,7 @@
         <v>4.5</v>
       </c>
       <c r="T86" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U86" t="n">
         <v>1.82</v>
@@ -12058,7 +12058,7 @@
         <v>1.23</v>
       </c>
       <c r="W86" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="X86" t="n">
         <v>12.5</v>
@@ -12109,7 +12109,7 @@
         <v>200</v>
       </c>
       <c r="AN86" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO86" t="n">
         <v>1000</v>
@@ -12142,7 +12142,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="G87" t="n">
         <v>3.35</v>
@@ -12154,7 +12154,7 @@
         <v>2.48</v>
       </c>
       <c r="J87" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K87" t="n">
         <v>4.4</v>
@@ -12166,28 +12166,28 @@
         <v>1.01</v>
       </c>
       <c r="N87" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O87" t="n">
         <v>1.2</v>
       </c>
       <c r="P87" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="R87" t="n">
         <v>1.55</v>
       </c>
       <c r="S87" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T87" t="n">
         <v>1.54</v>
       </c>
       <c r="U87" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="V87" t="n">
         <v>1.67</v>
@@ -12199,7 +12199,7 @@
         <v>28</v>
       </c>
       <c r="Y87" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z87" t="n">
         <v>22</v>
@@ -12211,7 +12211,7 @@
         <v>21</v>
       </c>
       <c r="AC87" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD87" t="n">
         <v>14.5</v>
@@ -12241,7 +12241,7 @@
         <v>42</v>
       </c>
       <c r="AM87" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN87" t="n">
         <v>25</v>
@@ -12283,16 +12283,16 @@
         <v>5.3</v>
       </c>
       <c r="H88" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="I88" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="J88" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K88" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L88" t="n">
         <v>1.01</v>
@@ -12325,7 +12325,7 @@
         <v>1.99</v>
       </c>
       <c r="V88" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="W88" t="n">
         <v>1.24</v>
@@ -12334,7 +12334,7 @@
         <v>15</v>
       </c>
       <c r="Y88" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z88" t="n">
         <v>13.5</v>
@@ -12412,34 +12412,34 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="G89" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="H89" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="I89" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J89" t="n">
-        <v>2.84</v>
+        <v>3.1</v>
       </c>
       <c r="K89" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L89" t="n">
         <v>1.44</v>
       </c>
       <c r="M89" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N89" t="n">
         <v>3.2</v>
       </c>
       <c r="O89" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P89" t="n">
         <v>1.75</v>
@@ -12451,10 +12451,10 @@
         <v>1.29</v>
       </c>
       <c r="S89" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T89" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U89" t="n">
         <v>2.02</v>
@@ -12463,7 +12463,7 @@
         <v>1.5</v>
       </c>
       <c r="W89" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="X89" t="n">
         <v>15</v>
@@ -12481,10 +12481,10 @@
         <v>13</v>
       </c>
       <c r="AC89" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD89" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AE89" t="n">
         <v>1000</v>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="G90" t="n">
         <v>2.98</v>
@@ -12694,10 +12694,10 @@
         <v>2.6</v>
       </c>
       <c r="J91" t="n">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="K91" t="n">
-        <v>5.2</v>
+        <v>950</v>
       </c>
       <c r="L91" t="n">
         <v>1.51</v>
@@ -12706,7 +12706,7 @@
         <v>1.01</v>
       </c>
       <c r="N91" t="n">
-        <v>1.87</v>
+        <v>1.54</v>
       </c>
       <c r="O91" t="n">
         <v>1.01</v>
@@ -12826,10 +12826,10 @@
         <v>3.15</v>
       </c>
       <c r="I92" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J92" t="n">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="K92" t="n">
         <v>3.65</v>
@@ -12952,22 +12952,22 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="G93" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="H93" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="I93" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="J93" t="n">
         <v>3.4</v>
       </c>
       <c r="K93" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L93" t="n">
         <v>1.44</v>
@@ -13000,10 +13000,10 @@
         <v>1.71</v>
       </c>
       <c r="V93" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W93" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="X93" t="n">
         <v>13</v>
@@ -13093,7 +13093,7 @@
         <v>2.02</v>
       </c>
       <c r="H94" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="I94" t="n">
         <v>4.2</v>
@@ -13105,7 +13105,7 @@
         <v>4.4</v>
       </c>
       <c r="L94" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M94" t="n">
         <v>1.03</v>
@@ -13225,7 +13225,7 @@
         <v>1.69</v>
       </c>
       <c r="G95" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="H95" t="n">
         <v>5.1</v>
@@ -13234,7 +13234,7 @@
         <v>5.3</v>
       </c>
       <c r="J95" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K95" t="n">
         <v>4.7</v>
@@ -13264,7 +13264,7 @@
         <v>2.6</v>
       </c>
       <c r="T95" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U95" t="n">
         <v>2.28</v>
@@ -13273,7 +13273,7 @@
         <v>1.23</v>
       </c>
       <c r="W95" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="X95" t="n">
         <v>28</v>
@@ -13306,7 +13306,7 @@
         <v>12.5</v>
       </c>
       <c r="AH95" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI95" t="n">
         <v>70</v>
@@ -13324,10 +13324,10 @@
         <v>95</v>
       </c>
       <c r="AN95" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO95" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96">
@@ -13357,19 +13357,19 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="G96" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="H96" t="n">
-        <v>5.3</v>
+        <v>6.6</v>
       </c>
       <c r="I96" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J96" t="n">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="K96" t="n">
         <v>5.5</v>
@@ -13402,19 +13402,19 @@
         <v>1.58</v>
       </c>
       <c r="U96" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="V96" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="W96" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="X96" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Y96" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="Z96" t="n">
         <v>1000</v>
@@ -13423,37 +13423,37 @@
         <v>1000</v>
       </c>
       <c r="AB96" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC96" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AD96" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AE96" t="n">
         <v>1000</v>
       </c>
       <c r="AF96" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG96" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH96" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI96" t="n">
         <v>1000</v>
       </c>
       <c r="AJ96" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AK96" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL96" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM96" t="n">
         <v>1000</v>
@@ -13492,16 +13492,16 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G97" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="H97" t="n">
         <v>2.6</v>
       </c>
       <c r="I97" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="J97" t="n">
         <v>3.4</v>
@@ -13525,7 +13525,7 @@
         <v>2.02</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.79</v>
+        <v>1.69</v>
       </c>
       <c r="R97" t="n">
         <v>1.4</v>
@@ -13534,16 +13534,16 @@
         <v>3</v>
       </c>
       <c r="T97" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U97" t="n">
         <v>2.22</v>
       </c>
       <c r="V97" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="W97" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X97" t="n">
         <v>21</v>
@@ -13684,7 +13684,7 @@
         <v>12.5</v>
       </c>
       <c r="Y98" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z98" t="n">
         <v>50</v>
@@ -13693,7 +13693,7 @@
         <v>200</v>
       </c>
       <c r="AB98" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC98" t="n">
         <v>8.6</v>
@@ -13723,7 +13723,7 @@
         <v>19</v>
       </c>
       <c r="AL98" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM98" t="n">
         <v>160</v>
@@ -13822,7 +13822,7 @@
         <v>23</v>
       </c>
       <c r="Z99" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AA99" t="n">
         <v>1000</v>
@@ -13858,7 +13858,7 @@
         <v>23</v>
       </c>
       <c r="AL99" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AM99" t="n">
         <v>1000</v>
@@ -13930,13 +13930,13 @@
         <v>1.44</v>
       </c>
       <c r="Q100" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="R100" t="n">
         <v>1.13</v>
       </c>
       <c r="S100" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="T100" t="n">
         <v>1.01</v>
@@ -13948,7 +13948,7 @@
         <v>1.11</v>
       </c>
       <c r="W100" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="X100" t="n">
         <v>1000</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="G102" t="n">
         <v>4.1</v>
@@ -14176,10 +14176,10 @@
         <v>1.91</v>
       </c>
       <c r="I102" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="J102" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K102" t="n">
         <v>4.4</v>
@@ -14200,7 +14200,7 @@
         <v>2.2</v>
       </c>
       <c r="Q102" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R102" t="n">
         <v>1.48</v>
@@ -14209,13 +14209,13 @@
         <v>2.68</v>
       </c>
       <c r="T102" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U102" t="n">
         <v>2.28</v>
       </c>
       <c r="V102" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="W102" t="n">
         <v>1.32</v>
@@ -14305,13 +14305,13 @@
         <v>1.21</v>
       </c>
       <c r="G103" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="H103" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="I103" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="J103" t="n">
         <v>6.8</v>
@@ -14326,22 +14326,22 @@
         <v>1.02</v>
       </c>
       <c r="N103" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O103" t="n">
         <v>1.14</v>
       </c>
       <c r="P103" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="Q103" t="n">
         <v>1.44</v>
       </c>
       <c r="R103" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="S103" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="T103" t="n">
         <v>2.02</v>
@@ -14350,16 +14350,16 @@
         <v>1.8</v>
       </c>
       <c r="V103" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W103" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="X103" t="n">
         <v>42</v>
       </c>
       <c r="Y103" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Z103" t="n">
         <v>1000</v>
@@ -14386,7 +14386,7 @@
         <v>14.5</v>
       </c>
       <c r="AH103" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AI103" t="n">
         <v>1000</v>
@@ -14404,7 +14404,7 @@
         <v>1000</v>
       </c>
       <c r="AN103" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AO103" t="n">
         <v>1000</v>
@@ -14440,7 +14440,7 @@
         <v>3.55</v>
       </c>
       <c r="G104" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H104" t="n">
         <v>2.14</v>
@@ -14449,10 +14449,10 @@
         <v>2.16</v>
       </c>
       <c r="J104" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K104" t="n">
         <v>3.9</v>
-      </c>
-      <c r="K104" t="n">
-        <v>3.95</v>
       </c>
       <c r="L104" t="n">
         <v>1.31</v>
@@ -14461,25 +14461,25 @@
         <v>1.05</v>
       </c>
       <c r="N104" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="O104" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P104" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R104" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="S104" t="n">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="T104" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U104" t="n">
         <v>2.52</v>
@@ -14488,13 +14488,13 @@
         <v>1.86</v>
       </c>
       <c r="W104" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X104" t="n">
         <v>19.5</v>
       </c>
       <c r="Y104" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z104" t="n">
         <v>15</v>
@@ -14506,7 +14506,7 @@
         <v>17.5</v>
       </c>
       <c r="AC104" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD104" t="n">
         <v>10.5</v>
@@ -14521,7 +14521,7 @@
         <v>14.5</v>
       </c>
       <c r="AH104" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI104" t="n">
         <v>28</v>
@@ -14533,13 +14533,13 @@
         <v>36</v>
       </c>
       <c r="AL104" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM104" t="n">
         <v>60</v>
       </c>
       <c r="AN104" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO104" t="n">
         <v>12</v>
@@ -14572,16 +14572,16 @@
         </is>
       </c>
       <c r="F105" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G105" t="n">
         <v>2.24</v>
-      </c>
-      <c r="G105" t="n">
-        <v>2.26</v>
       </c>
       <c r="H105" t="n">
         <v>3.35</v>
       </c>
       <c r="I105" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J105" t="n">
         <v>3.9</v>
@@ -14590,7 +14590,7 @@
         <v>3.95</v>
       </c>
       <c r="L105" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M105" t="n">
         <v>1.04</v>
@@ -14602,10 +14602,10 @@
         <v>1.2</v>
       </c>
       <c r="P105" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="Q105" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R105" t="n">
         <v>1.65</v>
@@ -14617,13 +14617,13 @@
         <v>1.55</v>
       </c>
       <c r="U105" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="V105" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W105" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X105" t="n">
         <v>22</v>
@@ -14632,7 +14632,7 @@
         <v>19</v>
       </c>
       <c r="Z105" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA105" t="n">
         <v>60</v>
@@ -14644,7 +14644,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD105" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE105" t="n">
         <v>34</v>
@@ -14662,13 +14662,13 @@
         <v>36</v>
       </c>
       <c r="AJ105" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK105" t="n">
         <v>20</v>
       </c>
       <c r="AL105" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM105" t="n">
         <v>55</v>
@@ -14716,7 +14716,7 @@
         <v>1.28</v>
       </c>
       <c r="I106" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="J106" t="n">
         <v>5.8</v>
@@ -14740,7 +14740,7 @@
         <v>2.64</v>
       </c>
       <c r="Q106" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="R106" t="n">
         <v>1.66</v>
@@ -14755,7 +14755,7 @@
         <v>1.89</v>
       </c>
       <c r="V106" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="W106" t="n">
         <v>1.07</v>
@@ -14842,7 +14842,7 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="G107" t="n">
         <v>2.34</v>
@@ -14977,7 +14977,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G108" t="n">
         <v>2.36</v>
@@ -14992,7 +14992,7 @@
         <v>3.2</v>
       </c>
       <c r="K108" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="L108" t="n">
         <v>1.01</v>
@@ -15025,7 +15025,7 @@
         <v>1.78</v>
       </c>
       <c r="V108" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W108" t="n">
         <v>1.73</v>
@@ -15049,7 +15049,7 @@
         <v>7.8</v>
       </c>
       <c r="AD108" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE108" t="n">
         <v>70</v>
@@ -15064,7 +15064,7 @@
         <v>25</v>
       </c>
       <c r="AI108" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AJ108" t="n">
         <v>34</v>
@@ -15112,10 +15112,10 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="G109" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H109" t="n">
         <v>3.35</v>
@@ -15151,7 +15151,7 @@
         <v>1.54</v>
       </c>
       <c r="S109" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="T109" t="n">
         <v>1.6</v>
@@ -15163,7 +15163,7 @@
         <v>1.4</v>
       </c>
       <c r="W109" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="X109" t="n">
         <v>21</v>
@@ -15175,10 +15175,10 @@
         <v>27</v>
       </c>
       <c r="AA109" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB109" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC109" t="n">
         <v>9.199999999999999</v>
@@ -15253,7 +15253,7 @@
         <v>1.82</v>
       </c>
       <c r="H110" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="I110" t="n">
         <v>6.2</v>
@@ -15277,13 +15277,13 @@
         <v>1.41</v>
       </c>
       <c r="P110" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q110" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R110" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S110" t="n">
         <v>4.2</v>
@@ -15388,7 +15388,7 @@
         <v>4.8</v>
       </c>
       <c r="H111" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="I111" t="n">
         <v>2.14</v>
@@ -15397,7 +15397,7 @@
         <v>3.35</v>
       </c>
       <c r="K111" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L111" t="n">
         <v>1.01</v>
@@ -15406,7 +15406,7 @@
         <v>1.08</v>
       </c>
       <c r="N111" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O111" t="n">
         <v>1.37</v>
@@ -15415,7 +15415,7 @@
         <v>1.75</v>
       </c>
       <c r="Q111" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R111" t="n">
         <v>1.28</v>
@@ -15424,7 +15424,7 @@
         <v>3.75</v>
       </c>
       <c r="T111" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U111" t="n">
         <v>1.94</v>
@@ -15436,10 +15436,10 @@
         <v>1.26</v>
       </c>
       <c r="X111" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y111" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z111" t="n">
         <v>14.5</v>
@@ -15451,7 +15451,7 @@
         <v>17</v>
       </c>
       <c r="AC111" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD111" t="n">
         <v>13</v>
@@ -15517,22 +15517,22 @@
         </is>
       </c>
       <c r="F112" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G112" t="n">
         <v>2.8</v>
       </c>
-      <c r="G112" t="n">
-        <v>3</v>
-      </c>
       <c r="H112" t="n">
-        <v>2.72</v>
+        <v>2.88</v>
       </c>
       <c r="I112" t="n">
-        <v>2.9</v>
+        <v>3.15</v>
       </c>
       <c r="J112" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K112" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L112" t="n">
         <v>1.45</v>
@@ -15541,10 +15541,10 @@
         <v>1.08</v>
       </c>
       <c r="N112" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O112" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P112" t="n">
         <v>1.79</v>
@@ -15553,7 +15553,7 @@
         <v>2.12</v>
       </c>
       <c r="R112" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S112" t="n">
         <v>3.9</v>
@@ -15565,10 +15565,10 @@
         <v>2.04</v>
       </c>
       <c r="V112" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="W112" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="X112" t="n">
         <v>12.5</v>
@@ -15577,16 +15577,16 @@
         <v>11</v>
       </c>
       <c r="Z112" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA112" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AB112" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC112" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD112" t="n">
         <v>13.5</v>
@@ -15595,31 +15595,31 @@
         <v>36</v>
       </c>
       <c r="AF112" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AG112" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AH112" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI112" t="n">
         <v>50</v>
       </c>
       <c r="AJ112" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AK112" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AL112" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM112" t="n">
         <v>130</v>
       </c>
       <c r="AN112" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO112" t="n">
         <v>1000</v>
@@ -15658,7 +15658,7 @@
         <v>1.15</v>
       </c>
       <c r="H113" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I113" t="n">
         <v>36</v>
@@ -15682,7 +15682,7 @@
         <v>1.13</v>
       </c>
       <c r="P113" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="Q113" t="n">
         <v>1.4</v>
@@ -15697,7 +15697,7 @@
         <v>2.38</v>
       </c>
       <c r="U113" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="V113" t="n">
         <v>1.03</v>
@@ -15721,7 +15721,7 @@
         <v>14</v>
       </c>
       <c r="AC113" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AD113" t="n">
         <v>120</v>
@@ -15742,7 +15742,7 @@
         <v>1000</v>
       </c>
       <c r="AJ113" t="n">
-        <v>970</v>
+        <v>8.4</v>
       </c>
       <c r="AK113" t="n">
         <v>970</v>
@@ -15796,13 +15796,13 @@
         <v>3.25</v>
       </c>
       <c r="I114" t="n">
-        <v>5.4</v>
+        <v>9.4</v>
       </c>
       <c r="J114" t="n">
         <v>3.7</v>
       </c>
       <c r="K114" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L114" t="n">
         <v>1.01</v>
@@ -15811,13 +15811,13 @@
         <v>1.04</v>
       </c>
       <c r="N114" t="n">
-        <v>1.37</v>
+        <v>1.1</v>
       </c>
       <c r="O114" t="n">
         <v>1.21</v>
       </c>
       <c r="P114" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="Q114" t="n">
         <v>1.22</v>
@@ -15829,7 +15829,7 @@
         <v>1.23</v>
       </c>
       <c r="T114" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U114" t="n">
         <v>1.04</v>
@@ -15922,7 +15922,7 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G115" t="n">
         <v>2.18</v>
@@ -15946,7 +15946,7 @@
         <v>1.02</v>
       </c>
       <c r="N115" t="n">
-        <v>2.44</v>
+        <v>1.02</v>
       </c>
       <c r="O115" t="n">
         <v>1.15</v>
@@ -15955,13 +15955,13 @@
         <v>2.44</v>
       </c>
       <c r="Q115" t="n">
-        <v>1.41</v>
+        <v>1.15</v>
       </c>
       <c r="R115" t="n">
-        <v>1.27</v>
+        <v>1.6</v>
       </c>
       <c r="S115" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="T115" t="n">
         <v>1.01</v>
@@ -16060,10 +16060,10 @@
         <v>2.34</v>
       </c>
       <c r="G116" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="H116" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="I116" t="n">
         <v>2.9</v>
@@ -16102,13 +16102,13 @@
         <v>1.48</v>
       </c>
       <c r="U116" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="V116" t="n">
         <v>1.52</v>
       </c>
       <c r="W116" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="X116" t="n">
         <v>29</v>
@@ -16117,10 +16117,10 @@
         <v>23</v>
       </c>
       <c r="Z116" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA116" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AB116" t="n">
         <v>17.5</v>
@@ -16144,7 +16144,7 @@
         <v>14.5</v>
       </c>
       <c r="AI116" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ116" t="n">
         <v>34</v>
@@ -16162,7 +16162,7 @@
         <v>11</v>
       </c>
       <c r="AO116" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="117">
@@ -16192,7 +16192,7 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="G117" t="n">
         <v>2.04</v>
@@ -16237,10 +16237,10 @@
         <v>1.63</v>
       </c>
       <c r="U117" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V117" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W117" t="n">
         <v>1.96</v>
@@ -16261,10 +16261,10 @@
         <v>12.5</v>
       </c>
       <c r="AC117" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD117" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE117" t="n">
         <v>46</v>
@@ -16285,7 +16285,7 @@
         <v>25</v>
       </c>
       <c r="AK117" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL117" t="n">
         <v>32</v>
@@ -16477,7 +16477,7 @@
         <v>4.2</v>
       </c>
       <c r="K119" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L119" t="n">
         <v>1.27</v>
@@ -16522,10 +16522,10 @@
         <v>11</v>
       </c>
       <c r="Z119" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA119" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AB119" t="n">
         <v>23</v>
@@ -16537,7 +16537,7 @@
         <v>12</v>
       </c>
       <c r="AE119" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF119" t="n">
         <v>60</v>
@@ -16600,13 +16600,13 @@
         <v>2.06</v>
       </c>
       <c r="G120" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H120" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I120" t="n">
         <v>4.6</v>
-      </c>
-      <c r="I120" t="n">
-        <v>4.7</v>
       </c>
       <c r="J120" t="n">
         <v>3.35</v>
@@ -16627,7 +16627,7 @@
         <v>1.46</v>
       </c>
       <c r="P120" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q120" t="n">
         <v>2.4</v>
@@ -16639,16 +16639,16 @@
         <v>4.6</v>
       </c>
       <c r="T120" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U120" t="n">
         <v>1.88</v>
       </c>
       <c r="V120" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W120" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="X120" t="n">
         <v>9.800000000000001</v>
@@ -16663,7 +16663,7 @@
         <v>110</v>
       </c>
       <c r="AB120" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC120" t="n">
         <v>7.6</v>
@@ -16750,7 +16750,7 @@
         <v>4.1</v>
       </c>
       <c r="L121" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M121" t="n">
         <v>1.05</v>
@@ -16771,10 +16771,10 @@
         <v>1.46</v>
       </c>
       <c r="S121" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="T121" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="U121" t="n">
         <v>2.24</v>
@@ -16789,7 +16789,7 @@
         <v>23</v>
       </c>
       <c r="Y121" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z121" t="n">
         <v>40</v>
@@ -16801,10 +16801,10 @@
         <v>11.5</v>
       </c>
       <c r="AC121" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD121" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE121" t="n">
         <v>60</v>
@@ -16813,13 +16813,13 @@
         <v>14</v>
       </c>
       <c r="AG121" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH121" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI121" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ121" t="n">
         <v>27</v>
@@ -16834,7 +16834,7 @@
         <v>85</v>
       </c>
       <c r="AN121" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AO121" t="n">
         <v>55</v>
@@ -16867,22 +16867,22 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="G122" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="H122" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="I122" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="J122" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K122" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L122" t="n">
         <v>1.46</v>
@@ -16900,7 +16900,7 @@
         <v>1.81</v>
       </c>
       <c r="Q122" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R122" t="n">
         <v>1.31</v>
@@ -16909,16 +16909,16 @@
         <v>4</v>
       </c>
       <c r="T122" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="U122" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V122" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="W122" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="X122" t="n">
         <v>12.5</v>
@@ -16927,16 +16927,16 @@
         <v>7.2</v>
       </c>
       <c r="Z122" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AA122" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AB122" t="n">
         <v>19</v>
       </c>
       <c r="AC122" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AD122" t="n">
         <v>10.5</v>
@@ -16948,31 +16948,31 @@
         <v>55</v>
       </c>
       <c r="AG122" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AH122" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI122" t="n">
         <v>46</v>
       </c>
       <c r="AJ122" t="n">
+        <v>240</v>
+      </c>
+      <c r="AK122" t="n">
+        <v>140</v>
+      </c>
+      <c r="AL122" t="n">
+        <v>130</v>
+      </c>
+      <c r="AM122" t="n">
+        <v>320</v>
+      </c>
+      <c r="AN122" t="n">
         <v>220</v>
       </c>
-      <c r="AK122" t="n">
-        <v>110</v>
-      </c>
-      <c r="AL122" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM122" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN122" t="n">
-        <v>160</v>
-      </c>
       <c r="AO122" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123">
@@ -17002,16 +17002,16 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="G123" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="H123" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="I123" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="J123" t="n">
         <v>3.4</v>
@@ -17020,37 +17020,37 @@
         <v>3.45</v>
       </c>
       <c r="L123" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="M123" t="n">
         <v>1.09</v>
       </c>
       <c r="N123" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O123" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="P123" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="Q123" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="R123" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="S123" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="T123" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="U123" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V123" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W123" t="n">
         <v>1.56</v>
@@ -17062,7 +17062,7 @@
         <v>11</v>
       </c>
       <c r="Z123" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA123" t="n">
         <v>46</v>
@@ -17077,7 +17077,7 @@
         <v>13</v>
       </c>
       <c r="AE123" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF123" t="n">
         <v>17</v>
@@ -17098,13 +17098,13 @@
         <v>32</v>
       </c>
       <c r="AL123" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM123" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN123" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO123" t="n">
         <v>32</v>
@@ -17179,10 +17179,10 @@
         <v>1.96</v>
       </c>
       <c r="T124" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="U124" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V124" t="n">
         <v>1.07</v>
@@ -17197,7 +17197,7 @@
         <v>65</v>
       </c>
       <c r="Z124" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AA124" t="n">
         <v>670</v>
@@ -17209,13 +17209,13 @@
         <v>18</v>
       </c>
       <c r="AD124" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AE124" t="n">
         <v>180</v>
       </c>
       <c r="AF124" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG124" t="n">
         <v>11.5</v>
@@ -17230,7 +17230,7 @@
         <v>10.5</v>
       </c>
       <c r="AK124" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AL124" t="n">
         <v>30</v>
@@ -17278,10 +17278,10 @@
         <v>1.68</v>
       </c>
       <c r="H125" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I125" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="J125" t="n">
         <v>3.8</v>
@@ -17407,10 +17407,10 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G126" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="H126" t="n">
         <v>3.15</v>
@@ -17437,7 +17437,7 @@
         <v>1.42</v>
       </c>
       <c r="P126" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="Q126" t="n">
         <v>2.22</v>
@@ -17452,10 +17452,10 @@
         <v>1.87</v>
       </c>
       <c r="U126" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="V126" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="W126" t="n">
         <v>1.61</v>
@@ -17542,16 +17542,16 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="G127" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="H127" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="I127" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="J127" t="n">
         <v>3.8</v>
@@ -17572,10 +17572,10 @@
         <v>0</v>
       </c>
       <c r="P127" t="n">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="Q127" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="R127" t="n">
         <v>0</v>
@@ -17680,16 +17680,16 @@
         <v>1.54</v>
       </c>
       <c r="G128" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="H128" t="n">
-        <v>2.42</v>
+        <v>6.4</v>
       </c>
       <c r="I128" t="n">
         <v>1000</v>
       </c>
       <c r="J128" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K128" t="n">
         <v>5.2</v>
@@ -17707,10 +17707,10 @@
         <v>0</v>
       </c>
       <c r="P128" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="Q128" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="R128" t="n">
         <v>0</v>
@@ -17977,7 +17977,7 @@
         <v>1.3</v>
       </c>
       <c r="P130" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q130" t="n">
         <v>1.89</v>
@@ -17989,37 +17989,37 @@
         <v>3.25</v>
       </c>
       <c r="T130" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="U130" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V130" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W130" t="n">
         <v>1.76</v>
       </c>
       <c r="X130" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="Y130" t="n">
         <v>17.5</v>
       </c>
       <c r="Z130" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AA130" t="n">
         <v>75</v>
       </c>
       <c r="AB130" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AC130" t="n">
         <v>8.6</v>
       </c>
       <c r="AD130" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AE130" t="n">
         <v>48</v>
@@ -18028,7 +18028,7 @@
         <v>16</v>
       </c>
       <c r="AG130" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH130" t="n">
         <v>20</v>
@@ -18049,7 +18049,7 @@
         <v>100</v>
       </c>
       <c r="AN130" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO130" t="n">
         <v>42</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-20.xlsx
@@ -703,7 +703,7 @@
         <v>1.42</v>
       </c>
       <c r="R2" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="S2" t="n">
         <v>2.02</v>
@@ -712,7 +712,7 @@
         <v>1.43</v>
       </c>
       <c r="U2" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="V2" t="n">
         <v>1.84</v>
@@ -724,13 +724,13 @@
         <v>38</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z2" t="n">
         <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB2" t="n">
         <v>26</v>
@@ -739,7 +739,7 @@
         <v>11.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AE2" t="n">
         <v>19</v>
@@ -766,7 +766,7 @@
         <v>29</v>
       </c>
       <c r="AM2" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AN2" t="n">
         <v>14.5</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.28</v>
       </c>
-      <c r="G3" t="n">
-        <v>2.3</v>
-      </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J3" t="n">
         <v>3.8</v>
@@ -826,7 +826,7 @@
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="O3" t="n">
         <v>1.31</v>
@@ -841,7 +841,7 @@
         <v>1.4</v>
       </c>
       <c r="S3" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T3" t="n">
         <v>1.76</v>
@@ -853,7 +853,7 @@
         <v>1.42</v>
       </c>
       <c r="W3" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="X3" t="n">
         <v>15</v>
@@ -862,7 +862,7 @@
         <v>13.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA3" t="n">
         <v>60</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="G4" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="H4" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="I4" t="n">
         <v>3.15</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L4" t="n">
         <v>1.44</v>
@@ -961,7 +961,7 @@
         <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="O4" t="n">
         <v>1.45</v>
@@ -1003,7 +1003,7 @@
         <v>65</v>
       </c>
       <c r="AB4" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC4" t="n">
         <v>8.6</v>
@@ -1024,7 +1024,7 @@
         <v>980</v>
       </c>
       <c r="AI4" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AJ4" t="n">
         <v>980</v>
@@ -1102,10 +1102,10 @@
         <v>1.3</v>
       </c>
       <c r="P5" t="n">
-        <v>1.81</v>
+        <v>1.98</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.54</v>
+        <v>1.84</v>
       </c>
       <c r="R5" t="n">
         <v>1.28</v>
@@ -1123,7 +1123,7 @@
         <v>1.23</v>
       </c>
       <c r="W5" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="X5" t="n">
         <v>19.5</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G6" t="n">
         <v>2.72</v>
       </c>
-      <c r="G6" t="n">
-        <v>2.74</v>
-      </c>
       <c r="H6" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="I6" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="J6" t="n">
         <v>3.95</v>
@@ -1231,37 +1231,37 @@
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P6" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R6" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="S6" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="T6" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="U6" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="V6" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="W6" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y6" t="n">
         <v>15.5</v>
@@ -1270,7 +1270,7 @@
         <v>20</v>
       </c>
       <c r="AA6" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
         <v>16.5</v>
@@ -1282,7 +1282,7 @@
         <v>12.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF6" t="n">
         <v>22</v>
@@ -1294,7 +1294,7 @@
         <v>15</v>
       </c>
       <c r="AI6" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ6" t="n">
         <v>42</v>
@@ -1312,7 +1312,7 @@
         <v>16</v>
       </c>
       <c r="AO6" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H7" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="I7" t="n">
         <v>4.6</v>
@@ -1357,7 +1357,7 @@
         <v>3.6</v>
       </c>
       <c r="K7" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L7" t="n">
         <v>1.39</v>
@@ -1378,7 +1378,7 @@
         <v>1.87</v>
       </c>
       <c r="R7" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S7" t="n">
         <v>3.15</v>
@@ -1387,19 +1387,19 @@
         <v>1.75</v>
       </c>
       <c r="U7" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V7" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W7" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="X7" t="n">
         <v>19.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Z7" t="n">
         <v>36</v>
@@ -1426,7 +1426,7 @@
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI7" t="n">
         <v>60</v>
@@ -1480,7 +1480,7 @@
         <v>1.79</v>
       </c>
       <c r="G8" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="H8" t="n">
         <v>4.6</v>
@@ -1501,40 +1501,40 @@
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O8" t="n">
         <v>1.21</v>
       </c>
       <c r="P8" t="n">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="R8" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S8" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="T8" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U8" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="V8" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W8" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="X8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z8" t="n">
         <v>40</v>
@@ -1561,7 +1561,7 @@
         <v>10.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI8" t="n">
         <v>55</v>
@@ -1576,7 +1576,7 @@
         <v>29</v>
       </c>
       <c r="AM8" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN8" t="n">
         <v>8.6</v>
@@ -1624,7 +1624,7 @@
         <v>4.2</v>
       </c>
       <c r="J9" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
         <v>4.2</v>
@@ -1648,7 +1648,7 @@
         <v>1.65</v>
       </c>
       <c r="R9" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S9" t="n">
         <v>2.64</v>
@@ -1657,16 +1657,16 @@
         <v>1.62</v>
       </c>
       <c r="U9" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V9" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W9" t="n">
         <v>2.02</v>
       </c>
       <c r="X9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y9" t="n">
         <v>20</v>
@@ -1681,34 +1681,34 @@
         <v>12.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE9" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI9" t="n">
         <v>44</v>
       </c>
-      <c r="AF9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>46</v>
-      </c>
       <c r="AJ9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK9" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM9" t="n">
         <v>70</v>
@@ -1717,7 +1717,7 @@
         <v>10.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
@@ -1780,7 +1780,7 @@
         <v>2.68</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="R10" t="n">
         <v>1.68</v>
@@ -1795,13 +1795,13 @@
         <v>2.76</v>
       </c>
       <c r="V10" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="W10" t="n">
         <v>1.71</v>
       </c>
       <c r="X10" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Y10" t="n">
         <v>19.5</v>
@@ -1849,7 +1849,7 @@
         <v>55</v>
       </c>
       <c r="AN10" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO10" t="n">
         <v>16.5</v>
@@ -1897,7 +1897,7 @@
         <v>3.8</v>
       </c>
       <c r="K11" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1906,13 +1906,13 @@
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O11" t="n">
         <v>1.2</v>
       </c>
       <c r="P11" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q11" t="n">
         <v>1.6</v>
@@ -1924,10 +1924,10 @@
         <v>2.5</v>
       </c>
       <c r="T11" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U11" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="V11" t="n">
         <v>1.35</v>
@@ -1948,7 +1948,7 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC11" t="n">
         <v>12</v>
@@ -2017,64 +2017,64 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
         <v>3.25</v>
       </c>
       <c r="H12" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="I12" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J12" t="n">
         <v>3.1</v>
       </c>
       <c r="K12" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L12" t="n">
         <v>1.38</v>
       </c>
       <c r="M12" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="O12" t="n">
         <v>1.38</v>
       </c>
       <c r="P12" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="R12" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="T12" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U12" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="W12" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y12" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z12" t="n">
         <v>18</v>
@@ -2095,10 +2095,10 @@
         <v>36</v>
       </c>
       <c r="AF12" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AG12" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH12" t="n">
         <v>20</v>
@@ -2107,19 +2107,19 @@
         <v>55</v>
       </c>
       <c r="AJ12" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK12" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AL12" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM12" t="n">
         <v>140</v>
       </c>
       <c r="AN12" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AO12" t="n">
         <v>34</v>
@@ -2155,7 +2155,7 @@
         <v>2.16</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="H13" t="n">
         <v>2.6</v>
@@ -2164,7 +2164,7 @@
         <v>3.2</v>
       </c>
       <c r="J13" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
         <v>6.6</v>
@@ -2179,7 +2179,7 @@
         <v>2.78</v>
       </c>
       <c r="O13" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="P13" t="n">
         <v>1.61</v>
@@ -2200,10 +2200,10 @@
         <v>1.04</v>
       </c>
       <c r="V13" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W13" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="I14" t="n">
         <v>3.3</v>
       </c>
-      <c r="H14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3.5</v>
-      </c>
       <c r="J14" t="n">
-        <v>2.92</v>
+        <v>2.42</v>
       </c>
       <c r="K14" t="n">
         <v>1000</v>
@@ -2311,10 +2311,10 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="O14" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="P14" t="n">
         <v>1.64</v>
@@ -2335,10 +2335,10 @@
         <v>1.04</v>
       </c>
       <c r="V14" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="W14" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="G15" t="n">
         <v>2.96</v>
       </c>
       <c r="H15" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="I15" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J15" t="n">
         <v>3.1</v>
@@ -2446,7 +2446,7 @@
         <v>1.09</v>
       </c>
       <c r="N15" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O15" t="n">
         <v>1.39</v>
@@ -2455,7 +2455,7 @@
         <v>1.71</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R15" t="n">
         <v>1.26</v>
@@ -2464,7 +2464,7 @@
         <v>4</v>
       </c>
       <c r="T15" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U15" t="n">
         <v>1.98</v>
@@ -2476,7 +2476,7 @@
         <v>1.51</v>
       </c>
       <c r="X15" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="Y15" t="n">
         <v>12.5</v>
@@ -2485,25 +2485,25 @@
         <v>23</v>
       </c>
       <c r="AA15" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AB15" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC15" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD15" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AE15" t="n">
         <v>44</v>
       </c>
       <c r="AF15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG15" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH15" t="n">
         <v>23</v>
@@ -2512,19 +2512,19 @@
         <v>65</v>
       </c>
       <c r="AJ15" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK15" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AL15" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM15" t="n">
         <v>140</v>
       </c>
       <c r="AN15" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AO15" t="n">
         <v>44</v>
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="G16" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H16" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="I16" t="n">
         <v>2.64</v>
@@ -2593,7 +2593,7 @@
         <v>1.72</v>
       </c>
       <c r="R16" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S16" t="n">
         <v>2.8</v>
@@ -2608,10 +2608,10 @@
         <v>1.61</v>
       </c>
       <c r="W16" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X16" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y16" t="n">
         <v>14</v>
@@ -2638,7 +2638,7 @@
         <v>21</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH16" t="n">
         <v>14</v>
@@ -2662,7 +2662,7 @@
         <v>19</v>
       </c>
       <c r="AO16" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="17">
@@ -2695,19 +2695,19 @@
         <v>2.72</v>
       </c>
       <c r="G17" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="H17" t="n">
-        <v>2.46</v>
+        <v>2.6</v>
       </c>
       <c r="I17" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="J17" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K17" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L17" t="n">
         <v>1.33</v>
@@ -2740,10 +2740,10 @@
         <v>2.16</v>
       </c>
       <c r="V17" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W17" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="X17" t="n">
         <v>19.5</v>
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="G18" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="H18" t="n">
         <v>3.25</v>
       </c>
       <c r="I18" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J18" t="n">
         <v>3.65</v>
@@ -2851,34 +2851,34 @@
         <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="O18" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P18" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="R18" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="S18" t="n">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="T18" t="n">
         <v>1.65</v>
       </c>
       <c r="U18" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V18" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W18" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="X18" t="n">
         <v>23</v>
@@ -2911,7 +2911,7 @@
         <v>14</v>
       </c>
       <c r="AH18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI18" t="n">
         <v>55</v>
@@ -2929,10 +2929,10 @@
         <v>90</v>
       </c>
       <c r="AN18" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AO18" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
@@ -2971,13 +2971,13 @@
         <v>5.3</v>
       </c>
       <c r="I19" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J19" t="n">
         <v>3.55</v>
       </c>
       <c r="K19" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L19" t="n">
         <v>1.36</v>
@@ -2986,7 +2986,7 @@
         <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>2.38</v>
+        <v>2.62</v>
       </c>
       <c r="O19" t="n">
         <v>1.01</v>
@@ -3010,7 +3010,7 @@
         <v>1.04</v>
       </c>
       <c r="V19" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W19" t="n">
         <v>2.48</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="G20" t="n">
         <v>1000</v>
       </c>
       <c r="H20" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="I20" t="n">
         <v>1000</v>
       </c>
       <c r="J20" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K20" t="n">
-        <v>950</v>
+        <v>980</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
@@ -3145,10 +3145,10 @@
         <v>1.04</v>
       </c>
       <c r="V20" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W20" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3373,10 +3373,10 @@
         <v>1.7</v>
       </c>
       <c r="H22" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I22" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="J22" t="n">
         <v>4.3</v>
@@ -3397,7 +3397,7 @@
         <v>1.19</v>
       </c>
       <c r="P22" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q22" t="n">
         <v>1.19</v>
@@ -3415,7 +3415,7 @@
         <v>1.04</v>
       </c>
       <c r="V22" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="W22" t="n">
         <v>2.4</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="G23" t="n">
         <v>1.92</v>
@@ -3643,7 +3643,7 @@
         <v>2.24</v>
       </c>
       <c r="H24" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I24" t="n">
         <v>3.6</v>
@@ -3655,7 +3655,7 @@
         <v>4.4</v>
       </c>
       <c r="L24" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="M24" t="n">
         <v>1.03</v>
@@ -3679,10 +3679,10 @@
         <v>2.38</v>
       </c>
       <c r="T24" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="U24" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="V24" t="n">
         <v>1.38</v>
@@ -3700,7 +3700,7 @@
         <v>34</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB24" t="n">
         <v>17.5</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="G25" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="H25" t="n">
-        <v>2.54</v>
+        <v>3.1</v>
       </c>
       <c r="I25" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>1.03</v>
       </c>
       <c r="K25" t="n">
-        <v>980</v>
+        <v>950</v>
       </c>
       <c r="L25" t="n">
         <v>1.27</v>
@@ -3796,7 +3796,7 @@
         <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>2.2</v>
+        <v>3.55</v>
       </c>
       <c r="O25" t="n">
         <v>1.26</v>
@@ -3805,7 +3805,7 @@
         <v>2.06</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.66</v>
+        <v>1.78</v>
       </c>
       <c r="R25" t="n">
         <v>1.37</v>
@@ -3820,10 +3820,10 @@
         <v>1.04</v>
       </c>
       <c r="V25" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W25" t="n">
-        <v>1.4</v>
+        <v>1.86</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
@@ -3937,10 +3937,10 @@
         <v>1.21</v>
       </c>
       <c r="P26" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="R26" t="n">
         <v>1.48</v>
@@ -3949,10 +3949,10 @@
         <v>2.36</v>
       </c>
       <c r="T26" t="n">
-        <v>1.72</v>
+        <v>1.04</v>
       </c>
       <c r="U26" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V26" t="n">
         <v>1.12</v>
@@ -4051,7 +4051,7 @@
         <v>1.88</v>
       </c>
       <c r="I27" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="J27" t="n">
         <v>3.3</v>
@@ -4183,16 +4183,16 @@
         <v>3.8</v>
       </c>
       <c r="H28" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I28" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="J28" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K28" t="n">
         <v>3.5</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3.55</v>
       </c>
       <c r="L28" t="n">
         <v>1.5</v>
@@ -4201,16 +4201,16 @@
         <v>1.09</v>
       </c>
       <c r="N28" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O28" t="n">
         <v>1.44</v>
       </c>
       <c r="P28" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="R28" t="n">
         <v>1.26</v>
@@ -4219,19 +4219,19 @@
         <v>4.5</v>
       </c>
       <c r="T28" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U28" t="n">
         <v>1.94</v>
       </c>
       <c r="V28" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="W28" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X28" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y28" t="n">
         <v>8.199999999999999</v>
@@ -4240,7 +4240,7 @@
         <v>12.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AB28" t="n">
         <v>11.5</v>
@@ -4252,7 +4252,7 @@
         <v>11</v>
       </c>
       <c r="AE28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF28" t="n">
         <v>25</v>
@@ -4273,16 +4273,16 @@
         <v>55</v>
       </c>
       <c r="AL28" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM28" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN28" t="n">
         <v>65</v>
       </c>
       <c r="AO28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29">
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="G29" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H29" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="I29" t="n">
-        <v>2.76</v>
+        <v>2.66</v>
       </c>
       <c r="J29" t="n">
         <v>3.4</v>
       </c>
       <c r="K29" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -4447,16 +4447,16 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="G30" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="H30" t="n">
         <v>2.88</v>
       </c>
       <c r="I30" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J30" t="n">
         <v>3.4</v>
@@ -4489,7 +4489,7 @@
         <v>3.1</v>
       </c>
       <c r="T30" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="U30" t="n">
         <v>2.22</v>
@@ -4498,7 +4498,7 @@
         <v>1.46</v>
       </c>
       <c r="W30" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="X30" t="n">
         <v>19.5</v>
@@ -4720,7 +4720,7 @@
         <v>1.84</v>
       </c>
       <c r="G32" t="n">
-        <v>2.5</v>
+        <v>980</v>
       </c>
       <c r="H32" t="n">
         <v>3.55</v>
@@ -4855,7 +4855,7 @@
         <v>1.98</v>
       </c>
       <c r="G33" t="n">
-        <v>2.62</v>
+        <v>980</v>
       </c>
       <c r="H33" t="n">
         <v>3.25</v>
@@ -4903,7 +4903,7 @@
         <v>1.24</v>
       </c>
       <c r="W33" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="X33" t="n">
         <v>1000</v>
@@ -5041,16 +5041,16 @@
         <v>1.28</v>
       </c>
       <c r="X34" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Y34" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z34" t="n">
         <v>15.5</v>
       </c>
       <c r="AA34" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AB34" t="n">
         <v>14.5</v>
@@ -5059,7 +5059,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD34" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AE34" t="n">
         <v>34</v>
@@ -5074,7 +5074,7 @@
         <v>26</v>
       </c>
       <c r="AI34" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ34" t="n">
         <v>1000</v>
@@ -5164,10 +5164,10 @@
         <v>3.75</v>
       </c>
       <c r="T35" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U35" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="V35" t="n">
         <v>1.36</v>
@@ -5392,22 +5392,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="G37" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="H37" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I37" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J37" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K37" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
@@ -5416,37 +5416,37 @@
         <v>1.09</v>
       </c>
       <c r="N37" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="O37" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P37" t="n">
         <v>1.72</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="R37" t="n">
         <v>1.27</v>
       </c>
       <c r="S37" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T37" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U37" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="V37" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W37" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="X37" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y37" t="n">
         <v>12</v>
@@ -5455,28 +5455,28 @@
         <v>24</v>
       </c>
       <c r="AA37" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB37" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AC37" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD37" t="n">
         <v>15.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF37" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG37" t="n">
         <v>12.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI37" t="n">
         <v>65</v>
@@ -5494,7 +5494,7 @@
         <v>150</v>
       </c>
       <c r="AN37" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO37" t="n">
         <v>55</v>
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="G39" t="n">
         <v>3.2</v>
@@ -5671,7 +5671,7 @@
         <v>2.88</v>
       </c>
       <c r="I39" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J39" t="n">
         <v>2.82</v>
@@ -5680,19 +5680,19 @@
         <v>3.05</v>
       </c>
       <c r="L39" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="M39" t="n">
         <v>1.13</v>
       </c>
       <c r="N39" t="n">
-        <v>2.54</v>
+        <v>2.46</v>
       </c>
       <c r="O39" t="n">
         <v>1.59</v>
       </c>
       <c r="P39" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="Q39" t="n">
         <v>2.78</v>
@@ -5710,7 +5710,7 @@
         <v>1.72</v>
       </c>
       <c r="V39" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="W39" t="n">
         <v>1.45</v>
@@ -5803,16 +5803,16 @@
         <v>2.96</v>
       </c>
       <c r="H40" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="I40" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J40" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K40" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L40" t="n">
         <v>1.01</v>
@@ -5821,34 +5821,34 @@
         <v>1.12</v>
       </c>
       <c r="N40" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="O40" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P40" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="R40" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S40" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="T40" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="U40" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="V40" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W40" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="X40" t="n">
         <v>9.4</v>
@@ -5869,7 +5869,7 @@
         <v>7.2</v>
       </c>
       <c r="AD40" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE40" t="n">
         <v>1000</v>
@@ -5881,7 +5881,7 @@
         <v>13.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI40" t="n">
         <v>1000</v>
@@ -5902,7 +5902,7 @@
         <v>1000</v>
       </c>
       <c r="AO40" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41">
@@ -5935,19 +5935,19 @@
         <v>1.62</v>
       </c>
       <c r="G41" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="H41" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="I41" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="J41" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="K41" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -5962,10 +5962,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>1.25</v>
+        <v>1.86</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -6067,16 +6067,16 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="G42" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="H42" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I42" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="J42" t="n">
         <v>3.75</v>
@@ -6103,10 +6103,10 @@
         <v>1.97</v>
       </c>
       <c r="R42" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S42" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T42" t="n">
         <v>1.86</v>
@@ -6115,10 +6115,10 @@
         <v>2.08</v>
       </c>
       <c r="V42" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W42" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X42" t="n">
         <v>18.5</v>
@@ -6145,7 +6145,7 @@
         <v>65</v>
       </c>
       <c r="AF42" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AG42" t="n">
         <v>11</v>
@@ -6157,7 +6157,7 @@
         <v>65</v>
       </c>
       <c r="AJ42" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK42" t="n">
         <v>21</v>
@@ -6169,7 +6169,7 @@
         <v>130</v>
       </c>
       <c r="AN42" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO42" t="n">
         <v>1000</v>
@@ -6205,7 +6205,7 @@
         <v>2.12</v>
       </c>
       <c r="G43" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="H43" t="n">
         <v>4.1</v>
@@ -6214,10 +6214,10 @@
         <v>4.5</v>
       </c>
       <c r="J43" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K43" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L43" t="n">
         <v>1.01</v>
@@ -6235,7 +6235,7 @@
         <v>1.62</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="R43" t="n">
         <v>1.22</v>
@@ -6253,7 +6253,7 @@
         <v>1.29</v>
       </c>
       <c r="W43" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="X43" t="n">
         <v>10.5</v>
@@ -6271,7 +6271,7 @@
         <v>7.8</v>
       </c>
       <c r="AC43" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD43" t="n">
         <v>19</v>
@@ -6337,10 +6337,10 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="G44" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="H44" t="n">
         <v>5.4</v>
@@ -6349,13 +6349,13 @@
         <v>6.2</v>
       </c>
       <c r="J44" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K44" t="n">
         <v>4.1</v>
       </c>
       <c r="L44" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M44" t="n">
         <v>1.07</v>
@@ -6370,7 +6370,7 @@
         <v>1.9</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R44" t="n">
         <v>1.34</v>
@@ -6388,7 +6388,7 @@
         <v>1.2</v>
       </c>
       <c r="W44" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="X44" t="n">
         <v>17.5</v>
@@ -6403,10 +6403,10 @@
         <v>1000</v>
       </c>
       <c r="AB44" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC44" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD44" t="n">
         <v>27</v>
@@ -6415,7 +6415,7 @@
         <v>1000</v>
       </c>
       <c r="AF44" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG44" t="n">
         <v>10.5</v>
@@ -6607,7 +6607,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="G46" t="n">
         <v>8.800000000000001</v>
@@ -6646,7 +6646,7 @@
         <v>1.53</v>
       </c>
       <c r="S46" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="T46" t="n">
         <v>1.93</v>
@@ -6673,7 +6673,7 @@
         <v>12.5</v>
       </c>
       <c r="AB46" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AC46" t="n">
         <v>12.5</v>
@@ -6700,10 +6700,10 @@
         <v>340</v>
       </c>
       <c r="AK46" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AL46" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AM46" t="n">
         <v>140</v>
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="G47" t="n">
         <v>3.45</v>
@@ -6751,25 +6751,25 @@
         <v>2.44</v>
       </c>
       <c r="I47" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J47" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="K47" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="L47" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="M47" t="n">
         <v>1.01</v>
       </c>
       <c r="N47" t="n">
-        <v>3.2</v>
+        <v>2.96</v>
       </c>
       <c r="O47" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P47" t="n">
         <v>1.74</v>
@@ -6778,22 +6778,22 @@
         <v>2.02</v>
       </c>
       <c r="R47" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S47" t="n">
         <v>3.25</v>
       </c>
       <c r="T47" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U47" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V47" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W47" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X47" t="n">
         <v>1000</v>
@@ -6877,16 +6877,16 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="G48" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="H48" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I48" t="n">
         <v>3.25</v>
-      </c>
-      <c r="I48" t="n">
-        <v>3.3</v>
       </c>
       <c r="J48" t="n">
         <v>3.45</v>
@@ -6925,10 +6925,10 @@
         <v>2.16</v>
       </c>
       <c r="V48" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W48" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="X48" t="n">
         <v>13</v>
@@ -6955,7 +6955,7 @@
         <v>38</v>
       </c>
       <c r="AF48" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG48" t="n">
         <v>11.5</v>
@@ -7180,7 +7180,7 @@
         <v>4.8</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="R50" t="n">
         <v>2.5</v>
@@ -7282,10 +7282,10 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="G51" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="H51" t="n">
         <v>4.7</v>
@@ -7306,7 +7306,7 @@
         <v>1.04</v>
       </c>
       <c r="N51" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O51" t="n">
         <v>1.23</v>
@@ -7315,7 +7315,7 @@
         <v>2.2</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R51" t="n">
         <v>1.47</v>
@@ -7330,19 +7330,19 @@
         <v>2.16</v>
       </c>
       <c r="V51" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W51" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="X51" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y51" t="n">
         <v>25</v>
       </c>
-      <c r="Y51" t="n">
-        <v>26</v>
-      </c>
       <c r="Z51" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA51" t="n">
         <v>140</v>
@@ -7354,7 +7354,7 @@
         <v>12</v>
       </c>
       <c r="AD51" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE51" t="n">
         <v>75</v>
@@ -7366,10 +7366,10 @@
         <v>12.5</v>
       </c>
       <c r="AH51" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI51" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ51" t="n">
         <v>22</v>
@@ -7387,7 +7387,7 @@
         <v>10.5</v>
       </c>
       <c r="AO51" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52">
@@ -7423,7 +7423,7 @@
         <v>2.4</v>
       </c>
       <c r="H52" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I52" t="n">
         <v>3.3</v>
@@ -7450,10 +7450,10 @@
         <v>2.16</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="R52" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S52" t="n">
         <v>3.05</v>
@@ -7468,7 +7468,7 @@
         <v>1.43</v>
       </c>
       <c r="W52" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="X52" t="n">
         <v>17.5</v>
@@ -7552,22 +7552,22 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.86</v>
+        <v>2.78</v>
       </c>
       <c r="G53" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H53" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="I53" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="J53" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K53" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L53" t="n">
         <v>1.32</v>
@@ -7582,16 +7582,16 @@
         <v>1.24</v>
       </c>
       <c r="P53" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R53" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S53" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="T53" t="n">
         <v>1.61</v>
@@ -7600,10 +7600,10 @@
         <v>2.54</v>
       </c>
       <c r="V53" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="W53" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="X53" t="n">
         <v>18.5</v>
@@ -7612,7 +7612,7 @@
         <v>14.5</v>
       </c>
       <c r="Z53" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AA53" t="n">
         <v>38</v>
@@ -7687,22 +7687,22 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="G54" t="n">
         <v>2.12</v>
       </c>
       <c r="H54" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I54" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J54" t="n">
         <v>4</v>
       </c>
       <c r="K54" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L54" t="n">
         <v>1.26</v>
@@ -7717,13 +7717,13 @@
         <v>1.16</v>
       </c>
       <c r="P54" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="R54" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="S54" t="n">
         <v>2.26</v>
@@ -7732,13 +7732,13 @@
         <v>1.5</v>
       </c>
       <c r="U54" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="V54" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W54" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="X54" t="n">
         <v>26</v>
@@ -7756,7 +7756,7 @@
         <v>16</v>
       </c>
       <c r="AC54" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD54" t="n">
         <v>16</v>
@@ -7822,16 +7822,16 @@
         </is>
       </c>
       <c r="F55" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G55" t="n">
         <v>2.6</v>
       </c>
-      <c r="G55" t="n">
-        <v>2.62</v>
-      </c>
       <c r="H55" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="I55" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="J55" t="n">
         <v>3.65</v>
@@ -7840,7 +7840,7 @@
         <v>3.7</v>
       </c>
       <c r="L55" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M55" t="n">
         <v>1.06</v>
@@ -7849,19 +7849,19 @@
         <v>4.2</v>
       </c>
       <c r="O55" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P55" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R55" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S55" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T55" t="n">
         <v>1.7</v>
@@ -7870,10 +7870,10 @@
         <v>2.38</v>
       </c>
       <c r="V55" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="W55" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="X55" t="n">
         <v>16</v>
@@ -7921,10 +7921,10 @@
         <v>38</v>
       </c>
       <c r="AM55" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN55" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AO55" t="n">
         <v>24</v>
@@ -7966,10 +7966,10 @@
         <v>3.25</v>
       </c>
       <c r="I56" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J56" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K56" t="n">
         <v>3.95</v>
@@ -7978,7 +7978,7 @@
         <v>1.31</v>
       </c>
       <c r="M56" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N56" t="n">
         <v>3.6</v>
@@ -8005,7 +8005,7 @@
         <v>2.08</v>
       </c>
       <c r="V56" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W56" t="n">
         <v>1.71</v>
@@ -8092,22 +8092,22 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G57" t="n">
         <v>3.8</v>
       </c>
       <c r="H57" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="I57" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="J57" t="n">
         <v>3.3</v>
       </c>
       <c r="K57" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L57" t="n">
         <v>1.34</v>
@@ -8134,13 +8134,13 @@
         <v>3.55</v>
       </c>
       <c r="T57" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U57" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V57" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="W57" t="n">
         <v>1.35</v>
@@ -8167,7 +8167,7 @@
         <v>970</v>
       </c>
       <c r="AE57" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF57" t="n">
         <v>26</v>
@@ -8185,7 +8185,7 @@
         <v>1000</v>
       </c>
       <c r="AK57" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AL57" t="n">
         <v>65</v>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="G58" t="n">
         <v>1.64</v>
@@ -8293,10 +8293,10 @@
         <v>1000</v>
       </c>
       <c r="AB58" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AC58" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AD58" t="n">
         <v>1000</v>
@@ -8305,22 +8305,22 @@
         <v>1000</v>
       </c>
       <c r="AF58" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AG58" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AH58" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AI58" t="n">
         <v>1000</v>
       </c>
       <c r="AJ58" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AK58" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AL58" t="n">
         <v>1000</v>
@@ -8371,7 +8371,7 @@
         <v>3.85</v>
       </c>
       <c r="I59" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J59" t="n">
         <v>3.7</v>
@@ -8497,7 +8497,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="G60" t="n">
         <v>2.08</v>
@@ -8539,7 +8539,7 @@
         <v>2.64</v>
       </c>
       <c r="T60" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U60" t="n">
         <v>2.16</v>
@@ -8635,7 +8635,7 @@
         <v>2.2</v>
       </c>
       <c r="G61" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="H61" t="n">
         <v>3</v>
@@ -8683,7 +8683,7 @@
         <v>1.37</v>
       </c>
       <c r="W61" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X61" t="n">
         <v>1000</v>
@@ -8767,7 +8767,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="G62" t="n">
         <v>2.84</v>
@@ -8782,7 +8782,7 @@
         <v>3.3</v>
       </c>
       <c r="K62" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L62" t="n">
         <v>1.42</v>
@@ -8797,7 +8797,7 @@
         <v>1.35</v>
       </c>
       <c r="P62" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q62" t="n">
         <v>2.04</v>
@@ -8809,10 +8809,10 @@
         <v>3.2</v>
       </c>
       <c r="T62" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U62" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V62" t="n">
         <v>1.5</v>
@@ -8902,7 +8902,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="G63" t="n">
         <v>1.52</v>
@@ -8914,7 +8914,7 @@
         <v>8</v>
       </c>
       <c r="J63" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K63" t="n">
         <v>5.1</v>
@@ -8932,10 +8932,10 @@
         <v>1.26</v>
       </c>
       <c r="P63" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="R63" t="n">
         <v>1.43</v>
@@ -8986,7 +8986,7 @@
         <v>11</v>
       </c>
       <c r="AH63" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI63" t="n">
         <v>130</v>
@@ -8998,7 +8998,7 @@
         <v>19</v>
       </c>
       <c r="AL63" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AM63" t="n">
         <v>160</v>
@@ -9049,7 +9049,7 @@
         <v>5</v>
       </c>
       <c r="J64" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K64" t="n">
         <v>3.9</v>
@@ -9067,7 +9067,7 @@
         <v>1.3</v>
       </c>
       <c r="P64" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q64" t="n">
         <v>1.89</v>
@@ -9094,10 +9094,10 @@
         <v>18.5</v>
       </c>
       <c r="Y64" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z64" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AA64" t="n">
         <v>120</v>
@@ -9109,7 +9109,7 @@
         <v>10.5</v>
       </c>
       <c r="AD64" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE64" t="n">
         <v>65</v>
@@ -9127,19 +9127,19 @@
         <v>65</v>
       </c>
       <c r="AJ64" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK64" t="n">
         <v>21</v>
       </c>
       <c r="AL64" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AM64" t="n">
         <v>120</v>
       </c>
       <c r="AN64" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO64" t="n">
         <v>1000</v>
@@ -9172,13 +9172,13 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G65" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H65" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="I65" t="n">
         <v>2.28</v>
@@ -9205,7 +9205,7 @@
         <v>2</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R65" t="n">
         <v>1.39</v>
@@ -9214,16 +9214,16 @@
         <v>3.2</v>
       </c>
       <c r="T65" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U65" t="n">
         <v>2.18</v>
       </c>
       <c r="V65" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="W65" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="X65" t="n">
         <v>19</v>
@@ -9307,19 +9307,19 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="G66" t="n">
-        <v>2.94</v>
+        <v>3.2</v>
       </c>
       <c r="H66" t="n">
-        <v>2.58</v>
+        <v>2.38</v>
       </c>
       <c r="I66" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="J66" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K66" t="n">
         <v>4</v>
@@ -9328,91 +9328,91 @@
         <v>1.29</v>
       </c>
       <c r="M66" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N66" t="n">
-        <v>3.3</v>
+        <v>3.85</v>
       </c>
       <c r="O66" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="P66" t="n">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R66" t="n">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="S66" t="n">
-        <v>2.5</v>
+        <v>3.05</v>
       </c>
       <c r="T66" t="n">
-        <v>1.04</v>
+        <v>1.66</v>
       </c>
       <c r="U66" t="n">
-        <v>1.04</v>
+        <v>2.2</v>
       </c>
       <c r="V66" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="W66" t="n">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="X66" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y66" t="n">
-        <v>18</v>
+        <v>12.5</v>
       </c>
       <c r="Z66" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN66" t="n">
         <v>28</v>
       </c>
-      <c r="AA66" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB66" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC66" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD66" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE66" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF66" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG66" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH66" t="n">
+      <c r="AO66" t="n">
         <v>22</v>
-      </c>
-      <c r="AI66" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ66" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK66" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL66" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM66" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN66" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO66" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="67">
@@ -9445,7 +9445,7 @@
         <v>1.9</v>
       </c>
       <c r="G67" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H67" t="n">
         <v>3.7</v>
@@ -9499,7 +9499,7 @@
         <v>980</v>
       </c>
       <c r="Y67" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z67" t="n">
         <v>980</v>
@@ -9508,10 +9508,10 @@
         <v>95</v>
       </c>
       <c r="AB67" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC67" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD67" t="n">
         <v>1000</v>
@@ -9526,7 +9526,7 @@
         <v>13</v>
       </c>
       <c r="AH67" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI67" t="n">
         <v>60</v>
@@ -9541,7 +9541,7 @@
         <v>980</v>
       </c>
       <c r="AM67" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN67" t="n">
         <v>1000</v>
@@ -9619,7 +9619,7 @@
         <v>3.55</v>
       </c>
       <c r="T68" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U68" t="n">
         <v>1.92</v>
@@ -9712,7 +9712,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2.54</v>
+        <v>2.64</v>
       </c>
       <c r="G69" t="n">
         <v>2.86</v>
@@ -9721,37 +9721,37 @@
         <v>2.6</v>
       </c>
       <c r="I69" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="J69" t="n">
         <v>3.55</v>
       </c>
       <c r="K69" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L69" t="n">
         <v>1.33</v>
       </c>
       <c r="M69" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N69" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O69" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P69" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="R69" t="n">
         <v>1.33</v>
       </c>
       <c r="S69" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T69" t="n">
         <v>1.75</v>
@@ -9760,13 +9760,13 @@
         <v>2.08</v>
       </c>
       <c r="V69" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="W69" t="n">
         <v>1.54</v>
       </c>
       <c r="X69" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y69" t="n">
         <v>1000</v>
@@ -9847,19 +9847,19 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H70" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I70" t="n">
         <v>4.7</v>
       </c>
       <c r="J70" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K70" t="n">
         <v>3.85</v>
@@ -9985,19 +9985,19 @@
         <v>1.37</v>
       </c>
       <c r="G71" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H71" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I71" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="J71" t="n">
         <v>4.9</v>
       </c>
       <c r="K71" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="L71" t="n">
         <v>1.31</v>
@@ -10006,13 +10006,13 @@
         <v>1.05</v>
       </c>
       <c r="N71" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O71" t="n">
         <v>1.26</v>
       </c>
       <c r="P71" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q71" t="n">
         <v>1.74</v>
@@ -10024,16 +10024,16 @@
         <v>2.94</v>
       </c>
       <c r="T71" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="U71" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="V71" t="n">
         <v>1.09</v>
       </c>
       <c r="W71" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="X71" t="n">
         <v>23</v>
@@ -10060,7 +10060,7 @@
         <v>1000</v>
       </c>
       <c r="AF71" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AG71" t="n">
         <v>10.5</v>
@@ -10120,13 +10120,13 @@
         <v>2.08</v>
       </c>
       <c r="G72" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H72" t="n">
         <v>4.1</v>
       </c>
       <c r="I72" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J72" t="n">
         <v>3.3</v>
@@ -10255,19 +10255,19 @@
         <v>2.58</v>
       </c>
       <c r="G73" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="H73" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="I73" t="n">
         <v>3.3</v>
       </c>
       <c r="J73" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K73" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L73" t="n">
         <v>1.4</v>
@@ -10279,13 +10279,13 @@
         <v>2.92</v>
       </c>
       <c r="O73" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P73" t="n">
         <v>1.65</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="R73" t="n">
         <v>1.24</v>
@@ -10300,10 +10300,10 @@
         <v>1.92</v>
       </c>
       <c r="V73" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W73" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="X73" t="n">
         <v>13</v>
@@ -10447,7 +10447,7 @@
         <v>16</v>
       </c>
       <c r="Z74" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA74" t="n">
         <v>65</v>
@@ -10657,10 +10657,10 @@
         </is>
       </c>
       <c r="F76" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G76" t="n">
         <v>1.69</v>
-      </c>
-      <c r="G76" t="n">
-        <v>1.7</v>
       </c>
       <c r="H76" t="n">
         <v>5.8</v>
@@ -10699,7 +10699,7 @@
         <v>3.2</v>
       </c>
       <c r="T76" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U76" t="n">
         <v>2.08</v>
@@ -10714,7 +10714,7 @@
         <v>16.5</v>
       </c>
       <c r="Y76" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Z76" t="n">
         <v>44</v>
@@ -10741,13 +10741,13 @@
         <v>9.6</v>
       </c>
       <c r="AH76" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI76" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ76" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AK76" t="n">
         <v>17</v>
@@ -10756,13 +10756,13 @@
         <v>36</v>
       </c>
       <c r="AM76" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN76" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AO76" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77">
@@ -10792,16 +10792,16 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="G77" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="H77" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I77" t="n">
         <v>2.14</v>
-      </c>
-      <c r="I77" t="n">
-        <v>2.18</v>
       </c>
       <c r="J77" t="n">
         <v>3.65</v>
@@ -10840,7 +10840,7 @@
         <v>2.12</v>
       </c>
       <c r="V77" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="W77" t="n">
         <v>1.35</v>
@@ -10861,7 +10861,7 @@
         <v>13.5</v>
       </c>
       <c r="AC77" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD77" t="n">
         <v>10.5</v>
@@ -10870,10 +10870,10 @@
         <v>23</v>
       </c>
       <c r="AF77" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG77" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH77" t="n">
         <v>18.5</v>
@@ -10891,7 +10891,7 @@
         <v>60</v>
       </c>
       <c r="AM77" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN77" t="n">
         <v>50</v>
@@ -10927,10 +10927,10 @@
         </is>
       </c>
       <c r="F78" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="G78" t="n">
         <v>1.52</v>
-      </c>
-      <c r="G78" t="n">
-        <v>1.53</v>
       </c>
       <c r="H78" t="n">
         <v>7.4</v>
@@ -10939,10 +10939,10 @@
         <v>7.6</v>
       </c>
       <c r="J78" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K78" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L78" t="n">
         <v>1.32</v>
@@ -10951,10 +10951,10 @@
         <v>1.05</v>
       </c>
       <c r="N78" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O78" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P78" t="n">
         <v>2.34</v>
@@ -10966,7 +10966,7 @@
         <v>1.53</v>
       </c>
       <c r="S78" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="T78" t="n">
         <v>1.9</v>
@@ -10978,7 +10978,7 @@
         <v>1.15</v>
       </c>
       <c r="W78" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="X78" t="n">
         <v>19.5</v>
@@ -10987,7 +10987,7 @@
         <v>27</v>
       </c>
       <c r="Z78" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AA78" t="n">
         <v>220</v>
@@ -10999,19 +10999,19 @@
         <v>10.5</v>
       </c>
       <c r="AD78" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE78" t="n">
         <v>95</v>
       </c>
       <c r="AF78" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AG78" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH78" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI78" t="n">
         <v>90</v>
@@ -11068,16 +11068,16 @@
         <v>1.24</v>
       </c>
       <c r="H79" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="I79" t="n">
         <v>15</v>
-      </c>
-      <c r="I79" t="n">
-        <v>15.5</v>
       </c>
       <c r="J79" t="n">
         <v>8</v>
       </c>
       <c r="K79" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L79" t="n">
         <v>1.21</v>
@@ -11086,22 +11086,22 @@
         <v>1.02</v>
       </c>
       <c r="N79" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O79" t="n">
         <v>1.12</v>
       </c>
       <c r="P79" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="R79" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="S79" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="T79" t="n">
         <v>1.91</v>
@@ -11110,10 +11110,10 @@
         <v>2.04</v>
       </c>
       <c r="V79" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W79" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="X79" t="n">
         <v>44</v>
@@ -11122,7 +11122,7 @@
         <v>65</v>
       </c>
       <c r="Z79" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AA79" t="n">
         <v>550</v>
@@ -11131,7 +11131,7 @@
         <v>14.5</v>
       </c>
       <c r="AC79" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AD79" t="n">
         <v>55</v>
@@ -11140,7 +11140,7 @@
         <v>170</v>
       </c>
       <c r="AF79" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AG79" t="n">
         <v>12</v>
@@ -11161,13 +11161,13 @@
         <v>32</v>
       </c>
       <c r="AM79" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AN79" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AO79" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="80">
@@ -11209,7 +11209,7 @@
         <v>2.26</v>
       </c>
       <c r="J80" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K80" t="n">
         <v>3.7</v>
@@ -11245,7 +11245,7 @@
         <v>2.18</v>
       </c>
       <c r="V80" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="W80" t="n">
         <v>1.38</v>
@@ -11302,7 +11302,7 @@
         <v>40</v>
       </c>
       <c r="AO80" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81">
@@ -11332,13 +11332,13 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G81" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H81" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="I81" t="n">
         <v>2.64</v>
@@ -11347,7 +11347,7 @@
         <v>3.25</v>
       </c>
       <c r="K81" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L81" t="n">
         <v>1.46</v>
@@ -11380,10 +11380,10 @@
         <v>2.04</v>
       </c>
       <c r="V81" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="W81" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X81" t="n">
         <v>14.5</v>
@@ -11476,7 +11476,7 @@
         <v>4.8</v>
       </c>
       <c r="I82" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="J82" t="n">
         <v>3.2</v>
@@ -11491,7 +11491,7 @@
         <v>1.01</v>
       </c>
       <c r="N82" t="n">
-        <v>1.49</v>
+        <v>2.1</v>
       </c>
       <c r="O82" t="n">
         <v>1.01</v>
@@ -11506,22 +11506,22 @@
         <v>1.16</v>
       </c>
       <c r="S82" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T82" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U82" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V82" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W82" t="n">
         <v>1.98</v>
       </c>
       <c r="X82" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y82" t="n">
         <v>1000</v>
@@ -11626,7 +11626,7 @@
         <v>1.01</v>
       </c>
       <c r="N83" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="O83" t="n">
         <v>1.01</v>
@@ -11779,7 +11779,7 @@
         <v>1.95</v>
       </c>
       <c r="T84" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="U84" t="n">
         <v>2.92</v>
@@ -12019,7 +12019,7 @@
         <v>5.2</v>
       </c>
       <c r="J86" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K86" t="n">
         <v>3.55</v>
@@ -12031,19 +12031,19 @@
         <v>1.1</v>
       </c>
       <c r="N86" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="O86" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P86" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R86" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S86" t="n">
         <v>4.5</v>
@@ -12142,7 +12142,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="G87" t="n">
         <v>3.35</v>
@@ -12175,16 +12175,16 @@
         <v>2.34</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R87" t="n">
         <v>1.55</v>
       </c>
       <c r="S87" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="T87" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="U87" t="n">
         <v>2.48</v>
@@ -12277,22 +12277,22 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="G88" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="H88" t="n">
         <v>1.84</v>
       </c>
       <c r="I88" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="J88" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K88" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L88" t="n">
         <v>1.01</v>
@@ -12301,28 +12301,28 @@
         <v>1.07</v>
       </c>
       <c r="N88" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O88" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P88" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="Q88" t="n">
         <v>1.98</v>
       </c>
       <c r="R88" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="S88" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="T88" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="U88" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V88" t="n">
         <v>2.12</v>
@@ -12331,31 +12331,31 @@
         <v>1.24</v>
       </c>
       <c r="X88" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y88" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="Z88" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AA88" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB88" t="n">
         <v>17.5</v>
       </c>
       <c r="AC88" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD88" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AE88" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF88" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AG88" t="n">
         <v>23</v>
@@ -12364,13 +12364,13 @@
         <v>21</v>
       </c>
       <c r="AI88" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AJ88" t="n">
         <v>150</v>
       </c>
       <c r="AK88" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AL88" t="n">
         <v>75</v>
@@ -12412,7 +12412,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="G89" t="n">
         <v>3.15</v>
@@ -12421,10 +12421,10 @@
         <v>2.6</v>
       </c>
       <c r="I89" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="J89" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K89" t="n">
         <v>3.6</v>
@@ -12442,7 +12442,7 @@
         <v>1.37</v>
       </c>
       <c r="P89" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q89" t="n">
         <v>2.08</v>
@@ -12451,16 +12451,16 @@
         <v>1.29</v>
       </c>
       <c r="S89" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="T89" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U89" t="n">
         <v>2.02</v>
       </c>
       <c r="V89" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="W89" t="n">
         <v>1.46</v>
@@ -12547,13 +12547,13 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G90" t="n">
         <v>2.98</v>
       </c>
       <c r="H90" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="I90" t="n">
         <v>3.35</v>
@@ -12562,43 +12562,43 @@
         <v>2.88</v>
       </c>
       <c r="K90" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="L90" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="M90" t="n">
         <v>1.07</v>
       </c>
       <c r="N90" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O90" t="n">
         <v>1.34</v>
       </c>
       <c r="P90" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="Q90" t="n">
         <v>2</v>
       </c>
       <c r="R90" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S90" t="n">
         <v>3.55</v>
       </c>
       <c r="T90" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U90" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="V90" t="n">
         <v>1.43</v>
       </c>
       <c r="W90" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X90" t="n">
         <v>1000</v>
@@ -12697,7 +12697,7 @@
         <v>2.78</v>
       </c>
       <c r="K91" t="n">
-        <v>950</v>
+        <v>5.2</v>
       </c>
       <c r="L91" t="n">
         <v>1.51</v>
@@ -12706,10 +12706,10 @@
         <v>1.01</v>
       </c>
       <c r="N91" t="n">
-        <v>1.54</v>
+        <v>2</v>
       </c>
       <c r="O91" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="P91" t="n">
         <v>1.47</v>
@@ -12721,13 +12721,13 @@
         <v>1.18</v>
       </c>
       <c r="S91" t="n">
-        <v>2.72</v>
+        <v>2.98</v>
       </c>
       <c r="T91" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U91" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V91" t="n">
         <v>1.63</v>
@@ -12817,13 +12817,13 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G92" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="H92" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I92" t="n">
         <v>3.85</v>
@@ -12832,10 +12832,10 @@
         <v>3</v>
       </c>
       <c r="K92" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L92" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M92" t="n">
         <v>1.08</v>
@@ -12844,25 +12844,25 @@
         <v>2.8</v>
       </c>
       <c r="O92" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P92" t="n">
         <v>1.6</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="R92" t="n">
         <v>1.22</v>
       </c>
       <c r="S92" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T92" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="U92" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V92" t="n">
         <v>1.35</v>
@@ -12871,10 +12871,10 @@
         <v>1.6</v>
       </c>
       <c r="X92" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y92" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z92" t="n">
         <v>1000</v>
@@ -12883,13 +12883,13 @@
         <v>1000</v>
       </c>
       <c r="AB92" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC92" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AD92" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AE92" t="n">
         <v>1000</v>
@@ -12898,7 +12898,7 @@
         <v>17.5</v>
       </c>
       <c r="AG92" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH92" t="n">
         <v>1000</v>
@@ -13087,25 +13087,25 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="G94" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H94" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="I94" t="n">
         <v>4.2</v>
       </c>
       <c r="J94" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="K94" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L94" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M94" t="n">
         <v>1.03</v>
@@ -13120,7 +13120,7 @@
         <v>2.54</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R94" t="n">
         <v>1.64</v>
@@ -13132,22 +13132,22 @@
         <v>1.55</v>
       </c>
       <c r="U94" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="V94" t="n">
         <v>1.31</v>
       </c>
       <c r="W94" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="X94" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y94" t="n">
         <v>27</v>
       </c>
       <c r="Z94" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AA94" t="n">
         <v>1000</v>
@@ -13171,7 +13171,7 @@
         <v>13.5</v>
       </c>
       <c r="AH94" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI94" t="n">
         <v>50</v>
@@ -13186,7 +13186,7 @@
         <v>32</v>
       </c>
       <c r="AM94" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN94" t="n">
         <v>10.5</v>
@@ -13222,7 +13222,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="G95" t="n">
         <v>1.72</v>
@@ -13231,13 +13231,13 @@
         <v>5.1</v>
       </c>
       <c r="I95" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J95" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K95" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L95" t="n">
         <v>1.31</v>
@@ -13270,16 +13270,16 @@
         <v>2.28</v>
       </c>
       <c r="V95" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W95" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="X95" t="n">
         <v>28</v>
       </c>
       <c r="Y95" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z95" t="n">
         <v>50</v>
@@ -13288,10 +13288,10 @@
         <v>130</v>
       </c>
       <c r="AB95" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC95" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD95" t="n">
         <v>24</v>
@@ -13300,10 +13300,10 @@
         <v>60</v>
       </c>
       <c r="AF95" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG95" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH95" t="n">
         <v>21</v>
@@ -13312,13 +13312,13 @@
         <v>70</v>
       </c>
       <c r="AJ95" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK95" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL95" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM95" t="n">
         <v>95</v>
@@ -13357,22 +13357,22 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="G96" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="H96" t="n">
         <v>6.6</v>
       </c>
       <c r="I96" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="J96" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K96" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L96" t="n">
         <v>1.01</v>
@@ -13390,7 +13390,7 @@
         <v>2.38</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="R96" t="n">
         <v>1.55</v>
@@ -13402,13 +13402,13 @@
         <v>1.58</v>
       </c>
       <c r="U96" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="V96" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W96" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="X96" t="n">
         <v>36</v>
@@ -13450,7 +13450,7 @@
         <v>19.5</v>
       </c>
       <c r="AK96" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL96" t="n">
         <v>38</v>
@@ -13498,7 +13498,7 @@
         <v>2.92</v>
       </c>
       <c r="H97" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="I97" t="n">
         <v>2.98</v>
@@ -13510,7 +13510,7 @@
         <v>4</v>
       </c>
       <c r="L97" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M97" t="n">
         <v>1.05</v>
@@ -13522,22 +13522,22 @@
         <v>1.27</v>
       </c>
       <c r="P97" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="R97" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S97" t="n">
         <v>3</v>
       </c>
       <c r="T97" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U97" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V97" t="n">
         <v>1.51</v>
@@ -13546,7 +13546,7 @@
         <v>1.52</v>
       </c>
       <c r="X97" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y97" t="n">
         <v>15.5</v>
@@ -13558,10 +13558,10 @@
         <v>1000</v>
       </c>
       <c r="AB97" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC97" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD97" t="n">
         <v>15.5</v>
@@ -13594,7 +13594,7 @@
         <v>1000</v>
       </c>
       <c r="AN97" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO97" t="n">
         <v>28</v>
@@ -13639,7 +13639,7 @@
         <v>6.6</v>
       </c>
       <c r="J98" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K98" t="n">
         <v>3.95</v>
@@ -13657,7 +13657,7 @@
         <v>1.38</v>
       </c>
       <c r="P98" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="Q98" t="n">
         <v>2.14</v>
@@ -13678,10 +13678,10 @@
         <v>1.18</v>
       </c>
       <c r="W98" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="X98" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y98" t="n">
         <v>18</v>
@@ -13762,7 +13762,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="G99" t="n">
         <v>2.02</v>
@@ -13771,13 +13771,13 @@
         <v>4.1</v>
       </c>
       <c r="I99" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J99" t="n">
         <v>3.9</v>
       </c>
       <c r="K99" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L99" t="n">
         <v>1.01</v>
@@ -13786,7 +13786,7 @@
         <v>1.05</v>
       </c>
       <c r="N99" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O99" t="n">
         <v>1.23</v>
@@ -13795,10 +13795,10 @@
         <v>2.2</v>
       </c>
       <c r="Q99" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R99" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S99" t="n">
         <v>2.7</v>
@@ -13897,10 +13897,10 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="G100" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H100" t="n">
         <v>5</v>
@@ -13912,7 +13912,7 @@
         <v>2.92</v>
       </c>
       <c r="K100" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="L100" t="n">
         <v>1.47</v>
@@ -13921,13 +13921,13 @@
         <v>1.01</v>
       </c>
       <c r="N100" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="O100" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="P100" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="Q100" t="n">
         <v>2.26</v>
@@ -13936,7 +13936,7 @@
         <v>1.13</v>
       </c>
       <c r="S100" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="T100" t="n">
         <v>1.01</v>
@@ -13948,7 +13948,7 @@
         <v>1.11</v>
       </c>
       <c r="W100" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="X100" t="n">
         <v>1000</v>
@@ -14056,16 +14056,16 @@
         <v>1.01</v>
       </c>
       <c r="N101" t="n">
-        <v>2.28</v>
+        <v>2.04</v>
       </c>
       <c r="O101" t="n">
         <v>1.22</v>
       </c>
       <c r="P101" t="n">
-        <v>2.28</v>
+        <v>2.04</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R101" t="n">
         <v>1.42</v>
@@ -14179,7 +14179,7 @@
         <v>2.04</v>
       </c>
       <c r="J102" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K102" t="n">
         <v>4.4</v>
@@ -14206,7 +14206,7 @@
         <v>1.48</v>
       </c>
       <c r="S102" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="T102" t="n">
         <v>1.63</v>
@@ -14311,13 +14311,13 @@
         <v>14.5</v>
       </c>
       <c r="I103" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="J103" t="n">
         <v>6.8</v>
       </c>
       <c r="K103" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L103" t="n">
         <v>1.2</v>
@@ -14332,7 +14332,7 @@
         <v>1.14</v>
       </c>
       <c r="P103" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="Q103" t="n">
         <v>1.44</v>
@@ -14341,10 +14341,10 @@
         <v>1.76</v>
       </c>
       <c r="S103" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="T103" t="n">
         <v>2.06</v>
-      </c>
-      <c r="T103" t="n">
-        <v>2.02</v>
       </c>
       <c r="U103" t="n">
         <v>1.8</v>
@@ -14386,7 +14386,7 @@
         <v>14.5</v>
       </c>
       <c r="AH103" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AI103" t="n">
         <v>1000</v>
@@ -14404,7 +14404,7 @@
         <v>1000</v>
       </c>
       <c r="AN103" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="AO103" t="n">
         <v>1000</v>
@@ -14437,25 +14437,25 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="G104" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="H104" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="I104" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="J104" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K104" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L104" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M104" t="n">
         <v>1.05</v>
@@ -14470,31 +14470,31 @@
         <v>2.3</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R104" t="n">
         <v>1.52</v>
       </c>
       <c r="S104" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="T104" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U104" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="V104" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="W104" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X104" t="n">
         <v>19.5</v>
       </c>
       <c r="Y104" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z104" t="n">
         <v>15</v>
@@ -14515,7 +14515,7 @@
         <v>19.5</v>
       </c>
       <c r="AF104" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG104" t="n">
         <v>14.5</v>
@@ -14524,13 +14524,13 @@
         <v>15.5</v>
       </c>
       <c r="AI104" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ104" t="n">
         <v>65</v>
       </c>
       <c r="AK104" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AL104" t="n">
         <v>42</v>
@@ -14539,7 +14539,7 @@
         <v>60</v>
       </c>
       <c r="AN104" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO104" t="n">
         <v>12</v>
@@ -14572,85 +14572,85 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G105" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="H105" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I105" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="J105" t="n">
         <v>3.9</v>
       </c>
       <c r="K105" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L105" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M105" t="n">
         <v>1.04</v>
       </c>
       <c r="N105" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="O105" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P105" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="Q105" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="R105" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S105" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="T105" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="U105" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="V105" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="W105" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="X105" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y105" t="n">
         <v>19</v>
       </c>
       <c r="Z105" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA105" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB105" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC105" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD105" t="n">
         <v>14.5</v>
       </c>
       <c r="AE105" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF105" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AG105" t="n">
         <v>11.5</v>
@@ -14659,10 +14659,10 @@
         <v>14.5</v>
       </c>
       <c r="AI105" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ105" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AK105" t="n">
         <v>20</v>
@@ -14674,10 +14674,10 @@
         <v>55</v>
       </c>
       <c r="AN105" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AO105" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="106">
@@ -14719,7 +14719,7 @@
         <v>1.36</v>
       </c>
       <c r="J106" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="K106" t="n">
         <v>7.2</v>
@@ -14737,7 +14737,7 @@
         <v>1.16</v>
       </c>
       <c r="P106" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="Q106" t="n">
         <v>1.48</v>
@@ -14845,13 +14845,13 @@
         <v>2.3</v>
       </c>
       <c r="G107" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="H107" t="n">
         <v>3.95</v>
       </c>
       <c r="I107" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J107" t="n">
         <v>3.15</v>
@@ -14872,7 +14872,7 @@
         <v>1.56</v>
       </c>
       <c r="P107" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="Q107" t="n">
         <v>2.72</v>
@@ -14890,7 +14890,7 @@
         <v>1.78</v>
       </c>
       <c r="V107" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W107" t="n">
         <v>1.75</v>
@@ -14983,76 +14983,76 @@
         <v>2.36</v>
       </c>
       <c r="H108" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I108" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J108" t="n">
         <v>3.2</v>
       </c>
       <c r="K108" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L108" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="M108" t="n">
         <v>1.11</v>
       </c>
       <c r="N108" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="O108" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="P108" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q108" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="R108" t="n">
         <v>1.2</v>
       </c>
       <c r="S108" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="T108" t="n">
         <v>2.1</v>
       </c>
       <c r="U108" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V108" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W108" t="n">
         <v>1.73</v>
       </c>
       <c r="X108" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="Y108" t="n">
         <v>11</v>
       </c>
       <c r="Z108" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA108" t="n">
         <v>110</v>
       </c>
       <c r="AB108" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC108" t="n">
         <v>7.6</v>
       </c>
-      <c r="AC108" t="n">
-        <v>7.8</v>
-      </c>
       <c r="AD108" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE108" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF108" t="n">
         <v>14</v>
@@ -15064,13 +15064,13 @@
         <v>25</v>
       </c>
       <c r="AI108" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ108" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AK108" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AL108" t="n">
         <v>65</v>
@@ -15079,7 +15079,7 @@
         <v>230</v>
       </c>
       <c r="AN108" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AO108" t="n">
         <v>110</v>
@@ -15157,7 +15157,7 @@
         <v>1.6</v>
       </c>
       <c r="U109" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V109" t="n">
         <v>1.4</v>
@@ -15175,10 +15175,10 @@
         <v>27</v>
       </c>
       <c r="AA109" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB109" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC109" t="n">
         <v>9.199999999999999</v>
@@ -15202,13 +15202,13 @@
         <v>40</v>
       </c>
       <c r="AJ109" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK109" t="n">
         <v>21</v>
       </c>
       <c r="AL109" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM109" t="n">
         <v>65</v>
@@ -15247,16 +15247,16 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="G110" t="n">
         <v>1.82</v>
       </c>
       <c r="H110" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I110" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J110" t="n">
         <v>3.65</v>
@@ -15274,10 +15274,10 @@
         <v>3.1</v>
       </c>
       <c r="O110" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P110" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="Q110" t="n">
         <v>2.22</v>
@@ -15289,7 +15289,7 @@
         <v>4.2</v>
       </c>
       <c r="T110" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U110" t="n">
         <v>1.79</v>
@@ -15304,22 +15304,22 @@
         <v>14</v>
       </c>
       <c r="Y110" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z110" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AA110" t="n">
         <v>200</v>
       </c>
       <c r="AB110" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="AC110" t="n">
         <v>10.5</v>
       </c>
       <c r="AD110" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE110" t="n">
         <v>120</v>
@@ -15406,7 +15406,7 @@
         <v>1.08</v>
       </c>
       <c r="N111" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O111" t="n">
         <v>1.37</v>
@@ -15430,7 +15430,7 @@
         <v>1.94</v>
       </c>
       <c r="V111" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="W111" t="n">
         <v>1.26</v>
@@ -15517,16 +15517,16 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="G112" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="H112" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="I112" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="J112" t="n">
         <v>3.3</v>
@@ -15538,7 +15538,7 @@
         <v>1.45</v>
       </c>
       <c r="M112" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N112" t="n">
         <v>3.3</v>
@@ -15550,7 +15550,7 @@
         <v>1.79</v>
       </c>
       <c r="Q112" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R112" t="n">
         <v>1.29</v>
@@ -15559,13 +15559,13 @@
         <v>3.9</v>
       </c>
       <c r="T112" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="U112" t="n">
         <v>2.04</v>
       </c>
       <c r="V112" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="W112" t="n">
         <v>1.56</v>
@@ -15580,7 +15580,7 @@
         <v>20</v>
       </c>
       <c r="AA112" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AB112" t="n">
         <v>10.5</v>
@@ -15592,7 +15592,7 @@
         <v>13.5</v>
       </c>
       <c r="AE112" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AF112" t="n">
         <v>18</v>
@@ -15601,25 +15601,25 @@
         <v>13</v>
       </c>
       <c r="AH112" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI112" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AJ112" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AK112" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AL112" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AM112" t="n">
         <v>130</v>
       </c>
       <c r="AN112" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO112" t="n">
         <v>1000</v>
@@ -15652,13 +15652,13 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="G113" t="n">
         <v>1.15</v>
       </c>
       <c r="H113" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I113" t="n">
         <v>36</v>
@@ -15697,7 +15697,7 @@
         <v>2.38</v>
       </c>
       <c r="U113" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="V113" t="n">
         <v>1.03</v>
@@ -15706,7 +15706,7 @@
         <v>7.6</v>
       </c>
       <c r="X113" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="Y113" t="n">
         <v>100</v>
@@ -15721,7 +15721,7 @@
         <v>14</v>
       </c>
       <c r="AC113" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AD113" t="n">
         <v>120</v>
@@ -15733,7 +15733,7 @@
         <v>8.6</v>
       </c>
       <c r="AG113" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH113" t="n">
         <v>65</v>
@@ -15742,10 +15742,10 @@
         <v>1000</v>
       </c>
       <c r="AJ113" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AK113" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AL113" t="n">
         <v>65</v>
@@ -15796,13 +15796,13 @@
         <v>3.25</v>
       </c>
       <c r="I114" t="n">
-        <v>9.4</v>
+        <v>6.6</v>
       </c>
       <c r="J114" t="n">
         <v>3.7</v>
       </c>
       <c r="K114" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L114" t="n">
         <v>1.01</v>
@@ -15817,7 +15817,7 @@
         <v>1.21</v>
       </c>
       <c r="P114" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="Q114" t="n">
         <v>1.22</v>
@@ -15925,7 +15925,7 @@
         <v>2.04</v>
       </c>
       <c r="G115" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H115" t="n">
         <v>3.2</v>
@@ -15952,16 +15952,16 @@
         <v>1.15</v>
       </c>
       <c r="P115" t="n">
-        <v>2.44</v>
+        <v>1.25</v>
       </c>
       <c r="Q115" t="n">
         <v>1.15</v>
       </c>
       <c r="R115" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S115" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="T115" t="n">
         <v>1.01</v>
@@ -15970,10 +15970,10 @@
         <v>1.01</v>
       </c>
       <c r="V115" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W115" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="X115" t="n">
         <v>1000</v>
@@ -16057,22 +16057,22 @@
         </is>
       </c>
       <c r="F116" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G116" t="n">
         <v>2.34</v>
       </c>
-      <c r="G116" t="n">
-        <v>2.44</v>
-      </c>
       <c r="H116" t="n">
-        <v>2.78</v>
+        <v>2.92</v>
       </c>
       <c r="I116" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J116" t="n">
         <v>4.3</v>
       </c>
       <c r="K116" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L116" t="n">
         <v>1.26</v>
@@ -16093,34 +16093,34 @@
         <v>1.51</v>
       </c>
       <c r="R116" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="S116" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="T116" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="U116" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="V116" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="W116" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="X116" t="n">
         <v>29</v>
       </c>
       <c r="Y116" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z116" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AA116" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AB116" t="n">
         <v>17.5</v>
@@ -16132,10 +16132,10 @@
         <v>14</v>
       </c>
       <c r="AE116" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AF116" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG116" t="n">
         <v>12</v>
@@ -16144,13 +16144,13 @@
         <v>14.5</v>
       </c>
       <c r="AI116" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ116" t="n">
         <v>34</v>
       </c>
       <c r="AK116" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL116" t="n">
         <v>26</v>
@@ -16159,10 +16159,10 @@
         <v>50</v>
       </c>
       <c r="AN116" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO116" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="117">
@@ -16198,7 +16198,7 @@
         <v>2.04</v>
       </c>
       <c r="H117" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I117" t="n">
         <v>4.3</v>
@@ -16207,37 +16207,37 @@
         <v>3.8</v>
       </c>
       <c r="K117" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L117" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M117" t="n">
         <v>1.05</v>
       </c>
       <c r="N117" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="O117" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P117" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R117" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S117" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T117" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U117" t="n">
         <v>2.28</v>
-      </c>
-      <c r="Q117" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="R117" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S117" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="T117" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="U117" t="n">
-        <v>2.36</v>
       </c>
       <c r="V117" t="n">
         <v>1.31</v>
@@ -16246,10 +16246,10 @@
         <v>1.96</v>
       </c>
       <c r="X117" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y117" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z117" t="n">
         <v>34</v>
@@ -16261,10 +16261,10 @@
         <v>12.5</v>
       </c>
       <c r="AC117" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD117" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE117" t="n">
         <v>46</v>
@@ -16276,10 +16276,10 @@
         <v>11.5</v>
       </c>
       <c r="AH117" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI117" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ117" t="n">
         <v>25</v>
@@ -16297,7 +16297,7 @@
         <v>11.5</v>
       </c>
       <c r="AO117" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="118">
@@ -16477,7 +16477,7 @@
         <v>4.2</v>
       </c>
       <c r="K119" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L119" t="n">
         <v>1.27</v>
@@ -16489,7 +16489,7 @@
         <v>4.2</v>
       </c>
       <c r="O119" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P119" t="n">
         <v>2.1</v>
@@ -16501,7 +16501,7 @@
         <v>1.43</v>
       </c>
       <c r="S119" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="T119" t="n">
         <v>1.82</v>
@@ -16510,7 +16510,7 @@
         <v>2.02</v>
       </c>
       <c r="V119" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="W119" t="n">
         <v>1.16</v>
@@ -16519,7 +16519,7 @@
         <v>23</v>
       </c>
       <c r="Y119" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z119" t="n">
         <v>10.5</v>
@@ -16528,10 +16528,10 @@
         <v>19.5</v>
       </c>
       <c r="AB119" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC119" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD119" t="n">
         <v>12</v>
@@ -16543,13 +16543,13 @@
         <v>60</v>
       </c>
       <c r="AG119" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH119" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI119" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ119" t="n">
         <v>180</v>
@@ -16597,7 +16597,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G120" t="n">
         <v>2.1</v>
@@ -16609,10 +16609,10 @@
         <v>4.6</v>
       </c>
       <c r="J120" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K120" t="n">
         <v>3.35</v>
-      </c>
-      <c r="K120" t="n">
-        <v>3.4</v>
       </c>
       <c r="L120" t="n">
         <v>1.52</v>
@@ -16624,7 +16624,7 @@
         <v>3.1</v>
       </c>
       <c r="O120" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P120" t="n">
         <v>1.68</v>
@@ -16636,7 +16636,7 @@
         <v>1.25</v>
       </c>
       <c r="S120" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T120" t="n">
         <v>2.06</v>
@@ -16645,10 +16645,10 @@
         <v>1.88</v>
       </c>
       <c r="V120" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W120" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="X120" t="n">
         <v>9.800000000000001</v>
@@ -16660,7 +16660,7 @@
         <v>30</v>
       </c>
       <c r="AA120" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB120" t="n">
         <v>8.199999999999999</v>
@@ -16735,7 +16735,7 @@
         <v>1.9</v>
       </c>
       <c r="G121" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="H121" t="n">
         <v>4.2</v>
@@ -16759,13 +16759,13 @@
         <v>4.4</v>
       </c>
       <c r="O121" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P121" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q121" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="R121" t="n">
         <v>1.46</v>
@@ -16783,7 +16783,7 @@
         <v>1.28</v>
       </c>
       <c r="W121" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X121" t="n">
         <v>23</v>
@@ -16792,7 +16792,7 @@
         <v>22</v>
       </c>
       <c r="Z121" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AA121" t="n">
         <v>110</v>
@@ -16804,10 +16804,10 @@
         <v>11</v>
       </c>
       <c r="AD121" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AE121" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF121" t="n">
         <v>14</v>
@@ -16825,7 +16825,7 @@
         <v>27</v>
       </c>
       <c r="AK121" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL121" t="n">
         <v>34</v>
@@ -16867,16 +16867,16 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="G122" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="H122" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="I122" t="n">
         <v>1.59</v>
-      </c>
-      <c r="I122" t="n">
-        <v>1.61</v>
       </c>
       <c r="J122" t="n">
         <v>4.2</v>
@@ -16885,22 +16885,22 @@
         <v>4.3</v>
       </c>
       <c r="L122" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M122" t="n">
         <v>1.08</v>
       </c>
       <c r="N122" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O122" t="n">
         <v>1.38</v>
       </c>
       <c r="P122" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="Q122" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R122" t="n">
         <v>1.31</v>
@@ -16915,25 +16915,25 @@
         <v>1.77</v>
       </c>
       <c r="V122" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="W122" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="X122" t="n">
         <v>12.5</v>
       </c>
       <c r="Y122" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Z122" t="n">
         <v>7.6</v>
       </c>
       <c r="AA122" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AB122" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AC122" t="n">
         <v>9.4</v>
@@ -16942,10 +16942,10 @@
         <v>10.5</v>
       </c>
       <c r="AE122" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF122" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG122" t="n">
         <v>28</v>
@@ -16957,7 +16957,7 @@
         <v>46</v>
       </c>
       <c r="AJ122" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="AK122" t="n">
         <v>140</v>
@@ -16966,13 +16966,13 @@
         <v>130</v>
       </c>
       <c r="AM122" t="n">
-        <v>320</v>
+        <v>180</v>
       </c>
       <c r="AN122" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AO122" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="123">
@@ -17002,7 +17002,7 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="G123" t="n">
         <v>2.8</v>
@@ -17011,7 +17011,7 @@
         <v>2.84</v>
       </c>
       <c r="I123" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="J123" t="n">
         <v>3.4</v>
@@ -17020,46 +17020,46 @@
         <v>3.45</v>
       </c>
       <c r="L123" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M123" t="n">
         <v>1.09</v>
       </c>
       <c r="N123" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="O123" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P123" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="Q123" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="R123" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="S123" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="T123" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="U123" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="V123" t="n">
         <v>1.53</v>
       </c>
       <c r="W123" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="X123" t="n">
         <v>12</v>
       </c>
       <c r="Y123" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z123" t="n">
         <v>17.5</v>
@@ -17077,13 +17077,13 @@
         <v>13</v>
       </c>
       <c r="AE123" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AF123" t="n">
         <v>17</v>
       </c>
       <c r="AG123" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH123" t="n">
         <v>18.5</v>
@@ -17098,13 +17098,13 @@
         <v>32</v>
       </c>
       <c r="AL123" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM123" t="n">
         <v>100</v>
       </c>
       <c r="AN123" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AO123" t="n">
         <v>32</v>
@@ -17176,10 +17176,10 @@
         <v>2</v>
       </c>
       <c r="S124" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="T124" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="U124" t="n">
         <v>2.06</v>
@@ -17206,13 +17206,13 @@
         <v>14.5</v>
       </c>
       <c r="AC124" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AD124" t="n">
         <v>50</v>
       </c>
       <c r="AE124" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="AF124" t="n">
         <v>9.800000000000001</v>
@@ -17407,22 +17407,22 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="G126" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="H126" t="n">
         <v>3.15</v>
       </c>
       <c r="I126" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J126" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K126" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L126" t="n">
         <v>1.5</v>
@@ -17449,22 +17449,22 @@
         <v>4.2</v>
       </c>
       <c r="T126" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U126" t="n">
         <v>1.98</v>
       </c>
       <c r="V126" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W126" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="X126" t="n">
         <v>13</v>
       </c>
       <c r="Y126" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z126" t="n">
         <v>26</v>
@@ -17473,7 +17473,7 @@
         <v>60</v>
       </c>
       <c r="AB126" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC126" t="n">
         <v>8.4</v>
@@ -17482,7 +17482,7 @@
         <v>16.5</v>
       </c>
       <c r="AE126" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF126" t="n">
         <v>19.5</v>
@@ -17545,13 +17545,13 @@
         <v>1.63</v>
       </c>
       <c r="G127" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="H127" t="n">
         <v>5.1</v>
       </c>
       <c r="I127" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J127" t="n">
         <v>3.8</v>
@@ -18004,7 +18004,7 @@
         <v>17.5</v>
       </c>
       <c r="Y130" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z130" t="n">
         <v>27</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-20.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G2" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H2" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="I2" t="n">
         <v>2.18</v>
@@ -700,10 +700,10 @@
         <v>3.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="R2" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="S2" t="n">
         <v>2.02</v>
@@ -712,13 +712,13 @@
         <v>1.43</v>
       </c>
       <c r="U2" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="V2" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="W2" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="X2" t="n">
         <v>38</v>
@@ -727,7 +727,7 @@
         <v>20</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AA2" t="n">
         <v>32</v>
@@ -736,13 +736,13 @@
         <v>26</v>
       </c>
       <c r="AC2" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD2" t="n">
         <v>12</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF2" t="n">
         <v>32</v>
@@ -754,22 +754,22 @@
         <v>14.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ2" t="n">
         <v>55</v>
       </c>
       <c r="AK2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL2" t="n">
         <v>29</v>
       </c>
       <c r="AM2" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AN2" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AO2" t="n">
         <v>8</v>
@@ -811,7 +811,7 @@
         <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J3" t="n">
         <v>3.8</v>
@@ -826,13 +826,13 @@
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
         <v>1.31</v>
       </c>
       <c r="P3" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q3" t="n">
         <v>1.91</v>
@@ -901,10 +901,10 @@
         <v>36</v>
       </c>
       <c r="AM3" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN3" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AO3" t="n">
         <v>34</v>
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="G4" t="n">
         <v>2.98</v>
       </c>
       <c r="H4" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="I4" t="n">
         <v>3.15</v>
@@ -1015,7 +1015,7 @@
         <v>980</v>
       </c>
       <c r="AF4" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
         <v>16</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="G5" t="n">
         <v>1.88</v>
@@ -1084,13 +1084,13 @@
         <v>5.5</v>
       </c>
       <c r="J5" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K5" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
@@ -1102,16 +1102,16 @@
         <v>1.3</v>
       </c>
       <c r="P5" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R5" t="n">
         <v>1.28</v>
       </c>
       <c r="S5" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="T5" t="n">
         <v>1.04</v>
@@ -1123,7 +1123,7 @@
         <v>1.23</v>
       </c>
       <c r="W5" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="X5" t="n">
         <v>19.5</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="G6" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="H6" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I6" t="n">
         <v>2.64</v>
       </c>
-      <c r="I6" t="n">
-        <v>2.66</v>
-      </c>
       <c r="J6" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K6" t="n">
         <v>4</v>
@@ -1231,22 +1231,22 @@
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="O6" t="n">
         <v>1.21</v>
       </c>
       <c r="P6" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="Q6" t="n">
         <v>1.65</v>
       </c>
       <c r="R6" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="S6" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T6" t="n">
         <v>1.57</v>
@@ -1258,10 +1258,10 @@
         <v>1.6</v>
       </c>
       <c r="W6" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="X6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y6" t="n">
         <v>15.5</v>
@@ -1270,7 +1270,7 @@
         <v>20</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AB6" t="n">
         <v>16.5</v>
@@ -1297,7 +1297,7 @@
         <v>32</v>
       </c>
       <c r="AJ6" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AK6" t="n">
         <v>26</v>
@@ -1309,10 +1309,10 @@
         <v>60</v>
       </c>
       <c r="AN6" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="7">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="G7" t="n">
         <v>2.02</v>
@@ -1354,7 +1354,7 @@
         <v>4.6</v>
       </c>
       <c r="J7" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K7" t="n">
         <v>3.85</v>
@@ -1390,10 +1390,10 @@
         <v>2.18</v>
       </c>
       <c r="V7" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W7" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="X7" t="n">
         <v>19.5</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="G8" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H8" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I8" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
         <v>4.2</v>
@@ -1501,7 +1501,7 @@
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O8" t="n">
         <v>1.21</v>
@@ -1516,22 +1516,22 @@
         <v>1.54</v>
       </c>
       <c r="S8" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="T8" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U8" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="V8" t="n">
         <v>1.25</v>
       </c>
       <c r="W8" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="X8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
         <v>22</v>
@@ -1543,7 +1543,7 @@
         <v>110</v>
       </c>
       <c r="AB8" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AC8" t="n">
         <v>9.800000000000001</v>
@@ -1555,10 +1555,10 @@
         <v>55</v>
       </c>
       <c r="AF8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH8" t="n">
         <v>22</v>
@@ -1567,7 +1567,7 @@
         <v>55</v>
       </c>
       <c r="AJ8" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AK8" t="n">
         <v>16.5</v>
@@ -1582,7 +1582,7 @@
         <v>8.6</v>
       </c>
       <c r="AO8" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
@@ -1618,7 +1618,7 @@
         <v>1.98</v>
       </c>
       <c r="H9" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I9" t="n">
         <v>4.2</v>
@@ -1654,7 +1654,7 @@
         <v>2.64</v>
       </c>
       <c r="T9" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U9" t="n">
         <v>2.44</v>
@@ -1690,7 +1690,7 @@
         <v>42</v>
       </c>
       <c r="AF9" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AG9" t="n">
         <v>10.5</v>
@@ -1705,7 +1705,7 @@
         <v>23</v>
       </c>
       <c r="AK9" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL9" t="n">
         <v>29</v>
@@ -1747,31 +1747,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="G10" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="H10" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="I10" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K10" t="n">
         <v>4.1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4.2</v>
       </c>
       <c r="L10" t="n">
         <v>1.28</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O10" t="n">
         <v>1.18</v>
@@ -1783,28 +1783,28 @@
         <v>1.55</v>
       </c>
       <c r="R10" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="S10" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="T10" t="n">
         <v>1.52</v>
       </c>
       <c r="U10" t="n">
-        <v>2.76</v>
+        <v>2.84</v>
       </c>
       <c r="V10" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W10" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="X10" t="n">
         <v>25</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Z10" t="n">
         <v>25</v>
@@ -1816,22 +1816,22 @@
         <v>16.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD10" t="n">
         <v>14</v>
       </c>
       <c r="AE10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF10" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AG10" t="n">
         <v>12</v>
       </c>
       <c r="AH10" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AI10" t="n">
         <v>32</v>
@@ -1840,7 +1840,7 @@
         <v>32</v>
       </c>
       <c r="AK10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL10" t="n">
         <v>27</v>
@@ -1849,10 +1849,10 @@
         <v>55</v>
       </c>
       <c r="AN10" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AO10" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="G11" t="n">
         <v>2.08</v>
@@ -1897,7 +1897,7 @@
         <v>3.8</v>
       </c>
       <c r="K11" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G12" t="n">
         <v>3.25</v>
@@ -2026,16 +2026,16 @@
         <v>2.54</v>
       </c>
       <c r="I12" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="J12" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K12" t="n">
         <v>3.6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M12" t="n">
         <v>1.08</v>
@@ -2050,7 +2050,7 @@
         <v>1.74</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R12" t="n">
         <v>1.28</v>
@@ -2059,13 +2059,13 @@
         <v>3.8</v>
       </c>
       <c r="T12" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U12" t="n">
         <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="W12" t="n">
         <v>1.45</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="G13" t="n">
-        <v>2.84</v>
+        <v>3.5</v>
       </c>
       <c r="H13" t="n">
-        <v>2.6</v>
+        <v>2.36</v>
       </c>
       <c r="I13" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="K13" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="L13" t="n">
         <v>1.35</v>
@@ -2176,7 +2176,7 @@
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>2.78</v>
+        <v>2.26</v>
       </c>
       <c r="O13" t="n">
         <v>1.37</v>
@@ -2200,10 +2200,10 @@
         <v>1.04</v>
       </c>
       <c r="V13" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="W13" t="n">
-        <v>1.54</v>
+        <v>1.4</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
@@ -2290,7 +2290,7 @@
         <v>2.46</v>
       </c>
       <c r="G14" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H14" t="n">
         <v>2.52</v>
@@ -2311,13 +2311,13 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="P14" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="Q14" t="n">
         <v>1.97</v>
@@ -2338,7 +2338,7 @@
         <v>1.43</v>
       </c>
       <c r="W14" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="G15" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="H15" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="I15" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
         <v>3.1</v>
@@ -2470,13 +2470,13 @@
         <v>1.98</v>
       </c>
       <c r="V15" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W15" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X15" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Y15" t="n">
         <v>12.5</v>
@@ -2494,22 +2494,22 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD15" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE15" t="n">
         <v>44</v>
       </c>
       <c r="AF15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI15" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ15" t="n">
         <v>60</v>
@@ -2563,7 +2563,7 @@
         <v>2.9</v>
       </c>
       <c r="H16" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="I16" t="n">
         <v>2.64</v>
@@ -2590,7 +2590,7 @@
         <v>2.34</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R16" t="n">
         <v>1.53</v>
@@ -2599,7 +2599,7 @@
         <v>2.8</v>
       </c>
       <c r="T16" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U16" t="n">
         <v>2.58</v>
@@ -2611,7 +2611,7 @@
         <v>1.52</v>
       </c>
       <c r="X16" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y16" t="n">
         <v>14</v>
@@ -2638,13 +2638,13 @@
         <v>21</v>
       </c>
       <c r="AG16" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH16" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ16" t="n">
         <v>44</v>
@@ -2656,10 +2656,10 @@
         <v>34</v>
       </c>
       <c r="AM16" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN16" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AO16" t="n">
         <v>17.5</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="G17" t="n">
         <v>2.98</v>
@@ -2725,7 +2725,7 @@
         <v>1.96</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.73</v>
+        <v>1.9</v>
       </c>
       <c r="R17" t="n">
         <v>1.37</v>
@@ -2833,13 +2833,13 @@
         <v>2.28</v>
       </c>
       <c r="H18" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I18" t="n">
         <v>3.7</v>
       </c>
       <c r="J18" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K18" t="n">
         <v>4.2</v>
@@ -2971,10 +2971,10 @@
         <v>5.3</v>
       </c>
       <c r="I19" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="J19" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K19" t="n">
         <v>4.7</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="G20" t="n">
         <v>1000</v>
@@ -3121,13 +3121,13 @@
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="O20" t="n">
         <v>1.01</v>
       </c>
       <c r="P20" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="Q20" t="n">
         <v>1.01</v>
@@ -3253,7 +3253,7 @@
         <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
         <v>4.7</v>
@@ -3373,7 +3373,7 @@
         <v>1.7</v>
       </c>
       <c r="H22" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I22" t="n">
         <v>6.2</v>
@@ -3397,10 +3397,10 @@
         <v>1.19</v>
       </c>
       <c r="P22" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.19</v>
+        <v>1.48</v>
       </c>
       <c r="R22" t="n">
         <v>1.54</v>
@@ -3655,7 +3655,7 @@
         <v>4.4</v>
       </c>
       <c r="L24" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="M24" t="n">
         <v>1.03</v>
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="G25" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="H25" t="n">
         <v>3.1</v>
       </c>
       <c r="I25" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="J25" t="n">
         <v>1.03</v>
@@ -3820,7 +3820,7 @@
         <v>1.04</v>
       </c>
       <c r="V25" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="W25" t="n">
         <v>1.86</v>
@@ -3928,7 +3928,7 @@
         <v>1.01</v>
       </c>
       <c r="M26" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N26" t="n">
         <v>4.7</v>
@@ -3943,16 +3943,16 @@
         <v>1.64</v>
       </c>
       <c r="R26" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="S26" t="n">
-        <v>2.36</v>
+        <v>2.58</v>
       </c>
       <c r="T26" t="n">
-        <v>1.04</v>
+        <v>1.89</v>
       </c>
       <c r="U26" t="n">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="V26" t="n">
         <v>1.12</v>
@@ -3973,10 +3973,10 @@
         <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC26" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AD26" t="n">
         <v>1000</v>
@@ -3985,10 +3985,10 @@
         <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AG26" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AH26" t="n">
         <v>1000</v>
@@ -3997,10 +3997,10 @@
         <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AL26" t="n">
         <v>1000</v>
@@ -4009,7 +4009,7 @@
         <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AO26" t="n">
         <v>1000</v>
@@ -4183,10 +4183,10 @@
         <v>3.8</v>
       </c>
       <c r="H28" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="I28" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="J28" t="n">
         <v>3.45</v>
@@ -4219,19 +4219,19 @@
         <v>4.5</v>
       </c>
       <c r="T28" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="U28" t="n">
         <v>1.94</v>
       </c>
       <c r="V28" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="W28" t="n">
         <v>1.35</v>
       </c>
       <c r="X28" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y28" t="n">
         <v>8.199999999999999</v>
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="G29" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H29" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="I29" t="n">
-        <v>2.66</v>
+        <v>2.56</v>
       </c>
       <c r="J29" t="n">
         <v>3.4</v>
       </c>
       <c r="K29" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G30" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="H30" t="n">
         <v>2.88</v>
       </c>
       <c r="I30" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J30" t="n">
         <v>3.4</v>
       </c>
       <c r="K30" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L30" t="n">
         <v>1.31</v>
@@ -4621,7 +4621,7 @@
         <v>1.41</v>
       </c>
       <c r="S31" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="T31" t="n">
         <v>1.04</v>
@@ -4633,7 +4633,7 @@
         <v>1.01</v>
       </c>
       <c r="W31" t="n">
-        <v>1.01</v>
+        <v>2.78</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
@@ -4741,10 +4741,10 @@
         <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>3</v>
+        <v>2.24</v>
       </c>
       <c r="O32" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="P32" t="n">
         <v>1.61</v>
@@ -5032,7 +5032,7 @@
         <v>1.96</v>
       </c>
       <c r="U34" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="V34" t="n">
         <v>1.75</v>
@@ -5122,19 +5122,19 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="G35" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="H35" t="n">
         <v>2.92</v>
       </c>
       <c r="I35" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="J35" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="K35" t="n">
         <v>4.1</v>
@@ -5167,13 +5167,13 @@
         <v>1.8</v>
       </c>
       <c r="U35" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="V35" t="n">
         <v>1.36</v>
       </c>
       <c r="W35" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="X35" t="n">
         <v>1000</v>
@@ -5284,7 +5284,7 @@
         <v>3.25</v>
       </c>
       <c r="O36" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P36" t="n">
         <v>1.78</v>
@@ -5302,7 +5302,7 @@
         <v>1.94</v>
       </c>
       <c r="U36" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V36" t="n">
         <v>1.19</v>
@@ -5392,10 +5392,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="G37" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="H37" t="n">
         <v>3.3</v>
@@ -5407,7 +5407,7 @@
         <v>3.2</v>
       </c>
       <c r="K37" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
@@ -5419,10 +5419,10 @@
         <v>3.15</v>
       </c>
       <c r="O37" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P37" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="Q37" t="n">
         <v>2.24</v>
@@ -5434,16 +5434,16 @@
         <v>4.2</v>
       </c>
       <c r="T37" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U37" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V37" t="n">
         <v>1.4</v>
       </c>
       <c r="W37" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="X37" t="n">
         <v>12</v>
@@ -5461,7 +5461,7 @@
         <v>9.4</v>
       </c>
       <c r="AC37" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD37" t="n">
         <v>15.5</v>
@@ -5479,7 +5479,7 @@
         <v>20</v>
       </c>
       <c r="AI37" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ37" t="n">
         <v>38</v>
@@ -5557,7 +5557,7 @@
         <v>1.53</v>
       </c>
       <c r="P38" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="Q38" t="n">
         <v>2.58</v>
@@ -5707,7 +5707,7 @@
         <v>2.16</v>
       </c>
       <c r="U39" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="V39" t="n">
         <v>1.48</v>
@@ -5803,13 +5803,13 @@
         <v>2.96</v>
       </c>
       <c r="H40" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="I40" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J40" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K40" t="n">
         <v>3.15</v>
@@ -5821,10 +5821,10 @@
         <v>1.12</v>
       </c>
       <c r="N40" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="O40" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="P40" t="n">
         <v>1.58</v>
@@ -5935,19 +5935,19 @@
         <v>1.62</v>
       </c>
       <c r="G41" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="H41" t="n">
         <v>6.4</v>
       </c>
       <c r="I41" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J41" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K41" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -5962,7 +5962,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="Q41" t="n">
         <v>2.02</v>
@@ -6067,22 +6067,22 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="G42" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H42" t="n">
         <v>4.5</v>
       </c>
       <c r="I42" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J42" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K42" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L42" t="n">
         <v>1.33</v>
@@ -6100,79 +6100,79 @@
         <v>1.98</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="R42" t="n">
         <v>1.38</v>
       </c>
       <c r="S42" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T42" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="U42" t="n">
         <v>2.08</v>
       </c>
       <c r="V42" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W42" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="X42" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD42" t="n">
         <v>18.5</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>19</v>
       </c>
       <c r="AE42" t="n">
         <v>65</v>
       </c>
       <c r="AF42" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG42" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH42" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK42" t="n">
         <v>20</v>
       </c>
-      <c r="AI42" t="n">
+      <c r="AL42" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO42" t="n">
         <v>65</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="43">
@@ -6205,7 +6205,7 @@
         <v>2.12</v>
       </c>
       <c r="G43" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H43" t="n">
         <v>4.1</v>
@@ -6253,7 +6253,7 @@
         <v>1.29</v>
       </c>
       <c r="W43" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="X43" t="n">
         <v>10.5</v>
@@ -6262,7 +6262,7 @@
         <v>14.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AA43" t="n">
         <v>130</v>
@@ -6379,7 +6379,7 @@
         <v>3.4</v>
       </c>
       <c r="T44" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="U44" t="n">
         <v>1.94</v>
@@ -6475,19 +6475,19 @@
         <v>1.89</v>
       </c>
       <c r="G45" t="n">
-        <v>2.62</v>
+        <v>2.36</v>
       </c>
       <c r="H45" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="I45" t="n">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="J45" t="n">
         <v>2.96</v>
       </c>
       <c r="K45" t="n">
-        <v>6.6</v>
+        <v>5.6</v>
       </c>
       <c r="L45" t="n">
         <v>1.34</v>
@@ -6496,7 +6496,7 @@
         <v>1.01</v>
       </c>
       <c r="N45" t="n">
-        <v>2.58</v>
+        <v>2.7</v>
       </c>
       <c r="O45" t="n">
         <v>1.01</v>
@@ -6508,10 +6508,10 @@
         <v>1.91</v>
       </c>
       <c r="R45" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S45" t="n">
-        <v>2.6</v>
+        <v>2.78</v>
       </c>
       <c r="T45" t="n">
         <v>1.04</v>
@@ -6520,10 +6520,10 @@
         <v>1.04</v>
       </c>
       <c r="V45" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="W45" t="n">
-        <v>1.61</v>
+        <v>1.74</v>
       </c>
       <c r="X45" t="n">
         <v>1000</v>
@@ -6610,19 +6610,19 @@
         <v>8</v>
       </c>
       <c r="G46" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="H46" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="I46" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="J46" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="K46" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="L46" t="n">
         <v>1.32</v>
@@ -6634,10 +6634,10 @@
         <v>4.9</v>
       </c>
       <c r="O46" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P46" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="Q46" t="n">
         <v>1.67</v>
@@ -6652,10 +6652,10 @@
         <v>1.93</v>
       </c>
       <c r="U46" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V46" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="W46" t="n">
         <v>1.13</v>
@@ -6664,7 +6664,7 @@
         <v>28</v>
       </c>
       <c r="Y46" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z46" t="n">
         <v>9.199999999999999</v>
@@ -6679,28 +6679,28 @@
         <v>12.5</v>
       </c>
       <c r="AD46" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE46" t="n">
         <v>14.5</v>
       </c>
       <c r="AF46" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG46" t="n">
         <v>32</v>
       </c>
       <c r="AH46" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AI46" t="n">
         <v>34</v>
       </c>
       <c r="AJ46" t="n">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="AK46" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AL46" t="n">
         <v>110</v>
@@ -6751,22 +6751,22 @@
         <v>2.44</v>
       </c>
       <c r="I47" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J47" t="n">
         <v>2.78</v>
       </c>
       <c r="K47" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L47" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M47" t="n">
         <v>1.01</v>
       </c>
       <c r="N47" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="O47" t="n">
         <v>1.29</v>
@@ -6790,7 +6790,7 @@
         <v>1.04</v>
       </c>
       <c r="V47" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W47" t="n">
         <v>1.41</v>
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="G49" t="n">
         <v>2.62</v>
@@ -7021,13 +7021,13 @@
         <v>2.88</v>
       </c>
       <c r="I49" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="J49" t="n">
         <v>3.3</v>
       </c>
       <c r="K49" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="L49" t="n">
         <v>1.01</v>
@@ -7060,7 +7060,7 @@
         <v>1.04</v>
       </c>
       <c r="V49" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="W49" t="n">
         <v>1.62</v>
@@ -7153,16 +7153,16 @@
         <v>1.1</v>
       </c>
       <c r="H50" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I50" t="n">
         <v>1000</v>
       </c>
       <c r="J50" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="K50" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L50" t="n">
         <v>1.01</v>
@@ -7192,13 +7192,13 @@
         <v>2.34</v>
       </c>
       <c r="U50" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="V50" t="n">
         <v>1.01</v>
       </c>
       <c r="W50" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="X50" t="n">
         <v>1000</v>
@@ -7291,7 +7291,7 @@
         <v>4.7</v>
       </c>
       <c r="I51" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="J51" t="n">
         <v>4</v>
@@ -7330,7 +7330,7 @@
         <v>2.16</v>
       </c>
       <c r="V51" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W51" t="n">
         <v>2.22</v>
@@ -7423,7 +7423,7 @@
         <v>2.4</v>
       </c>
       <c r="H52" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I52" t="n">
         <v>3.3</v>
@@ -7453,7 +7453,7 @@
         <v>1.81</v>
       </c>
       <c r="R52" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S52" t="n">
         <v>3.05</v>
@@ -7552,58 +7552,58 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.78</v>
+        <v>2.64</v>
       </c>
       <c r="G53" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="I53" t="n">
         <v>2.8</v>
       </c>
-      <c r="H53" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="I53" t="n">
-        <v>2.68</v>
-      </c>
       <c r="J53" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K53" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L53" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M53" t="n">
         <v>1.05</v>
       </c>
       <c r="N53" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O53" t="n">
         <v>1.24</v>
       </c>
       <c r="P53" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="Q53" t="n">
         <v>1.74</v>
       </c>
       <c r="R53" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S53" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T53" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U53" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="V53" t="n">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="W53" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="X53" t="n">
         <v>18.5</v>
@@ -7612,13 +7612,13 @@
         <v>14.5</v>
       </c>
       <c r="Z53" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA53" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AB53" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC53" t="n">
         <v>8.4</v>
@@ -7627,10 +7627,10 @@
         <v>12.5</v>
       </c>
       <c r="AE53" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AF53" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG53" t="n">
         <v>12.5</v>
@@ -7642,10 +7642,10 @@
         <v>34</v>
       </c>
       <c r="AJ53" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AK53" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL53" t="n">
         <v>34</v>
@@ -7654,10 +7654,10 @@
         <v>65</v>
       </c>
       <c r="AN53" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AO53" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="54">
@@ -7687,22 +7687,22 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="G54" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="H54" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I54" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="J54" t="n">
         <v>4</v>
       </c>
       <c r="K54" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L54" t="n">
         <v>1.26</v>
@@ -7717,13 +7717,13 @@
         <v>1.16</v>
       </c>
       <c r="P54" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="Q54" t="n">
         <v>1.51</v>
       </c>
       <c r="R54" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="S54" t="n">
         <v>2.26</v>
@@ -7735,19 +7735,19 @@
         <v>2.9</v>
       </c>
       <c r="V54" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="W54" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="X54" t="n">
         <v>26</v>
       </c>
       <c r="Y54" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z54" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA54" t="n">
         <v>60</v>
@@ -7759,13 +7759,13 @@
         <v>10</v>
       </c>
       <c r="AD54" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE54" t="n">
         <v>34</v>
       </c>
       <c r="AF54" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AG54" t="n">
         <v>11</v>
@@ -7792,7 +7792,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AO54" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="55">
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="G55" t="n">
         <v>2.6</v>
@@ -7831,10 +7831,10 @@
         <v>2.92</v>
       </c>
       <c r="I55" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="J55" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K55" t="n">
         <v>3.7</v>
@@ -7846,28 +7846,28 @@
         <v>1.06</v>
       </c>
       <c r="N55" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O55" t="n">
         <v>1.28</v>
       </c>
       <c r="P55" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q55" t="n">
         <v>1.86</v>
       </c>
       <c r="R55" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S55" t="n">
         <v>3.15</v>
       </c>
       <c r="T55" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U55" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V55" t="n">
         <v>1.51</v>
@@ -7921,10 +7921,10 @@
         <v>38</v>
       </c>
       <c r="AM55" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN55" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AO55" t="n">
         <v>24</v>
@@ -7957,7 +7957,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="G56" t="n">
         <v>2.42</v>
@@ -8101,10 +8101,10 @@
         <v>2.22</v>
       </c>
       <c r="I57" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="J57" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K57" t="n">
         <v>3.65</v>
@@ -8122,7 +8122,7 @@
         <v>1.34</v>
       </c>
       <c r="P57" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q57" t="n">
         <v>2</v>
@@ -8140,7 +8140,7 @@
         <v>2.04</v>
       </c>
       <c r="V57" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="W57" t="n">
         <v>1.35</v>
@@ -8251,28 +8251,28 @@
         <v>1.02</v>
       </c>
       <c r="N58" t="n">
-        <v>4.8</v>
+        <v>2.8</v>
       </c>
       <c r="O58" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P58" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q58" t="n">
         <v>1.48</v>
       </c>
       <c r="R58" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S58" t="n">
         <v>2.14</v>
       </c>
       <c r="T58" t="n">
-        <v>1.65</v>
+        <v>1.04</v>
       </c>
       <c r="U58" t="n">
-        <v>2.2</v>
+        <v>1.04</v>
       </c>
       <c r="V58" t="n">
         <v>1.17</v>
@@ -8323,7 +8323,7 @@
         <v>980</v>
       </c>
       <c r="AL58" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM58" t="n">
         <v>1000</v>
@@ -8632,10 +8632,10 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="G61" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H61" t="n">
         <v>3</v>
@@ -8683,7 +8683,7 @@
         <v>1.37</v>
       </c>
       <c r="W61" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="X61" t="n">
         <v>1000</v>
@@ -8770,7 +8770,7 @@
         <v>2.72</v>
       </c>
       <c r="G62" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="H62" t="n">
         <v>2.9</v>
@@ -8779,7 +8779,7 @@
         <v>3</v>
       </c>
       <c r="J62" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K62" t="n">
         <v>3.45</v>
@@ -8806,13 +8806,13 @@
         <v>1.32</v>
       </c>
       <c r="S62" t="n">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="T62" t="n">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="U62" t="n">
-        <v>1.93</v>
+        <v>2.12</v>
       </c>
       <c r="V62" t="n">
         <v>1.5</v>
@@ -8908,7 +8908,7 @@
         <v>1.52</v>
       </c>
       <c r="H63" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="I63" t="n">
         <v>8</v>
@@ -8935,7 +8935,7 @@
         <v>2.12</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R63" t="n">
         <v>1.43</v>
@@ -8947,7 +8947,7 @@
         <v>1.96</v>
       </c>
       <c r="U63" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="V63" t="n">
         <v>1.14</v>
@@ -8968,7 +8968,7 @@
         <v>300</v>
       </c>
       <c r="AB63" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC63" t="n">
         <v>13</v>
@@ -8980,13 +8980,13 @@
         <v>140</v>
       </c>
       <c r="AF63" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AG63" t="n">
         <v>11</v>
       </c>
       <c r="AH63" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI63" t="n">
         <v>130</v>
@@ -8995,7 +8995,7 @@
         <v>14</v>
       </c>
       <c r="AK63" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AL63" t="n">
         <v>40</v>
@@ -9061,25 +9061,25 @@
         <v>1.06</v>
       </c>
       <c r="N64" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O64" t="n">
         <v>1.3</v>
       </c>
       <c r="P64" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="Q64" t="n">
         <v>1.89</v>
       </c>
       <c r="R64" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S64" t="n">
         <v>3.25</v>
       </c>
       <c r="T64" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="U64" t="n">
         <v>2.08</v>
@@ -9097,7 +9097,7 @@
         <v>19.5</v>
       </c>
       <c r="Z64" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AA64" t="n">
         <v>120</v>
@@ -9130,7 +9130,7 @@
         <v>22</v>
       </c>
       <c r="AK64" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL64" t="n">
         <v>980</v>
@@ -9172,19 +9172,19 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="G65" t="n">
         <v>3.8</v>
       </c>
       <c r="H65" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="I65" t="n">
         <v>2.28</v>
       </c>
       <c r="J65" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K65" t="n">
         <v>3.7</v>
@@ -9205,7 +9205,7 @@
         <v>2</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="R65" t="n">
         <v>1.39</v>
@@ -9220,10 +9220,10 @@
         <v>2.18</v>
       </c>
       <c r="V65" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="W65" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="X65" t="n">
         <v>19</v>
@@ -9247,10 +9247,10 @@
         <v>12.5</v>
       </c>
       <c r="AE65" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AF65" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AG65" t="n">
         <v>15</v>
@@ -9259,22 +9259,22 @@
         <v>19.5</v>
       </c>
       <c r="AI65" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AJ65" t="n">
         <v>65</v>
       </c>
       <c r="AK65" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AL65" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AM65" t="n">
         <v>110</v>
       </c>
       <c r="AN65" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AO65" t="n">
         <v>16</v>
@@ -9337,7 +9337,7 @@
         <v>1.27</v>
       </c>
       <c r="P66" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q66" t="n">
         <v>1.81</v>
@@ -9355,7 +9355,7 @@
         <v>2.2</v>
       </c>
       <c r="V66" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="W66" t="n">
         <v>1.45</v>
@@ -9508,7 +9508,7 @@
         <v>95</v>
       </c>
       <c r="AB67" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC67" t="n">
         <v>11</v>
@@ -9712,46 +9712,46 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="G69" t="n">
-        <v>2.86</v>
+        <v>2.74</v>
       </c>
       <c r="H69" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="I69" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="J69" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K69" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L69" t="n">
         <v>1.33</v>
       </c>
       <c r="M69" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N69" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="O69" t="n">
         <v>1.33</v>
       </c>
       <c r="P69" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="R69" t="n">
         <v>1.33</v>
       </c>
       <c r="S69" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T69" t="n">
         <v>1.75</v>
@@ -9760,16 +9760,16 @@
         <v>2.08</v>
       </c>
       <c r="V69" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="W69" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="X69" t="n">
         <v>18</v>
       </c>
       <c r="Y69" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z69" t="n">
         <v>1000</v>
@@ -9817,7 +9817,7 @@
         <v>1000</v>
       </c>
       <c r="AO69" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70">
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="G70" t="n">
         <v>1.99</v>
@@ -9859,7 +9859,7 @@
         <v>4.7</v>
       </c>
       <c r="J70" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K70" t="n">
         <v>3.85</v>
@@ -9880,7 +9880,7 @@
         <v>1.93</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="R70" t="n">
         <v>1.33</v>
@@ -9985,7 +9985,7 @@
         <v>1.37</v>
       </c>
       <c r="G71" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="H71" t="n">
         <v>9.800000000000001</v>
@@ -9994,10 +9994,10 @@
         <v>12.5</v>
       </c>
       <c r="J71" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="K71" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="L71" t="n">
         <v>1.31</v>
@@ -10051,7 +10051,7 @@
         <v>9.6</v>
       </c>
       <c r="AC71" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AD71" t="n">
         <v>42</v>
@@ -10072,13 +10072,13 @@
         <v>1000</v>
       </c>
       <c r="AJ71" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK71" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL71" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AM71" t="n">
         <v>1000</v>
@@ -10117,19 +10117,19 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="G72" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="H72" t="n">
         <v>4.1</v>
       </c>
       <c r="I72" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J72" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K72" t="n">
         <v>3.4</v>
@@ -10141,7 +10141,7 @@
         <v>1.08</v>
       </c>
       <c r="N72" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="O72" t="n">
         <v>1.41</v>
@@ -10153,25 +10153,25 @@
         <v>2.16</v>
       </c>
       <c r="R72" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S72" t="n">
         <v>4.2</v>
       </c>
       <c r="T72" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="U72" t="n">
         <v>1.86</v>
       </c>
       <c r="V72" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="W72" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="X72" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y72" t="n">
         <v>1000</v>
@@ -10198,7 +10198,7 @@
         <v>1000</v>
       </c>
       <c r="AG72" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH72" t="n">
         <v>1000</v>
@@ -10252,19 +10252,19 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G73" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="H73" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="I73" t="n">
         <v>3.3</v>
       </c>
       <c r="J73" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K73" t="n">
         <v>3.4</v>
@@ -10285,7 +10285,7 @@
         <v>1.65</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R73" t="n">
         <v>1.24</v>
@@ -10294,13 +10294,13 @@
         <v>4.3</v>
       </c>
       <c r="T73" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U73" t="n">
         <v>1.92</v>
       </c>
       <c r="V73" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W73" t="n">
         <v>1.54</v>
@@ -10387,22 +10387,22 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G74" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="H74" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J74" t="n">
         <v>3.35</v>
       </c>
-      <c r="I74" t="n">
+      <c r="K74" t="n">
         <v>3.7</v>
-      </c>
-      <c r="J74" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K74" t="n">
-        <v>3.65</v>
       </c>
       <c r="L74" t="n">
         <v>1.32</v>
@@ -10420,7 +10420,7 @@
         <v>1.96</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="R74" t="n">
         <v>1.36</v>
@@ -10435,10 +10435,10 @@
         <v>2.14</v>
       </c>
       <c r="V74" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="W74" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="X74" t="n">
         <v>18</v>
@@ -10459,13 +10459,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD74" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE74" t="n">
         <v>42</v>
       </c>
       <c r="AF74" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG74" t="n">
         <v>11.5</v>
@@ -10480,7 +10480,7 @@
         <v>30</v>
       </c>
       <c r="AK74" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL74" t="n">
         <v>38</v>
@@ -10669,10 +10669,10 @@
         <v>5.9</v>
       </c>
       <c r="J76" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K76" t="n">
         <v>4.2</v>
-      </c>
-      <c r="K76" t="n">
-        <v>4.3</v>
       </c>
       <c r="L76" t="n">
         <v>1.38</v>
@@ -10687,7 +10687,7 @@
         <v>1.29</v>
       </c>
       <c r="P76" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q76" t="n">
         <v>1.89</v>
@@ -10696,10 +10696,10 @@
         <v>1.42</v>
       </c>
       <c r="S76" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T76" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U76" t="n">
         <v>2.08</v>
@@ -10711,10 +10711,10 @@
         <v>2.44</v>
       </c>
       <c r="X76" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y76" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z76" t="n">
         <v>44</v>
@@ -10738,13 +10738,13 @@
         <v>9.6</v>
       </c>
       <c r="AG76" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH76" t="n">
         <v>20</v>
       </c>
       <c r="AI76" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ76" t="n">
         <v>16</v>
@@ -10798,10 +10798,10 @@
         <v>3.85</v>
       </c>
       <c r="H77" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="I77" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="J77" t="n">
         <v>3.65</v>
@@ -10822,7 +10822,7 @@
         <v>1.35</v>
       </c>
       <c r="P77" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q77" t="n">
         <v>2.08</v>
@@ -10840,7 +10840,7 @@
         <v>2.12</v>
       </c>
       <c r="V77" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="W77" t="n">
         <v>1.35</v>
@@ -10858,7 +10858,7 @@
         <v>26</v>
       </c>
       <c r="AB77" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC77" t="n">
         <v>7.6</v>
@@ -10891,7 +10891,7 @@
         <v>60</v>
       </c>
       <c r="AM77" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN77" t="n">
         <v>50</v>
@@ -10933,10 +10933,10 @@
         <v>1.52</v>
       </c>
       <c r="H78" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="I78" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="J78" t="n">
         <v>4.8</v>
@@ -10969,22 +10969,22 @@
         <v>2.8</v>
       </c>
       <c r="T78" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U78" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V78" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W78" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="X78" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y78" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z78" t="n">
         <v>60</v>
@@ -11002,7 +11002,7 @@
         <v>27</v>
       </c>
       <c r="AE78" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AF78" t="n">
         <v>9</v>
@@ -11023,7 +11023,7 @@
         <v>14.5</v>
       </c>
       <c r="AL78" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM78" t="n">
         <v>110</v>
@@ -11068,16 +11068,16 @@
         <v>1.24</v>
       </c>
       <c r="H79" t="n">
+        <v>14</v>
+      </c>
+      <c r="I79" t="n">
         <v>14.5</v>
       </c>
-      <c r="I79" t="n">
-        <v>15</v>
-      </c>
       <c r="J79" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="K79" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="L79" t="n">
         <v>1.21</v>
@@ -11086,13 +11086,13 @@
         <v>1.02</v>
       </c>
       <c r="N79" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="O79" t="n">
         <v>1.12</v>
       </c>
       <c r="P79" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="Q79" t="n">
         <v>1.39</v>
@@ -11101,10 +11101,10 @@
         <v>1.98</v>
       </c>
       <c r="S79" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T79" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U79" t="n">
         <v>2.04</v>
@@ -11113,10 +11113,10 @@
         <v>1.07</v>
       </c>
       <c r="W79" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="X79" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Y79" t="n">
         <v>65</v>
@@ -11128,19 +11128,19 @@
         <v>550</v>
       </c>
       <c r="AB79" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC79" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AD79" t="n">
         <v>55</v>
       </c>
       <c r="AE79" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="AF79" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG79" t="n">
         <v>12</v>
@@ -11149,7 +11149,7 @@
         <v>32</v>
       </c>
       <c r="AI79" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AJ79" t="n">
         <v>10</v>
@@ -11200,13 +11200,13 @@
         <v>3.55</v>
       </c>
       <c r="G80" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H80" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I80" t="n">
         <v>2.24</v>
-      </c>
-      <c r="I80" t="n">
-        <v>2.26</v>
       </c>
       <c r="J80" t="n">
         <v>3.65</v>
@@ -11281,7 +11281,7 @@
         <v>14.5</v>
       </c>
       <c r="AH80" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI80" t="n">
         <v>38</v>
@@ -11332,28 +11332,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="G81" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="H81" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="I81" t="n">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="J81" t="n">
         <v>3.25</v>
       </c>
       <c r="K81" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L81" t="n">
         <v>1.46</v>
       </c>
       <c r="M81" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N81" t="n">
         <v>3.3</v>
@@ -11362,16 +11362,16 @@
         <v>1.38</v>
       </c>
       <c r="P81" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="R81" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="S81" t="n">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
       <c r="T81" t="n">
         <v>1.84</v>
@@ -11380,64 +11380,64 @@
         <v>2.04</v>
       </c>
       <c r="V81" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="W81" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X81" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y81" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z81" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AA81" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AB81" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC81" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD81" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE81" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF81" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AG81" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AH81" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI81" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ81" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK81" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AL81" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM81" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN81" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AO81" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="82">
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="G82" t="n">
         <v>2.02</v>
@@ -11479,10 +11479,10 @@
         <v>5.5</v>
       </c>
       <c r="J82" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K82" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L82" t="n">
         <v>1.47</v>
@@ -11515,7 +11515,7 @@
         <v>1.04</v>
       </c>
       <c r="V82" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W82" t="n">
         <v>1.98</v>
@@ -11644,10 +11644,10 @@
         <v>3.55</v>
       </c>
       <c r="T83" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U83" t="n">
-        <v>1.87</v>
+        <v>1.04</v>
       </c>
       <c r="V83" t="n">
         <v>1.34</v>
@@ -11737,16 +11737,16 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="G84" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="H84" t="n">
         <v>1.86</v>
       </c>
       <c r="I84" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="J84" t="n">
         <v>4.4</v>
@@ -11776,19 +11776,19 @@
         <v>1.9</v>
       </c>
       <c r="S84" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="T84" t="n">
         <v>1.43</v>
       </c>
       <c r="U84" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="V84" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="W84" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X84" t="n">
         <v>48</v>
@@ -11818,7 +11818,7 @@
         <v>46</v>
       </c>
       <c r="AG84" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH84" t="n">
         <v>18</v>
@@ -11827,7 +11827,7 @@
         <v>27</v>
       </c>
       <c r="AJ84" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AK84" t="n">
         <v>42</v>
@@ -11839,7 +11839,7 @@
         <v>55</v>
       </c>
       <c r="AN84" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO84" t="n">
         <v>7.6</v>
@@ -11911,10 +11911,10 @@
         <v>1.63</v>
       </c>
       <c r="S85" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T85" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="U85" t="n">
         <v>2.66</v>
@@ -11950,7 +11950,7 @@
         <v>20</v>
       </c>
       <c r="AF85" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG85" t="n">
         <v>15.5</v>
@@ -11974,7 +11974,7 @@
         <v>60</v>
       </c>
       <c r="AN85" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO85" t="n">
         <v>11</v>
@@ -12010,7 +12010,7 @@
         <v>1.91</v>
       </c>
       <c r="G86" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H86" t="n">
         <v>4.6</v>
@@ -12052,13 +12052,13 @@
         <v>2.04</v>
       </c>
       <c r="U86" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="V86" t="n">
         <v>1.23</v>
       </c>
       <c r="W86" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X86" t="n">
         <v>12.5</v>
@@ -12148,10 +12148,10 @@
         <v>3.35</v>
       </c>
       <c r="H87" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I87" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="J87" t="n">
         <v>3.75</v>
@@ -12190,7 +12190,7 @@
         <v>2.48</v>
       </c>
       <c r="V87" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="W87" t="n">
         <v>1.43</v>
@@ -12280,7 +12280,7 @@
         <v>4.8</v>
       </c>
       <c r="G88" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="H88" t="n">
         <v>1.84</v>
@@ -12301,7 +12301,7 @@
         <v>1.07</v>
       </c>
       <c r="N88" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O88" t="n">
         <v>1.35</v>
@@ -12319,7 +12319,7 @@
         <v>3.6</v>
       </c>
       <c r="T88" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U88" t="n">
         <v>2</v>
@@ -12352,7 +12352,7 @@
         <v>10.5</v>
       </c>
       <c r="AE88" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF88" t="n">
         <v>48</v>
@@ -12460,7 +12460,7 @@
         <v>2.02</v>
       </c>
       <c r="V89" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="W89" t="n">
         <v>1.46</v>
@@ -12550,16 +12550,16 @@
         <v>2.5</v>
       </c>
       <c r="G90" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="H90" t="n">
         <v>2.78</v>
       </c>
       <c r="I90" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="J90" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="K90" t="n">
         <v>4.2</v>
@@ -12595,7 +12595,7 @@
         <v>2.04</v>
       </c>
       <c r="V90" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="W90" t="n">
         <v>1.53</v>
@@ -13090,7 +13090,7 @@
         <v>1.93</v>
       </c>
       <c r="G94" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="H94" t="n">
         <v>3.85</v>
@@ -13105,7 +13105,7 @@
         <v>4.2</v>
       </c>
       <c r="L94" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M94" t="n">
         <v>1.03</v>
@@ -13129,7 +13129,7 @@
         <v>2.36</v>
       </c>
       <c r="T94" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="U94" t="n">
         <v>2.58</v>
@@ -13138,7 +13138,7 @@
         <v>1.31</v>
       </c>
       <c r="W94" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="X94" t="n">
         <v>30</v>
@@ -13225,7 +13225,7 @@
         <v>1.68</v>
       </c>
       <c r="G95" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="H95" t="n">
         <v>5.1</v>
@@ -13264,7 +13264,7 @@
         <v>2.6</v>
       </c>
       <c r="T95" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U95" t="n">
         <v>2.28</v>
@@ -13312,7 +13312,7 @@
         <v>70</v>
       </c>
       <c r="AJ95" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK95" t="n">
         <v>19</v>
@@ -13357,28 +13357,28 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="G96" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="H96" t="n">
         <v>6.6</v>
       </c>
       <c r="I96" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="J96" t="n">
         <v>4.9</v>
       </c>
       <c r="K96" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L96" t="n">
         <v>1.01</v>
       </c>
       <c r="M96" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N96" t="n">
         <v>2.38</v>
@@ -13393,22 +13393,22 @@
         <v>1.47</v>
       </c>
       <c r="R96" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S96" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="T96" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="U96" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V96" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="W96" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="X96" t="n">
         <v>36</v>
@@ -13435,7 +13435,7 @@
         <v>1000</v>
       </c>
       <c r="AF96" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG96" t="n">
         <v>14.5</v>
@@ -13492,22 +13492,22 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="G97" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="H97" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="I97" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="J97" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K97" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="L97" t="n">
         <v>1.31</v>
@@ -13522,7 +13522,7 @@
         <v>1.27</v>
       </c>
       <c r="P97" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q97" t="n">
         <v>1.8</v>
@@ -13543,7 +13543,7 @@
         <v>1.51</v>
       </c>
       <c r="W97" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="X97" t="n">
         <v>20</v>
@@ -13633,13 +13633,13 @@
         <v>1.71</v>
       </c>
       <c r="H98" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I98" t="n">
         <v>6.4</v>
       </c>
-      <c r="I98" t="n">
-        <v>6.6</v>
-      </c>
       <c r="J98" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K98" t="n">
         <v>3.95</v>
@@ -13681,7 +13681,7 @@
         <v>2.4</v>
       </c>
       <c r="X98" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y98" t="n">
         <v>18</v>
@@ -13690,19 +13690,19 @@
         <v>50</v>
       </c>
       <c r="AA98" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AB98" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC98" t="n">
         <v>8.6</v>
       </c>
       <c r="AD98" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE98" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AF98" t="n">
         <v>8.800000000000001</v>
@@ -13711,10 +13711,10 @@
         <v>10</v>
       </c>
       <c r="AH98" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI98" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ98" t="n">
         <v>16.5</v>
@@ -13762,10 +13762,10 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="G99" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="H99" t="n">
         <v>4.1</v>
@@ -13813,7 +13813,7 @@
         <v>1.27</v>
       </c>
       <c r="W99" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="X99" t="n">
         <v>25</v>
@@ -14032,22 +14032,22 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="G101" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="H101" t="n">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="I101" t="n">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="J101" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="K101" t="n">
-        <v>6.2</v>
+        <v>11</v>
       </c>
       <c r="L101" t="n">
         <v>1.01</v>
@@ -14065,7 +14065,7 @@
         <v>2.04</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.57</v>
+        <v>1.22</v>
       </c>
       <c r="R101" t="n">
         <v>1.42</v>
@@ -14080,10 +14080,10 @@
         <v>1.01</v>
       </c>
       <c r="V101" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="W101" t="n">
-        <v>1.13</v>
+        <v>1.04</v>
       </c>
       <c r="X101" t="n">
         <v>1000</v>
@@ -14209,7 +14209,7 @@
         <v>2.72</v>
       </c>
       <c r="T102" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U102" t="n">
         <v>2.28</v>
@@ -14302,10 +14302,10 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="G103" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="H103" t="n">
         <v>14.5</v>
@@ -14320,40 +14320,40 @@
         <v>8.800000000000001</v>
       </c>
       <c r="L103" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M103" t="n">
         <v>1.02</v>
       </c>
       <c r="N103" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="O103" t="n">
         <v>1.14</v>
       </c>
       <c r="P103" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="R103" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="S103" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="T103" t="n">
         <v>2.06</v>
       </c>
       <c r="U103" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="V103" t="n">
         <v>1.05</v>
       </c>
       <c r="W103" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="X103" t="n">
         <v>42</v>
@@ -14386,13 +14386,13 @@
         <v>14.5</v>
       </c>
       <c r="AH103" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AI103" t="n">
         <v>1000</v>
       </c>
       <c r="AJ103" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AK103" t="n">
         <v>17</v>
@@ -14404,7 +14404,7 @@
         <v>1000</v>
       </c>
       <c r="AN103" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="AO103" t="n">
         <v>1000</v>
@@ -14443,16 +14443,16 @@
         <v>3.75</v>
       </c>
       <c r="H104" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="I104" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="J104" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K104" t="n">
         <v>3.9</v>
-      </c>
-      <c r="K104" t="n">
-        <v>3.95</v>
       </c>
       <c r="L104" t="n">
         <v>1.32</v>
@@ -14479,19 +14479,19 @@
         <v>2.84</v>
       </c>
       <c r="T104" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U104" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="V104" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="W104" t="n">
         <v>1.36</v>
       </c>
       <c r="X104" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y104" t="n">
         <v>11.5</v>
@@ -14539,7 +14539,7 @@
         <v>60</v>
       </c>
       <c r="AN104" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO104" t="n">
         <v>12</v>
@@ -14572,7 +14572,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G105" t="n">
         <v>2.28</v>
@@ -14581,13 +14581,13 @@
         <v>3.25</v>
       </c>
       <c r="I105" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J105" t="n">
         <v>3.9</v>
       </c>
       <c r="K105" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L105" t="n">
         <v>1.28</v>
@@ -14614,10 +14614,10 @@
         <v>2.44</v>
       </c>
       <c r="T105" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="U105" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="V105" t="n">
         <v>1.43</v>
@@ -14626,7 +14626,7 @@
         <v>1.78</v>
       </c>
       <c r="X105" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y105" t="n">
         <v>19</v>
@@ -14638,7 +14638,7 @@
         <v>55</v>
       </c>
       <c r="AB105" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC105" t="n">
         <v>9.4</v>
@@ -14650,7 +14650,7 @@
         <v>32</v>
       </c>
       <c r="AF105" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AG105" t="n">
         <v>11.5</v>
@@ -14734,7 +14734,7 @@
         <v>5.8</v>
       </c>
       <c r="O106" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="P106" t="n">
         <v>2.66</v>
@@ -14842,16 +14842,16 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G107" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="H107" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I107" t="n">
         <v>3.95</v>
-      </c>
-      <c r="I107" t="n">
-        <v>4.1</v>
       </c>
       <c r="J107" t="n">
         <v>3.15</v>
@@ -14890,10 +14890,10 @@
         <v>1.78</v>
       </c>
       <c r="V107" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="W107" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="X107" t="n">
         <v>8.199999999999999</v>
@@ -14929,7 +14929,7 @@
         <v>25</v>
       </c>
       <c r="AI107" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AJ107" t="n">
         <v>32</v>
@@ -14980,7 +14980,7 @@
         <v>2.32</v>
       </c>
       <c r="G108" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="H108" t="n">
         <v>3.65</v>
@@ -14992,7 +14992,7 @@
         <v>3.2</v>
       </c>
       <c r="K108" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L108" t="n">
         <v>1.55</v>
@@ -15001,16 +15001,16 @@
         <v>1.11</v>
       </c>
       <c r="N108" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="O108" t="n">
         <v>1.54</v>
       </c>
       <c r="P108" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="Q108" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="R108" t="n">
         <v>1.2</v>
@@ -15022,13 +15022,13 @@
         <v>2.1</v>
       </c>
       <c r="U108" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V108" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="W108" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="X108" t="n">
         <v>9.6</v>
@@ -15115,13 +15115,13 @@
         <v>2.14</v>
       </c>
       <c r="G109" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H109" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I109" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J109" t="n">
         <v>3.95</v>
@@ -15142,7 +15142,7 @@
         <v>1.23</v>
       </c>
       <c r="P109" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q109" t="n">
         <v>1.67</v>
@@ -15154,16 +15154,16 @@
         <v>2.64</v>
       </c>
       <c r="T109" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U109" t="n">
         <v>2.46</v>
       </c>
       <c r="V109" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W109" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="X109" t="n">
         <v>21</v>
@@ -15247,7 +15247,7 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="G110" t="n">
         <v>1.82</v>
@@ -15256,10 +15256,10 @@
         <v>5.5</v>
       </c>
       <c r="I110" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J110" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K110" t="n">
         <v>3.8</v>
@@ -15280,7 +15280,7 @@
         <v>1.73</v>
       </c>
       <c r="Q110" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R110" t="n">
         <v>1.27</v>
@@ -15388,7 +15388,7 @@
         <v>4.8</v>
       </c>
       <c r="H111" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="I111" t="n">
         <v>2.14</v>
@@ -15517,22 +15517,22 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="G112" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="H112" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="I112" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J112" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K112" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L112" t="n">
         <v>1.45</v>
@@ -15550,13 +15550,13 @@
         <v>1.79</v>
       </c>
       <c r="Q112" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="R112" t="n">
         <v>1.29</v>
       </c>
       <c r="S112" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T112" t="n">
         <v>1.87</v>
@@ -15565,10 +15565,10 @@
         <v>2.04</v>
       </c>
       <c r="V112" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="W112" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="X112" t="n">
         <v>12.5</v>
@@ -15592,10 +15592,10 @@
         <v>13.5</v>
       </c>
       <c r="AE112" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AF112" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG112" t="n">
         <v>13</v>
@@ -15652,25 +15652,25 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="G113" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="H113" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I113" t="n">
         <v>36</v>
       </c>
       <c r="J113" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="K113" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="L113" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M113" t="n">
         <v>1.02</v>
@@ -15679,46 +15679,46 @@
         <v>6.8</v>
       </c>
       <c r="O113" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P113" t="n">
         <v>3</v>
       </c>
       <c r="Q113" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="R113" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="S113" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="T113" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="U113" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="V113" t="n">
         <v>1.03</v>
       </c>
       <c r="W113" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="X113" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="Y113" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="Z113" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AA113" t="n">
         <v>1000</v>
       </c>
       <c r="AB113" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC113" t="n">
         <v>980</v>
@@ -15730,31 +15730,31 @@
         <v>1000</v>
       </c>
       <c r="AF113" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AG113" t="n">
         <v>1000</v>
       </c>
       <c r="AH113" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AI113" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AJ113" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AK113" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AL113" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM113" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
       <c r="AN113" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AO113" t="n">
         <v>1000</v>
@@ -15796,13 +15796,13 @@
         <v>3.25</v>
       </c>
       <c r="I114" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J114" t="n">
         <v>3.7</v>
       </c>
       <c r="K114" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="L114" t="n">
         <v>1.01</v>
@@ -15817,7 +15817,7 @@
         <v>1.21</v>
       </c>
       <c r="P114" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="Q114" t="n">
         <v>1.22</v>
@@ -15829,7 +15829,7 @@
         <v>1.23</v>
       </c>
       <c r="T114" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U114" t="n">
         <v>1.04</v>
@@ -15922,13 +15922,13 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G115" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H115" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I115" t="n">
         <v>3.6</v>
@@ -15937,16 +15937,16 @@
         <v>4.1</v>
       </c>
       <c r="K115" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L115" t="n">
         <v>1.01</v>
       </c>
       <c r="M115" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N115" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="O115" t="n">
         <v>1.15</v>
@@ -15961,10 +15961,10 @@
         <v>1.61</v>
       </c>
       <c r="S115" t="n">
-        <v>1.62</v>
+        <v>1.01</v>
       </c>
       <c r="T115" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="U115" t="n">
         <v>1.01</v>
@@ -16057,22 +16057,22 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="G116" t="n">
         <v>2.34</v>
       </c>
       <c r="H116" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="I116" t="n">
         <v>3</v>
       </c>
       <c r="J116" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K116" t="n">
         <v>4.3</v>
-      </c>
-      <c r="K116" t="n">
-        <v>4.5</v>
       </c>
       <c r="L116" t="n">
         <v>1.26</v>
@@ -16081,34 +16081,34 @@
         <v>1.03</v>
       </c>
       <c r="N116" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O116" t="n">
         <v>1.16</v>
       </c>
       <c r="P116" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="Q116" t="n">
         <v>1.51</v>
       </c>
       <c r="R116" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S116" t="n">
         <v>2.16</v>
       </c>
       <c r="T116" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="U116" t="n">
-        <v>2.82</v>
+        <v>2.94</v>
       </c>
       <c r="V116" t="n">
         <v>1.5</v>
       </c>
       <c r="W116" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="X116" t="n">
         <v>29</v>
@@ -16120,7 +16120,7 @@
         <v>27</v>
       </c>
       <c r="AA116" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AB116" t="n">
         <v>17.5</v>
@@ -16132,7 +16132,7 @@
         <v>14</v>
       </c>
       <c r="AE116" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AF116" t="n">
         <v>20</v>
@@ -16153,16 +16153,16 @@
         <v>21</v>
       </c>
       <c r="AL116" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM116" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AN116" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AO116" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="117">
@@ -16192,7 +16192,7 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="G117" t="n">
         <v>2.04</v>
@@ -16222,19 +16222,19 @@
         <v>1.25</v>
       </c>
       <c r="P117" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q117" t="n">
         <v>1.78</v>
       </c>
       <c r="R117" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S117" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="T117" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="U117" t="n">
         <v>2.28</v>
@@ -16249,34 +16249,34 @@
         <v>23</v>
       </c>
       <c r="Y117" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="Z117" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA117" t="n">
         <v>80</v>
       </c>
       <c r="AB117" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC117" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD117" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE117" t="n">
         <v>46</v>
       </c>
       <c r="AF117" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG117" t="n">
         <v>11.5</v>
       </c>
       <c r="AH117" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI117" t="n">
         <v>55</v>
@@ -16285,7 +16285,7 @@
         <v>25</v>
       </c>
       <c r="AK117" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AL117" t="n">
         <v>32</v>
@@ -16333,7 +16333,7 @@
         <v>1.76</v>
       </c>
       <c r="H118" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I118" t="n">
         <v>5.4</v>
@@ -16348,7 +16348,7 @@
         <v>1.01</v>
       </c>
       <c r="M118" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N118" t="n">
         <v>6.2</v>
@@ -16357,7 +16357,7 @@
         <v>1.16</v>
       </c>
       <c r="P118" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="Q118" t="n">
         <v>1.49</v>
@@ -16420,7 +16420,7 @@
         <v>23</v>
       </c>
       <c r="AK118" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL118" t="n">
         <v>30</v>
@@ -16462,25 +16462,25 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="G119" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="H119" t="n">
         <v>1.55</v>
       </c>
       <c r="I119" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="J119" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K119" t="n">
         <v>4.9</v>
       </c>
       <c r="L119" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="M119" t="n">
         <v>1.05</v>
@@ -16492,28 +16492,28 @@
         <v>1.25</v>
       </c>
       <c r="P119" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q119" t="n">
         <v>1.74</v>
       </c>
       <c r="R119" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="S119" t="n">
         <v>2.86</v>
       </c>
       <c r="T119" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="U119" t="n">
         <v>2.02</v>
       </c>
       <c r="V119" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="W119" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="X119" t="n">
         <v>23</v>
@@ -16543,7 +16543,7 @@
         <v>60</v>
       </c>
       <c r="AG119" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH119" t="n">
         <v>23</v>
@@ -16558,7 +16558,7 @@
         <v>95</v>
       </c>
       <c r="AL119" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AM119" t="n">
         <v>130</v>
@@ -16597,16 +16597,16 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G120" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="H120" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I120" t="n">
         <v>4.5</v>
-      </c>
-      <c r="I120" t="n">
-        <v>4.6</v>
       </c>
       <c r="J120" t="n">
         <v>3.3</v>
@@ -16621,16 +16621,16 @@
         <v>1.11</v>
       </c>
       <c r="N120" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O120" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P120" t="n">
         <v>1.68</v>
       </c>
       <c r="Q120" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R120" t="n">
         <v>1.25</v>
@@ -16645,13 +16645,13 @@
         <v>1.88</v>
       </c>
       <c r="V120" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W120" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="X120" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Y120" t="n">
         <v>13</v>
@@ -16663,10 +16663,10 @@
         <v>100</v>
       </c>
       <c r="AB120" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AC120" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD120" t="n">
         <v>18.5</v>
@@ -16687,7 +16687,7 @@
         <v>90</v>
       </c>
       <c r="AJ120" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK120" t="n">
         <v>25</v>
@@ -16699,7 +16699,7 @@
         <v>160</v>
       </c>
       <c r="AN120" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO120" t="n">
         <v>90</v>
@@ -16735,13 +16735,13 @@
         <v>1.9</v>
       </c>
       <c r="G121" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="H121" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I121" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J121" t="n">
         <v>3.85</v>
@@ -16750,7 +16750,7 @@
         <v>4.1</v>
       </c>
       <c r="L121" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M121" t="n">
         <v>1.05</v>
@@ -16768,16 +16768,16 @@
         <v>1.81</v>
       </c>
       <c r="R121" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S121" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="T121" t="n">
         <v>1.7</v>
       </c>
       <c r="U121" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V121" t="n">
         <v>1.28</v>
@@ -16786,7 +16786,7 @@
         <v>2.06</v>
       </c>
       <c r="X121" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y121" t="n">
         <v>22</v>
@@ -16801,7 +16801,7 @@
         <v>11.5</v>
       </c>
       <c r="AC121" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD121" t="n">
         <v>18.5</v>
@@ -16810,13 +16810,13 @@
         <v>55</v>
       </c>
       <c r="AF121" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG121" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH121" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI121" t="n">
         <v>55</v>
@@ -16834,7 +16834,7 @@
         <v>85</v>
       </c>
       <c r="AN121" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AO121" t="n">
         <v>55</v>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="G122" t="n">
         <v>7.4</v>
@@ -16876,22 +16876,22 @@
         <v>1.58</v>
       </c>
       <c r="I122" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="J122" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K122" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L122" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M122" t="n">
         <v>1.08</v>
       </c>
       <c r="N122" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O122" t="n">
         <v>1.38</v>
@@ -16912,25 +16912,25 @@
         <v>2.22</v>
       </c>
       <c r="U122" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="V122" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="W122" t="n">
         <v>1.15</v>
       </c>
       <c r="X122" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y122" t="n">
         <v>7</v>
       </c>
       <c r="Z122" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AA122" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AB122" t="n">
         <v>19.5</v>
@@ -16960,7 +16960,7 @@
         <v>250</v>
       </c>
       <c r="AK122" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AL122" t="n">
         <v>130</v>
@@ -16969,10 +16969,10 @@
         <v>180</v>
       </c>
       <c r="AN122" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="AO122" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123">
@@ -17002,16 +17002,16 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="G123" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="H123" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="I123" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="J123" t="n">
         <v>3.4</v>
@@ -17026,22 +17026,22 @@
         <v>1.09</v>
       </c>
       <c r="N123" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O123" t="n">
         <v>1.39</v>
       </c>
       <c r="P123" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q123" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R123" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S123" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T123" t="n">
         <v>1.88</v>
@@ -17053,7 +17053,7 @@
         <v>1.53</v>
       </c>
       <c r="W123" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="X123" t="n">
         <v>12</v>
@@ -17062,10 +17062,10 @@
         <v>10.5</v>
       </c>
       <c r="Z123" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA123" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AB123" t="n">
         <v>10.5</v>
@@ -17077,7 +17077,7 @@
         <v>13</v>
       </c>
       <c r="AE123" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AF123" t="n">
         <v>17</v>
@@ -17086,13 +17086,13 @@
         <v>12.5</v>
       </c>
       <c r="AH123" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI123" t="n">
         <v>48</v>
       </c>
       <c r="AJ123" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AK123" t="n">
         <v>32</v>
@@ -17101,13 +17101,13 @@
         <v>48</v>
       </c>
       <c r="AM123" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN123" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO123" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="124">
@@ -17272,7 +17272,7 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="G125" t="n">
         <v>1.68</v>
@@ -17281,13 +17281,13 @@
         <v>6.8</v>
       </c>
       <c r="I125" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="J125" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K125" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L125" t="n">
         <v>0</v>
@@ -17419,7 +17419,7 @@
         <v>3.3</v>
       </c>
       <c r="J126" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K126" t="n">
         <v>3.3</v>
@@ -17437,7 +17437,7 @@
         <v>1.42</v>
       </c>
       <c r="P126" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q126" t="n">
         <v>2.22</v>
@@ -17452,7 +17452,7 @@
         <v>1.88</v>
       </c>
       <c r="U126" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V126" t="n">
         <v>1.43</v>
@@ -17500,10 +17500,10 @@
         <v>48</v>
       </c>
       <c r="AK126" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL126" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM126" t="n">
         <v>150</v>
@@ -17710,7 +17710,7 @@
         <v>1.77</v>
       </c>
       <c r="Q128" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="R128" t="n">
         <v>0</v>
@@ -17950,7 +17950,7 @@
         <v>2.28</v>
       </c>
       <c r="G130" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H130" t="n">
         <v>3.35</v>
@@ -17977,7 +17977,7 @@
         <v>1.3</v>
       </c>
       <c r="P130" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q130" t="n">
         <v>1.89</v>
@@ -17989,7 +17989,7 @@
         <v>3.25</v>
       </c>
       <c r="T130" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U130" t="n">
         <v>2.24</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO7"/>
+  <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>San Juan FC</t>
+          <t>CD Motagua</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Jorge Wilstermann</t>
+          <t>CD Olimpia</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.04</v>
+        <v>2.98</v>
       </c>
       <c r="G2" t="n">
-        <v>2.28</v>
+        <v>3.45</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>2.32</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>2.6</v>
       </c>
       <c r="J2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N2" t="n">
         <v>3.9</v>
       </c>
-      <c r="K2" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.02</v>
-      </c>
       <c r="O2" t="n">
-        <v>1.05</v>
+        <v>1.31</v>
       </c>
       <c r="P2" t="n">
-        <v>1.07</v>
+        <v>2.02</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="R2" t="n">
-        <v>1.07</v>
+        <v>1.37</v>
       </c>
       <c r="S2" t="n">
-        <v>1.01</v>
+        <v>3.3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="U2" t="n">
-        <v>1.04</v>
+        <v>2.16</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="X2" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="Y2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>60</v>
       </c>
-      <c r="Z2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>70</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH2" t="n">
+      <c r="AK2" t="n">
         <v>55</v>
       </c>
-      <c r="AI2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>65</v>
-      </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN2" t="n">
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Australian A-League Men</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,665 +788,125 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>23:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Club Football Estrela</t>
+          <t>Wellington Phoenix</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Central Coast Mariners</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>19</v>
+        <v>2.26</v>
       </c>
       <c r="G3" t="n">
-        <v>26</v>
+        <v>2.3</v>
       </c>
       <c r="H3" t="n">
-        <v>19</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="X3" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>29</v>
       </c>
-      <c r="J3" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="O3" t="n">
-        <v>100</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>170</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="S3" t="n">
-        <v>510</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1000</v>
-      </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Ecuadorian Serie A</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-12-20</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>18:30:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Aucas</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Macara</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L4" t="n">
-        <v>11</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="S4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="X4" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>85</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>470</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>470</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>95</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>270</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>55</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Ecuadorian Serie A</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-12-20</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>18:30:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Deportivo Cuenca</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Emelec</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>980</v>
-      </c>
-      <c r="J5" t="n">
-        <v>30</v>
-      </c>
-      <c r="K5" t="n">
-        <v>36</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W5" t="n">
-        <v>19</v>
-      </c>
-      <c r="X5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>990</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>990</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-12-20</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>CD Motagua</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>CD Olimpia</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="G6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="X6" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Australian A-League Men</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2025-12-20</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>23:00:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Wellington Phoenix</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Central Coast Mariners</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N7" t="n">
-        <v>4</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="X7" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AO7" t="n">
         <v>34</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-20.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.98</v>
+        <v>6.4</v>
       </c>
       <c r="G2" t="n">
-        <v>3.45</v>
+        <v>980</v>
       </c>
       <c r="H2" t="n">
-        <v>2.32</v>
+        <v>4.7</v>
       </c>
       <c r="I2" t="n">
-        <v>2.6</v>
+        <v>290</v>
       </c>
       <c r="J2" t="n">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="K2" t="n">
-        <v>3.8</v>
+        <v>1.56</v>
       </c>
       <c r="L2" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.02</v>
+        <v>1.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.92</v>
+        <v>2.66</v>
       </c>
       <c r="R2" t="n">
-        <v>1.37</v>
+        <v>1.05</v>
       </c>
       <c r="S2" t="n">
-        <v>3.3</v>
+        <v>14</v>
       </c>
       <c r="T2" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>20</v>
+        <v>990</v>
       </c>
       <c r="AI2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.26</v>
+        <v>1.38</v>
       </c>
       <c r="G3" t="n">
-        <v>2.3</v>
+        <v>2.78</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="I3" t="n">
-        <v>3.5</v>
+        <v>10.5</v>
       </c>
       <c r="J3" t="n">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>4.1</v>
+        <v>2.86</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="P3" t="n">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.89</v>
+        <v>1.59</v>
       </c>
       <c r="R3" t="n">
-        <v>1.41</v>
+        <v>1.2</v>
       </c>
       <c r="S3" t="n">
-        <v>3.25</v>
+        <v>1.73</v>
       </c>
       <c r="T3" t="n">
-        <v>1.73</v>
+        <v>2.56</v>
       </c>
       <c r="U3" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="V3" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W3" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="X3" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
